--- a/templates/01-sanger-master-v3.xlsx
+++ b/templates/01-sanger-master-v3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angeloas/code/opentrons/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelangelov/code/opentrons/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3FBE91-6346-9A41-91F1-9AFA273D4397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CB553D-31F9-9446-994E-0E09207F4E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17820" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="6" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="192">
   <si>
     <t>source_well</t>
   </si>
@@ -626,13 +626,25 @@
   </si>
   <si>
     <t>Sample Name</t>
+  </si>
+  <si>
+    <t>BigDye Mix</t>
+  </si>
+  <si>
+    <t>fixed in Sanger-setup-BCL.py</t>
+  </si>
+  <si>
+    <t>Reactions</t>
+  </si>
+  <si>
+    <t>BigDye vol</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -685,16 +697,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -772,7 +776,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -780,82 +784,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -918,8 +864,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B765F6F9-2A80-994A-BA83-3F7BE3142C66}" name="Table2" displayName="Table2" ref="F1:F36" totalsRowShown="0">
-  <autoFilter ref="F1:F36" xr:uid="{B765F6F9-2A80-994A-BA83-3F7BE3142C66}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B765F6F9-2A80-994A-BA83-3F7BE3142C66}" name="Table2" displayName="Table2" ref="F1:F37" totalsRowShown="0">
+  <autoFilter ref="F1:F37" xr:uid="{B765F6F9-2A80-994A-BA83-3F7BE3142C66}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{4E109720-AAE9-794E-831F-F20F604914CE}" name="other_primers"/>
   </tableColumns>
@@ -938,10 +884,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4E4A5EE2-1080-B34A-BB40-8F3F3FEA7305}" name="Table4" displayName="Table4" ref="A1:B25" totalsRowShown="0">
-  <autoFilter ref="A1:B25" xr:uid="{4E4A5EE2-1080-B34A-BB40-8F3F3FEA7305}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4E4A5EE2-1080-B34A-BB40-8F3F3FEA7305}" name="Table4" displayName="Table4" ref="A1:B24" totalsRowShown="0">
+  <autoFilter ref="A1:B24" xr:uid="{4E4A5EE2-1080-B34A-BB40-8F3F3FEA7305}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{CDB38DFA-789C-8F4B-840F-972D89DD6C8F}" name="pos" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{CDB38DFA-789C-8F4B-840F-972D89DD6C8F}" name="pos" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{13A22DA2-122E-D84B-A12E-BE492FE435E8}" name="primer"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1258,3734 +1204,3743 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:AD97"/>
+  <dimension ref="A1:AF97"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="4.33203125" style="14" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" customWidth="1"/>
-    <col min="12" max="12" width="7.1640625" customWidth="1"/>
-    <col min="13" max="13" width="10.1640625" customWidth="1"/>
-    <col min="14" max="15" width="11.5" customWidth="1"/>
-    <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="5.6640625" style="7" customWidth="1"/>
-    <col min="18" max="18" width="5.5" customWidth="1"/>
-    <col min="19" max="19" width="14.6640625" customWidth="1"/>
-    <col min="20" max="30" width="12.83203125" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="16" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" style="16"/>
+    <col min="4" max="4" width="13.6640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="15" style="16" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="4.33203125" style="17" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="16" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="16"/>
+    <col min="12" max="12" width="7.1640625" style="16" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" style="16" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" style="16" customWidth="1"/>
+    <col min="15" max="15" width="3.6640625" style="16" customWidth="1"/>
+    <col min="16" max="17" width="11.5" style="16" customWidth="1"/>
+    <col min="18" max="18" width="13" style="16" customWidth="1"/>
+    <col min="19" max="19" width="5.6640625" style="18" customWidth="1"/>
+    <col min="20" max="20" width="5.5" style="16" customWidth="1"/>
+    <col min="21" max="21" width="14.6640625" style="16" customWidth="1"/>
+    <col min="22" max="32" width="12.83203125" style="16" customWidth="1"/>
+    <col min="33" max="16384" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="15"/>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="C1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="12" t="s">
         <v>184</v>
       </c>
       <c r="L1" s="15"/>
       <c r="M1" s="15"/>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="Q1" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="R1" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17" t="s">
+      <c r="S1" s="12"/>
+      <c r="T1" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="U1" s="12" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B2" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="H2" s="9" t="str">
+      <c r="H2" s="7" t="str">
         <f>IF(F2="","", INDEX(Table4[],MATCH(F2,Table4[primer],0),1))</f>
         <v>A01</v>
       </c>
-      <c r="I2" s="9" cm="1">
+      <c r="I2" s="7" cm="1">
         <f t="array" ref="I2">_xlfn.IFS(F2="",0,F2="water",11.5, TRUE, 5)</f>
         <v>5</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="7">
         <f>IF(OR(C2 = "",B2=""),0,15-I2)</f>
         <v>10</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="N2">
-        <f t="shared" ref="N2:N33" si="0">COUNTIFS($C$2:$C$97,C2,$B$2:$B$97,B2)</f>
+      <c r="P2" s="16">
+        <f t="shared" ref="P2:P33" si="0">COUNTIFS($C$2:$C$97,C2,$B$2:$B$97,B2)</f>
         <v>1</v>
       </c>
-      <c r="O2">
+      <c r="Q2" s="16">
         <f>COUNTIFS($E$2:$E$97, E2, $F$2:$F$97, F2)</f>
         <v>0</v>
       </c>
-      <c r="P2">
-        <f t="shared" ref="P2:P66" si="1">I2+K2</f>
+      <c r="R2" s="16">
+        <f t="shared" ref="R2:R66" si="1">I2+K2</f>
         <v>15</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="S2" t="str">
+      <c r="U2" s="16" t="str">
         <f>TEXT(D2,"")</f>
         <v>Ctf full 2</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B3" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="H3" s="9" t="str">
+      <c r="H3" s="7" t="str">
         <f>IF(F3="","", INDEX(Table4[],MATCH(F3,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I3" s="9" cm="1">
+      <c r="I3" s="7" cm="1">
         <f t="array" ref="I3">_xlfn.IFS(F3="",0,F3="water",11.5, TRUE, 5)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="7">
         <f t="shared" ref="K3:K66" si="2">IF(OR(C3 = "",B3=""),0,15-I3)</f>
         <v>15</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="N3">
+      <c r="P3" s="16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O3">
-        <f t="shared" ref="O3:O33" si="3">COUNTIFS($E$2:$E$97, E3, $F$2:$F$97, F3)</f>
-        <v>0</v>
-      </c>
-      <c r="P3">
+      <c r="Q3" s="16">
+        <f t="shared" ref="Q3:Q33" si="3">COUNTIFS($E$2:$E$97, E3, $F$2:$F$97, F3)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="16">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="S3" t="str">
-        <f t="shared" ref="S3:S66" si="4">TEXT(D3,"")</f>
+      <c r="U3" s="16" t="str">
+        <f t="shared" ref="U3:U66" si="4">TEXT(D3,"")</f>
         <v>Ctf full 2</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B4" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="H4" s="9" t="str">
+      <c r="H4" s="7" t="str">
         <f>IF(F4="","", INDEX(Table4[],MATCH(F4,Table4[primer],0),1))</f>
         <v>A01</v>
       </c>
-      <c r="I4" s="9" cm="1">
+      <c r="I4" s="7" cm="1">
         <f t="array" ref="I4">_xlfn.IFS(F4="",0,F4="water",11.5, TRUE, 5)</f>
         <v>5</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="7">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="N4">
+      <c r="P4" s="16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O4">
+      <c r="Q4" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P4">
+      <c r="R4" s="16">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="S4" t="str">
+      <c r="U4" s="16" t="str">
         <f t="shared" si="4"/>
         <v>Ctf full 2</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B5" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="H5" s="9" t="str">
+      <c r="H5" s="7" t="str">
         <f>IF(F5="","", INDEX(Table4[],MATCH(F5,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I5" s="9" cm="1">
+      <c r="I5" s="7" cm="1">
         <f t="array" ref="I5">_xlfn.IFS(F5="",0,F5="water",11.5, TRUE, 5)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="7">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="N5">
+      <c r="P5" s="16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O5">
+      <c r="Q5" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P5">
+      <c r="R5" s="16">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="S5" t="str">
+      <c r="U5" s="16" t="str">
         <f t="shared" si="4"/>
         <v>Ctf full 2</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B6" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="H6" s="9" t="str">
+      <c r="H6" s="7" t="str">
         <f>IF(F6="","", INDEX(Table4[],MATCH(F6,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I6" s="9" cm="1">
+      <c r="I6" s="7" cm="1">
         <f t="array" ref="I6">_xlfn.IFS(F6="",0,F6="water",11.5, TRUE, 5)</f>
         <v>0</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="7">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="N6">
+      <c r="P6" s="16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O6">
+      <c r="Q6" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P6">
+      <c r="R6" s="16">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="R6" t="s">
+      <c r="T6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="S6" t="str">
+      <c r="U6" s="16" t="str">
         <f t="shared" si="4"/>
         <v>Ctf full 2</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B7" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="H7" s="9" t="str">
+      <c r="H7" s="7" t="str">
         <f>IF(F7="","", INDEX(Table4[],MATCH(F7,Table4[primer],0),1))</f>
         <v>C02</v>
       </c>
-      <c r="I7" s="9" cm="1">
+      <c r="I7" s="7" cm="1">
         <f t="array" ref="I7">_xlfn.IFS(F7="",0,F7="water",11.5, TRUE, 5)</f>
         <v>5</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="7">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="N7">
+      <c r="M7" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="N7" s="16">
+        <f>COUNTIF(K2:K97,"&gt;0")</f>
+        <v>8</v>
+      </c>
+      <c r="P7" s="16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O7">
+      <c r="Q7" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P7">
+      <c r="R7" s="16">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="S7" t="str">
+      <c r="U7" s="16" t="str">
         <f t="shared" si="4"/>
         <v>Ctf full 2</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B8" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="H8" s="9" t="str">
+      <c r="H8" s="7" t="str">
         <f>IF(F8="","", INDEX(Table4[],MATCH(F8,Table4[primer],0),1))</f>
         <v>D05</v>
       </c>
-      <c r="I8" s="9" cm="1">
+      <c r="I8" s="7" cm="1">
         <f t="array" ref="I8">_xlfn.IFS(F8="",0,F8="water",11.5, TRUE, 5)</f>
         <v>11.5</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="7">
         <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
-      <c r="N8">
+      <c r="M8" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="N8" s="16">
+        <f>N7*5.5</f>
+        <v>44</v>
+      </c>
+      <c r="P8" s="16">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="16">
         <f>COUNTIFS($E$2:$E$97, E8, $F$2:$F$97, F8)</f>
         <v>0</v>
       </c>
-      <c r="P8">
+      <c r="R8" s="16">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="R8" t="s">
+      <c r="T8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="S8" t="str">
+      <c r="U8" s="16" t="str">
         <f t="shared" si="4"/>
         <v>Positive control</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B9" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="H9" s="9" t="str">
+      <c r="H9" s="7" t="str">
         <f>IF(F9="","", INDEX(Table4[],MATCH(F9,Table4[primer],0),1))</f>
         <v>D05</v>
       </c>
-      <c r="I9" s="9" cm="1">
+      <c r="I9" s="7" cm="1">
         <f t="array" ref="I9">_xlfn.IFS(F9="",0,F9="water",11.5, TRUE, 5)</f>
         <v>11.5</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="7">
         <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
-      <c r="N9">
+      <c r="P9" s="16">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P9">
+      <c r="R9" s="16">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="R9" t="s">
+      <c r="T9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="S9" t="str">
+      <c r="U9" s="16" t="str">
         <f t="shared" si="4"/>
         <v>Positive control</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="H10" s="7" t="str">
+        <f>IF(F10="","", INDEX(Table4[],MATCH(F10,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I10" s="7" cm="1">
+        <f t="array" ref="I10">_xlfn.IFS(F10="",0,F10="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="U10" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="H11" s="7" t="str">
+        <f>IF(F11="","", INDEX(Table4[],MATCH(F11,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I11" s="7" cm="1">
+        <f t="array" ref="I11">_xlfn.IFS(F11="",0,F11="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="U11" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="H12" s="7" t="str">
+        <f>IF(F12="","", INDEX(Table4[],MATCH(F12,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I12" s="7" cm="1">
+        <f t="array" ref="I12">_xlfn.IFS(F12="",0,F12="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="U12" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="H13" s="7" t="str">
+        <f>IF(F13="","", INDEX(Table4[],MATCH(F13,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I13" s="7" cm="1">
+        <f t="array" ref="I13">_xlfn.IFS(F13="",0,F13="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="16">
+        <f>COUNTIFS($C$2:$C$97,C13,$B$2:$B$97,B13)</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="16">
+        <f>COUNTIFS($E$2:$E$97, E13, $F$2:$F$97, F13)</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="U13" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="18"/>
+      <c r="AB13" s="18"/>
+      <c r="AC13" s="18"/>
+      <c r="AD13" s="18"/>
+      <c r="AE13" s="18"/>
+      <c r="AF13" s="18"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="H14" s="7" t="str">
+        <f>IF(F14="","", INDEX(Table4[],MATCH(F14,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I14" s="7" cm="1">
+        <f t="array" ref="I14">_xlfn.IFS(F14="",0,F14="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="U14" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="18"/>
+      <c r="AD14" s="18"/>
+      <c r="AE14" s="18"/>
+      <c r="AF14" s="18"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="H15" s="7" t="str">
+        <f>IF(F15="","", INDEX(Table4[],MATCH(F15,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I15" s="7" cm="1">
+        <f t="array" ref="I15">_xlfn.IFS(F15="",0,F15="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="U15" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="18"/>
+      <c r="AC15" s="18"/>
+      <c r="AD15" s="18"/>
+      <c r="AE15" s="18"/>
+      <c r="AF15" s="18"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="H16" s="7" t="str">
+        <f>IF(F16="","", INDEX(Table4[],MATCH(F16,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I16" s="7" cm="1">
+        <f t="array" ref="I16">_xlfn.IFS(F16="",0,F16="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="U16" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="18"/>
+      <c r="AA16" s="18"/>
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="18"/>
+      <c r="AD16" s="18"/>
+      <c r="AE16" s="18"/>
+      <c r="AF16" s="18"/>
+    </row>
+    <row r="17" spans="8:32" x14ac:dyDescent="0.2">
+      <c r="H17" s="7" t="str">
+        <f>IF(F17="","", INDEX(Table4[],MATCH(F17,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I17" s="7" cm="1">
+        <f t="array" ref="I17">_xlfn.IFS(F17="",0,F17="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="U17" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="18"/>
+      <c r="Z17" s="18"/>
+      <c r="AA17" s="18"/>
+      <c r="AB17" s="18"/>
+      <c r="AC17" s="18"/>
+      <c r="AD17" s="18"/>
+      <c r="AE17" s="18"/>
+      <c r="AF17" s="18"/>
+    </row>
+    <row r="18" spans="8:32" x14ac:dyDescent="0.2">
+      <c r="H18" s="7" t="str">
+        <f>IF(F18="","", INDEX(Table4[],MATCH(F18,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I18" s="7" cm="1">
+        <f t="array" ref="I18">_xlfn.IFS(F18="",0,F18="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="U18" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="18"/>
+      <c r="AA18" s="18"/>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="18"/>
+      <c r="AE18" s="18"/>
+      <c r="AF18" s="18"/>
+    </row>
+    <row r="19" spans="8:32" x14ac:dyDescent="0.2">
+      <c r="H19" s="7" t="str">
+        <f>IF(F19="","", INDEX(Table4[],MATCH(F19,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I19" s="7" cm="1">
+        <f t="array" ref="I19">_xlfn.IFS(F19="",0,F19="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="U19" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="8:32" x14ac:dyDescent="0.2">
+      <c r="H20" s="7" t="str">
+        <f>IF(F20="","", INDEX(Table4[],MATCH(F20,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I20" s="7" cm="1">
+        <f t="array" ref="I20">_xlfn.IFS(F20="",0,F20="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="U20" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="8:32" x14ac:dyDescent="0.2">
+      <c r="H21" s="7" t="str">
+        <f>IF(F21="","", INDEX(Table4[],MATCH(F21,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I21" s="7" cm="1">
+        <f t="array" ref="I21">_xlfn.IFS(F21="",0,F21="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="U21" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="8:32" x14ac:dyDescent="0.2">
+      <c r="H22" s="7" t="str">
+        <f>IF(F22="","", INDEX(Table4[],MATCH(F22,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I22" s="7" cm="1">
+        <f t="array" ref="I22">_xlfn.IFS(F22="",0,F22="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="U22" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="8:32" x14ac:dyDescent="0.2">
+      <c r="H23" s="7" t="str">
+        <f>IF(F23="","", INDEX(Table4[],MATCH(F23,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I23" s="7" cm="1">
+        <f t="array" ref="I23">_xlfn.IFS(F23="",0,F23="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="U23" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="8:32" x14ac:dyDescent="0.2">
+      <c r="H24" s="7" t="str">
+        <f>IF(F24="","", INDEX(Table4[],MATCH(F24,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I24" s="7" cm="1">
+        <f t="array" ref="I24">_xlfn.IFS(F24="",0,F24="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="U24" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="8:32" x14ac:dyDescent="0.2">
+      <c r="H25" s="7" t="str">
+        <f>IF(F25="","", INDEX(Table4[],MATCH(F25,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I25" s="7" cm="1">
+        <f t="array" ref="I25">_xlfn.IFS(F25="",0,F25="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="U25" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="8:32" x14ac:dyDescent="0.2">
+      <c r="H26" s="7" t="str">
+        <f>IF(F26="","", INDEX(Table4[],MATCH(F26,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I26" s="7" cm="1">
+        <f t="array" ref="I26">_xlfn.IFS(F26="",0,F26="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="U26" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="8:32" x14ac:dyDescent="0.2">
+      <c r="H27" s="7" t="str">
+        <f>IF(F27="","", INDEX(Table4[],MATCH(F27,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I27" s="7" cm="1">
+        <f t="array" ref="I27">_xlfn.IFS(F27="",0,F27="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="U27" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="8:32" x14ac:dyDescent="0.2">
+      <c r="H28" s="7" t="str">
+        <f>IF(F28="","", INDEX(Table4[],MATCH(F28,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I28" s="7" cm="1">
+        <f t="array" ref="I28">_xlfn.IFS(F28="",0,F28="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K28" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T28" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="U28" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="8:32" x14ac:dyDescent="0.2">
+      <c r="H29" s="7" t="str">
+        <f>IF(F29="","", INDEX(Table4[],MATCH(F29,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I29" s="7" cm="1">
+        <f t="array" ref="I29">_xlfn.IFS(F29="",0,F29="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K29" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T29" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="U29" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="8:32" x14ac:dyDescent="0.2">
+      <c r="H30" s="7" t="str">
+        <f>IF(F30="","", INDEX(Table4[],MATCH(F30,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I30" s="7" cm="1">
+        <f t="array" ref="I30">_xlfn.IFS(F30="",0,F30="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T30" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="U30" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="8:32" x14ac:dyDescent="0.2">
+      <c r="H31" s="7" t="str">
+        <f>IF(F31="","", INDEX(Table4[],MATCH(F31,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I31" s="7" cm="1">
+        <f t="array" ref="I31">_xlfn.IFS(F31="",0,F31="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K31" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T31" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="U31" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="8:32" x14ac:dyDescent="0.2">
+      <c r="H32" s="7" t="str">
+        <f>IF(F32="","", INDEX(Table4[],MATCH(F32,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I32" s="7" cm="1">
+        <f t="array" ref="I32">_xlfn.IFS(F32="",0,F32="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K32" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T32" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="U32" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H33" s="7" t="str">
+        <f>IF(F33="","", INDEX(Table4[],MATCH(F33,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I33" s="7" cm="1">
+        <f t="array" ref="I33">_xlfn.IFS(F33="",0,F33="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K33" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T33" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="U33" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H34" s="7" t="str">
+        <f>IF(F34="","", INDEX(Table4[],MATCH(F34,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I34" s="7" cm="1">
+        <f t="array" ref="I34">_xlfn.IFS(F34="",0,F34="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K34" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="16">
+        <f t="shared" ref="P34:P65" si="5">COUNTIFS($C$2:$C$97,C34,$B$2:$B$97,B34)</f>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="16">
+        <f t="shared" ref="Q34:Q66" si="6">COUNTIFS($E$2:$E$97, E34, $F$2:$F$97, F34)</f>
+        <v>0</v>
+      </c>
+      <c r="R34" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T34" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="U34" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H35" s="7" t="str">
+        <f>IF(F35="","", INDEX(Table4[],MATCH(F35,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I35" s="7" cm="1">
+        <f t="array" ref="I35">_xlfn.IFS(F35="",0,F35="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K35" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="U35" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H36" s="7" t="str">
+        <f>IF(F36="","", INDEX(Table4[],MATCH(F36,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I36" s="7" cm="1">
+        <f t="array" ref="I36">_xlfn.IFS(F36="",0,F36="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K36" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="U36" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H37" s="7" t="str">
+        <f>IF(F37="","", INDEX(Table4[],MATCH(F37,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I37" s="7" cm="1">
+        <f t="array" ref="I37">_xlfn.IFS(F37="",0,F37="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K37" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T37" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="U37" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H38" s="7" t="str">
+        <f>IF(F38="","", INDEX(Table4[],MATCH(F38,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I38" s="7" cm="1">
+        <f t="array" ref="I38">_xlfn.IFS(F38="",0,F38="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K38" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T38" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="U38" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H39" s="7" t="str">
+        <f>IF(F39="","", INDEX(Table4[],MATCH(F39,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I39" s="7" cm="1">
+        <f t="array" ref="I39">_xlfn.IFS(F39="",0,F39="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K39" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T39" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="U39" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H40" s="7" t="str">
+        <f>IF(F40="","", INDEX(Table4[],MATCH(F40,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I40" s="7" cm="1">
+        <f t="array" ref="I40">_xlfn.IFS(F40="",0,F40="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K40" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T40" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="U40" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H41" s="7" t="str">
+        <f>IF(F41="","", INDEX(Table4[],MATCH(F41,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I41" s="7" cm="1">
+        <f t="array" ref="I41">_xlfn.IFS(F41="",0,F41="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K41" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T41" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="U41" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H42" s="7" t="str">
+        <f>IF(F42="","", INDEX(Table4[],MATCH(F42,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I42" s="7" cm="1">
+        <f t="array" ref="I42">_xlfn.IFS(F42="",0,F42="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K42" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P42" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T42" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="U42" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H43" s="7" t="str">
+        <f>IF(F43="","", INDEX(Table4[],MATCH(F43,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I43" s="7" cm="1">
+        <f t="array" ref="I43">_xlfn.IFS(F43="",0,F43="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K43" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T43" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="U43" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H44" s="7" t="str">
+        <f>IF(F44="","", INDEX(Table4[],MATCH(F44,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I44" s="7" cm="1">
+        <f t="array" ref="I44">_xlfn.IFS(F44="",0,F44="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K44" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T44" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="U44" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H45" s="7" t="str">
+        <f>IF(F45="","", INDEX(Table4[],MATCH(F45,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I45" s="7" cm="1">
+        <f t="array" ref="I45">_xlfn.IFS(F45="",0,F45="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K45" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P45" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R45" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T45" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="U45" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H46" s="7" t="str">
+        <f>IF(F46="","", INDEX(Table4[],MATCH(F46,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I46" s="7" cm="1">
+        <f t="array" ref="I46">_xlfn.IFS(F46="",0,F46="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K46" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P46" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R46" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T46" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="U46" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H47" s="7" t="str">
+        <f>IF(F47="","", INDEX(Table4[],MATCH(F47,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I47" s="7" cm="1">
+        <f t="array" ref="I47">_xlfn.IFS(F47="",0,F47="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J47" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K47" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P47" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T47" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="U47" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H48" s="7" t="str">
+        <f>IF(F48="","", INDEX(Table4[],MATCH(F48,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I48" s="7" cm="1">
+        <f t="array" ref="I48">_xlfn.IFS(F48="",0,F48="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K48" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P48" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R48" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T48" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="U48" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H49" s="7" t="str">
+        <f>IF(F49="","", INDEX(Table4[],MATCH(F49,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I49" s="7" cm="1">
+        <f t="array" ref="I49">_xlfn.IFS(F49="",0,F49="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K49" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P49" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R49" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T49" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="U49" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H50" s="7" t="str">
+        <f>IF(F50="","", INDEX(Table4[],MATCH(F50,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I50" s="7" cm="1">
+        <f t="array" ref="I50">_xlfn.IFS(F50="",0,F50="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K50" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P50" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R50" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T50" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="U50" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H51" s="7" t="str">
+        <f>IF(F51="","", INDEX(Table4[],MATCH(F51,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I51" s="7" cm="1">
+        <f t="array" ref="I51">_xlfn.IFS(F51="",0,F51="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K51" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P51" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R51" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T51" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="U51" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H52" s="7" t="str">
+        <f>IF(F52="","", INDEX(Table4[],MATCH(F52,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I52" s="7" cm="1">
+        <f t="array" ref="I52">_xlfn.IFS(F52="",0,F52="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="K52" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P52" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R52" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T52" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="U52" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H53" s="7" t="str">
+        <f>IF(F53="","", INDEX(Table4[],MATCH(F53,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I53" s="7" cm="1">
+        <f t="array" ref="I53">_xlfn.IFS(F53="",0,F53="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K53" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P53" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R53" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T53" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="U53" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H54" s="7" t="str">
+        <f>IF(F54="","", INDEX(Table4[],MATCH(F54,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I54" s="7" cm="1">
+        <f t="array" ref="I54">_xlfn.IFS(F54="",0,F54="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K54" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P54" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R54" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T54" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="U54" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H55" s="7" t="str">
+        <f>IF(F55="","", INDEX(Table4[],MATCH(F55,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I55" s="7" cm="1">
+        <f t="array" ref="I55">_xlfn.IFS(F55="",0,F55="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K55" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P55" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R55" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T55" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="U55" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H56" s="7" t="str">
+        <f>IF(F56="","", INDEX(Table4[],MATCH(F56,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I56" s="7" cm="1">
+        <f t="array" ref="I56">_xlfn.IFS(F56="",0,F56="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K56" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P56" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R56" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T56" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="U56" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H57" s="7" t="str">
+        <f>IF(F57="","", INDEX(Table4[],MATCH(F57,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I57" s="7" cm="1">
+        <f t="array" ref="I57">_xlfn.IFS(F57="",0,F57="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K57" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P57" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R57" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T57" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="U57" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H58" s="7" t="str">
+        <f>IF(F58="","", INDEX(Table4[],MATCH(F58,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I58" s="7" cm="1">
+        <f t="array" ref="I58">_xlfn.IFS(F58="",0,F58="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J58" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K58" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P58" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R58" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T58" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U58" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H59" s="7" t="str">
+        <f>IF(F59="","", INDEX(Table4[],MATCH(F59,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I59" s="7" cm="1">
+        <f t="array" ref="I59">_xlfn.IFS(F59="",0,F59="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J59" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K59" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P59" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q59" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R59" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T59" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="U59" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H60" s="7" t="str">
+        <f>IF(F60="","", INDEX(Table4[],MATCH(F60,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I60" s="7" cm="1">
+        <f t="array" ref="I60">_xlfn.IFS(F60="",0,F60="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J60" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K60" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P60" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q60" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R60" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T60" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U60" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H61" s="7" t="str">
+        <f>IF(F61="","", INDEX(Table4[],MATCH(F61,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I61" s="7" cm="1">
+        <f t="array" ref="I61">_xlfn.IFS(F61="",0,F61="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J61" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K61" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P61" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q61" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R61" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T61" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="U61" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H62" s="7" t="str">
+        <f>IF(F62="","", INDEX(Table4[],MATCH(F62,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I62" s="7" cm="1">
+        <f t="array" ref="I62">_xlfn.IFS(F62="",0,F62="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J62" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K62" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P62" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q62" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R62" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T62" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="U62" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H63" s="7" t="str">
+        <f>IF(F63="","", INDEX(Table4[],MATCH(F63,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I63" s="7" cm="1">
+        <f t="array" ref="I63">_xlfn.IFS(F63="",0,F63="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J63" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="K63" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P63" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q63" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R63" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T63" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="U63" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H64" s="7" t="str">
+        <f>IF(F64="","", INDEX(Table4[],MATCH(F64,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I64" s="7" cm="1">
+        <f t="array" ref="I64">_xlfn.IFS(F64="",0,F64="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J64" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="K64" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P64" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q64" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R64" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T64" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="U64" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H65" s="7" t="str">
+        <f>IF(F65="","", INDEX(Table4[],MATCH(F65,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I65" s="7" cm="1">
+        <f t="array" ref="I65">_xlfn.IFS(F65="",0,F65="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J65" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="K65" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P65" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q65" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R65" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T65" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="U65" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H66" s="7" t="str">
+        <f>IF(F66="","", INDEX(Table4[],MATCH(F66,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I66" s="7" cm="1">
+        <f t="array" ref="I66">_xlfn.IFS(F66="",0,F66="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K66" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P66" s="16">
+        <f t="shared" ref="P66:P97" si="7">COUNTIFS($C$2:$C$97,C66,$B$2:$B$97,B66)</f>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R66" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T66" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="U66" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H67" s="7" t="str">
+        <f>IF(F67="","", INDEX(Table4[],MATCH(F67,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I67" s="7" cm="1">
+        <f t="array" ref="I67">_xlfn.IFS(F67="",0,F67="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K67" s="7">
+        <f t="shared" ref="K67:K97" si="8">IF(OR(C67 = "",B67=""),0,15-I67)</f>
+        <v>0</v>
+      </c>
+      <c r="P67" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q67" s="16">
+        <f t="shared" ref="Q67:Q97" si="9">COUNTIFS($E$2:$E$97, E67, $F$2:$F$97, F67)</f>
+        <v>0</v>
+      </c>
+      <c r="R67" s="16">
+        <f t="shared" ref="R67:R97" si="10">I67+K67</f>
+        <v>0</v>
+      </c>
+      <c r="T67" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="U67" s="16" t="str">
+        <f t="shared" ref="U67:U97" si="11">TEXT(D67,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H68" s="7" t="str">
+        <f>IF(F68="","", INDEX(Table4[],MATCH(F68,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I68" s="7" cm="1">
+        <f t="array" ref="I68">_xlfn.IFS(F68="",0,F68="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J68" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="K68" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P68" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q68" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R68" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T68" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="U68" s="16" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H69" s="7" t="str">
+        <f>IF(F69="","", INDEX(Table4[],MATCH(F69,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I69" s="7" cm="1">
+        <f t="array" ref="I69">_xlfn.IFS(F69="",0,F69="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="K69" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P69" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q69" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R69" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T69" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="U69" s="16" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H70" s="7" t="str">
+        <f>IF(F70="","", INDEX(Table4[],MATCH(F70,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I70" s="7" cm="1">
+        <f t="array" ref="I70">_xlfn.IFS(F70="",0,F70="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="K70" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P70" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q70" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R70" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T70" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="U70" s="16" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H71" s="7" t="str">
+        <f>IF(F71="","", INDEX(Table4[],MATCH(F71,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I71" s="7" cm="1">
+        <f t="array" ref="I71">_xlfn.IFS(F71="",0,F71="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J71" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="K71" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P71" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q71" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R71" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T71" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="U71" s="16" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H72" s="7" t="str">
+        <f>IF(F72="","", INDEX(Table4[],MATCH(F72,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I72" s="7" cm="1">
+        <f t="array" ref="I72">_xlfn.IFS(F72="",0,F72="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J72" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K72" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P72" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q72" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R72" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T72" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="U72" s="16" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H73" s="7" t="str">
+        <f>IF(F73="","", INDEX(Table4[],MATCH(F73,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I73" s="7" cm="1">
+        <f t="array" ref="I73">_xlfn.IFS(F73="",0,F73="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K73" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P73" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q73" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R73" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T73" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="U73" s="16" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H74" s="7" t="str">
+        <f>IF(F74="","", INDEX(Table4[],MATCH(F74,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I74" s="7" cm="1">
+        <f t="array" ref="I74">_xlfn.IFS(F74="",0,F74="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J74" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K74" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P74" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q74" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R74" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T74" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="U74" s="16" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H75" s="7" t="str">
+        <f>IF(F75="","", INDEX(Table4[],MATCH(F75,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I75" s="7" cm="1">
+        <f t="array" ref="I75">_xlfn.IFS(F75="",0,F75="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J75" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="K75" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P75" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q75" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R75" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T75" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="U75" s="16" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H76" s="7" t="str">
+        <f>IF(F76="","", INDEX(Table4[],MATCH(F76,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I76" s="7" cm="1">
+        <f t="array" ref="I76">_xlfn.IFS(F76="",0,F76="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J76" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="K76" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P76" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q76" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R76" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T76" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="U76" s="16" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H77" s="7" t="str">
+        <f>IF(F77="","", INDEX(Table4[],MATCH(F77,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I77" s="7" cm="1">
+        <f t="array" ref="I77">_xlfn.IFS(F77="",0,F77="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J77" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="K77" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P77" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q77" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R77" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T77" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="U77" s="16" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H78" s="7" t="str">
+        <f>IF(F78="","", INDEX(Table4[],MATCH(F78,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I78" s="7" cm="1">
+        <f t="array" ref="I78">_xlfn.IFS(F78="",0,F78="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J78" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="K78" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P78" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q78" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R78" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T78" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="U78" s="16" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H79" s="7" t="str">
+        <f>IF(F79="","", INDEX(Table4[],MATCH(F79,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I79" s="7" cm="1">
+        <f t="array" ref="I79">_xlfn.IFS(F79="",0,F79="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J79" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K79" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P79" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q79" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R79" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T79" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="U79" s="16" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H80" s="7" t="str">
+        <f>IF(F80="","", INDEX(Table4[],MATCH(F80,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I80" s="7" cm="1">
+        <f t="array" ref="I80">_xlfn.IFS(F80="",0,F80="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J80" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="K80" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P80" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q80" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R80" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T80" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="U80" s="16" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H81" s="7" t="str">
+        <f>IF(F81="","", INDEX(Table4[],MATCH(F81,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I81" s="7" cm="1">
+        <f t="array" ref="I81">_xlfn.IFS(F81="",0,F81="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J81" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K81" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P81" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q81" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R81" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T81" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="U81" s="16" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H82" s="7" t="str">
+        <f>IF(F82="","", INDEX(Table4[],MATCH(F82,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I82" s="7" cm="1">
+        <f t="array" ref="I82">_xlfn.IFS(F82="",0,F82="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J82" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K82" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P82" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q82" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R82" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T82" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="U82" s="16" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H83" s="7" t="str">
+        <f>IF(F83="","", INDEX(Table4[],MATCH(F83,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I83" s="7" cm="1">
+        <f t="array" ref="I83">_xlfn.IFS(F83="",0,F83="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J83" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="K83" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P83" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q83" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R83" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T83" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="U83" s="16" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H84" s="7" t="str">
+        <f>IF(F84="","", INDEX(Table4[],MATCH(F84,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I84" s="7" cm="1">
+        <f t="array" ref="I84">_xlfn.IFS(F84="",0,F84="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J84" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="K84" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P84" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q84" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R84" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T84" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="U84" s="16" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H85" s="7" t="str">
+        <f>IF(F85="","", INDEX(Table4[],MATCH(F85,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I85" s="7" cm="1">
+        <f t="array" ref="I85">_xlfn.IFS(F85="",0,F85="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J85" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="K85" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P85" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q85" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R85" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T85" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="U85" s="16" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H86" s="7" t="str">
+        <f>IF(F86="","", INDEX(Table4[],MATCH(F86,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I86" s="7" cm="1">
+        <f t="array" ref="I86">_xlfn.IFS(F86="",0,F86="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J86" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="K86" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P86" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q86" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R86" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T86" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="U86" s="16" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H87" s="7" t="str">
+        <f>IF(F87="","", INDEX(Table4[],MATCH(F87,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I87" s="7" cm="1">
+        <f t="array" ref="I87">_xlfn.IFS(F87="",0,F87="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J87" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="K87" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P87" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q87" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R87" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T87" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="U87" s="16" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H88" s="7" t="str">
+        <f>IF(F88="","", INDEX(Table4[],MATCH(F88,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I88" s="7" cm="1">
+        <f t="array" ref="I88">_xlfn.IFS(F88="",0,F88="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J88" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K88" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P88" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q88" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R88" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T88" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="U88" s="16" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H89" s="7" t="str">
+        <f>IF(F89="","", INDEX(Table4[],MATCH(F89,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I89" s="7" cm="1">
+        <f t="array" ref="I89">_xlfn.IFS(F89="",0,F89="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J89" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="K89" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P89" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q89" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R89" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T89" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="U89" s="16" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H90" s="7" t="str">
+        <f>IF(F90="","", INDEX(Table4[],MATCH(F90,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I90" s="7" cm="1">
+        <f t="array" ref="I90">_xlfn.IFS(F90="",0,F90="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J90" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="K90" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P90" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q90" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R90" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T90" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="U90" s="16" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H91" s="7" t="str">
+        <f>IF(F91="","", INDEX(Table4[],MATCH(F91,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I91" s="7" cm="1">
+        <f t="array" ref="I91">_xlfn.IFS(F91="",0,F91="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J91" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="K91" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P91" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q91" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R91" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T91" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="U91" s="16" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H92" s="7" t="str">
+        <f>IF(F92="","", INDEX(Table4[],MATCH(F92,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I92" s="7" cm="1">
+        <f t="array" ref="I92">_xlfn.IFS(F92="",0,F92="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J92" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="K92" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P92" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q92" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R92" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T92" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="U92" s="16" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H93" s="7" t="str">
+        <f>IF(F93="","", INDEX(Table4[],MATCH(F93,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I93" s="7" cm="1">
+        <f t="array" ref="I93">_xlfn.IFS(F93="",0,F93="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J93" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K93" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P93" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q93" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R93" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T93" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="U93" s="16" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H94" s="7" t="str">
+        <f>IF(F94="","", INDEX(Table4[],MATCH(F94,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I94" s="7" cm="1">
+        <f t="array" ref="I94">_xlfn.IFS(F94="",0,F94="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J94" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="K94" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P94" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q94" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R94" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T94" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="U94" s="16" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H95" s="7" t="str">
+        <f>IF(F95="","", INDEX(Table4[],MATCH(F95,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I95" s="7" cm="1">
+        <f t="array" ref="I95">_xlfn.IFS(F95="",0,F95="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J95" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="K95" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P95" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q95" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R95" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T95" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="U95" s="16" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H96" s="7" t="str">
+        <f>IF(F96="","", INDEX(Table4[],MATCH(F96,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I96" s="7" cm="1">
+        <f t="array" ref="I96">_xlfn.IFS(F96="",0,F96="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J96" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="K96" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P96" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q96" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R96" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T96" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="U96" s="16" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H97" s="7" t="str">
+        <f>IF(F97="","", INDEX(Table4[],MATCH(F97,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I97" s="7" cm="1">
+        <f t="array" ref="I97">_xlfn.IFS(F97="",0,F97="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J97" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D10" t="s">
-        <v>173</v>
-      </c>
-      <c r="F10" t="s">
-        <v>171</v>
-      </c>
-      <c r="H10" s="9" t="str">
-        <f>IF(F10="","", INDEX(Table4[],MATCH(F10,Table4[primer],0),1))</f>
-        <v>D05</v>
-      </c>
-      <c r="I10" s="9" cm="1">
-        <f t="array" ref="I10">_xlfn.IFS(F10="",0,F10="water",11.5, TRUE, 5)</f>
-        <v>11.5</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="9">
-        <f t="shared" si="2"/>
-        <v>3.5</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="R10" t="s">
-        <v>11</v>
-      </c>
-      <c r="S10" t="str">
-        <f t="shared" si="4"/>
-        <v>Positive control</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="H11" s="9" t="str">
-        <f>IF(F11="","", INDEX(Table4[],MATCH(F11,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I11" s="9" cm="1">
-        <f t="array" ref="I11">_xlfn.IFS(F11="",0,F11="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R11" t="s">
-        <v>12</v>
-      </c>
-      <c r="S11" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="H12" s="9" t="str">
-        <f>IF(F12="","", INDEX(Table4[],MATCH(F12,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I12" s="9" cm="1">
-        <f t="array" ref="I12">_xlfn.IFS(F12="",0,F12="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R12" t="s">
-        <v>13</v>
-      </c>
-      <c r="S12" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="H13" s="9" t="str">
-        <f>IF(F13="","", INDEX(Table4[],MATCH(F13,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I13" s="9" cm="1">
-        <f t="array" ref="I13">_xlfn.IFS(F13="",0,F13="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <f>COUNTIFS($C$2:$C$97,C13,$B$2:$B$97,B13)</f>
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <f>COUNTIFS($E$2:$E$97, E13, $F$2:$F$97, F13)</f>
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="S13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="8"/>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="8"/>
-      <c r="AD13" s="8"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="H14" s="9" t="str">
-        <f>IF(F14="","", INDEX(Table4[],MATCH(F14,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I14" s="9" cm="1">
-        <f t="array" ref="I14">_xlfn.IFS(F14="",0,F14="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="S14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="8"/>
-      <c r="AB14" s="8"/>
-      <c r="AC14" s="8"/>
-      <c r="AD14" s="8"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="H15" s="9" t="str">
-        <f>IF(F15="","", INDEX(Table4[],MATCH(F15,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I15" s="9" cm="1">
-        <f t="array" ref="I15">_xlfn.IFS(F15="",0,F15="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="S15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="8"/>
-      <c r="AB15" s="8"/>
-      <c r="AC15" s="8"/>
-      <c r="AD15" s="8"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="H16" s="9" t="str">
-        <f>IF(F16="","", INDEX(Table4[],MATCH(F16,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I16" s="9" cm="1">
-        <f t="array" ref="I16">_xlfn.IFS(F16="",0,F16="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="S16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="8"/>
-      <c r="AD16" s="8"/>
-    </row>
-    <row r="17" spans="8:30" x14ac:dyDescent="0.2">
-      <c r="H17" s="9" t="str">
-        <f>IF(F17="","", INDEX(Table4[],MATCH(F17,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I17" s="9" cm="1">
-        <f t="array" ref="I17">_xlfn.IFS(F17="",0,F17="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="S17" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-      <c r="AA17" s="8"/>
-      <c r="AB17" s="8"/>
-      <c r="AC17" s="8"/>
-      <c r="AD17" s="8"/>
-    </row>
-    <row r="18" spans="8:30" x14ac:dyDescent="0.2">
-      <c r="H18" s="9" t="str">
-        <f>IF(F18="","", INDEX(Table4[],MATCH(F18,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I18" s="9" cm="1">
-        <f t="array" ref="I18">_xlfn.IFS(F18="",0,F18="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="S18" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
-      <c r="AA18" s="8"/>
-      <c r="AB18" s="8"/>
-      <c r="AC18" s="8"/>
-      <c r="AD18" s="8"/>
-    </row>
-    <row r="19" spans="8:30" x14ac:dyDescent="0.2">
-      <c r="H19" s="9" t="str">
-        <f>IF(F19="","", INDEX(Table4[],MATCH(F19,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I19" s="9" cm="1">
-        <f t="array" ref="I19">_xlfn.IFS(F19="",0,F19="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R19" t="s">
-        <v>20</v>
-      </c>
-      <c r="S19" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="8:30" x14ac:dyDescent="0.2">
-      <c r="H20" s="9" t="str">
-        <f>IF(F20="","", INDEX(Table4[],MATCH(F20,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I20" s="9" cm="1">
-        <f t="array" ref="I20">_xlfn.IFS(F20="",0,F20="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R20" t="s">
-        <v>21</v>
-      </c>
-      <c r="S20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="8:30" x14ac:dyDescent="0.2">
-      <c r="H21" s="9" t="str">
-        <f>IF(F21="","", INDEX(Table4[],MATCH(F21,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I21" s="9" cm="1">
-        <f t="array" ref="I21">_xlfn.IFS(F21="",0,F21="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K21" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R21" t="s">
-        <v>22</v>
-      </c>
-      <c r="S21" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="8:30" x14ac:dyDescent="0.2">
-      <c r="H22" s="9" t="str">
-        <f>IF(F22="","", INDEX(Table4[],MATCH(F22,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I22" s="9" cm="1">
-        <f t="array" ref="I22">_xlfn.IFS(F22="",0,F22="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R22" t="s">
-        <v>23</v>
-      </c>
-      <c r="S22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="8:30" x14ac:dyDescent="0.2">
-      <c r="H23" s="9" t="str">
-        <f>IF(F23="","", INDEX(Table4[],MATCH(F23,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I23" s="9" cm="1">
-        <f t="array" ref="I23">_xlfn.IFS(F23="",0,F23="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K23" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R23" t="s">
-        <v>24</v>
-      </c>
-      <c r="S23" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="8:30" x14ac:dyDescent="0.2">
-      <c r="H24" s="9" t="str">
-        <f>IF(F24="","", INDEX(Table4[],MATCH(F24,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I24" s="9" cm="1">
-        <f t="array" ref="I24">_xlfn.IFS(F24="",0,F24="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K24" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R24" t="s">
-        <v>25</v>
-      </c>
-      <c r="S24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="8:30" x14ac:dyDescent="0.2">
-      <c r="H25" s="9" t="str">
-        <f>IF(F25="","", INDEX(Table4[],MATCH(F25,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I25" s="9" cm="1">
-        <f t="array" ref="I25">_xlfn.IFS(F25="",0,F25="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="K25" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R25" t="s">
-        <v>26</v>
-      </c>
-      <c r="S25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="8:30" x14ac:dyDescent="0.2">
-      <c r="H26" s="9" t="str">
-        <f>IF(F26="","", INDEX(Table4[],MATCH(F26,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I26" s="9" cm="1">
-        <f t="array" ref="I26">_xlfn.IFS(F26="",0,F26="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="K26" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R26" t="s">
-        <v>27</v>
-      </c>
-      <c r="S26" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="8:30" x14ac:dyDescent="0.2">
-      <c r="H27" s="9" t="str">
-        <f>IF(F27="","", INDEX(Table4[],MATCH(F27,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I27" s="9" cm="1">
-        <f t="array" ref="I27">_xlfn.IFS(F27="",0,F27="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K27" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R27" t="s">
-        <v>28</v>
-      </c>
-      <c r="S27" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="8:30" x14ac:dyDescent="0.2">
-      <c r="H28" s="9" t="str">
-        <f>IF(F28="","", INDEX(Table4[],MATCH(F28,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I28" s="9" cm="1">
-        <f t="array" ref="I28">_xlfn.IFS(F28="",0,F28="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K28" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R28" t="s">
-        <v>29</v>
-      </c>
-      <c r="S28" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="8:30" x14ac:dyDescent="0.2">
-      <c r="H29" s="9" t="str">
-        <f>IF(F29="","", INDEX(Table4[],MATCH(F29,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I29" s="9" cm="1">
-        <f t="array" ref="I29">_xlfn.IFS(F29="",0,F29="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K29" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R29" t="s">
-        <v>30</v>
-      </c>
-      <c r="S29" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="8:30" x14ac:dyDescent="0.2">
-      <c r="H30" s="9" t="str">
-        <f>IF(F30="","", INDEX(Table4[],MATCH(F30,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I30" s="9" cm="1">
-        <f t="array" ref="I30">_xlfn.IFS(F30="",0,F30="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K30" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R30" t="s">
-        <v>31</v>
-      </c>
-      <c r="S30" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="8:30" x14ac:dyDescent="0.2">
-      <c r="H31" s="9" t="str">
-        <f>IF(F31="","", INDEX(Table4[],MATCH(F31,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I31" s="9" cm="1">
-        <f t="array" ref="I31">_xlfn.IFS(F31="",0,F31="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K31" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R31" t="s">
-        <v>32</v>
-      </c>
-      <c r="S31" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="8:30" x14ac:dyDescent="0.2">
-      <c r="H32" s="9" t="str">
-        <f>IF(F32="","", INDEX(Table4[],MATCH(F32,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I32" s="9" cm="1">
-        <f t="array" ref="I32">_xlfn.IFS(F32="",0,F32="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J32" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K32" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R32" t="s">
-        <v>33</v>
-      </c>
-      <c r="S32" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H33" s="9" t="str">
-        <f>IF(F33="","", INDEX(Table4[],MATCH(F33,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I33" s="9" cm="1">
-        <f t="array" ref="I33">_xlfn.IFS(F33="",0,F33="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="K33" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R33" t="s">
-        <v>34</v>
-      </c>
-      <c r="S33" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H34" s="9" t="str">
-        <f>IF(F34="","", INDEX(Table4[],MATCH(F34,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I34" s="9" cm="1">
-        <f t="array" ref="I34">_xlfn.IFS(F34="",0,F34="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K34" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <f t="shared" ref="N34:N65" si="5">COUNTIFS($C$2:$C$97,C34,$B$2:$B$97,B34)</f>
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <f t="shared" ref="O34:O66" si="6">COUNTIFS($E$2:$E$97, E34, $F$2:$F$97, F34)</f>
-        <v>0</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R34" t="s">
-        <v>35</v>
-      </c>
-      <c r="S34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H35" s="9" t="str">
-        <f>IF(F35="","", INDEX(Table4[],MATCH(F35,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I35" s="9" cm="1">
-        <f t="array" ref="I35">_xlfn.IFS(F35="",0,F35="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="K35" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R35" t="s">
-        <v>36</v>
-      </c>
-      <c r="S35" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H36" s="9" t="str">
-        <f>IF(F36="","", INDEX(Table4[],MATCH(F36,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I36" s="9" cm="1">
-        <f t="array" ref="I36">_xlfn.IFS(F36="",0,F36="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J36" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="K36" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R36" t="s">
-        <v>37</v>
-      </c>
-      <c r="S36" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H37" s="9" t="str">
-        <f>IF(F37="","", INDEX(Table4[],MATCH(F37,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I37" s="9" cm="1">
-        <f t="array" ref="I37">_xlfn.IFS(F37="",0,F37="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J37" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="K37" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R37" t="s">
-        <v>38</v>
-      </c>
-      <c r="S37" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H38" s="9" t="str">
-        <f>IF(F38="","", INDEX(Table4[],MATCH(F38,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I38" s="9" cm="1">
-        <f t="array" ref="I38">_xlfn.IFS(F38="",0,F38="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J38" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K38" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R38" t="s">
-        <v>39</v>
-      </c>
-      <c r="S38" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H39" s="9" t="str">
-        <f>IF(F39="","", INDEX(Table4[],MATCH(F39,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I39" s="9" cm="1">
-        <f t="array" ref="I39">_xlfn.IFS(F39="",0,F39="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J39" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K39" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S39" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H40" s="9" t="str">
-        <f>IF(F40="","", INDEX(Table4[],MATCH(F40,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I40" s="9" cm="1">
-        <f t="array" ref="I40">_xlfn.IFS(F40="",0,F40="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J40" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K40" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O40">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R40" t="s">
-        <v>41</v>
-      </c>
-      <c r="S40" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H41" s="9" t="str">
-        <f>IF(F41="","", INDEX(Table4[],MATCH(F41,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I41" s="9" cm="1">
-        <f t="array" ref="I41">_xlfn.IFS(F41="",0,F41="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J41" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="K41" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P41">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R41" t="s">
-        <v>42</v>
-      </c>
-      <c r="S41" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H42" s="9" t="str">
-        <f>IF(F42="","", INDEX(Table4[],MATCH(F42,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I42" s="9" cm="1">
-        <f t="array" ref="I42">_xlfn.IFS(F42="",0,F42="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J42" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K42" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R42" t="s">
-        <v>43</v>
-      </c>
-      <c r="S42" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H43" s="9" t="str">
-        <f>IF(F43="","", INDEX(Table4[],MATCH(F43,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I43" s="9" cm="1">
-        <f t="array" ref="I43">_xlfn.IFS(F43="",0,F43="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J43" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K43" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O43">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R43" t="s">
-        <v>44</v>
-      </c>
-      <c r="S43" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H44" s="9" t="str">
-        <f>IF(F44="","", INDEX(Table4[],MATCH(F44,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I44" s="9" cm="1">
-        <f t="array" ref="I44">_xlfn.IFS(F44="",0,F44="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J44" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="K44" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O44">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R44" t="s">
-        <v>45</v>
-      </c>
-      <c r="S44" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H45" s="9" t="str">
-        <f>IF(F45="","", INDEX(Table4[],MATCH(F45,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I45" s="9" cm="1">
-        <f t="array" ref="I45">_xlfn.IFS(F45="",0,F45="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J45" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K45" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O45">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R45" t="s">
-        <v>46</v>
-      </c>
-      <c r="S45" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H46" s="9" t="str">
-        <f>IF(F46="","", INDEX(Table4[],MATCH(F46,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I46" s="9" cm="1">
-        <f t="array" ref="I46">_xlfn.IFS(F46="",0,F46="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J46" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="K46" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O46">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R46" t="s">
-        <v>47</v>
-      </c>
-      <c r="S46" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H47" s="9" t="str">
-        <f>IF(F47="","", INDEX(Table4[],MATCH(F47,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I47" s="9" cm="1">
-        <f t="array" ref="I47">_xlfn.IFS(F47="",0,F47="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J47" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K47" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O47">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P47">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R47" t="s">
-        <v>48</v>
-      </c>
-      <c r="S47" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H48" s="9" t="str">
-        <f>IF(F48="","", INDEX(Table4[],MATCH(F48,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I48" s="9" cm="1">
-        <f t="array" ref="I48">_xlfn.IFS(F48="",0,F48="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J48" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="K48" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O48">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R48" t="s">
-        <v>49</v>
-      </c>
-      <c r="S48" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H49" s="9" t="str">
-        <f>IF(F49="","", INDEX(Table4[],MATCH(F49,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I49" s="9" cm="1">
-        <f t="array" ref="I49">_xlfn.IFS(F49="",0,F49="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J49" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="K49" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O49">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R49" t="s">
-        <v>50</v>
-      </c>
-      <c r="S49" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H50" s="9" t="str">
-        <f>IF(F50="","", INDEX(Table4[],MATCH(F50,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I50" s="9" cm="1">
-        <f t="array" ref="I50">_xlfn.IFS(F50="",0,F50="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J50" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="K50" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R50" t="s">
-        <v>51</v>
-      </c>
-      <c r="S50" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H51" s="9" t="str">
-        <f>IF(F51="","", INDEX(Table4[],MATCH(F51,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I51" s="9" cm="1">
-        <f t="array" ref="I51">_xlfn.IFS(F51="",0,F51="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J51" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="K51" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O51">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R51" t="s">
-        <v>52</v>
-      </c>
-      <c r="S51" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H52" s="9" t="str">
-        <f>IF(F52="","", INDEX(Table4[],MATCH(F52,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I52" s="9" cm="1">
-        <f t="array" ref="I52">_xlfn.IFS(F52="",0,F52="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J52" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="K52" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R52" t="s">
-        <v>53</v>
-      </c>
-      <c r="S52" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H53" s="9" t="str">
-        <f>IF(F53="","", INDEX(Table4[],MATCH(F53,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I53" s="9" cm="1">
-        <f t="array" ref="I53">_xlfn.IFS(F53="",0,F53="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J53" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="K53" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O53">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P53">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R53" t="s">
-        <v>54</v>
-      </c>
-      <c r="S53" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H54" s="9" t="str">
-        <f>IF(F54="","", INDEX(Table4[],MATCH(F54,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I54" s="9" cm="1">
-        <f t="array" ref="I54">_xlfn.IFS(F54="",0,F54="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J54" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="K54" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P54">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R54" t="s">
-        <v>55</v>
-      </c>
-      <c r="S54" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H55" s="9" t="str">
-        <f>IF(F55="","", INDEX(Table4[],MATCH(F55,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I55" s="9" cm="1">
-        <f t="array" ref="I55">_xlfn.IFS(F55="",0,F55="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J55" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="K55" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O55">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R55" t="s">
-        <v>56</v>
-      </c>
-      <c r="S55" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H56" s="9" t="str">
-        <f>IF(F56="","", INDEX(Table4[],MATCH(F56,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I56" s="9" cm="1">
-        <f t="array" ref="I56">_xlfn.IFS(F56="",0,F56="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J56" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K56" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O56">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R56" t="s">
-        <v>57</v>
-      </c>
-      <c r="S56" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H57" s="9" t="str">
-        <f>IF(F57="","", INDEX(Table4[],MATCH(F57,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I57" s="9" cm="1">
-        <f t="array" ref="I57">_xlfn.IFS(F57="",0,F57="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J57" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K57" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O57">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R57" t="s">
-        <v>58</v>
-      </c>
-      <c r="S57" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H58" s="9" t="str">
-        <f>IF(F58="","", INDEX(Table4[],MATCH(F58,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I58" s="9" cm="1">
-        <f t="array" ref="I58">_xlfn.IFS(F58="",0,F58="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J58" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="K58" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O58">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R58" t="s">
-        <v>59</v>
-      </c>
-      <c r="S58" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H59" s="9" t="str">
-        <f>IF(F59="","", INDEX(Table4[],MATCH(F59,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I59" s="9" cm="1">
-        <f t="array" ref="I59">_xlfn.IFS(F59="",0,F59="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J59" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="K59" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N59">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O59">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R59" t="s">
-        <v>60</v>
-      </c>
-      <c r="S59" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H60" s="9" t="str">
-        <f>IF(F60="","", INDEX(Table4[],MATCH(F60,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I60" s="9" cm="1">
-        <f t="array" ref="I60">_xlfn.IFS(F60="",0,F60="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J60" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="K60" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O60">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R60" t="s">
-        <v>61</v>
-      </c>
-      <c r="S60" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H61" s="9" t="str">
-        <f>IF(F61="","", INDEX(Table4[],MATCH(F61,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I61" s="9" cm="1">
-        <f t="array" ref="I61">_xlfn.IFS(F61="",0,F61="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J61" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="K61" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N61">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O61">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P61">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R61" t="s">
-        <v>62</v>
-      </c>
-      <c r="S61" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H62" s="9" t="str">
-        <f>IF(F62="","", INDEX(Table4[],MATCH(F62,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I62" s="9" cm="1">
-        <f t="array" ref="I62">_xlfn.IFS(F62="",0,F62="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J62" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="K62" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N62">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O62">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P62">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R62" t="s">
-        <v>63</v>
-      </c>
-      <c r="S62" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H63" s="9" t="str">
-        <f>IF(F63="","", INDEX(Table4[],MATCH(F63,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I63" s="9" cm="1">
-        <f t="array" ref="I63">_xlfn.IFS(F63="",0,F63="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J63" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="K63" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N63">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R63" t="s">
-        <v>64</v>
-      </c>
-      <c r="S63" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H64" s="9" t="str">
-        <f>IF(F64="","", INDEX(Table4[],MATCH(F64,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I64" s="9" cm="1">
-        <f t="array" ref="I64">_xlfn.IFS(F64="",0,F64="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J64" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="K64" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N64">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O64">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P64">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R64" t="s">
-        <v>65</v>
-      </c>
-      <c r="S64" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H65" s="9" t="str">
-        <f>IF(F65="","", INDEX(Table4[],MATCH(F65,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I65" s="9" cm="1">
-        <f t="array" ref="I65">_xlfn.IFS(F65="",0,F65="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J65" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="K65" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N65">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O65">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P65">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R65" t="s">
-        <v>66</v>
-      </c>
-      <c r="S65" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H66" s="9" t="str">
-        <f>IF(F66="","", INDEX(Table4[],MATCH(F66,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I66" s="9" cm="1">
-        <f t="array" ref="I66">_xlfn.IFS(F66="",0,F66="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J66" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="K66" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N66">
-        <f t="shared" ref="N66:N97" si="7">COUNTIFS($C$2:$C$97,C66,$B$2:$B$97,B66)</f>
-        <v>0</v>
-      </c>
-      <c r="O66">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P66">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R66" t="s">
-        <v>67</v>
-      </c>
-      <c r="S66" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H67" s="9" t="str">
-        <f>IF(F67="","", INDEX(Table4[],MATCH(F67,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I67" s="9" cm="1">
-        <f t="array" ref="I67">_xlfn.IFS(F67="",0,F67="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J67" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="K67" s="9">
-        <f t="shared" ref="K67:K97" si="8">IF(OR(C67 = "",B67=""),0,15-I67)</f>
-        <v>0</v>
-      </c>
-      <c r="N67">
+      <c r="K97" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P97" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O67">
-        <f t="shared" ref="O67:O97" si="9">COUNTIFS($E$2:$E$97, E67, $F$2:$F$97, F67)</f>
-        <v>0</v>
-      </c>
-      <c r="P67">
-        <f t="shared" ref="P67:P97" si="10">I67+K67</f>
-        <v>0</v>
-      </c>
-      <c r="R67" t="s">
-        <v>68</v>
-      </c>
-      <c r="S67" t="str">
-        <f t="shared" ref="S67:S97" si="11">TEXT(D67,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H68" s="9" t="str">
-        <f>IF(F68="","", INDEX(Table4[],MATCH(F68,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I68" s="9" cm="1">
-        <f t="array" ref="I68">_xlfn.IFS(F68="",0,F68="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J68" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="K68" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O68">
+      <c r="Q97" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P68">
+      <c r="R97" s="16">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R68" t="s">
-        <v>69</v>
-      </c>
-      <c r="S68" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H69" s="9" t="str">
-        <f>IF(F69="","", INDEX(Table4[],MATCH(F69,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I69" s="9" cm="1">
-        <f t="array" ref="I69">_xlfn.IFS(F69="",0,F69="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J69" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="K69" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N69">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O69">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P69">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R69" t="s">
-        <v>70</v>
-      </c>
-      <c r="S69" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H70" s="9" t="str">
-        <f>IF(F70="","", INDEX(Table4[],MATCH(F70,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I70" s="9" cm="1">
-        <f t="array" ref="I70">_xlfn.IFS(F70="",0,F70="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J70" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K70" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N70">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O70">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P70">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R70" t="s">
-        <v>71</v>
-      </c>
-      <c r="S70" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H71" s="9" t="str">
-        <f>IF(F71="","", INDEX(Table4[],MATCH(F71,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I71" s="9" cm="1">
-        <f t="array" ref="I71">_xlfn.IFS(F71="",0,F71="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J71" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="K71" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N71">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O71">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P71">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R71" t="s">
-        <v>72</v>
-      </c>
-      <c r="S71" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H72" s="9" t="str">
-        <f>IF(F72="","", INDEX(Table4[],MATCH(F72,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I72" s="9" cm="1">
-        <f t="array" ref="I72">_xlfn.IFS(F72="",0,F72="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J72" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="K72" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N72">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O72">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P72">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R72" t="s">
-        <v>73</v>
-      </c>
-      <c r="S72" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H73" s="9" t="str">
-        <f>IF(F73="","", INDEX(Table4[],MATCH(F73,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I73" s="9" cm="1">
-        <f t="array" ref="I73">_xlfn.IFS(F73="",0,F73="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J73" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="K73" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N73">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O73">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P73">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R73" t="s">
-        <v>74</v>
-      </c>
-      <c r="S73" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H74" s="9" t="str">
-        <f>IF(F74="","", INDEX(Table4[],MATCH(F74,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I74" s="9" cm="1">
-        <f t="array" ref="I74">_xlfn.IFS(F74="",0,F74="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J74" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="K74" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N74">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O74">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P74">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R74" t="s">
-        <v>75</v>
-      </c>
-      <c r="S74" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H75" s="9" t="str">
-        <f>IF(F75="","", INDEX(Table4[],MATCH(F75,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I75" s="9" cm="1">
-        <f t="array" ref="I75">_xlfn.IFS(F75="",0,F75="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J75" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="K75" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N75">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O75">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P75">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R75" t="s">
-        <v>76</v>
-      </c>
-      <c r="S75" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H76" s="9" t="str">
-        <f>IF(F76="","", INDEX(Table4[],MATCH(F76,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I76" s="9" cm="1">
-        <f t="array" ref="I76">_xlfn.IFS(F76="",0,F76="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J76" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="K76" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N76">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O76">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P76">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R76" t="s">
-        <v>77</v>
-      </c>
-      <c r="S76" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H77" s="9" t="str">
-        <f>IF(F77="","", INDEX(Table4[],MATCH(F77,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I77" s="9" cm="1">
-        <f t="array" ref="I77">_xlfn.IFS(F77="",0,F77="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J77" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="K77" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N77">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O77">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P77">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R77" t="s">
-        <v>78</v>
-      </c>
-      <c r="S77" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H78" s="9" t="str">
-        <f>IF(F78="","", INDEX(Table4[],MATCH(F78,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I78" s="9" cm="1">
-        <f t="array" ref="I78">_xlfn.IFS(F78="",0,F78="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J78" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="K78" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N78">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O78">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P78">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R78" t="s">
-        <v>79</v>
-      </c>
-      <c r="S78" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H79" s="9" t="str">
-        <f>IF(F79="","", INDEX(Table4[],MATCH(F79,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I79" s="9" cm="1">
-        <f t="array" ref="I79">_xlfn.IFS(F79="",0,F79="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J79" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="K79" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N79">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O79">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P79">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R79" t="s">
-        <v>80</v>
-      </c>
-      <c r="S79" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H80" s="9" t="str">
-        <f>IF(F80="","", INDEX(Table4[],MATCH(F80,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I80" s="9" cm="1">
-        <f t="array" ref="I80">_xlfn.IFS(F80="",0,F80="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J80" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="K80" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N80">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O80">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P80">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R80" t="s">
-        <v>81</v>
-      </c>
-      <c r="S80" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H81" s="9" t="str">
-        <f>IF(F81="","", INDEX(Table4[],MATCH(F81,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I81" s="9" cm="1">
-        <f t="array" ref="I81">_xlfn.IFS(F81="",0,F81="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J81" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="K81" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N81">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O81">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P81">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R81" t="s">
-        <v>82</v>
-      </c>
-      <c r="S81" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H82" s="9" t="str">
-        <f>IF(F82="","", INDEX(Table4[],MATCH(F82,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I82" s="9" cm="1">
-        <f t="array" ref="I82">_xlfn.IFS(F82="",0,F82="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J82" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="K82" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N82">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O82">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P82">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R82" t="s">
-        <v>83</v>
-      </c>
-      <c r="S82" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H83" s="9" t="str">
-        <f>IF(F83="","", INDEX(Table4[],MATCH(F83,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I83" s="9" cm="1">
-        <f t="array" ref="I83">_xlfn.IFS(F83="",0,F83="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J83" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="K83" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N83">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O83">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P83">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R83" t="s">
-        <v>84</v>
-      </c>
-      <c r="S83" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H84" s="9" t="str">
-        <f>IF(F84="","", INDEX(Table4[],MATCH(F84,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I84" s="9" cm="1">
-        <f t="array" ref="I84">_xlfn.IFS(F84="",0,F84="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J84" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="K84" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N84">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O84">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P84">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R84" t="s">
-        <v>85</v>
-      </c>
-      <c r="S84" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H85" s="9" t="str">
-        <f>IF(F85="","", INDEX(Table4[],MATCH(F85,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I85" s="9" cm="1">
-        <f t="array" ref="I85">_xlfn.IFS(F85="",0,F85="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J85" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="K85" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N85">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O85">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P85">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R85" t="s">
-        <v>86</v>
-      </c>
-      <c r="S85" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H86" s="9" t="str">
-        <f>IF(F86="","", INDEX(Table4[],MATCH(F86,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I86" s="9" cm="1">
-        <f t="array" ref="I86">_xlfn.IFS(F86="",0,F86="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J86" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="K86" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N86">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O86">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P86">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R86" t="s">
-        <v>87</v>
-      </c>
-      <c r="S86" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H87" s="9" t="str">
-        <f>IF(F87="","", INDEX(Table4[],MATCH(F87,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I87" s="9" cm="1">
-        <f t="array" ref="I87">_xlfn.IFS(F87="",0,F87="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J87" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K87" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N87">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O87">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P87">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R87" t="s">
-        <v>88</v>
-      </c>
-      <c r="S87" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H88" s="9" t="str">
-        <f>IF(F88="","", INDEX(Table4[],MATCH(F88,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I88" s="9" cm="1">
-        <f t="array" ref="I88">_xlfn.IFS(F88="",0,F88="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J88" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="K88" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N88">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O88">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P88">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R88" t="s">
-        <v>89</v>
-      </c>
-      <c r="S88" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H89" s="9" t="str">
-        <f>IF(F89="","", INDEX(Table4[],MATCH(F89,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I89" s="9" cm="1">
-        <f t="array" ref="I89">_xlfn.IFS(F89="",0,F89="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J89" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K89" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N89">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O89">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P89">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R89" t="s">
-        <v>90</v>
-      </c>
-      <c r="S89" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H90" s="9" t="str">
-        <f>IF(F90="","", INDEX(Table4[],MATCH(F90,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I90" s="9" cm="1">
-        <f t="array" ref="I90">_xlfn.IFS(F90="",0,F90="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J90" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="K90" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N90">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O90">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P90">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R90" t="s">
-        <v>91</v>
-      </c>
-      <c r="S90" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H91" s="9" t="str">
-        <f>IF(F91="","", INDEX(Table4[],MATCH(F91,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I91" s="9" cm="1">
-        <f t="array" ref="I91">_xlfn.IFS(F91="",0,F91="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J91" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="K91" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N91">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O91">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P91">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R91" t="s">
-        <v>92</v>
-      </c>
-      <c r="S91" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H92" s="9" t="str">
-        <f>IF(F92="","", INDEX(Table4[],MATCH(F92,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I92" s="9" cm="1">
-        <f t="array" ref="I92">_xlfn.IFS(F92="",0,F92="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J92" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="K92" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N92">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O92">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P92">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R92" t="s">
-        <v>93</v>
-      </c>
-      <c r="S92" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H93" s="9" t="str">
-        <f>IF(F93="","", INDEX(Table4[],MATCH(F93,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I93" s="9" cm="1">
-        <f t="array" ref="I93">_xlfn.IFS(F93="",0,F93="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J93" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="K93" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N93">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O93">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P93">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R93" t="s">
-        <v>94</v>
-      </c>
-      <c r="S93" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H94" s="9" t="str">
-        <f>IF(F94="","", INDEX(Table4[],MATCH(F94,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I94" s="9" cm="1">
-        <f t="array" ref="I94">_xlfn.IFS(F94="",0,F94="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J94" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="K94" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N94">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O94">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P94">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R94" t="s">
-        <v>95</v>
-      </c>
-      <c r="S94" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H95" s="9" t="str">
-        <f>IF(F95="","", INDEX(Table4[],MATCH(F95,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I95" s="9" cm="1">
-        <f t="array" ref="I95">_xlfn.IFS(F95="",0,F95="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J95" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="K95" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N95">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O95">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P95">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R95" t="s">
-        <v>96</v>
-      </c>
-      <c r="S95" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H96" s="9" t="str">
-        <f>IF(F96="","", INDEX(Table4[],MATCH(F96,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I96" s="9" cm="1">
-        <f t="array" ref="I96">_xlfn.IFS(F96="",0,F96="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J96" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="K96" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N96">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O96">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P96">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R96" t="s">
-        <v>97</v>
-      </c>
-      <c r="S96" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="H97" s="9" t="str">
-        <f>IF(F97="","", INDEX(Table4[],MATCH(F97,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I97" s="9" cm="1">
-        <f t="array" ref="I97">_xlfn.IFS(F97="",0,F97="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J97" s="12" t="s">
+      <c r="T97" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="K97" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N97">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O97">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P97">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R97" t="s">
-        <v>98</v>
-      </c>
-      <c r="S97" t="str">
+      <c r="U97" s="16" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N97">
+  <conditionalFormatting sqref="P2:P97">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O97">
+  <conditionalFormatting sqref="Q2:Q97">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:Q97">
+  <conditionalFormatting sqref="R2:S97">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
       <formula>1</formula>
       <formula>14</formula>
@@ -5008,17 +4963,17 @@
           </x14:formula1>
           <xm:sqref>B2:B97</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A57E73BF-DCAC-1F41-9AA1-C3F5D574317F}">
-          <x14:formula1>
-            <xm:f>primers!$B$2:$B$25</xm:f>
-          </x14:formula1>
-          <xm:sqref>F2:F97</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E956F686-3D51-A243-8E8C-9CFDE6DA0B60}">
           <x14:formula1>
             <xm:f>primers!$J$2:$J$97</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C97</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4662F096-AFBA-4F4C-9C9B-29086C6D3F13}">
+          <x14:formula1>
+            <xm:f>primers!$B$2:$B$24</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F97</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5034,7 +4989,7 @@
   <dimension ref="A1:J97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5382,8 +5337,14 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="13" t="s">
         <v>46</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C25" t="s">
+        <v>189</v>
       </c>
       <c r="F25" t="s">
         <v>145</v>
@@ -5481,6 +5442,9 @@
       </c>
     </row>
     <row r="37" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>188</v>
+      </c>
       <c r="J37" t="s">
         <v>38</v>
       </c>
@@ -5788,7 +5752,7 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20:B25" xr:uid="{4A8E4FB8-C681-EA4A-B74B-7277824AFFF4}">
-      <formula1>$F$2:$F$36</formula1>
+      <formula1>$F$2:$F$37</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7220,14 +7184,14 @@
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="str">
         <f>IF(master!B10="strip",master!C10,"")</f>
-        <v>H12</v>
+        <v/>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="1">
         <f>IF(master!B10="strip",master!K10,0)</f>
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -8509,14 +8473,14 @@
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="str">
         <f>IF(ISTEXT(master!F10),master!H10,"")</f>
-        <v>D05</v>
+        <v/>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="1">
         <f>master!I10</f>
-        <v>11.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -9667,8 +9631,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10026,7 +9990,7 @@
       </c>
       <c r="D10" t="str">
         <f>source_strip!A10</f>
-        <v>H12</v>
+        <v/>
       </c>
       <c r="E10" t="str">
         <f>source_strip!B10</f>
@@ -10034,11 +9998,11 @@
       </c>
       <c r="F10">
         <f>source_strip!C10</f>
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="G10" t="str">
         <f>source_tube!A10</f>
-        <v>D05</v>
+        <v/>
       </c>
       <c r="H10" t="str">
         <f>source_tube!B10</f>
@@ -10046,7 +10010,7 @@
       </c>
       <c r="I10">
         <f>source_tube!C10</f>
-        <v>11.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -13362,21 +13326,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FDAF843F15E65A4EA1FFB0CF193B74E3" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bd4433bf6f24a726161ac457e21002bf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e1a61fc9-c776-4dd1-85b5-f7d58768ba79" xmlns:ns4="3f421247-72bc-4b61-a591-0b56f96ae993" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7d66d7a13b7b51360e8b1c095fb39c19" ns3:_="" ns4:_="">
     <xsd:import namespace="e1a61fc9-c776-4dd1-85b5-f7d58768ba79"/>
@@ -13605,10 +13554,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79D86924-57C1-45D5-9E44-D526494DB02F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E774FF9-2144-4DC7-8F36-E7E064C7C739}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e1a61fc9-c776-4dd1-85b5-f7d58768ba79"/>
+    <ds:schemaRef ds:uri="3f421247-72bc-4b61-a591-0b56f96ae993"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13631,20 +13606,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E774FF9-2144-4DC7-8F36-E7E064C7C739}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79D86924-57C1-45D5-9E44-D526494DB02F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e1a61fc9-c776-4dd1-85b5-f7d58768ba79"/>
-    <ds:schemaRef ds:uri="3f421247-72bc-4b61-a591-0b56f96ae993"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/templates/01-sanger-master-v3.xlsx
+++ b/templates/01-sanger-master-v3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelangelov/code/opentrons/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angeloas/code/opentrons/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CB553D-31F9-9446-994E-0E09207F4E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83219259-7F23-E043-A8EA-27ACC5CB39F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="6" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="192">
   <si>
     <t>source_well</t>
   </si>
@@ -804,6 +804,24 @@
   <dxfs count="4">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -831,24 +849,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="4"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -887,7 +887,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4E4A5EE2-1080-B34A-BB40-8F3F3FEA7305}" name="Table4" displayName="Table4" ref="A1:B24" totalsRowShown="0">
   <autoFilter ref="A1:B24" xr:uid="{4E4A5EE2-1080-B34A-BB40-8F3F3FEA7305}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{CDB38DFA-789C-8F4B-840F-972D89DD6C8F}" name="pos" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{CDB38DFA-789C-8F4B-840F-972D89DD6C8F}" name="pos" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{13A22DA2-122E-D84B-A12E-BE492FE435E8}" name="primer"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1208,7 +1208,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34:C34"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="N7" s="16">
         <f>COUNTIF(K2:K97,"&gt;0")</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="P7" s="16">
         <f t="shared" si="0"/>
@@ -1624,7 +1624,7 @@
       </c>
       <c r="N8" s="16">
         <f>N7*5.5</f>
-        <v>44</v>
+        <v>60.5</v>
       </c>
       <c r="P8" s="16">
         <f t="shared" si="0"/>
@@ -1695,6 +1695,12 @@
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B10" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>12</v>
+      </c>
       <c r="H10" s="7" t="str">
         <f>IF(F10="","", INDEX(Table4[],MATCH(F10,Table4[primer],0),1))</f>
         <v/>
@@ -1708,11 +1714,11 @@
       </c>
       <c r="K10" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P10" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="16">
         <f t="shared" si="3"/>
@@ -1720,7 +1726,7 @@
       </c>
       <c r="R10" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T10" s="16" t="s">
         <v>11</v>
@@ -1990,7 +1996,7 @@
       <c r="AE16" s="18"/>
       <c r="AF16" s="18"/>
     </row>
-    <row r="17" spans="8:32" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:32" x14ac:dyDescent="0.2">
       <c r="H17" s="7" t="str">
         <f>IF(F17="","", INDEX(Table4[],MATCH(F17,Table4[primer],0),1))</f>
         <v/>
@@ -2037,7 +2043,13 @@
       <c r="AE17" s="18"/>
       <c r="AF17" s="18"/>
     </row>
-    <row r="18" spans="8:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B18" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>21</v>
+      </c>
       <c r="H18" s="7" t="str">
         <f>IF(F18="","", INDEX(Table4[],MATCH(F18,Table4[primer],0),1))</f>
         <v/>
@@ -2051,11 +2063,11 @@
       </c>
       <c r="K18" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P18" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="16">
         <f t="shared" si="3"/>
@@ -2063,7 +2075,7 @@
       </c>
       <c r="R18" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T18" s="18" t="s">
         <v>19</v>
@@ -2084,7 +2096,7 @@
       <c r="AE18" s="18"/>
       <c r="AF18" s="18"/>
     </row>
-    <row r="19" spans="8:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:32" x14ac:dyDescent="0.2">
       <c r="H19" s="7" t="str">
         <f>IF(F19="","", INDEX(Table4[],MATCH(F19,Table4[primer],0),1))</f>
         <v/>
@@ -2120,7 +2132,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="8:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:32" x14ac:dyDescent="0.2">
       <c r="H20" s="7" t="str">
         <f>IF(F20="","", INDEX(Table4[],MATCH(F20,Table4[primer],0),1))</f>
         <v/>
@@ -2156,7 +2168,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="8:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:32" x14ac:dyDescent="0.2">
       <c r="H21" s="7" t="str">
         <f>IF(F21="","", INDEX(Table4[],MATCH(F21,Table4[primer],0),1))</f>
         <v/>
@@ -2192,7 +2204,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="8:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:32" x14ac:dyDescent="0.2">
       <c r="H22" s="7" t="str">
         <f>IF(F22="","", INDEX(Table4[],MATCH(F22,Table4[primer],0),1))</f>
         <v/>
@@ -2228,7 +2240,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="8:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:32" x14ac:dyDescent="0.2">
       <c r="H23" s="7" t="str">
         <f>IF(F23="","", INDEX(Table4[],MATCH(F23,Table4[primer],0),1))</f>
         <v/>
@@ -2264,7 +2276,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="8:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:32" x14ac:dyDescent="0.2">
       <c r="H24" s="7" t="str">
         <f>IF(F24="","", INDEX(Table4[],MATCH(F24,Table4[primer],0),1))</f>
         <v/>
@@ -2300,7 +2312,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="8:32" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:32" x14ac:dyDescent="0.2">
       <c r="H25" s="7" t="str">
         <f>IF(F25="","", INDEX(Table4[],MATCH(F25,Table4[primer],0),1))</f>
         <v/>
@@ -2336,7 +2348,13 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="8:32" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B26" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>11</v>
+      </c>
       <c r="H26" s="7" t="str">
         <f>IF(F26="","", INDEX(Table4[],MATCH(F26,Table4[primer],0),1))</f>
         <v/>
@@ -2350,11 +2368,11 @@
       </c>
       <c r="K26" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P26" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="16">
         <f t="shared" si="3"/>
@@ -2362,7 +2380,7 @@
       </c>
       <c r="R26" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T26" s="16" t="s">
         <v>27</v>
@@ -2372,7 +2390,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="8:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:32" x14ac:dyDescent="0.2">
       <c r="H27" s="7" t="str">
         <f>IF(F27="","", INDEX(Table4[],MATCH(F27,Table4[primer],0),1))</f>
         <v/>
@@ -2408,7 +2426,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="8:32" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:32" x14ac:dyDescent="0.2">
       <c r="H28" s="7" t="str">
         <f>IF(F28="","", INDEX(Table4[],MATCH(F28,Table4[primer],0),1))</f>
         <v/>
@@ -2444,7 +2462,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="8:32" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:32" x14ac:dyDescent="0.2">
       <c r="H29" s="7" t="str">
         <f>IF(F29="","", INDEX(Table4[],MATCH(F29,Table4[primer],0),1))</f>
         <v/>
@@ -2480,7 +2498,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="8:32" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:32" x14ac:dyDescent="0.2">
       <c r="H30" s="7" t="str">
         <f>IF(F30="","", INDEX(Table4[],MATCH(F30,Table4[primer],0),1))</f>
         <v/>
@@ -2516,7 +2534,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="8:32" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:32" x14ac:dyDescent="0.2">
       <c r="H31" s="7" t="str">
         <f>IF(F31="","", INDEX(Table4[],MATCH(F31,Table4[primer],0),1))</f>
         <v/>
@@ -2552,7 +2570,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="8:32" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:32" x14ac:dyDescent="0.2">
       <c r="H32" s="7" t="str">
         <f>IF(F32="","", INDEX(Table4[],MATCH(F32,Table4[primer],0),1))</f>
         <v/>
@@ -4931,17 +4949,17 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="P2:P97">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q97">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:S97">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="between">
       <formula>1</formula>
       <formula>14</formula>
     </cfRule>
@@ -5897,14 +5915,14 @@
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="str">
         <f>IF(master!B10="plate",master!C10, "")</f>
-        <v/>
+        <v>B02</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="1">
         <f>IF(master!B10="plate",master!K10,0)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -6001,14 +6019,14 @@
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="str">
         <f>IF(master!B18="plate",master!C18, "")</f>
-        <v/>
+        <v>C03</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="1">
         <f>IF(master!B18="plate",master!K18,0)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -7392,14 +7410,14 @@
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="str">
         <f>IF(master!B26="strip",master!C26,"")</f>
-        <v/>
+        <v>A02</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="1">
         <f>IF(master!B26="strip",master!K26,0)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -9978,7 +9996,7 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>source_plate!A10</f>
-        <v/>
+        <v>B02</v>
       </c>
       <c r="B10" t="str">
         <f>source_plate!B10</f>
@@ -9986,7 +10004,7 @@
       </c>
       <c r="C10">
         <f>source_plate!C10</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D10" t="str">
         <f>source_strip!A10</f>
@@ -10282,7 +10300,7 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>source_plate!A18</f>
-        <v/>
+        <v>C03</v>
       </c>
       <c r="B18" t="str">
         <f>source_plate!B18</f>
@@ -10290,7 +10308,7 @@
       </c>
       <c r="C18">
         <f>source_plate!C18</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D18" t="str">
         <f>source_strip!A18</f>
@@ -10598,7 +10616,7 @@
       </c>
       <c r="D26" t="str">
         <f>source_strip!A26</f>
-        <v/>
+        <v>A02</v>
       </c>
       <c r="E26" t="str">
         <f>source_strip!B26</f>
@@ -10606,7 +10624,7 @@
       </c>
       <c r="F26">
         <f>source_strip!C26</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G26" t="str">
         <f>source_tube!A26</f>
@@ -13326,6 +13344,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FDAF843F15E65A4EA1FFB0CF193B74E3" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bd4433bf6f24a726161ac457e21002bf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e1a61fc9-c776-4dd1-85b5-f7d58768ba79" xmlns:ns4="3f421247-72bc-4b61-a591-0b56f96ae993" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7d66d7a13b7b51360e8b1c095fb39c19" ns3:_="" ns4:_="">
     <xsd:import namespace="e1a61fc9-c776-4dd1-85b5-f7d58768ba79"/>
@@ -13554,36 +13587,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E774FF9-2144-4DC7-8F36-E7E064C7C739}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79D86924-57C1-45D5-9E44-D526494DB02F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e1a61fc9-c776-4dd1-85b5-f7d58768ba79"/>
-    <ds:schemaRef ds:uri="3f421247-72bc-4b61-a591-0b56f96ae993"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13606,9 +13613,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79D86924-57C1-45D5-9E44-D526494DB02F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E774FF9-2144-4DC7-8F36-E7E064C7C739}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e1a61fc9-c776-4dd1-85b5-f7d58768ba79"/>
+    <ds:schemaRef ds:uri="3f421247-72bc-4b61-a591-0b56f96ae993"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/templates/01-sanger-master-v3.xlsx
+++ b/templates/01-sanger-master-v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angeloas/code/opentrons/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83219259-7F23-E043-A8EA-27ACC5CB39F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB42C825-8B0A-834E-92E8-76FE7935A5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="192">
   <si>
     <t>source_well</t>
   </si>
@@ -583,9 +583,6 @@
     <t>PC pipetting</t>
   </si>
   <si>
-    <t>Positive control</t>
-  </si>
-  <si>
     <t>ready to use premix of pGEM and primer is used, 3.5 ul premix (put it in source_strip) and 11.5 water</t>
   </si>
   <si>
@@ -638,6 +635,9 @@
   </si>
   <si>
     <t>BigDye vol</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -776,7 +776,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -792,11 +792,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1204,39 +1201,36 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:AF97"/>
+  <dimension ref="A1:U97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="16" customWidth="1"/>
-    <col min="2" max="3" width="10.83203125" style="16"/>
-    <col min="4" max="4" width="13.6640625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="15" style="16" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="4.33203125" style="17" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="16" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="16"/>
-    <col min="12" max="12" width="7.1640625" style="16" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" style="16" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" style="16" customWidth="1"/>
-    <col min="15" max="15" width="3.6640625" style="16" customWidth="1"/>
-    <col min="16" max="17" width="11.5" style="16" customWidth="1"/>
-    <col min="18" max="18" width="13" style="16" customWidth="1"/>
-    <col min="19" max="19" width="5.6640625" style="18" customWidth="1"/>
-    <col min="20" max="20" width="5.5" style="16" customWidth="1"/>
-    <col min="21" max="21" width="14.6640625" style="16" customWidth="1"/>
-    <col min="22" max="32" width="12.83203125" style="16" customWidth="1"/>
-    <col min="33" max="16384" width="10.83203125" style="16"/>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="4.33203125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" customWidth="1"/>
+    <col min="12" max="12" width="7.1640625" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" customWidth="1"/>
+    <col min="15" max="15" width="3.6640625" customWidth="1"/>
+    <col min="16" max="17" width="11.5" customWidth="1"/>
+    <col min="18" max="18" width="13" customWidth="1"/>
+    <col min="19" max="19" width="5.6640625" customWidth="1"/>
+    <col min="20" max="20" width="5.5" customWidth="1"/>
+    <col min="21" max="21" width="14.6640625" customWidth="1"/>
+    <col min="22" max="32" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="15"/>
       <c r="B1" s="11" t="s">
         <v>101</v>
@@ -1264,7 +1258,7 @@
         <v>1</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L1" s="15"/>
       <c r="M1" s="15"/>
@@ -1277,78 +1271,75 @@
         <v>170</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="S1" s="12"/>
       <c r="T1" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="U1" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="U1" s="12" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="B2" s="16" t="s">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="16" t="s">
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>162</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>105</v>
       </c>
       <c r="H2" s="7" t="str">
         <f>IF(F2="","", INDEX(Table4[],MATCH(F2,Table4[primer],0),1))</f>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="I2" s="7" cm="1">
         <f t="array" ref="I2">_xlfn.IFS(F2="",0,F2="water",11.5, TRUE, 5)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="K2" s="7">
         <f>IF(OR(C2 = "",B2=""),0,15-I2)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="P2" s="16">
+      <c r="P2">
         <f t="shared" ref="P2:P33" si="0">COUNTIFS($C$2:$C$97,C2,$B$2:$B$97,B2)</f>
         <v>1</v>
       </c>
-      <c r="Q2" s="16">
+      <c r="Q2">
         <f>COUNTIFS($E$2:$E$97, E2, $F$2:$F$97, F2)</f>
         <v>0</v>
       </c>
-      <c r="R2" s="16">
+      <c r="R2">
         <f t="shared" ref="R2:R66" si="1">I2+K2</f>
         <v>15</v>
       </c>
-      <c r="T2" s="16" t="s">
+      <c r="T2" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="16" t="str">
+      <c r="U2" t="str">
         <f>TEXT(D2,"")</f>
         <v>Ctf full 2</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="B3" s="16" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="16" t="s">
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>162</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" t="s">
         <v>165</v>
       </c>
       <c r="H3" s="7" t="str">
@@ -1369,88 +1360,85 @@
       <c r="M3" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="P3" s="16">
+      <c r="P3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q3" s="16">
+      <c r="Q3">
         <f t="shared" ref="Q3:Q33" si="3">COUNTIFS($E$2:$E$97, E3, $F$2:$F$97, F3)</f>
         <v>0</v>
       </c>
-      <c r="R3" s="16">
+      <c r="R3">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="T3" t="s">
         <v>4</v>
       </c>
-      <c r="U3" s="16" t="str">
+      <c r="U3" t="str">
         <f t="shared" ref="U3:U66" si="4">TEXT(D3,"")</f>
         <v>Ctf full 2</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="B4" s="16" t="s">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="16" t="s">
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>162</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>105</v>
       </c>
       <c r="H4" s="7" t="str">
         <f>IF(F4="","", INDEX(Table4[],MATCH(F4,Table4[primer],0),1))</f>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="I4" s="7" cm="1">
         <f t="array" ref="I4">_xlfn.IFS(F4="",0,F4="water",11.5, TRUE, 5)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="K4" s="7">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="M4" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="T4" s="16" t="s">
+      <c r="T4" t="s">
         <v>5</v>
       </c>
-      <c r="U4" s="16" t="str">
+      <c r="U4" t="str">
         <f t="shared" si="4"/>
         <v>Ctf full 2</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="B5" s="16" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="16" t="s">
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
         <v>162</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" t="s">
         <v>164</v>
       </c>
       <c r="H5" s="7" t="str">
@@ -1468,37 +1456,37 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="M5" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="P5" s="16">
+      <c r="M5" t="s">
+        <v>173</v>
+      </c>
+      <c r="P5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q5" s="16">
+      <c r="Q5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R5" s="16">
+      <c r="R5">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="T5" s="16" t="s">
+      <c r="T5" t="s">
         <v>6</v>
       </c>
-      <c r="U5" s="16" t="str">
+      <c r="U5" t="str">
         <f t="shared" si="4"/>
         <v>Ctf full 2</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="B6" s="16" t="s">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="16" t="s">
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
         <v>162</v>
       </c>
       <c r="H6" s="7" t="str">
@@ -1516,191 +1504,176 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="P6" s="16">
+      <c r="P6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q6" s="16">
+      <c r="Q6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R6" s="16">
+      <c r="R6">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="T6" s="16" t="s">
+      <c r="T6" t="s">
         <v>7</v>
       </c>
-      <c r="U6" s="16" t="str">
+      <c r="U6" t="str">
         <f t="shared" si="4"/>
         <v>Ctf full 2</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="B7" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="16" t="s">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
         <v>162</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>109</v>
       </c>
       <c r="H7" s="7" t="str">
         <f>IF(F7="","", INDEX(Table4[],MATCH(F7,Table4[primer],0),1))</f>
-        <v>C02</v>
+        <v/>
       </c>
       <c r="I7" s="7" cm="1">
         <f t="array" ref="I7">_xlfn.IFS(F7="",0,F7="water",11.5, TRUE, 5)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>8</v>
       </c>
       <c r="K7" s="7">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="N7" s="16">
+        <v>189</v>
+      </c>
+      <c r="N7">
         <f>COUNTIF(K2:K97,"&gt;0")</f>
-        <v>11</v>
-      </c>
-      <c r="P7" s="16">
+        <v>18</v>
+      </c>
+      <c r="P7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q7" s="16">
+      <c r="Q7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R7" s="16">
+      <c r="R7">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="T7" s="16" t="s">
+      <c r="T7" t="s">
         <v>8</v>
       </c>
-      <c r="U7" s="16" t="str">
+      <c r="U7" t="str">
         <f t="shared" si="4"/>
         <v>Ctf full 2</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="B8" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>171</v>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>191</v>
       </c>
       <c r="H8" s="7" t="str">
         <f>IF(F8="","", INDEX(Table4[],MATCH(F8,Table4[primer],0),1))</f>
-        <v>D05</v>
+        <v/>
       </c>
       <c r="I8" s="7" cm="1">
         <f t="array" ref="I8">_xlfn.IFS(F8="",0,F8="water",11.5, TRUE, 5)</f>
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>9</v>
       </c>
       <c r="K8" s="7">
         <f t="shared" si="2"/>
-        <v>3.5</v>
+        <v>15</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="N8" s="16">
-        <f>N7*5.5</f>
-        <v>60.5</v>
-      </c>
-      <c r="P8" s="16">
+        <v>190</v>
+      </c>
+      <c r="N8">
+        <f>N7*5.5*1.1</f>
+        <v>108.9</v>
+      </c>
+      <c r="P8">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="Q8" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q8">
         <f>COUNTIFS($E$2:$E$97, E8, $F$2:$F$97, F8)</f>
         <v>0</v>
       </c>
-      <c r="R8" s="16">
+      <c r="R8">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="T8" s="16" t="s">
+      <c r="T8" t="s">
         <v>9</v>
       </c>
-      <c r="U8" s="16" t="str">
+      <c r="U8" t="str">
         <f t="shared" si="4"/>
-        <v>Positive control</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="B9" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>171</v>
+        <v>test</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>191</v>
       </c>
       <c r="H9" s="7" t="str">
         <f>IF(F9="","", INDEX(Table4[],MATCH(F9,Table4[primer],0),1))</f>
-        <v>D05</v>
+        <v/>
       </c>
       <c r="I9" s="7" cm="1">
         <f t="array" ref="I9">_xlfn.IFS(F9="",0,F9="water",11.5, TRUE, 5)</f>
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>10</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" si="2"/>
-        <v>3.5</v>
-      </c>
-      <c r="P9" s="16">
+        <v>15</v>
+      </c>
+      <c r="P9">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="Q9" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R9" s="16">
+      <c r="R9">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="T9" s="16" t="s">
+      <c r="T9" t="s">
         <v>10</v>
       </c>
-      <c r="U9" s="16" t="str">
+      <c r="U9" t="str">
         <f t="shared" si="4"/>
-        <v>Positive control</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="B10" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>12</v>
-      </c>
+        <v>test</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="H10" s="7" t="str">
         <f>IF(F10="","", INDEX(Table4[],MATCH(F10,Table4[primer],0),1))</f>
         <v/>
@@ -1714,101 +1687,113 @@
       </c>
       <c r="K10" s="7">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T10" t="s">
+        <v>11</v>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="H11" s="7" t="str">
+        <f>IF(F11="","", INDEX(Table4[],MATCH(F11,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I11" s="7" cm="1">
+        <f t="array" ref="I11">_xlfn.IFS(F11="",0,F11="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T11" t="s">
+        <v>12</v>
+      </c>
+      <c r="U11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="16">
+      <c r="H12" s="7" t="str">
+        <f>IF(F12="","", INDEX(Table4[],MATCH(F12,Table4[primer],0),1))</f>
+        <v/>
+      </c>
+      <c r="I12" s="7" cm="1">
+        <f t="array" ref="I12">_xlfn.IFS(F12="",0,F12="water",11.5, TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="7">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="P12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q10" s="16">
+      <c r="Q12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R10" s="16">
+      <c r="R12">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="T10" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="U10" s="16" t="str">
+      <c r="T12" t="s">
+        <v>13</v>
+      </c>
+      <c r="U12" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="H11" s="7" t="str">
-        <f>IF(F11="","", INDEX(Table4[],MATCH(F11,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I11" s="7" cm="1">
-        <f t="array" ref="I11">_xlfn.IFS(F11="",0,F11="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T11" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="U11" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="H12" s="7" t="str">
-        <f>IF(F12="","", INDEX(Table4[],MATCH(F12,Table4[primer],0),1))</f>
-        <v/>
-      </c>
-      <c r="I12" s="7" cm="1">
-        <f t="array" ref="I12">_xlfn.IFS(F12="",0,F12="water",11.5, TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T12" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="U12" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
       <c r="H13" s="7" t="str">
         <f>IF(F13="","", INDEX(Table4[],MATCH(F13,Table4[primer],0),1))</f>
         <v/>
@@ -1822,40 +1807,29 @@
       </c>
       <c r="K13" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="16">
+        <v>15</v>
+      </c>
+      <c r="P13">
         <f>COUNTIFS($C$2:$C$97,C13,$B$2:$B$97,B13)</f>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q13">
         <f>COUNTIFS($E$2:$E$97, E13, $F$2:$F$97, F13)</f>
         <v>0</v>
       </c>
-      <c r="R13" s="16">
+      <c r="R13">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T13" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="T13" t="s">
         <v>14</v>
       </c>
-      <c r="U13" s="16" t="str">
+      <c r="U13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="18"/>
-      <c r="AA13" s="18"/>
-      <c r="AB13" s="18"/>
-      <c r="AC13" s="18"/>
-      <c r="AD13" s="18"/>
-      <c r="AE13" s="18"/>
-      <c r="AF13" s="18"/>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="H14" s="7" t="str">
         <f>IF(F14="","", INDEX(Table4[],MATCH(F14,Table4[primer],0),1))</f>
         <v/>
@@ -1871,38 +1845,27 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P14" s="16">
+      <c r="P14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="16">
+      <c r="Q14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R14" s="16">
+      <c r="R14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T14" s="18" t="s">
+      <c r="T14" t="s">
         <v>15</v>
       </c>
-      <c r="U14" s="16" t="str">
+      <c r="U14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18"/>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="18"/>
-      <c r="AA14" s="18"/>
-      <c r="AB14" s="18"/>
-      <c r="AC14" s="18"/>
-      <c r="AD14" s="18"/>
-      <c r="AE14" s="18"/>
-      <c r="AF14" s="18"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="H15" s="7" t="str">
         <f>IF(F15="","", INDEX(Table4[],MATCH(F15,Table4[primer],0),1))</f>
         <v/>
@@ -1918,38 +1881,27 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P15" s="16">
+      <c r="P15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="16">
+      <c r="Q15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R15" s="16">
+      <c r="R15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T15" s="18" t="s">
+      <c r="T15" t="s">
         <v>16</v>
       </c>
-      <c r="U15" s="16" t="str">
+      <c r="U15" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="18"/>
-      <c r="AA15" s="18"/>
-      <c r="AB15" s="18"/>
-      <c r="AC15" s="18"/>
-      <c r="AD15" s="18"/>
-      <c r="AE15" s="18"/>
-      <c r="AF15" s="18"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="H16" s="7" t="str">
         <f>IF(F16="","", INDEX(Table4[],MATCH(F16,Table4[primer],0),1))</f>
         <v/>
@@ -1965,38 +1917,27 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P16" s="16">
+      <c r="P16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="16">
+      <c r="Q16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R16" s="16">
+      <c r="R16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T16" s="18" t="s">
+      <c r="T16" t="s">
         <v>17</v>
       </c>
-      <c r="U16" s="16" t="str">
+      <c r="U16" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="V16" s="18"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="18"/>
-      <c r="AA16" s="18"/>
-      <c r="AB16" s="18"/>
-      <c r="AC16" s="18"/>
-      <c r="AD16" s="18"/>
-      <c r="AE16" s="18"/>
-      <c r="AF16" s="18"/>
-    </row>
-    <row r="17" spans="2:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
       <c r="H17" s="7" t="str">
         <f>IF(F17="","", INDEX(Table4[],MATCH(F17,Table4[primer],0),1))</f>
         <v/>
@@ -2012,349 +1953,387 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P17" s="16">
+      <c r="P17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="16">
+      <c r="Q17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R17" s="16">
+      <c r="R17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T17" s="18" t="s">
+      <c r="T17" t="s">
         <v>18</v>
       </c>
-      <c r="U17" s="16" t="str">
+      <c r="U17" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18"/>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="18"/>
-      <c r="Z17" s="18"/>
-      <c r="AA17" s="18"/>
-      <c r="AB17" s="18"/>
-      <c r="AC17" s="18"/>
-      <c r="AD17" s="18"/>
-      <c r="AE17" s="18"/>
-      <c r="AF17" s="18"/>
-    </row>
-    <row r="18" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B18" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>21</v>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>105</v>
       </c>
       <c r="H18" s="7" t="str">
         <f>IF(F18="","", INDEX(Table4[],MATCH(F18,Table4[primer],0),1))</f>
-        <v/>
+        <v>A01</v>
       </c>
       <c r="I18" s="7" cm="1">
         <f t="array" ref="I18">_xlfn.IFS(F18="",0,F18="water",11.5, TRUE, 5)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J18" s="9" t="s">
         <v>19</v>
       </c>
       <c r="K18" s="7">
         <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="P18" s="16">
+        <v>10</v>
+      </c>
+      <c r="P18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q18" s="16">
+      <c r="Q18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R18" s="16">
+      <c r="R18">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="T18" s="18" t="s">
+      <c r="T18" t="s">
         <v>19</v>
       </c>
-      <c r="U18" s="16" t="str">
+      <c r="U18" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="V18" s="18"/>
-      <c r="W18" s="18"/>
-      <c r="X18" s="18"/>
-      <c r="Y18" s="18"/>
-      <c r="Z18" s="18"/>
-      <c r="AA18" s="18"/>
-      <c r="AB18" s="18"/>
-      <c r="AC18" s="18"/>
-      <c r="AD18" s="18"/>
-      <c r="AE18" s="18"/>
-      <c r="AF18" s="18"/>
-    </row>
-    <row r="19" spans="2:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>105</v>
+      </c>
       <c r="H19" s="7" t="str">
         <f>IF(F19="","", INDEX(Table4[],MATCH(F19,Table4[primer],0),1))</f>
-        <v/>
+        <v>A01</v>
       </c>
       <c r="I19" s="7" cm="1">
         <f t="array" ref="I19">_xlfn.IFS(F19="",0,F19="water",11.5, TRUE, 5)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J19" s="9" t="s">
         <v>20</v>
       </c>
       <c r="K19" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="16">
+        <v>10</v>
+      </c>
+      <c r="P19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R19" s="16">
+      <c r="R19">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T19" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="T19" t="s">
         <v>20</v>
       </c>
-      <c r="U19" s="16" t="str">
+      <c r="U19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>105</v>
+      </c>
       <c r="H20" s="7" t="str">
         <f>IF(F20="","", INDEX(Table4[],MATCH(F20,Table4[primer],0),1))</f>
-        <v/>
+        <v>A01</v>
       </c>
       <c r="I20" s="7" cm="1">
         <f t="array" ref="I20">_xlfn.IFS(F20="",0,F20="water",11.5, TRUE, 5)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J20" s="9" t="s">
         <v>21</v>
       </c>
       <c r="K20" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="16">
+        <v>10</v>
+      </c>
+      <c r="P20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R20" s="16">
+      <c r="R20">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T20" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="T20" t="s">
         <v>21</v>
       </c>
-      <c r="U20" s="16" t="str">
+      <c r="U20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" t="s">
+        <v>105</v>
+      </c>
       <c r="H21" s="7" t="str">
         <f>IF(F21="","", INDEX(Table4[],MATCH(F21,Table4[primer],0),1))</f>
-        <v/>
+        <v>A01</v>
       </c>
       <c r="I21" s="7" cm="1">
         <f t="array" ref="I21">_xlfn.IFS(F21="",0,F21="water",11.5, TRUE, 5)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K21" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="16">
+        <v>10</v>
+      </c>
+      <c r="P21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R21" s="16">
+      <c r="R21">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T21" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="T21" t="s">
         <v>22</v>
       </c>
-      <c r="U21" s="16" t="str">
+      <c r="U21" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
+        <v>105</v>
+      </c>
       <c r="H22" s="7" t="str">
         <f>IF(F22="","", INDEX(Table4[],MATCH(F22,Table4[primer],0),1))</f>
-        <v/>
+        <v>A01</v>
       </c>
       <c r="I22" s="7" cm="1">
         <f t="array" ref="I22">_xlfn.IFS(F22="",0,F22="water",11.5, TRUE, 5)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J22" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K22" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="16">
+        <v>10</v>
+      </c>
+      <c r="P22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R22" s="16">
+      <c r="R22">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T22" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="T22" t="s">
         <v>23</v>
       </c>
-      <c r="U22" s="16" t="str">
+      <c r="U22" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>105</v>
+      </c>
       <c r="H23" s="7" t="str">
         <f>IF(F23="","", INDEX(Table4[],MATCH(F23,Table4[primer],0),1))</f>
-        <v/>
+        <v>A01</v>
       </c>
       <c r="I23" s="7" cm="1">
         <f t="array" ref="I23">_xlfn.IFS(F23="",0,F23="water",11.5, TRUE, 5)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J23" s="9" t="s">
         <v>24</v>
       </c>
       <c r="K23" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="16">
+        <v>10</v>
+      </c>
+      <c r="P23">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R23" s="16">
+      <c r="R23">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T23" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="T23" t="s">
         <v>24</v>
       </c>
-      <c r="U23" s="16" t="str">
+      <c r="U23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>105</v>
+      </c>
       <c r="H24" s="7" t="str">
         <f>IF(F24="","", INDEX(Table4[],MATCH(F24,Table4[primer],0),1))</f>
-        <v/>
+        <v>A01</v>
       </c>
       <c r="I24" s="7" cm="1">
         <f t="array" ref="I24">_xlfn.IFS(F24="",0,F24="water",11.5, TRUE, 5)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J24" s="9" t="s">
         <v>25</v>
       </c>
       <c r="K24" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="16">
+        <v>10</v>
+      </c>
+      <c r="P24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R24" s="16">
+      <c r="R24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T24" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="T24" t="s">
         <v>25</v>
       </c>
-      <c r="U24" s="16" t="str">
+      <c r="U24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>105</v>
+      </c>
       <c r="H25" s="7" t="str">
         <f>IF(F25="","", INDEX(Table4[],MATCH(F25,Table4[primer],0),1))</f>
-        <v/>
+        <v>A01</v>
       </c>
       <c r="I25" s="7" cm="1">
         <f t="array" ref="I25">_xlfn.IFS(F25="",0,F25="water",11.5, TRUE, 5)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>26</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="16">
+        <v>10</v>
+      </c>
+      <c r="P25">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R25" s="16">
+      <c r="R25">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T25" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="T25" t="s">
         <v>26</v>
       </c>
-      <c r="U25" s="16" t="str">
+      <c r="U25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B26" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>11</v>
-      </c>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
       <c r="H26" s="7" t="str">
         <f>IF(F26="","", INDEX(Table4[],MATCH(F26,Table4[primer],0),1))</f>
         <v/>
@@ -2368,29 +2347,29 @@
       </c>
       <c r="K26" s="7">
         <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="P26" s="16">
+        <v>0</v>
+      </c>
+      <c r="P26">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q26" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R26" s="16">
+      <c r="R26">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="T26" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="T26" t="s">
         <v>27</v>
       </c>
-      <c r="U26" s="16" t="str">
+      <c r="U26" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
       <c r="H27" s="7" t="str">
         <f>IF(F27="","", INDEX(Table4[],MATCH(F27,Table4[primer],0),1))</f>
         <v/>
@@ -2406,27 +2385,27 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P27" s="16">
+      <c r="P27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="16">
+      <c r="Q27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R27" s="16">
+      <c r="R27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T27" s="16" t="s">
+      <c r="T27" t="s">
         <v>28</v>
       </c>
-      <c r="U27" s="16" t="str">
+      <c r="U27" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
       <c r="H28" s="7" t="str">
         <f>IF(F28="","", INDEX(Table4[],MATCH(F28,Table4[primer],0),1))</f>
         <v/>
@@ -2442,27 +2421,27 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P28" s="16">
+      <c r="P28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q28" s="16">
+      <c r="Q28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R28" s="16">
+      <c r="R28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T28" s="16" t="s">
+      <c r="T28" t="s">
         <v>29</v>
       </c>
-      <c r="U28" s="16" t="str">
+      <c r="U28" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
       <c r="H29" s="7" t="str">
         <f>IF(F29="","", INDEX(Table4[],MATCH(F29,Table4[primer],0),1))</f>
         <v/>
@@ -2478,27 +2457,27 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P29" s="16">
+      <c r="P29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q29" s="16">
+      <c r="Q29">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R29" s="16">
+      <c r="R29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T29" s="16" t="s">
+      <c r="T29" t="s">
         <v>30</v>
       </c>
-      <c r="U29" s="16" t="str">
+      <c r="U29" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
       <c r="H30" s="7" t="str">
         <f>IF(F30="","", INDEX(Table4[],MATCH(F30,Table4[primer],0),1))</f>
         <v/>
@@ -2514,27 +2493,27 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P30" s="16">
+      <c r="P30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q30" s="16">
+      <c r="Q30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R30" s="16">
+      <c r="R30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T30" s="16" t="s">
+      <c r="T30" t="s">
         <v>31</v>
       </c>
-      <c r="U30" s="16" t="str">
+      <c r="U30" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
       <c r="H31" s="7" t="str">
         <f>IF(F31="","", INDEX(Table4[],MATCH(F31,Table4[primer],0),1))</f>
         <v/>
@@ -2550,27 +2529,27 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P31" s="16">
+      <c r="P31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q31" s="16">
+      <c r="Q31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R31" s="16">
+      <c r="R31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T31" s="16" t="s">
+      <c r="T31" t="s">
         <v>32</v>
       </c>
-      <c r="U31" s="16" t="str">
+      <c r="U31" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
       <c r="H32" s="7" t="str">
         <f>IF(F32="","", INDEX(Table4[],MATCH(F32,Table4[primer],0),1))</f>
         <v/>
@@ -2586,22 +2565,22 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P32" s="16">
+      <c r="P32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q32" s="16">
+      <c r="Q32">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R32" s="16">
+      <c r="R32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T32" s="16" t="s">
+      <c r="T32" t="s">
         <v>33</v>
       </c>
-      <c r="U32" s="16" t="str">
+      <c r="U32" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -2622,22 +2601,22 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P33" s="16">
+      <c r="P33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="16">
+      <c r="Q33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R33" s="16">
+      <c r="R33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T33" s="16" t="s">
+      <c r="T33" t="s">
         <v>34</v>
       </c>
-      <c r="U33" s="16" t="str">
+      <c r="U33" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -2658,22 +2637,22 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P34" s="16">
+      <c r="P34">
         <f t="shared" ref="P34:P65" si="5">COUNTIFS($C$2:$C$97,C34,$B$2:$B$97,B34)</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="16">
+      <c r="Q34">
         <f t="shared" ref="Q34:Q66" si="6">COUNTIFS($E$2:$E$97, E34, $F$2:$F$97, F34)</f>
         <v>0</v>
       </c>
-      <c r="R34" s="16">
+      <c r="R34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T34" s="16" t="s">
+      <c r="T34" t="s">
         <v>35</v>
       </c>
-      <c r="U34" s="16" t="str">
+      <c r="U34" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -2694,22 +2673,22 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P35" s="16">
+      <c r="P35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q35" s="16">
+      <c r="Q35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R35" s="16">
+      <c r="R35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T35" s="16" t="s">
+      <c r="T35" t="s">
         <v>36</v>
       </c>
-      <c r="U35" s="16" t="str">
+      <c r="U35" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -2730,22 +2709,22 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P36" s="16">
+      <c r="P36">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q36" s="16">
+      <c r="Q36">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R36" s="16">
+      <c r="R36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T36" s="16" t="s">
+      <c r="T36" t="s">
         <v>37</v>
       </c>
-      <c r="U36" s="16" t="str">
+      <c r="U36" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -2766,22 +2745,22 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P37" s="16">
+      <c r="P37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q37" s="16">
+      <c r="Q37">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R37" s="16">
+      <c r="R37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T37" s="16" t="s">
+      <c r="T37" t="s">
         <v>38</v>
       </c>
-      <c r="U37" s="16" t="str">
+      <c r="U37" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -2802,22 +2781,22 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P38" s="16">
+      <c r="P38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q38" s="16">
+      <c r="Q38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R38" s="16">
+      <c r="R38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T38" s="16" t="s">
+      <c r="T38" t="s">
         <v>39</v>
       </c>
-      <c r="U38" s="16" t="str">
+      <c r="U38" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -2838,22 +2817,22 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P39" s="16">
+      <c r="P39">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q39" s="16">
+      <c r="Q39">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R39" s="16">
+      <c r="R39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T39" s="16" t="s">
+      <c r="T39" t="s">
         <v>40</v>
       </c>
-      <c r="U39" s="16" t="str">
+      <c r="U39" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -2874,22 +2853,22 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P40" s="16">
+      <c r="P40">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q40" s="16">
+      <c r="Q40">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R40" s="16">
+      <c r="R40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T40" s="16" t="s">
+      <c r="T40" t="s">
         <v>41</v>
       </c>
-      <c r="U40" s="16" t="str">
+      <c r="U40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -2910,22 +2889,22 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P41" s="16">
+      <c r="P41">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q41" s="16">
+      <c r="Q41">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R41" s="16">
+      <c r="R41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T41" s="16" t="s">
+      <c r="T41" t="s">
         <v>42</v>
       </c>
-      <c r="U41" s="16" t="str">
+      <c r="U41" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -2946,22 +2925,22 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P42" s="16">
+      <c r="P42">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q42" s="16">
+      <c r="Q42">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R42" s="16">
+      <c r="R42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T42" s="16" t="s">
+      <c r="T42" t="s">
         <v>43</v>
       </c>
-      <c r="U42" s="16" t="str">
+      <c r="U42" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -2982,22 +2961,22 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P43" s="16">
+      <c r="P43">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q43" s="16">
+      <c r="Q43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R43" s="16">
+      <c r="R43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T43" s="16" t="s">
+      <c r="T43" t="s">
         <v>44</v>
       </c>
-      <c r="U43" s="16" t="str">
+      <c r="U43" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3018,22 +2997,22 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P44" s="16">
+      <c r="P44">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q44" s="16">
+      <c r="Q44">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R44" s="16">
+      <c r="R44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T44" s="16" t="s">
+      <c r="T44" t="s">
         <v>45</v>
       </c>
-      <c r="U44" s="16" t="str">
+      <c r="U44" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3054,22 +3033,22 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P45" s="16">
+      <c r="P45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q45" s="16">
+      <c r="Q45">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R45" s="16">
+      <c r="R45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T45" s="16" t="s">
+      <c r="T45" t="s">
         <v>46</v>
       </c>
-      <c r="U45" s="16" t="str">
+      <c r="U45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3090,22 +3069,22 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P46" s="16">
+      <c r="P46">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q46" s="16">
+      <c r="Q46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R46" s="16">
+      <c r="R46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T46" s="16" t="s">
+      <c r="T46" t="s">
         <v>47</v>
       </c>
-      <c r="U46" s="16" t="str">
+      <c r="U46" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3126,22 +3105,22 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P47" s="16">
+      <c r="P47">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q47" s="16">
+      <c r="Q47">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R47" s="16">
+      <c r="R47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T47" s="16" t="s">
+      <c r="T47" t="s">
         <v>48</v>
       </c>
-      <c r="U47" s="16" t="str">
+      <c r="U47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3162,22 +3141,22 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P48" s="16">
+      <c r="P48">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q48" s="16">
+      <c r="Q48">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R48" s="16">
+      <c r="R48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T48" s="16" t="s">
+      <c r="T48" t="s">
         <v>49</v>
       </c>
-      <c r="U48" s="16" t="str">
+      <c r="U48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3198,22 +3177,22 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P49" s="16">
+      <c r="P49">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q49" s="16">
+      <c r="Q49">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R49" s="16">
+      <c r="R49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T49" s="16" t="s">
+      <c r="T49" t="s">
         <v>50</v>
       </c>
-      <c r="U49" s="16" t="str">
+      <c r="U49" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3234,22 +3213,22 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P50" s="16">
+      <c r="P50">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q50" s="16">
+      <c r="Q50">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R50" s="16">
+      <c r="R50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T50" s="16" t="s">
+      <c r="T50" t="s">
         <v>51</v>
       </c>
-      <c r="U50" s="16" t="str">
+      <c r="U50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3270,22 +3249,22 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P51" s="16">
+      <c r="P51">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q51" s="16">
+      <c r="Q51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R51" s="16">
+      <c r="R51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T51" s="16" t="s">
+      <c r="T51" t="s">
         <v>52</v>
       </c>
-      <c r="U51" s="16" t="str">
+      <c r="U51" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3306,22 +3285,22 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P52" s="16">
+      <c r="P52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q52" s="16">
+      <c r="Q52">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R52" s="16">
+      <c r="R52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T52" s="16" t="s">
+      <c r="T52" t="s">
         <v>53</v>
       </c>
-      <c r="U52" s="16" t="str">
+      <c r="U52" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3342,22 +3321,22 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P53" s="16">
+      <c r="P53">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q53" s="16">
+      <c r="Q53">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R53" s="16">
+      <c r="R53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T53" s="16" t="s">
+      <c r="T53" t="s">
         <v>54</v>
       </c>
-      <c r="U53" s="16" t="str">
+      <c r="U53" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3378,22 +3357,22 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P54" s="16">
+      <c r="P54">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q54" s="16">
+      <c r="Q54">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R54" s="16">
+      <c r="R54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T54" s="16" t="s">
+      <c r="T54" t="s">
         <v>55</v>
       </c>
-      <c r="U54" s="16" t="str">
+      <c r="U54" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3414,22 +3393,22 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P55" s="16">
+      <c r="P55">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q55" s="16">
+      <c r="Q55">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R55" s="16">
+      <c r="R55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T55" s="16" t="s">
+      <c r="T55" t="s">
         <v>56</v>
       </c>
-      <c r="U55" s="16" t="str">
+      <c r="U55" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3450,22 +3429,22 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P56" s="16">
+      <c r="P56">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q56" s="16">
+      <c r="Q56">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R56" s="16">
+      <c r="R56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T56" s="16" t="s">
+      <c r="T56" t="s">
         <v>57</v>
       </c>
-      <c r="U56" s="16" t="str">
+      <c r="U56" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3486,22 +3465,22 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P57" s="16">
+      <c r="P57">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q57" s="16">
+      <c r="Q57">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R57" s="16">
+      <c r="R57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T57" s="16" t="s">
+      <c r="T57" t="s">
         <v>58</v>
       </c>
-      <c r="U57" s="16" t="str">
+      <c r="U57" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3522,22 +3501,22 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P58" s="16">
+      <c r="P58">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q58" s="16">
+      <c r="Q58">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R58" s="16">
+      <c r="R58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T58" s="16" t="s">
+      <c r="T58" t="s">
         <v>59</v>
       </c>
-      <c r="U58" s="16" t="str">
+      <c r="U58" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3558,22 +3537,22 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P59" s="16">
+      <c r="P59">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q59" s="16">
+      <c r="Q59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R59" s="16">
+      <c r="R59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T59" s="16" t="s">
+      <c r="T59" t="s">
         <v>60</v>
       </c>
-      <c r="U59" s="16" t="str">
+      <c r="U59" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3594,22 +3573,22 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P60" s="16">
+      <c r="P60">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q60" s="16">
+      <c r="Q60">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R60" s="16">
+      <c r="R60">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T60" s="16" t="s">
+      <c r="T60" t="s">
         <v>61</v>
       </c>
-      <c r="U60" s="16" t="str">
+      <c r="U60" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3630,22 +3609,22 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P61" s="16">
+      <c r="P61">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q61" s="16">
+      <c r="Q61">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R61" s="16">
+      <c r="R61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T61" s="16" t="s">
+      <c r="T61" t="s">
         <v>62</v>
       </c>
-      <c r="U61" s="16" t="str">
+      <c r="U61" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3666,22 +3645,22 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P62" s="16">
+      <c r="P62">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q62" s="16">
+      <c r="Q62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R62" s="16">
+      <c r="R62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T62" s="16" t="s">
+      <c r="T62" t="s">
         <v>63</v>
       </c>
-      <c r="U62" s="16" t="str">
+      <c r="U62" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3702,22 +3681,22 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P63" s="16">
+      <c r="P63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q63" s="16">
+      <c r="Q63">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R63" s="16">
+      <c r="R63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T63" s="16" t="s">
+      <c r="T63" t="s">
         <v>64</v>
       </c>
-      <c r="U63" s="16" t="str">
+      <c r="U63" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3738,22 +3717,22 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P64" s="16">
+      <c r="P64">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q64" s="16">
+      <c r="Q64">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R64" s="16">
+      <c r="R64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T64" s="16" t="s">
+      <c r="T64" t="s">
         <v>65</v>
       </c>
-      <c r="U64" s="16" t="str">
+      <c r="U64" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3774,22 +3753,22 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P65" s="16">
+      <c r="P65">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q65" s="16">
+      <c r="Q65">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R65" s="16">
+      <c r="R65">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T65" s="16" t="s">
+      <c r="T65" t="s">
         <v>66</v>
       </c>
-      <c r="U65" s="16" t="str">
+      <c r="U65" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3810,22 +3789,22 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P66" s="16">
+      <c r="P66">
         <f t="shared" ref="P66:P97" si="7">COUNTIFS($C$2:$C$97,C66,$B$2:$B$97,B66)</f>
         <v>0</v>
       </c>
-      <c r="Q66" s="16">
+      <c r="Q66">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R66" s="16">
+      <c r="R66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T66" s="16" t="s">
+      <c r="T66" t="s">
         <v>67</v>
       </c>
-      <c r="U66" s="16" t="str">
+      <c r="U66" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3846,22 +3825,22 @@
         <f t="shared" ref="K67:K97" si="8">IF(OR(C67 = "",B67=""),0,15-I67)</f>
         <v>0</v>
       </c>
-      <c r="P67" s="16">
+      <c r="P67">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q67" s="16">
+      <c r="Q67">
         <f t="shared" ref="Q67:Q97" si="9">COUNTIFS($E$2:$E$97, E67, $F$2:$F$97, F67)</f>
         <v>0</v>
       </c>
-      <c r="R67" s="16">
+      <c r="R67">
         <f t="shared" ref="R67:R97" si="10">I67+K67</f>
         <v>0</v>
       </c>
-      <c r="T67" s="16" t="s">
+      <c r="T67" t="s">
         <v>68</v>
       </c>
-      <c r="U67" s="16" t="str">
+      <c r="U67" t="str">
         <f t="shared" ref="U67:U97" si="11">TEXT(D67,"")</f>
         <v/>
       </c>
@@ -3882,22 +3861,22 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P68" s="16">
+      <c r="P68">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q68" s="16">
+      <c r="Q68">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R68" s="16">
+      <c r="R68">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T68" s="16" t="s">
+      <c r="T68" t="s">
         <v>69</v>
       </c>
-      <c r="U68" s="16" t="str">
+      <c r="U68" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -3918,22 +3897,22 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P69" s="16">
+      <c r="P69">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q69" s="16">
+      <c r="Q69">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R69" s="16">
+      <c r="R69">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T69" s="16" t="s">
+      <c r="T69" t="s">
         <v>70</v>
       </c>
-      <c r="U69" s="16" t="str">
+      <c r="U69" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -3954,22 +3933,22 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P70" s="16">
+      <c r="P70">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q70" s="16">
+      <c r="Q70">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R70" s="16">
+      <c r="R70">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T70" s="16" t="s">
+      <c r="T70" t="s">
         <v>71</v>
       </c>
-      <c r="U70" s="16" t="str">
+      <c r="U70" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -3990,22 +3969,22 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P71" s="16">
+      <c r="P71">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q71" s="16">
+      <c r="Q71">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R71" s="16">
+      <c r="R71">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T71" s="16" t="s">
+      <c r="T71" t="s">
         <v>72</v>
       </c>
-      <c r="U71" s="16" t="str">
+      <c r="U71" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -4026,22 +4005,22 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P72" s="16">
+      <c r="P72">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q72" s="16">
+      <c r="Q72">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R72" s="16">
+      <c r="R72">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T72" s="16" t="s">
+      <c r="T72" t="s">
         <v>73</v>
       </c>
-      <c r="U72" s="16" t="str">
+      <c r="U72" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -4062,22 +4041,22 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P73" s="16">
+      <c r="P73">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q73" s="16">
+      <c r="Q73">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R73" s="16">
+      <c r="R73">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T73" s="16" t="s">
+      <c r="T73" t="s">
         <v>74</v>
       </c>
-      <c r="U73" s="16" t="str">
+      <c r="U73" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -4098,22 +4077,22 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P74" s="16">
+      <c r="P74">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q74" s="16">
+      <c r="Q74">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R74" s="16">
+      <c r="R74">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T74" s="16" t="s">
+      <c r="T74" t="s">
         <v>75</v>
       </c>
-      <c r="U74" s="16" t="str">
+      <c r="U74" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -4134,22 +4113,22 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P75" s="16">
+      <c r="P75">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q75" s="16">
+      <c r="Q75">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R75" s="16">
+      <c r="R75">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T75" s="16" t="s">
+      <c r="T75" t="s">
         <v>76</v>
       </c>
-      <c r="U75" s="16" t="str">
+      <c r="U75" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -4170,22 +4149,22 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P76" s="16">
+      <c r="P76">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q76" s="16">
+      <c r="Q76">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R76" s="16">
+      <c r="R76">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T76" s="16" t="s">
+      <c r="T76" t="s">
         <v>77</v>
       </c>
-      <c r="U76" s="16" t="str">
+      <c r="U76" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -4206,22 +4185,22 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P77" s="16">
+      <c r="P77">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q77" s="16">
+      <c r="Q77">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R77" s="16">
+      <c r="R77">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T77" s="16" t="s">
+      <c r="T77" t="s">
         <v>78</v>
       </c>
-      <c r="U77" s="16" t="str">
+      <c r="U77" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -4242,22 +4221,22 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P78" s="16">
+      <c r="P78">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q78" s="16">
+      <c r="Q78">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R78" s="16">
+      <c r="R78">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T78" s="16" t="s">
+      <c r="T78" t="s">
         <v>79</v>
       </c>
-      <c r="U78" s="16" t="str">
+      <c r="U78" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -4278,22 +4257,22 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P79" s="16">
+      <c r="P79">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q79" s="16">
+      <c r="Q79">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R79" s="16">
+      <c r="R79">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T79" s="16" t="s">
+      <c r="T79" t="s">
         <v>80</v>
       </c>
-      <c r="U79" s="16" t="str">
+      <c r="U79" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -4314,22 +4293,22 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P80" s="16">
+      <c r="P80">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q80" s="16">
+      <c r="Q80">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R80" s="16">
+      <c r="R80">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T80" s="16" t="s">
+      <c r="T80" t="s">
         <v>81</v>
       </c>
-      <c r="U80" s="16" t="str">
+      <c r="U80" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -4350,22 +4329,22 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P81" s="16">
+      <c r="P81">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q81" s="16">
+      <c r="Q81">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R81" s="16">
+      <c r="R81">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T81" s="16" t="s">
+      <c r="T81" t="s">
         <v>82</v>
       </c>
-      <c r="U81" s="16" t="str">
+      <c r="U81" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -4386,22 +4365,22 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P82" s="16">
+      <c r="P82">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q82" s="16">
+      <c r="Q82">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R82" s="16">
+      <c r="R82">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T82" s="16" t="s">
+      <c r="T82" t="s">
         <v>83</v>
       </c>
-      <c r="U82" s="16" t="str">
+      <c r="U82" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -4422,22 +4401,22 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P83" s="16">
+      <c r="P83">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q83" s="16">
+      <c r="Q83">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R83" s="16">
+      <c r="R83">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T83" s="16" t="s">
+      <c r="T83" t="s">
         <v>84</v>
       </c>
-      <c r="U83" s="16" t="str">
+      <c r="U83" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -4458,22 +4437,22 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P84" s="16">
+      <c r="P84">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q84" s="16">
+      <c r="Q84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R84" s="16">
+      <c r="R84">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T84" s="16" t="s">
+      <c r="T84" t="s">
         <v>85</v>
       </c>
-      <c r="U84" s="16" t="str">
+      <c r="U84" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -4494,22 +4473,22 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P85" s="16">
+      <c r="P85">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q85" s="16">
+      <c r="Q85">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R85" s="16">
+      <c r="R85">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T85" s="16" t="s">
+      <c r="T85" t="s">
         <v>86</v>
       </c>
-      <c r="U85" s="16" t="str">
+      <c r="U85" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -4530,22 +4509,22 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P86" s="16">
+      <c r="P86">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q86" s="16">
+      <c r="Q86">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R86" s="16">
+      <c r="R86">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T86" s="16" t="s">
+      <c r="T86" t="s">
         <v>87</v>
       </c>
-      <c r="U86" s="16" t="str">
+      <c r="U86" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -4566,22 +4545,22 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P87" s="16">
+      <c r="P87">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q87" s="16">
+      <c r="Q87">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R87" s="16">
+      <c r="R87">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T87" s="16" t="s">
+      <c r="T87" t="s">
         <v>88</v>
       </c>
-      <c r="U87" s="16" t="str">
+      <c r="U87" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -4602,22 +4581,22 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P88" s="16">
+      <c r="P88">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q88" s="16">
+      <c r="Q88">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R88" s="16">
+      <c r="R88">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T88" s="16" t="s">
+      <c r="T88" t="s">
         <v>89</v>
       </c>
-      <c r="U88" s="16" t="str">
+      <c r="U88" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -4638,22 +4617,22 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P89" s="16">
+      <c r="P89">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q89" s="16">
+      <c r="Q89">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R89" s="16">
+      <c r="R89">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T89" s="16" t="s">
+      <c r="T89" t="s">
         <v>90</v>
       </c>
-      <c r="U89" s="16" t="str">
+      <c r="U89" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -4674,22 +4653,22 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P90" s="16">
+      <c r="P90">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q90" s="16">
+      <c r="Q90">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R90" s="16">
+      <c r="R90">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T90" s="16" t="s">
+      <c r="T90" t="s">
         <v>91</v>
       </c>
-      <c r="U90" s="16" t="str">
+      <c r="U90" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -4710,22 +4689,22 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P91" s="16">
+      <c r="P91">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q91" s="16">
+      <c r="Q91">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R91" s="16">
+      <c r="R91">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T91" s="16" t="s">
+      <c r="T91" t="s">
         <v>92</v>
       </c>
-      <c r="U91" s="16" t="str">
+      <c r="U91" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -4746,22 +4725,22 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P92" s="16">
+      <c r="P92">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q92" s="16">
+      <c r="Q92">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R92" s="16">
+      <c r="R92">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T92" s="16" t="s">
+      <c r="T92" t="s">
         <v>93</v>
       </c>
-      <c r="U92" s="16" t="str">
+      <c r="U92" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -4782,22 +4761,22 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P93" s="16">
+      <c r="P93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q93" s="16">
+      <c r="Q93">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R93" s="16">
+      <c r="R93">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T93" s="16" t="s">
+      <c r="T93" t="s">
         <v>94</v>
       </c>
-      <c r="U93" s="16" t="str">
+      <c r="U93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -4818,22 +4797,22 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P94" s="16">
+      <c r="P94">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q94" s="16">
+      <c r="Q94">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R94" s="16">
+      <c r="R94">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T94" s="16" t="s">
+      <c r="T94" t="s">
         <v>95</v>
       </c>
-      <c r="U94" s="16" t="str">
+      <c r="U94" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -4854,22 +4833,22 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P95" s="16">
+      <c r="P95">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q95" s="16">
+      <c r="Q95">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R95" s="16">
+      <c r="R95">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T95" s="16" t="s">
+      <c r="T95" t="s">
         <v>96</v>
       </c>
-      <c r="U95" s="16" t="str">
+      <c r="U95" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -4890,22 +4869,22 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P96" s="16">
+      <c r="P96">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q96" s="16">
+      <c r="Q96">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R96" s="16">
+      <c r="R96">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T96" s="16" t="s">
+      <c r="T96" t="s">
         <v>97</v>
       </c>
-      <c r="U96" s="16" t="str">
+      <c r="U96" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -4926,22 +4905,22 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P97" s="16">
+      <c r="P97">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q97" s="16">
+      <c r="Q97">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R97" s="16">
+      <c r="R97">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T97" s="16" t="s">
+      <c r="T97" t="s">
         <v>98</v>
       </c>
-      <c r="U97" s="16" t="str">
+      <c r="U97" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -5007,7 +4986,7 @@
   <dimension ref="A1:J97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5359,10 +5338,10 @@
         <v>46</v>
       </c>
       <c r="B25" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C25" t="s">
         <v>188</v>
-      </c>
-      <c r="C25" t="s">
-        <v>189</v>
       </c>
       <c r="F25" t="s">
         <v>145</v>
@@ -5461,7 +5440,7 @@
     </row>
     <row r="37" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F37" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J37" t="s">
         <v>38</v>
@@ -5811,20 +5790,20 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
         <f>IF(master!B2="plate",master!C2, "")</f>
-        <v>A01</v>
+        <v>A02</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1">
         <f>IF(master!B2="plate",master!K2,0)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f>IF(master!B3="plate",master!C3, "")</f>
-        <v>B01</v>
+        <v>B02</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -5837,20 +5816,20 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
         <f>IF(master!B4="plate",master!C4, "")</f>
-        <v>C01</v>
+        <v>C02</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1">
         <f>IF(master!B4="plate",master!K4,0)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
         <f>IF(master!B5="plate",master!C5, "")</f>
-        <v>D01</v>
+        <v>D02</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
@@ -5863,7 +5842,7 @@
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="str">
         <f>IF(master!B6="plate",master!C6, "")</f>
-        <v>E01</v>
+        <v>E02</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
@@ -5876,53 +5855,53 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="str">
         <f>IF(master!B7="plate",master!C7, "")</f>
-        <v/>
+        <v>F02</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="1">
         <f>IF(master!B7="plate",master!K7,0)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="str">
         <f>IF(master!B8="plate",master!C8, "")</f>
-        <v/>
+        <v>G02</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="1">
         <f>IF(master!B8="plate",master!K8,0)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="str">
         <f>IF(master!B9="plate",master!C9, "")</f>
-        <v/>
+        <v>H02</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1">
         <f>IF(master!B9="plate",master!K9,0)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="str">
         <f>IF(master!B10="plate",master!C10, "")</f>
-        <v>B02</v>
+        <v/>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="1">
         <f>IF(master!B10="plate",master!K10,0)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -6019,14 +5998,14 @@
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="str">
         <f>IF(master!B18="plate",master!C18, "")</f>
-        <v>C03</v>
+        <v/>
       </c>
       <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="1">
         <f>IF(master!B18="plate",master!K18,0)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -7163,40 +7142,40 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="str">
         <f>IF(master!B7="strip",master!C7,"")</f>
-        <v>F01</v>
+        <v/>
       </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="1">
         <f>IF(master!B7="strip",master!K7,0)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="str">
         <f>IF(master!B8="strip",master!C8,"")</f>
-        <v>H12</v>
+        <v/>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="1">
         <f>IF(master!B8="strip",master!K8,0)</f>
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="str">
         <f>IF(master!B9="strip",master!C9,"")</f>
-        <v>H12</v>
+        <v/>
       </c>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1">
         <f>IF(master!B9="strip",master!K9,0)</f>
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -7228,27 +7207,27 @@
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="str">
         <f>IF(master!B12="strip",master!C12,"")</f>
-        <v/>
+        <v>E02</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="1">
         <f>IF(master!B12="strip",master!K12,0)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="str">
         <f>IF(master!B13="strip",master!C13,"")</f>
-        <v/>
+        <v>B05</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="1">
         <f>IF(master!B13="strip",master!K13,0)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -7306,118 +7285,118 @@
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="str">
         <f>IF(master!B18="strip",master!C18,"")</f>
-        <v/>
+        <v>A01</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="1">
         <f>IF(master!B18="strip",master!K18,0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="str">
         <f>IF(master!B19="strip",master!C19,"")</f>
-        <v/>
+        <v>B01</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="1">
         <f>IF(master!B19="strip",master!K19,0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="str">
         <f>IF(master!B20="strip",master!C20,"")</f>
-        <v/>
+        <v>C01</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="1">
         <f>IF(master!B20="strip",master!K20,0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="str">
         <f>IF(master!B21="strip",master!C21,"")</f>
-        <v/>
+        <v>D01</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="1">
         <f>IF(master!B21="strip",master!K21,0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="str">
         <f>IF(master!B22="strip",master!C22,"")</f>
-        <v/>
+        <v>E01</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="1">
         <f>IF(master!B22="strip",master!K22,0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="str">
         <f>IF(master!B23="strip",master!C23,"")</f>
-        <v/>
+        <v>F01</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="1">
         <f>IF(master!B23="strip",master!K23,0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="str">
         <f>IF(master!B24="strip",master!C24,"")</f>
-        <v/>
+        <v>G01</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="1">
         <f>IF(master!B24="strip",master!K24,0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="str">
         <f>IF(master!B25="strip",master!C25,"")</f>
-        <v/>
+        <v>H01</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="1">
         <f>IF(master!B25="strip",master!K25,0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="str">
         <f>IF(master!B26="strip",master!C26,"")</f>
-        <v>A02</v>
+        <v/>
       </c>
       <c r="B26" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="1">
         <f>IF(master!B26="strip",master!K26,0)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -8387,14 +8366,14 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
         <f>IF(ISTEXT(master!F2),master!H2,"")</f>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1">
         <f>master!I2</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -8413,14 +8392,14 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
         <f>IF(ISTEXT(master!F4),master!H4,"")</f>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1">
         <f>master!I4</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -8452,40 +8431,40 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="str">
         <f>IF(ISTEXT(master!F7),master!H7,"")</f>
-        <v>C02</v>
+        <v/>
       </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="1">
         <f>master!I7</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="str">
         <f>IF(ISTEXT(master!F8),master!H8,"")</f>
-        <v>D05</v>
+        <v/>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="1">
         <f>master!I8</f>
-        <v>11.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="str">
         <f>IF(ISTEXT(master!F9),master!H9,"")</f>
-        <v>D05</v>
+        <v/>
       </c>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1">
         <f>master!I9</f>
-        <v>11.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -8595,105 +8574,105 @@
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="str">
         <f>IF(ISTEXT(master!F18),master!H18,"")</f>
-        <v/>
+        <v>A01</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="1">
         <f>master!I18</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="str">
         <f>IF(ISTEXT(master!F19),master!H19,"")</f>
-        <v/>
+        <v>A01</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="1">
         <f>master!I19</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="str">
         <f>IF(ISTEXT(master!F20),master!H20,"")</f>
-        <v/>
+        <v>A01</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="1">
         <f>master!I20</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="str">
         <f>IF(ISTEXT(master!F21),master!H21,"")</f>
-        <v/>
+        <v>A01</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="1">
         <f>master!I21</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="str">
         <f>IF(ISTEXT(master!F22),master!H22,"")</f>
-        <v/>
+        <v>A01</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="1">
         <f>master!I22</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="str">
         <f>IF(ISTEXT(master!F23),master!H23,"")</f>
-        <v/>
+        <v>A01</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="1">
         <f>master!I23</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="str">
         <f>IF(ISTEXT(master!F24),master!H24,"")</f>
-        <v/>
+        <v>A01</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="1">
         <f>master!I24</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="str">
         <f>IF(ISTEXT(master!F25),master!H25,"")</f>
-        <v/>
+        <v>A01</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="1">
         <f>master!I25</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -9650,7 +9629,7 @@
   <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9662,37 +9641,37 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" t="s">
         <v>175</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>176</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>177</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>178</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>179</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>180</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>181</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>182</v>
-      </c>
-      <c r="I1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>source_plate!A2</f>
-        <v>A01</v>
+        <v>A02</v>
       </c>
       <c r="B2" t="str">
         <f>source_plate!B2</f>
@@ -9700,7 +9679,7 @@
       </c>
       <c r="C2">
         <f>source_plate!C2</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D2" t="str">
         <f>source_strip!A2</f>
@@ -9716,7 +9695,7 @@
       </c>
       <c r="G2" t="str">
         <f>source_tube!A2</f>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="H2" t="str">
         <f>source_tube!B2</f>
@@ -9724,13 +9703,13 @@
       </c>
       <c r="I2">
         <f>source_tube!C2</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>source_plate!A3</f>
-        <v>B01</v>
+        <v>B02</v>
       </c>
       <c r="B3" t="str">
         <f>source_plate!B3</f>
@@ -9768,7 +9747,7 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>source_plate!A4</f>
-        <v>C01</v>
+        <v>C02</v>
       </c>
       <c r="B4" t="str">
         <f>source_plate!B4</f>
@@ -9776,7 +9755,7 @@
       </c>
       <c r="C4">
         <f>source_plate!C4</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D4" t="str">
         <f>source_strip!A4</f>
@@ -9792,7 +9771,7 @@
       </c>
       <c r="G4" t="str">
         <f>source_tube!A4</f>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="H4" t="str">
         <f>source_tube!B4</f>
@@ -9800,13 +9779,13 @@
       </c>
       <c r="I4">
         <f>source_tube!C4</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>source_plate!A5</f>
-        <v>D01</v>
+        <v>D02</v>
       </c>
       <c r="B5" t="str">
         <f>source_plate!B5</f>
@@ -9844,7 +9823,7 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>source_plate!A6</f>
-        <v>E01</v>
+        <v>E02</v>
       </c>
       <c r="B6" t="str">
         <f>source_plate!B6</f>
@@ -9882,7 +9861,7 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>source_plate!A7</f>
-        <v/>
+        <v>F02</v>
       </c>
       <c r="B7" t="str">
         <f>source_plate!B7</f>
@@ -9890,11 +9869,11 @@
       </c>
       <c r="C7">
         <f>source_plate!C7</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D7" t="str">
         <f>source_strip!A7</f>
-        <v>F01</v>
+        <v/>
       </c>
       <c r="E7" t="str">
         <f>source_strip!B7</f>
@@ -9902,11 +9881,11 @@
       </c>
       <c r="F7">
         <f>source_strip!C7</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G7" t="str">
         <f>source_tube!A7</f>
-        <v>C02</v>
+        <v/>
       </c>
       <c r="H7" t="str">
         <f>source_tube!B7</f>
@@ -9914,13 +9893,13 @@
       </c>
       <c r="I7">
         <f>source_tube!C7</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f>source_plate!A8</f>
-        <v/>
+        <v>G02</v>
       </c>
       <c r="B8" t="str">
         <f>source_plate!B8</f>
@@ -9928,11 +9907,11 @@
       </c>
       <c r="C8">
         <f>source_plate!C8</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D8" t="str">
         <f>source_strip!A8</f>
-        <v>H12</v>
+        <v/>
       </c>
       <c r="E8" t="str">
         <f>source_strip!B8</f>
@@ -9940,11 +9919,11 @@
       </c>
       <c r="F8">
         <f>source_strip!C8</f>
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="G8" t="str">
         <f>source_tube!A8</f>
-        <v>D05</v>
+        <v/>
       </c>
       <c r="H8" t="str">
         <f>source_tube!B8</f>
@@ -9952,13 +9931,13 @@
       </c>
       <c r="I8">
         <f>source_tube!C8</f>
-        <v>11.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f>source_plate!A9</f>
-        <v/>
+        <v>H02</v>
       </c>
       <c r="B9" t="str">
         <f>source_plate!B9</f>
@@ -9966,11 +9945,11 @@
       </c>
       <c r="C9">
         <f>source_plate!C9</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D9" t="str">
         <f>source_strip!A9</f>
-        <v>H12</v>
+        <v/>
       </c>
       <c r="E9" t="str">
         <f>source_strip!B9</f>
@@ -9978,11 +9957,11 @@
       </c>
       <c r="F9">
         <f>source_strip!C9</f>
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="G9" t="str">
         <f>source_tube!A9</f>
-        <v>D05</v>
+        <v/>
       </c>
       <c r="H9" t="str">
         <f>source_tube!B9</f>
@@ -9990,13 +9969,13 @@
       </c>
       <c r="I9">
         <f>source_tube!C9</f>
-        <v>11.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>source_plate!A10</f>
-        <v>B02</v>
+        <v/>
       </c>
       <c r="B10" t="str">
         <f>source_plate!B10</f>
@@ -10004,7 +9983,7 @@
       </c>
       <c r="C10">
         <f>source_plate!C10</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D10" t="str">
         <f>source_strip!A10</f>
@@ -10084,7 +10063,7 @@
       </c>
       <c r="D12" t="str">
         <f>source_strip!A12</f>
-        <v/>
+        <v>E02</v>
       </c>
       <c r="E12" t="str">
         <f>source_strip!B12</f>
@@ -10092,7 +10071,7 @@
       </c>
       <c r="F12">
         <f>source_strip!C12</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G12" t="str">
         <f>source_tube!A12</f>
@@ -10122,7 +10101,7 @@
       </c>
       <c r="D13" t="str">
         <f>source_strip!A13</f>
-        <v/>
+        <v>B05</v>
       </c>
       <c r="E13" t="str">
         <f>source_strip!B13</f>
@@ -10130,7 +10109,7 @@
       </c>
       <c r="F13">
         <f>source_strip!C13</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G13" t="str">
         <f>source_tube!A13</f>
@@ -10300,7 +10279,7 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>source_plate!A18</f>
-        <v>C03</v>
+        <v/>
       </c>
       <c r="B18" t="str">
         <f>source_plate!B18</f>
@@ -10308,11 +10287,11 @@
       </c>
       <c r="C18">
         <f>source_plate!C18</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D18" t="str">
         <f>source_strip!A18</f>
-        <v/>
+        <v>A01</v>
       </c>
       <c r="E18" t="str">
         <f>source_strip!B18</f>
@@ -10320,11 +10299,11 @@
       </c>
       <c r="F18">
         <f>source_strip!C18</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G18" t="str">
         <f>source_tube!A18</f>
-        <v/>
+        <v>A01</v>
       </c>
       <c r="H18" t="str">
         <f>source_tube!B18</f>
@@ -10332,7 +10311,7 @@
       </c>
       <c r="I18">
         <f>source_tube!C18</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -10350,7 +10329,7 @@
       </c>
       <c r="D19" t="str">
         <f>source_strip!A19</f>
-        <v/>
+        <v>B01</v>
       </c>
       <c r="E19" t="str">
         <f>source_strip!B19</f>
@@ -10358,11 +10337,11 @@
       </c>
       <c r="F19">
         <f>source_strip!C19</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G19" t="str">
         <f>source_tube!A19</f>
-        <v/>
+        <v>A01</v>
       </c>
       <c r="H19" t="str">
         <f>source_tube!B19</f>
@@ -10370,7 +10349,7 @@
       </c>
       <c r="I19">
         <f>source_tube!C19</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -10388,7 +10367,7 @@
       </c>
       <c r="D20" t="str">
         <f>source_strip!A20</f>
-        <v/>
+        <v>C01</v>
       </c>
       <c r="E20" t="str">
         <f>source_strip!B20</f>
@@ -10396,11 +10375,11 @@
       </c>
       <c r="F20">
         <f>source_strip!C20</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G20" t="str">
         <f>source_tube!A20</f>
-        <v/>
+        <v>A01</v>
       </c>
       <c r="H20" t="str">
         <f>source_tube!B20</f>
@@ -10408,7 +10387,7 @@
       </c>
       <c r="I20">
         <f>source_tube!C20</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -10426,7 +10405,7 @@
       </c>
       <c r="D21" t="str">
         <f>source_strip!A21</f>
-        <v/>
+        <v>D01</v>
       </c>
       <c r="E21" t="str">
         <f>source_strip!B21</f>
@@ -10434,11 +10413,11 @@
       </c>
       <c r="F21">
         <f>source_strip!C21</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G21" t="str">
         <f>source_tube!A21</f>
-        <v/>
+        <v>A01</v>
       </c>
       <c r="H21" t="str">
         <f>source_tube!B21</f>
@@ -10446,7 +10425,7 @@
       </c>
       <c r="I21">
         <f>source_tube!C21</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -10464,7 +10443,7 @@
       </c>
       <c r="D22" t="str">
         <f>source_strip!A22</f>
-        <v/>
+        <v>E01</v>
       </c>
       <c r="E22" t="str">
         <f>source_strip!B22</f>
@@ -10472,11 +10451,11 @@
       </c>
       <c r="F22">
         <f>source_strip!C22</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G22" t="str">
         <f>source_tube!A22</f>
-        <v/>
+        <v>A01</v>
       </c>
       <c r="H22" t="str">
         <f>source_tube!B22</f>
@@ -10484,7 +10463,7 @@
       </c>
       <c r="I22">
         <f>source_tube!C22</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -10502,7 +10481,7 @@
       </c>
       <c r="D23" t="str">
         <f>source_strip!A23</f>
-        <v/>
+        <v>F01</v>
       </c>
       <c r="E23" t="str">
         <f>source_strip!B23</f>
@@ -10510,11 +10489,11 @@
       </c>
       <c r="F23">
         <f>source_strip!C23</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G23" t="str">
         <f>source_tube!A23</f>
-        <v/>
+        <v>A01</v>
       </c>
       <c r="H23" t="str">
         <f>source_tube!B23</f>
@@ -10522,7 +10501,7 @@
       </c>
       <c r="I23">
         <f>source_tube!C23</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -10540,7 +10519,7 @@
       </c>
       <c r="D24" t="str">
         <f>source_strip!A24</f>
-        <v/>
+        <v>G01</v>
       </c>
       <c r="E24" t="str">
         <f>source_strip!B24</f>
@@ -10548,11 +10527,11 @@
       </c>
       <c r="F24">
         <f>source_strip!C24</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G24" t="str">
         <f>source_tube!A24</f>
-        <v/>
+        <v>A01</v>
       </c>
       <c r="H24" t="str">
         <f>source_tube!B24</f>
@@ -10560,7 +10539,7 @@
       </c>
       <c r="I24">
         <f>source_tube!C24</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -10578,7 +10557,7 @@
       </c>
       <c r="D25" t="str">
         <f>source_strip!A25</f>
-        <v/>
+        <v>H01</v>
       </c>
       <c r="E25" t="str">
         <f>source_strip!B25</f>
@@ -10586,11 +10565,11 @@
       </c>
       <c r="F25">
         <f>source_strip!C25</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G25" t="str">
         <f>source_tube!A25</f>
-        <v/>
+        <v>A01</v>
       </c>
       <c r="H25" t="str">
         <f>source_tube!B25</f>
@@ -10598,7 +10577,7 @@
       </c>
       <c r="I25">
         <f>source_tube!C25</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -10616,7 +10595,7 @@
       </c>
       <c r="D26" t="str">
         <f>source_strip!A26</f>
-        <v>A02</v>
+        <v/>
       </c>
       <c r="E26" t="str">
         <f>source_strip!B26</f>
@@ -10624,7 +10603,7 @@
       </c>
       <c r="F26">
         <f>source_strip!C26</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G26" t="str">
         <f>source_tube!A26</f>
@@ -13344,21 +13323,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FDAF843F15E65A4EA1FFB0CF193B74E3" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bd4433bf6f24a726161ac457e21002bf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e1a61fc9-c776-4dd1-85b5-f7d58768ba79" xmlns:ns4="3f421247-72bc-4b61-a591-0b56f96ae993" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7d66d7a13b7b51360e8b1c095fb39c19" ns3:_="" ns4:_="">
     <xsd:import namespace="e1a61fc9-c776-4dd1-85b5-f7d58768ba79"/>
@@ -13587,15 +13557,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79D86924-57C1-45D5-9E44-D526494DB02F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0CD12B7-1FA3-4B61-BDAE-DF4259CEDD3F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -13612,7 +13583,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E774FF9-2144-4DC7-8F36-E7E064C7C739}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13629,4 +13600,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79D86924-57C1-45D5-9E44-D526494DB02F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/templates/01-sanger-master-v3.xlsx
+++ b/templates/01-sanger-master-v3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angeloas/code/opentrons/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelangelov/code/opentrons/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB42C825-8B0A-834E-92E8-76FE7935A5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA03F48A-ACA0-6B41-ABA3-02B387C7E279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="6" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="190">
   <si>
     <t>source_well</t>
   </si>
@@ -554,12 +554,6 @@
   </si>
   <si>
     <t>bcl_primer</t>
-  </si>
-  <si>
-    <t>3F</t>
-  </si>
-  <si>
-    <t>3R</t>
   </si>
   <si>
     <t>bcl_primer_pos</t>
@@ -1205,7 +1199,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1249,36 +1243,36 @@
       </c>
       <c r="G1" s="11"/>
       <c r="H1" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L1" s="15"/>
       <c r="M1" s="15"/>
       <c r="N1" s="15"/>
       <c r="O1" s="15"/>
       <c r="P1" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="S1" s="12"/>
       <c r="T1" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="U1" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -1339,9 +1333,6 @@
       <c r="D3" t="s">
         <v>162</v>
       </c>
-      <c r="E3" t="s">
-        <v>165</v>
-      </c>
       <c r="H3" s="7" t="str">
         <f>IF(F3="","", INDEX(Table4[],MATCH(F3,Table4[primer],0),1))</f>
         <v/>
@@ -1406,7 +1397,7 @@
         <v>15</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="P4">
         <f t="shared" si="0"/>
@@ -1438,9 +1429,6 @@
       <c r="D5" t="s">
         <v>162</v>
       </c>
-      <c r="E5" t="s">
-        <v>164</v>
-      </c>
       <c r="H5" s="7" t="str">
         <f>IF(F5="","", INDEX(Table4[],MATCH(F5,Table4[primer],0),1))</f>
         <v/>
@@ -1457,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="M5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P5">
         <f t="shared" si="0"/>
@@ -1550,11 +1538,11 @@
         <v>15</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="N7">
         <f>COUNTIF(K2:K97,"&gt;0")</f>
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
@@ -1584,7 +1572,7 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H8" s="7" t="str">
         <f>IF(F8="","", INDEX(Table4[],MATCH(F8,Table4[primer],0),1))</f>
@@ -1602,11 +1590,11 @@
         <v>15</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N8">
         <f>N7*5.5*1.1</f>
-        <v>108.9</v>
+        <v>157.30000000000001</v>
       </c>
       <c r="P8">
         <f t="shared" si="0"/>
@@ -1636,7 +1624,7 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H9" s="7" t="str">
         <f>IF(F9="","", INDEX(Table4[],MATCH(F9,Table4[primer],0),1))</f>
@@ -1752,20 +1740,23 @@
       <c r="C12" t="s">
         <v>15</v>
       </c>
+      <c r="F12" t="s">
+        <v>105</v>
+      </c>
       <c r="H12" s="7" t="str">
         <f>IF(F12="","", INDEX(Table4[],MATCH(F12,Table4[primer],0),1))</f>
-        <v/>
+        <v>A01</v>
       </c>
       <c r="I12" s="7" cm="1">
         <f t="array" ref="I12">_xlfn.IFS(F12="",0,F12="water",11.5, TRUE, 5)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J12" s="10" t="s">
         <v>13</v>
       </c>
       <c r="K12" s="7">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="P12">
         <f t="shared" si="0"/>
@@ -2334,6 +2325,12 @@
       </c>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
       <c r="H26" s="7" t="str">
         <f>IF(F26="","", INDEX(Table4[],MATCH(F26,Table4[primer],0),1))</f>
         <v/>
@@ -2347,11 +2344,11 @@
       </c>
       <c r="K26" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
         <f t="shared" si="3"/>
@@ -2359,7 +2356,7 @@
       </c>
       <c r="R26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T26" t="s">
         <v>27</v>
@@ -2370,6 +2367,12 @@
       </c>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
       <c r="H27" s="7" t="str">
         <f>IF(F27="","", INDEX(Table4[],MATCH(F27,Table4[primer],0),1))</f>
         <v/>
@@ -2383,11 +2386,11 @@
       </c>
       <c r="K27" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
         <f t="shared" si="3"/>
@@ -2395,7 +2398,7 @@
       </c>
       <c r="R27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T27" t="s">
         <v>28</v>
@@ -2406,6 +2409,12 @@
       </c>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
       <c r="H28" s="7" t="str">
         <f>IF(F28="","", INDEX(Table4[],MATCH(F28,Table4[primer],0),1))</f>
         <v/>
@@ -2419,11 +2428,11 @@
       </c>
       <c r="K28" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
         <f t="shared" si="3"/>
@@ -2431,7 +2440,7 @@
       </c>
       <c r="R28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T28" t="s">
         <v>29</v>
@@ -2442,6 +2451,12 @@
       </c>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
       <c r="H29" s="7" t="str">
         <f>IF(F29="","", INDEX(Table4[],MATCH(F29,Table4[primer],0),1))</f>
         <v/>
@@ -2455,11 +2470,11 @@
       </c>
       <c r="K29" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
         <f t="shared" si="3"/>
@@ -2467,7 +2482,7 @@
       </c>
       <c r="R29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T29" t="s">
         <v>30</v>
@@ -2478,6 +2493,12 @@
       </c>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
       <c r="H30" s="7" t="str">
         <f>IF(F30="","", INDEX(Table4[],MATCH(F30,Table4[primer],0),1))</f>
         <v/>
@@ -2491,11 +2512,11 @@
       </c>
       <c r="K30" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
         <f t="shared" si="3"/>
@@ -2503,7 +2524,7 @@
       </c>
       <c r="R30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T30" t="s">
         <v>31</v>
@@ -2514,6 +2535,12 @@
       </c>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
       <c r="H31" s="7" t="str">
         <f>IF(F31="","", INDEX(Table4[],MATCH(F31,Table4[primer],0),1))</f>
         <v/>
@@ -2527,11 +2554,11 @@
       </c>
       <c r="K31" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
         <f t="shared" si="3"/>
@@ -2539,7 +2566,7 @@
       </c>
       <c r="R31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T31" t="s">
         <v>32</v>
@@ -2550,6 +2577,12 @@
       </c>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
       <c r="H32" s="7" t="str">
         <f>IF(F32="","", INDEX(Table4[],MATCH(F32,Table4[primer],0),1))</f>
         <v/>
@@ -2563,11 +2596,11 @@
       </c>
       <c r="K32" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
         <f t="shared" si="3"/>
@@ -2575,7 +2608,7 @@
       </c>
       <c r="R32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T32" t="s">
         <v>33</v>
@@ -2585,7 +2618,13 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
       <c r="H33" s="7" t="str">
         <f>IF(F33="","", INDEX(Table4[],MATCH(F33,Table4[primer],0),1))</f>
         <v/>
@@ -2599,11 +2638,11 @@
       </c>
       <c r="K33" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
         <f t="shared" si="3"/>
@@ -2611,7 +2650,7 @@
       </c>
       <c r="R33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T33" t="s">
         <v>34</v>
@@ -2621,7 +2660,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="H34" s="7" t="str">
         <f>IF(F34="","", INDEX(Table4[],MATCH(F34,Table4[primer],0),1))</f>
         <v/>
@@ -2657,7 +2696,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="H35" s="7" t="str">
         <f>IF(F35="","", INDEX(Table4[],MATCH(F35,Table4[primer],0),1))</f>
         <v/>
@@ -2693,7 +2732,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.2">
       <c r="H36" s="7" t="str">
         <f>IF(F36="","", INDEX(Table4[],MATCH(F36,Table4[primer],0),1))</f>
         <v/>
@@ -2729,7 +2768,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="H37" s="7" t="str">
         <f>IF(F37="","", INDEX(Table4[],MATCH(F37,Table4[primer],0),1))</f>
         <v/>
@@ -2765,7 +2804,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="H38" s="7" t="str">
         <f>IF(F38="","", INDEX(Table4[],MATCH(F38,Table4[primer],0),1))</f>
         <v/>
@@ -2801,7 +2840,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="H39" s="7" t="str">
         <f>IF(F39="","", INDEX(Table4[],MATCH(F39,Table4[primer],0),1))</f>
         <v/>
@@ -2837,7 +2876,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="H40" s="7" t="str">
         <f>IF(F40="","", INDEX(Table4[],MATCH(F40,Table4[primer],0),1))</f>
         <v/>
@@ -2873,7 +2912,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="H41" s="7" t="str">
         <f>IF(F41="","", INDEX(Table4[],MATCH(F41,Table4[primer],0),1))</f>
         <v/>
@@ -2909,7 +2948,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="H42" s="7" t="str">
         <f>IF(F42="","", INDEX(Table4[],MATCH(F42,Table4[primer],0),1))</f>
         <v/>
@@ -2945,7 +2984,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="H43" s="7" t="str">
         <f>IF(F43="","", INDEX(Table4[],MATCH(F43,Table4[primer],0),1))</f>
         <v/>
@@ -2981,7 +3020,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="H44" s="7" t="str">
         <f>IF(F44="","", INDEX(Table4[],MATCH(F44,Table4[primer],0),1))</f>
         <v/>
@@ -3017,7 +3056,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="H45" s="7" t="str">
         <f>IF(F45="","", INDEX(Table4[],MATCH(F45,Table4[primer],0),1))</f>
         <v/>
@@ -3053,7 +3092,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="H46" s="7" t="str">
         <f>IF(F46="","", INDEX(Table4[],MATCH(F46,Table4[primer],0),1))</f>
         <v/>
@@ -3089,7 +3128,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="H47" s="7" t="str">
         <f>IF(F47="","", INDEX(Table4[],MATCH(F47,Table4[primer],0),1))</f>
         <v/>
@@ -3125,7 +3164,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="H48" s="7" t="str">
         <f>IF(F48="","", INDEX(Table4[],MATCH(F48,Table4[primer],0),1))</f>
         <v/>
@@ -5011,7 +5050,7 @@
         <v>157</v>
       </c>
       <c r="J1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -5291,7 +5330,7 @@
         <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F21" t="s">
         <v>141</v>
@@ -5338,10 +5377,10 @@
         <v>46</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F25" t="s">
         <v>145</v>
@@ -5432,7 +5471,7 @@
     </row>
     <row r="36" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F36" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J36" t="s">
         <v>37</v>
@@ -5440,7 +5479,7 @@
     </row>
     <row r="37" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F37" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J37" t="s">
         <v>38</v>
@@ -6102,105 +6141,105 @@
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="str">
         <f>IF(master!B26="plate",master!C26, "")</f>
-        <v/>
+        <v>A01</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="1">
         <f>IF(master!B26="plate",master!K26,0)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="str">
         <f>IF(master!B27="plate",master!C27, "")</f>
-        <v/>
+        <v>B01</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="1">
         <f>IF(master!B27="plate",master!K27,0)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="str">
         <f>IF(master!B28="plate",master!C28, "")</f>
-        <v/>
+        <v>C01</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="1">
         <f>IF(master!B28="plate",master!K28,0)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="str">
         <f>IF(master!B29="plate",master!C29, "")</f>
-        <v/>
+        <v>D01</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="1">
         <f>IF(master!B29="plate",master!K29,0)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="str">
         <f>IF(master!B30="plate",master!C30, "")</f>
-        <v/>
+        <v>E01</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C30" s="1">
         <f>IF(master!B30="plate",master!K30,0)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="str">
         <f>IF(master!B31="plate",master!C31, "")</f>
-        <v/>
+        <v>F01</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C31" s="1">
         <f>IF(master!B31="plate",master!K31,0)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="str">
         <f>IF(master!B32="plate",master!C32, "")</f>
-        <v/>
+        <v>G01</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C32" s="1">
         <f>IF(master!B32="plate",master!K32,0)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="str">
         <f>IF(master!B33="plate",master!C33, "")</f>
-        <v/>
+        <v>H01</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C33" s="1">
         <f>IF(master!B33="plate",master!K33,0)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -7214,7 +7253,7 @@
       </c>
       <c r="C12" s="1">
         <f>IF(master!B12="strip",master!K12,0)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -8496,14 +8535,14 @@
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="str">
         <f>IF(ISTEXT(master!F12),master!H12,"")</f>
-        <v/>
+        <v>A01</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="1">
         <f>master!I12</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -9629,7 +9668,7 @@
   <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9641,31 +9680,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" t="s">
         <v>174</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>175</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>176</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>177</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>178</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>179</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>180</v>
-      </c>
-      <c r="H1" t="s">
-        <v>181</v>
-      </c>
-      <c r="I1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -10071,11 +10110,11 @@
       </c>
       <c r="F12">
         <f>source_strip!C12</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G12" t="str">
         <f>source_tube!A12</f>
-        <v/>
+        <v>A01</v>
       </c>
       <c r="H12" t="str">
         <f>source_tube!B12</f>
@@ -10083,7 +10122,7 @@
       </c>
       <c r="I12">
         <f>source_tube!C12</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -10583,7 +10622,7 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f>source_plate!A26</f>
-        <v/>
+        <v>A01</v>
       </c>
       <c r="B26" t="str">
         <f>source_plate!B26</f>
@@ -10591,7 +10630,7 @@
       </c>
       <c r="C26">
         <f>source_plate!C26</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D26" t="str">
         <f>source_strip!A26</f>
@@ -10621,7 +10660,7 @@
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f>source_plate!A27</f>
-        <v/>
+        <v>B01</v>
       </c>
       <c r="B27" t="str">
         <f>source_plate!B27</f>
@@ -10629,7 +10668,7 @@
       </c>
       <c r="C27">
         <f>source_plate!C27</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D27" t="str">
         <f>source_strip!A27</f>
@@ -10659,7 +10698,7 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f>source_plate!A28</f>
-        <v/>
+        <v>C01</v>
       </c>
       <c r="B28" t="str">
         <f>source_plate!B28</f>
@@ -10667,7 +10706,7 @@
       </c>
       <c r="C28">
         <f>source_plate!C28</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D28" t="str">
         <f>source_strip!A28</f>
@@ -10697,7 +10736,7 @@
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f>source_plate!A29</f>
-        <v/>
+        <v>D01</v>
       </c>
       <c r="B29" t="str">
         <f>source_plate!B29</f>
@@ -10705,7 +10744,7 @@
       </c>
       <c r="C29">
         <f>source_plate!C29</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D29" t="str">
         <f>source_strip!A29</f>
@@ -10735,7 +10774,7 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f>source_plate!A30</f>
-        <v/>
+        <v>E01</v>
       </c>
       <c r="B30" t="str">
         <f>source_plate!B30</f>
@@ -10743,7 +10782,7 @@
       </c>
       <c r="C30">
         <f>source_plate!C30</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D30" t="str">
         <f>source_strip!A30</f>
@@ -10773,7 +10812,7 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f>source_plate!A31</f>
-        <v/>
+        <v>F01</v>
       </c>
       <c r="B31" t="str">
         <f>source_plate!B31</f>
@@ -10781,7 +10820,7 @@
       </c>
       <c r="C31">
         <f>source_plate!C31</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D31" t="str">
         <f>source_strip!A31</f>
@@ -10811,7 +10850,7 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f>source_plate!A32</f>
-        <v/>
+        <v>G01</v>
       </c>
       <c r="B32" t="str">
         <f>source_plate!B32</f>
@@ -10819,7 +10858,7 @@
       </c>
       <c r="C32">
         <f>source_plate!C32</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D32" t="str">
         <f>source_strip!A32</f>
@@ -10849,7 +10888,7 @@
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f>source_plate!A33</f>
-        <v/>
+        <v>H01</v>
       </c>
       <c r="B33" t="str">
         <f>source_plate!B33</f>
@@ -10857,7 +10896,7 @@
       </c>
       <c r="C33">
         <f>source_plate!C33</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D33" t="str">
         <f>source_strip!A33</f>

--- a/templates/01-sanger-master-v3.xlsx
+++ b/templates/01-sanger-master-v3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelangelov/code/opentrons/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angeloas/code/opentrons/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA03F48A-ACA0-6B41-ABA3-02B387C7E279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F60CC1C-A6F1-8C4C-B0BF-CEE2C9FA4294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="6" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="193">
   <si>
     <t>source_well</t>
   </si>
@@ -550,9 +550,6 @@
     <t>sample_name</t>
   </si>
   <si>
-    <t>Ctf full 2</t>
-  </si>
-  <si>
     <t>bcl_primer</t>
   </si>
   <si>
@@ -577,9 +574,6 @@
     <t>PC pipetting</t>
   </si>
   <si>
-    <t>ready to use premix of pGEM and primer is used, 3.5 ul premix (put it in source_strip) and 11.5 water</t>
-  </si>
-  <si>
     <t>sourcewells1</t>
   </si>
   <si>
@@ -631,7 +625,22 @@
     <t>BigDye vol</t>
   </si>
   <si>
-    <t>test</t>
+    <t>bla</t>
+  </si>
+  <si>
+    <t>ready to use premix is used, put it in one well (strip or plate) - see bottom of this file for example</t>
+  </si>
+  <si>
+    <t>Positive control</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -770,7 +779,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -788,6 +797,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1199,7 +1211,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomLeft" activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1239,40 +1251,40 @@
         <v>160</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G1" s="11"/>
       <c r="H1" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>164</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>165</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L1" s="15"/>
       <c r="M1" s="15"/>
       <c r="N1" s="15"/>
       <c r="O1" s="15"/>
       <c r="P1" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q1" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="Q1" s="12" t="s">
-        <v>168</v>
-      </c>
       <c r="R1" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="S1" s="12"/>
       <c r="T1" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="U1" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -1280,25 +1292,28 @@
         <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>162</v>
+        <v>3</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2" t="s">
+        <v>105</v>
       </c>
       <c r="H2" s="7" t="str">
         <f>IF(F2="","", INDEX(Table4[],MATCH(F2,Table4[primer],0),1))</f>
-        <v/>
+        <v>A01</v>
       </c>
       <c r="I2" s="7" cm="1">
-        <f t="array" ref="I2">_xlfn.IFS(F2="",0,F2="water",11.5, TRUE, 5)</f>
-        <v>0</v>
+        <f t="array" ref="I2">_xlfn.IFS(F2="",0,F2="water",11.5,TRUE, 5)</f>
+        <v>5</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="K2" s="7">
         <f>IF(OR(C2 = "",B2=""),0,15-I2)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>159</v>
@@ -1318,9 +1333,9 @@
       <c r="T2" t="s">
         <v>3</v>
       </c>
-      <c r="U2" t="str">
-        <f>TEXT(D2,"")</f>
-        <v>Ctf full 2</v>
+      <c r="U2" s="19" t="str">
+        <f>IF(ISBLANK(D2),"",D2)</f>
+        <v>bla</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -1328,17 +1343,17 @@
         <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>162</v>
+        <v>4</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>190</v>
       </c>
       <c r="H3" s="7" t="str">
         <f>IF(F3="","", INDEX(Table4[],MATCH(F3,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I3" s="7" cm="1">
-        <f t="array" ref="I3">_xlfn.IFS(F3="",0,F3="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I3">_xlfn.IFS(F3="",0,F3="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J3" s="9" t="s">
@@ -1366,9 +1381,9 @@
       <c r="T3" t="s">
         <v>4</v>
       </c>
-      <c r="U3" t="str">
-        <f t="shared" ref="U3:U66" si="4">TEXT(D3,"")</f>
-        <v>Ctf full 2</v>
+      <c r="U3" s="19" t="str">
+        <f t="shared" ref="U3:U66" si="4">IF(ISBLANK(D3),"",D3)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
@@ -1376,17 +1391,17 @@
         <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>162</v>
+        <v>5</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>191</v>
       </c>
       <c r="H4" s="7" t="str">
         <f>IF(F4="","", INDEX(Table4[],MATCH(F4,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I4" s="7" cm="1">
-        <f t="array" ref="I4">_xlfn.IFS(F4="",0,F4="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I4">_xlfn.IFS(F4="",0,F4="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J4" s="9" t="s">
@@ -1397,7 +1412,7 @@
         <v>15</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P4">
         <f t="shared" si="0"/>
@@ -1414,9 +1429,9 @@
       <c r="T4" t="s">
         <v>5</v>
       </c>
-      <c r="U4" t="str">
+      <c r="U4" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>Ctf full 2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
@@ -1424,17 +1439,17 @@
         <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>162</v>
+        <v>6</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>192</v>
       </c>
       <c r="H5" s="7" t="str">
         <f>IF(F5="","", INDEX(Table4[],MATCH(F5,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I5" s="7" cm="1">
-        <f t="array" ref="I5">_xlfn.IFS(F5="",0,F5="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I5">_xlfn.IFS(F5="",0,F5="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J5" s="9" t="s">
@@ -1445,7 +1460,7 @@
         <v>15</v>
       </c>
       <c r="M5" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="P5">
         <f t="shared" si="0"/>
@@ -1462,27 +1477,19 @@
       <c r="T5" t="s">
         <v>6</v>
       </c>
-      <c r="U5" t="str">
+      <c r="U5" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>Ctf full 2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>162</v>
-      </c>
+      <c r="D6" s="17"/>
       <c r="H6" s="7" t="str">
         <f>IF(F6="","", INDEX(Table4[],MATCH(F6,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I6" s="7" cm="1">
-        <f t="array" ref="I6">_xlfn.IFS(F6="",0,F6="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I6">_xlfn.IFS(F6="",0,F6="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J6" s="9" t="s">
@@ -1490,11 +1497,11 @@
       </c>
       <c r="K6" s="7">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <f t="shared" si="3"/>
@@ -1502,32 +1509,24 @@
       </c>
       <c r="R6">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T6" t="s">
         <v>7</v>
       </c>
-      <c r="U6" t="str">
+      <c r="U6" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>Ctf full 2</v>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>162</v>
-      </c>
+      <c r="D7" s="17"/>
       <c r="H7" s="7" t="str">
         <f>IF(F7="","", INDEX(Table4[],MATCH(F7,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I7" s="7" cm="1">
-        <f t="array" ref="I7">_xlfn.IFS(F7="",0,F7="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I7">_xlfn.IFS(F7="",0,F7="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J7" s="9" t="s">
@@ -1535,18 +1534,18 @@
       </c>
       <c r="K7" s="7">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N7">
         <f>COUNTIF(K2:K97,"&gt;0")</f>
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <f t="shared" si="3"/>
@@ -1554,32 +1553,24 @@
       </c>
       <c r="R7">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T7" t="s">
         <v>8</v>
       </c>
-      <c r="U7" t="str">
+      <c r="U7" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>Ctf full 2</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>189</v>
-      </c>
+      <c r="D8" s="17"/>
       <c r="H8" s="7" t="str">
         <f>IF(F8="","", INDEX(Table4[],MATCH(F8,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I8" s="7" cm="1">
-        <f t="array" ref="I8">_xlfn.IFS(F8="",0,F8="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I8">_xlfn.IFS(F8="",0,F8="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J8" s="9" t="s">
@@ -1587,18 +1578,18 @@
       </c>
       <c r="K8" s="7">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N8">
         <f>N7*5.5*1.1</f>
-        <v>157.30000000000001</v>
+        <v>42.35</v>
       </c>
       <c r="P8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <f>COUNTIFS($E$2:$E$97, E8, $F$2:$F$97, F8)</f>
@@ -1606,32 +1597,24 @@
       </c>
       <c r="R8">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T8" t="s">
         <v>9</v>
       </c>
-      <c r="U8" t="str">
+      <c r="U8" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>test</v>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>189</v>
-      </c>
+      <c r="D9" s="17"/>
       <c r="H9" s="7" t="str">
         <f>IF(F9="","", INDEX(Table4[],MATCH(F9,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I9" s="7" cm="1">
-        <f t="array" ref="I9">_xlfn.IFS(F9="",0,F9="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I9">_xlfn.IFS(F9="",0,F9="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J9" s="9" t="s">
@@ -1639,11 +1622,11 @@
       </c>
       <c r="K9" s="7">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <f t="shared" si="3"/>
@@ -1651,23 +1634,24 @@
       </c>
       <c r="R9">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T9" t="s">
         <v>10</v>
       </c>
-      <c r="U9" t="str">
+      <c r="U9" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>test</v>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="D10" s="17"/>
       <c r="H10" s="7" t="str">
         <f>IF(F10="","", INDEX(Table4[],MATCH(F10,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I10" s="7" cm="1">
-        <f t="array" ref="I10">_xlfn.IFS(F10="",0,F10="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I10">_xlfn.IFS(F10="",0,F10="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J10" s="10" t="s">
@@ -1692,18 +1676,19 @@
       <c r="T10" t="s">
         <v>11</v>
       </c>
-      <c r="U10" t="str">
+      <c r="U10" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="D11" s="17"/>
       <c r="H11" s="7" t="str">
         <f>IF(F11="","", INDEX(Table4[],MATCH(F11,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I11" s="7" cm="1">
-        <f t="array" ref="I11">_xlfn.IFS(F11="",0,F11="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I11">_xlfn.IFS(F11="",0,F11="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J11" s="10" t="s">
@@ -1728,39 +1713,31 @@
       <c r="T11" t="s">
         <v>12</v>
       </c>
-      <c r="U11" t="str">
+      <c r="U11" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
-        <v>105</v>
-      </c>
+      <c r="D12" s="17"/>
       <c r="H12" s="7" t="str">
         <f>IF(F12="","", INDEX(Table4[],MATCH(F12,Table4[primer],0),1))</f>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="I12" s="7" cm="1">
-        <f t="array" ref="I12">_xlfn.IFS(F12="",0,F12="water",11.5, TRUE, 5)</f>
-        <v>5</v>
+        <f t="array" ref="I12">_xlfn.IFS(F12="",0,F12="water",11.5,TRUE, 5)</f>
+        <v>0</v>
       </c>
       <c r="J12" s="10" t="s">
         <v>13</v>
       </c>
       <c r="K12" s="7">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <f t="shared" si="3"/>
@@ -1768,29 +1745,24 @@
       </c>
       <c r="R12">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T12" t="s">
         <v>13</v>
       </c>
-      <c r="U12" t="str">
+      <c r="U12" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
+      <c r="D13" s="17"/>
       <c r="H13" s="7" t="str">
         <f>IF(F13="","", INDEX(Table4[],MATCH(F13,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I13" s="7" cm="1">
-        <f t="array" ref="I13">_xlfn.IFS(F13="",0,F13="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I13">_xlfn.IFS(F13="",0,F13="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J13" s="10" t="s">
@@ -1798,11 +1770,11 @@
       </c>
       <c r="K13" s="7">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <f>COUNTIFS($C$2:$C$97,C13,$B$2:$B$97,B13)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <f>COUNTIFS($E$2:$E$97, E13, $F$2:$F$97, F13)</f>
@@ -1810,23 +1782,24 @@
       </c>
       <c r="R13">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T13" t="s">
         <v>14</v>
       </c>
-      <c r="U13" t="str">
+      <c r="U13" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="D14" s="17"/>
       <c r="H14" s="7" t="str">
         <f>IF(F14="","", INDEX(Table4[],MATCH(F14,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I14" s="7" cm="1">
-        <f t="array" ref="I14">_xlfn.IFS(F14="",0,F14="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I14">_xlfn.IFS(F14="",0,F14="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J14" s="10" t="s">
@@ -1851,18 +1824,19 @@
       <c r="T14" t="s">
         <v>15</v>
       </c>
-      <c r="U14" t="str">
+      <c r="U14" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="D15" s="17"/>
       <c r="H15" s="7" t="str">
         <f>IF(F15="","", INDEX(Table4[],MATCH(F15,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I15" s="7" cm="1">
-        <f t="array" ref="I15">_xlfn.IFS(F15="",0,F15="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I15">_xlfn.IFS(F15="",0,F15="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J15" s="10" t="s">
@@ -1887,18 +1861,19 @@
       <c r="T15" t="s">
         <v>16</v>
       </c>
-      <c r="U15" t="str">
+      <c r="U15" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="D16" s="17"/>
       <c r="H16" s="7" t="str">
         <f>IF(F16="","", INDEX(Table4[],MATCH(F16,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I16" s="7" cm="1">
-        <f t="array" ref="I16">_xlfn.IFS(F16="",0,F16="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I16">_xlfn.IFS(F16="",0,F16="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J16" s="10" t="s">
@@ -1923,18 +1898,19 @@
       <c r="T16" t="s">
         <v>17</v>
       </c>
-      <c r="U16" t="str">
+      <c r="U16" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D17" s="17"/>
       <c r="H17" s="7" t="str">
         <f>IF(F17="","", INDEX(Table4[],MATCH(F17,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I17" s="7" cm="1">
-        <f t="array" ref="I17">_xlfn.IFS(F17="",0,F17="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I17">_xlfn.IFS(F17="",0,F17="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J17" s="10" t="s">
@@ -1959,39 +1935,31 @@
       <c r="T17" t="s">
         <v>18</v>
       </c>
-      <c r="U17" t="str">
+      <c r="U17" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" t="s">
-        <v>105</v>
-      </c>
+    <row r="18" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D18" s="17"/>
       <c r="H18" s="7" t="str">
         <f>IF(F18="","", INDEX(Table4[],MATCH(F18,Table4[primer],0),1))</f>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="I18" s="7" cm="1">
-        <f t="array" ref="I18">_xlfn.IFS(F18="",0,F18="water",11.5, TRUE, 5)</f>
-        <v>5</v>
+        <f t="array" ref="I18">_xlfn.IFS(F18="",0,F18="water",11.5,TRUE, 5)</f>
+        <v>0</v>
       </c>
       <c r="J18" s="9" t="s">
         <v>19</v>
       </c>
       <c r="K18" s="7">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <f t="shared" si="3"/>
@@ -1999,44 +1967,36 @@
       </c>
       <c r="R18">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T18" t="s">
         <v>19</v>
       </c>
-      <c r="U18" t="str">
+      <c r="U18" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" t="s">
-        <v>105</v>
-      </c>
+    <row r="19" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D19" s="17"/>
       <c r="H19" s="7" t="str">
         <f>IF(F19="","", INDEX(Table4[],MATCH(F19,Table4[primer],0),1))</f>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="I19" s="7" cm="1">
-        <f t="array" ref="I19">_xlfn.IFS(F19="",0,F19="water",11.5, TRUE, 5)</f>
-        <v>5</v>
+        <f t="array" ref="I19">_xlfn.IFS(F19="",0,F19="water",11.5,TRUE, 5)</f>
+        <v>0</v>
       </c>
       <c r="J19" s="9" t="s">
         <v>20</v>
       </c>
       <c r="K19" s="7">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <f t="shared" si="3"/>
@@ -2044,44 +2004,36 @@
       </c>
       <c r="R19">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T19" t="s">
         <v>20</v>
       </c>
-      <c r="U19" t="str">
+      <c r="U19" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" t="s">
-        <v>105</v>
-      </c>
+    <row r="20" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D20" s="17"/>
       <c r="H20" s="7" t="str">
         <f>IF(F20="","", INDEX(Table4[],MATCH(F20,Table4[primer],0),1))</f>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="I20" s="7" cm="1">
-        <f t="array" ref="I20">_xlfn.IFS(F20="",0,F20="water",11.5, TRUE, 5)</f>
-        <v>5</v>
+        <f t="array" ref="I20">_xlfn.IFS(F20="",0,F20="water",11.5,TRUE, 5)</f>
+        <v>0</v>
       </c>
       <c r="J20" s="9" t="s">
         <v>21</v>
       </c>
       <c r="K20" s="7">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <f t="shared" si="3"/>
@@ -2089,44 +2041,36 @@
       </c>
       <c r="R20">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T20" t="s">
         <v>21</v>
       </c>
-      <c r="U20" t="str">
+      <c r="U20" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" t="s">
-        <v>105</v>
-      </c>
+    <row r="21" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D21" s="17"/>
       <c r="H21" s="7" t="str">
         <f>IF(F21="","", INDEX(Table4[],MATCH(F21,Table4[primer],0),1))</f>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="I21" s="7" cm="1">
-        <f t="array" ref="I21">_xlfn.IFS(F21="",0,F21="water",11.5, TRUE, 5)</f>
-        <v>5</v>
+        <f t="array" ref="I21">_xlfn.IFS(F21="",0,F21="water",11.5,TRUE, 5)</f>
+        <v>0</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K21" s="7">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <f t="shared" si="3"/>
@@ -2134,44 +2078,36 @@
       </c>
       <c r="R21">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T21" t="s">
         <v>22</v>
       </c>
-      <c r="U21" t="str">
+      <c r="U21" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" t="s">
-        <v>105</v>
-      </c>
+    <row r="22" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D22" s="17"/>
       <c r="H22" s="7" t="str">
         <f>IF(F22="","", INDEX(Table4[],MATCH(F22,Table4[primer],0),1))</f>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="I22" s="7" cm="1">
-        <f t="array" ref="I22">_xlfn.IFS(F22="",0,F22="water",11.5, TRUE, 5)</f>
-        <v>5</v>
+        <f t="array" ref="I22">_xlfn.IFS(F22="",0,F22="water",11.5,TRUE, 5)</f>
+        <v>0</v>
       </c>
       <c r="J22" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K22" s="7">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <f t="shared" si="3"/>
@@ -2179,44 +2115,36 @@
       </c>
       <c r="R22">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T22" t="s">
         <v>23</v>
       </c>
-      <c r="U22" t="str">
+      <c r="U22" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" t="s">
-        <v>105</v>
-      </c>
+    <row r="23" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D23" s="17"/>
       <c r="H23" s="7" t="str">
         <f>IF(F23="","", INDEX(Table4[],MATCH(F23,Table4[primer],0),1))</f>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="I23" s="7" cm="1">
-        <f t="array" ref="I23">_xlfn.IFS(F23="",0,F23="water",11.5, TRUE, 5)</f>
-        <v>5</v>
+        <f t="array" ref="I23">_xlfn.IFS(F23="",0,F23="water",11.5,TRUE, 5)</f>
+        <v>0</v>
       </c>
       <c r="J23" s="9" t="s">
         <v>24</v>
       </c>
       <c r="K23" s="7">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <f t="shared" si="3"/>
@@ -2224,44 +2152,36 @@
       </c>
       <c r="R23">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T23" t="s">
         <v>24</v>
       </c>
-      <c r="U23" t="str">
+      <c r="U23" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" t="s">
-        <v>105</v>
-      </c>
+    <row r="24" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D24" s="17"/>
       <c r="H24" s="7" t="str">
         <f>IF(F24="","", INDEX(Table4[],MATCH(F24,Table4[primer],0),1))</f>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="I24" s="7" cm="1">
-        <f t="array" ref="I24">_xlfn.IFS(F24="",0,F24="water",11.5, TRUE, 5)</f>
-        <v>5</v>
+        <f t="array" ref="I24">_xlfn.IFS(F24="",0,F24="water",11.5,TRUE, 5)</f>
+        <v>0</v>
       </c>
       <c r="J24" s="9" t="s">
         <v>25</v>
       </c>
       <c r="K24" s="7">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <f t="shared" si="3"/>
@@ -2269,44 +2189,36 @@
       </c>
       <c r="R24">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T24" t="s">
         <v>25</v>
       </c>
-      <c r="U24" t="str">
+      <c r="U24" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" t="s">
-        <v>105</v>
-      </c>
+    <row r="25" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D25" s="17"/>
       <c r="H25" s="7" t="str">
         <f>IF(F25="","", INDEX(Table4[],MATCH(F25,Table4[primer],0),1))</f>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="I25" s="7" cm="1">
-        <f t="array" ref="I25">_xlfn.IFS(F25="",0,F25="water",11.5, TRUE, 5)</f>
-        <v>5</v>
+        <f t="array" ref="I25">_xlfn.IFS(F25="",0,F25="water",11.5,TRUE, 5)</f>
+        <v>0</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>26</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
         <f t="shared" si="3"/>
@@ -2314,29 +2226,24 @@
       </c>
       <c r="R25">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T25" t="s">
         <v>26</v>
       </c>
-      <c r="U25" t="str">
+      <c r="U25" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" t="s">
-        <v>3</v>
-      </c>
+    <row r="26" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D26" s="17"/>
       <c r="H26" s="7" t="str">
         <f>IF(F26="","", INDEX(Table4[],MATCH(F26,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I26" s="7" cm="1">
-        <f t="array" ref="I26">_xlfn.IFS(F26="",0,F26="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I26">_xlfn.IFS(F26="",0,F26="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J26" s="10" t="s">
@@ -2344,11 +2251,11 @@
       </c>
       <c r="K26" s="7">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="P26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
         <f t="shared" si="3"/>
@@ -2356,29 +2263,24 @@
       </c>
       <c r="R26">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T26" t="s">
         <v>27</v>
       </c>
-      <c r="U26" t="str">
+      <c r="U26" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
+    <row r="27" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D27" s="17"/>
       <c r="H27" s="7" t="str">
         <f>IF(F27="","", INDEX(Table4[],MATCH(F27,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I27" s="7" cm="1">
-        <f t="array" ref="I27">_xlfn.IFS(F27="",0,F27="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I27">_xlfn.IFS(F27="",0,F27="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J27" s="10" t="s">
@@ -2386,11 +2288,11 @@
       </c>
       <c r="K27" s="7">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="P27">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
         <f t="shared" si="3"/>
@@ -2398,29 +2300,24 @@
       </c>
       <c r="R27">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T27" t="s">
         <v>28</v>
       </c>
-      <c r="U27" t="str">
+      <c r="U27" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" t="s">
-        <v>5</v>
-      </c>
+    <row r="28" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D28" s="17"/>
       <c r="H28" s="7" t="str">
         <f>IF(F28="","", INDEX(Table4[],MATCH(F28,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I28" s="7" cm="1">
-        <f t="array" ref="I28">_xlfn.IFS(F28="",0,F28="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I28">_xlfn.IFS(F28="",0,F28="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J28" s="10" t="s">
@@ -2428,11 +2325,11 @@
       </c>
       <c r="K28" s="7">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="P28">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
         <f t="shared" si="3"/>
@@ -2440,29 +2337,24 @@
       </c>
       <c r="R28">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T28" t="s">
         <v>29</v>
       </c>
-      <c r="U28" t="str">
+      <c r="U28" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" t="s">
-        <v>6</v>
-      </c>
+    <row r="29" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D29" s="17"/>
       <c r="H29" s="7" t="str">
         <f>IF(F29="","", INDEX(Table4[],MATCH(F29,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I29" s="7" cm="1">
-        <f t="array" ref="I29">_xlfn.IFS(F29="",0,F29="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I29">_xlfn.IFS(F29="",0,F29="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J29" s="10" t="s">
@@ -2470,11 +2362,11 @@
       </c>
       <c r="K29" s="7">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="P29">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
         <f t="shared" si="3"/>
@@ -2482,29 +2374,24 @@
       </c>
       <c r="R29">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T29" t="s">
         <v>30</v>
       </c>
-      <c r="U29" t="str">
+      <c r="U29" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>102</v>
-      </c>
-      <c r="C30" t="s">
-        <v>7</v>
-      </c>
+    <row r="30" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D30" s="17"/>
       <c r="H30" s="7" t="str">
         <f>IF(F30="","", INDEX(Table4[],MATCH(F30,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I30" s="7" cm="1">
-        <f t="array" ref="I30">_xlfn.IFS(F30="",0,F30="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I30">_xlfn.IFS(F30="",0,F30="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J30" s="10" t="s">
@@ -2512,11 +2399,11 @@
       </c>
       <c r="K30" s="7">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="P30">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
         <f t="shared" si="3"/>
@@ -2524,29 +2411,24 @@
       </c>
       <c r="R30">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T30" t="s">
         <v>31</v>
       </c>
-      <c r="U30" t="str">
+      <c r="U30" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>102</v>
-      </c>
-      <c r="C31" t="s">
-        <v>8</v>
-      </c>
+    <row r="31" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D31" s="17"/>
       <c r="H31" s="7" t="str">
         <f>IF(F31="","", INDEX(Table4[],MATCH(F31,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I31" s="7" cm="1">
-        <f t="array" ref="I31">_xlfn.IFS(F31="",0,F31="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I31">_xlfn.IFS(F31="",0,F31="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J31" s="10" t="s">
@@ -2554,11 +2436,11 @@
       </c>
       <c r="K31" s="7">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="P31">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
         <f t="shared" si="3"/>
@@ -2566,29 +2448,24 @@
       </c>
       <c r="R31">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T31" t="s">
         <v>32</v>
       </c>
-      <c r="U31" t="str">
+      <c r="U31" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" t="s">
-        <v>9</v>
-      </c>
+    <row r="32" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D32" s="17"/>
       <c r="H32" s="7" t="str">
         <f>IF(F32="","", INDEX(Table4[],MATCH(F32,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I32" s="7" cm="1">
-        <f t="array" ref="I32">_xlfn.IFS(F32="",0,F32="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I32">_xlfn.IFS(F32="",0,F32="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J32" s="10" t="s">
@@ -2596,11 +2473,11 @@
       </c>
       <c r="K32" s="7">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="P32">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
         <f t="shared" si="3"/>
@@ -2608,29 +2485,24 @@
       </c>
       <c r="R32">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T32" t="s">
         <v>33</v>
       </c>
-      <c r="U32" t="str">
+      <c r="U32" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>102</v>
-      </c>
-      <c r="C33" t="s">
-        <v>10</v>
-      </c>
+    <row r="33" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D33" s="17"/>
       <c r="H33" s="7" t="str">
         <f>IF(F33="","", INDEX(Table4[],MATCH(F33,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I33" s="7" cm="1">
-        <f t="array" ref="I33">_xlfn.IFS(F33="",0,F33="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I33">_xlfn.IFS(F33="",0,F33="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J33" s="10" t="s">
@@ -2638,11 +2510,11 @@
       </c>
       <c r="K33" s="7">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="P33">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
         <f t="shared" si="3"/>
@@ -2650,23 +2522,24 @@
       </c>
       <c r="R33">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T33" t="s">
         <v>34</v>
       </c>
-      <c r="U33" t="str">
+      <c r="U33" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D34" s="17"/>
       <c r="H34" s="7" t="str">
         <f>IF(F34="","", INDEX(Table4[],MATCH(F34,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I34" s="7" cm="1">
-        <f t="array" ref="I34">_xlfn.IFS(F34="",0,F34="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I34">_xlfn.IFS(F34="",0,F34="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J34" s="9" t="s">
@@ -2691,18 +2564,19 @@
       <c r="T34" t="s">
         <v>35</v>
       </c>
-      <c r="U34" t="str">
+      <c r="U34" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D35" s="17"/>
       <c r="H35" s="7" t="str">
         <f>IF(F35="","", INDEX(Table4[],MATCH(F35,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I35" s="7" cm="1">
-        <f t="array" ref="I35">_xlfn.IFS(F35="",0,F35="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I35">_xlfn.IFS(F35="",0,F35="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J35" s="9" t="s">
@@ -2727,18 +2601,19 @@
       <c r="T35" t="s">
         <v>36</v>
       </c>
-      <c r="U35" t="str">
+      <c r="U35" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D36" s="17"/>
       <c r="H36" s="7" t="str">
         <f>IF(F36="","", INDEX(Table4[],MATCH(F36,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I36" s="7" cm="1">
-        <f t="array" ref="I36">_xlfn.IFS(F36="",0,F36="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I36">_xlfn.IFS(F36="",0,F36="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J36" s="9" t="s">
@@ -2763,18 +2638,19 @@
       <c r="T36" t="s">
         <v>37</v>
       </c>
-      <c r="U36" t="str">
+      <c r="U36" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D37" s="17"/>
       <c r="H37" s="7" t="str">
         <f>IF(F37="","", INDEX(Table4[],MATCH(F37,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I37" s="7" cm="1">
-        <f t="array" ref="I37">_xlfn.IFS(F37="",0,F37="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I37">_xlfn.IFS(F37="",0,F37="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J37" s="9" t="s">
@@ -2799,18 +2675,19 @@
       <c r="T37" t="s">
         <v>38</v>
       </c>
-      <c r="U37" t="str">
+      <c r="U37" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D38" s="17"/>
       <c r="H38" s="7" t="str">
         <f>IF(F38="","", INDEX(Table4[],MATCH(F38,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I38" s="7" cm="1">
-        <f t="array" ref="I38">_xlfn.IFS(F38="",0,F38="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I38">_xlfn.IFS(F38="",0,F38="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J38" s="9" t="s">
@@ -2835,18 +2712,19 @@
       <c r="T38" t="s">
         <v>39</v>
       </c>
-      <c r="U38" t="str">
+      <c r="U38" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D39" s="17"/>
       <c r="H39" s="7" t="str">
         <f>IF(F39="","", INDEX(Table4[],MATCH(F39,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I39" s="7" cm="1">
-        <f t="array" ref="I39">_xlfn.IFS(F39="",0,F39="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I39">_xlfn.IFS(F39="",0,F39="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J39" s="9" t="s">
@@ -2871,18 +2749,19 @@
       <c r="T39" t="s">
         <v>40</v>
       </c>
-      <c r="U39" t="str">
+      <c r="U39" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D40" s="17"/>
       <c r="H40" s="7" t="str">
         <f>IF(F40="","", INDEX(Table4[],MATCH(F40,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I40" s="7" cm="1">
-        <f t="array" ref="I40">_xlfn.IFS(F40="",0,F40="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I40">_xlfn.IFS(F40="",0,F40="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J40" s="9" t="s">
@@ -2907,18 +2786,19 @@
       <c r="T40" t="s">
         <v>41</v>
       </c>
-      <c r="U40" t="str">
+      <c r="U40" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D41" s="17"/>
       <c r="H41" s="7" t="str">
         <f>IF(F41="","", INDEX(Table4[],MATCH(F41,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I41" s="7" cm="1">
-        <f t="array" ref="I41">_xlfn.IFS(F41="",0,F41="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I41">_xlfn.IFS(F41="",0,F41="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J41" s="9" t="s">
@@ -2943,18 +2823,19 @@
       <c r="T41" t="s">
         <v>42</v>
       </c>
-      <c r="U41" t="str">
+      <c r="U41" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D42" s="17"/>
       <c r="H42" s="7" t="str">
         <f>IF(F42="","", INDEX(Table4[],MATCH(F42,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I42" s="7" cm="1">
-        <f t="array" ref="I42">_xlfn.IFS(F42="",0,F42="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I42">_xlfn.IFS(F42="",0,F42="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J42" s="10" t="s">
@@ -2979,18 +2860,19 @@
       <c r="T42" t="s">
         <v>43</v>
       </c>
-      <c r="U42" t="str">
+      <c r="U42" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D43" s="17"/>
       <c r="H43" s="7" t="str">
         <f>IF(F43="","", INDEX(Table4[],MATCH(F43,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I43" s="7" cm="1">
-        <f t="array" ref="I43">_xlfn.IFS(F43="",0,F43="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I43">_xlfn.IFS(F43="",0,F43="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J43" s="10" t="s">
@@ -3015,18 +2897,19 @@
       <c r="T43" t="s">
         <v>44</v>
       </c>
-      <c r="U43" t="str">
+      <c r="U43" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D44" s="17"/>
       <c r="H44" s="7" t="str">
         <f>IF(F44="","", INDEX(Table4[],MATCH(F44,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I44" s="7" cm="1">
-        <f t="array" ref="I44">_xlfn.IFS(F44="",0,F44="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I44">_xlfn.IFS(F44="",0,F44="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J44" s="10" t="s">
@@ -3051,18 +2934,19 @@
       <c r="T44" t="s">
         <v>45</v>
       </c>
-      <c r="U44" t="str">
+      <c r="U44" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D45" s="17"/>
       <c r="H45" s="7" t="str">
         <f>IF(F45="","", INDEX(Table4[],MATCH(F45,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I45" s="7" cm="1">
-        <f t="array" ref="I45">_xlfn.IFS(F45="",0,F45="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I45">_xlfn.IFS(F45="",0,F45="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J45" s="10" t="s">
@@ -3087,18 +2971,19 @@
       <c r="T45" t="s">
         <v>46</v>
       </c>
-      <c r="U45" t="str">
+      <c r="U45" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D46" s="17"/>
       <c r="H46" s="7" t="str">
         <f>IF(F46="","", INDEX(Table4[],MATCH(F46,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I46" s="7" cm="1">
-        <f t="array" ref="I46">_xlfn.IFS(F46="",0,F46="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I46">_xlfn.IFS(F46="",0,F46="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J46" s="10" t="s">
@@ -3123,18 +3008,19 @@
       <c r="T46" t="s">
         <v>47</v>
       </c>
-      <c r="U46" t="str">
+      <c r="U46" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D47" s="17"/>
       <c r="H47" s="7" t="str">
         <f>IF(F47="","", INDEX(Table4[],MATCH(F47,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I47" s="7" cm="1">
-        <f t="array" ref="I47">_xlfn.IFS(F47="",0,F47="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I47">_xlfn.IFS(F47="",0,F47="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J47" s="10" t="s">
@@ -3159,18 +3045,19 @@
       <c r="T47" t="s">
         <v>48</v>
       </c>
-      <c r="U47" t="str">
+      <c r="U47" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D48" s="17"/>
       <c r="H48" s="7" t="str">
         <f>IF(F48="","", INDEX(Table4[],MATCH(F48,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I48" s="7" cm="1">
-        <f t="array" ref="I48">_xlfn.IFS(F48="",0,F48="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I48">_xlfn.IFS(F48="",0,F48="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J48" s="10" t="s">
@@ -3195,18 +3082,19 @@
       <c r="T48" t="s">
         <v>49</v>
       </c>
-      <c r="U48" t="str">
+      <c r="U48" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="49" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D49" s="17"/>
       <c r="H49" s="7" t="str">
         <f>IF(F49="","", INDEX(Table4[],MATCH(F49,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I49" s="7" cm="1">
-        <f t="array" ref="I49">_xlfn.IFS(F49="",0,F49="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I49">_xlfn.IFS(F49="",0,F49="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J49" s="10" t="s">
@@ -3231,18 +3119,19 @@
       <c r="T49" t="s">
         <v>50</v>
       </c>
-      <c r="U49" t="str">
+      <c r="U49" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D50" s="17"/>
       <c r="H50" s="7" t="str">
         <f>IF(F50="","", INDEX(Table4[],MATCH(F50,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I50" s="7" cm="1">
-        <f t="array" ref="I50">_xlfn.IFS(F50="",0,F50="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I50">_xlfn.IFS(F50="",0,F50="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J50" s="9" t="s">
@@ -3267,18 +3156,19 @@
       <c r="T50" t="s">
         <v>51</v>
       </c>
-      <c r="U50" t="str">
+      <c r="U50" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D51" s="17"/>
       <c r="H51" s="7" t="str">
         <f>IF(F51="","", INDEX(Table4[],MATCH(F51,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I51" s="7" cm="1">
-        <f t="array" ref="I51">_xlfn.IFS(F51="",0,F51="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I51">_xlfn.IFS(F51="",0,F51="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J51" s="9" t="s">
@@ -3303,18 +3193,19 @@
       <c r="T51" t="s">
         <v>52</v>
       </c>
-      <c r="U51" t="str">
+      <c r="U51" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D52" s="17"/>
       <c r="H52" s="7" t="str">
         <f>IF(F52="","", INDEX(Table4[],MATCH(F52,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I52" s="7" cm="1">
-        <f t="array" ref="I52">_xlfn.IFS(F52="",0,F52="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I52">_xlfn.IFS(F52="",0,F52="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J52" s="9" t="s">
@@ -3339,18 +3230,19 @@
       <c r="T52" t="s">
         <v>53</v>
       </c>
-      <c r="U52" t="str">
+      <c r="U52" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="53" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D53" s="17"/>
       <c r="H53" s="7" t="str">
         <f>IF(F53="","", INDEX(Table4[],MATCH(F53,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I53" s="7" cm="1">
-        <f t="array" ref="I53">_xlfn.IFS(F53="",0,F53="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I53">_xlfn.IFS(F53="",0,F53="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J53" s="9" t="s">
@@ -3375,18 +3267,19 @@
       <c r="T53" t="s">
         <v>54</v>
       </c>
-      <c r="U53" t="str">
+      <c r="U53" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="54" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D54" s="17"/>
       <c r="H54" s="7" t="str">
         <f>IF(F54="","", INDEX(Table4[],MATCH(F54,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I54" s="7" cm="1">
-        <f t="array" ref="I54">_xlfn.IFS(F54="",0,F54="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I54">_xlfn.IFS(F54="",0,F54="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J54" s="9" t="s">
@@ -3411,18 +3304,19 @@
       <c r="T54" t="s">
         <v>55</v>
       </c>
-      <c r="U54" t="str">
+      <c r="U54" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D55" s="17"/>
       <c r="H55" s="7" t="str">
         <f>IF(F55="","", INDEX(Table4[],MATCH(F55,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I55" s="7" cm="1">
-        <f t="array" ref="I55">_xlfn.IFS(F55="",0,F55="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I55">_xlfn.IFS(F55="",0,F55="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J55" s="9" t="s">
@@ -3447,18 +3341,19 @@
       <c r="T55" t="s">
         <v>56</v>
       </c>
-      <c r="U55" t="str">
+      <c r="U55" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D56" s="17"/>
       <c r="H56" s="7" t="str">
         <f>IF(F56="","", INDEX(Table4[],MATCH(F56,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I56" s="7" cm="1">
-        <f t="array" ref="I56">_xlfn.IFS(F56="",0,F56="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I56">_xlfn.IFS(F56="",0,F56="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J56" s="9" t="s">
@@ -3483,18 +3378,19 @@
       <c r="T56" t="s">
         <v>57</v>
       </c>
-      <c r="U56" t="str">
+      <c r="U56" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="57" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D57" s="17"/>
       <c r="H57" s="7" t="str">
         <f>IF(F57="","", INDEX(Table4[],MATCH(F57,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I57" s="7" cm="1">
-        <f t="array" ref="I57">_xlfn.IFS(F57="",0,F57="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I57">_xlfn.IFS(F57="",0,F57="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J57" s="9" t="s">
@@ -3519,18 +3415,19 @@
       <c r="T57" t="s">
         <v>58</v>
       </c>
-      <c r="U57" t="str">
+      <c r="U57" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="58" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D58" s="17"/>
       <c r="H58" s="7" t="str">
         <f>IF(F58="","", INDEX(Table4[],MATCH(F58,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I58" s="7" cm="1">
-        <f t="array" ref="I58">_xlfn.IFS(F58="",0,F58="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I58">_xlfn.IFS(F58="",0,F58="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J58" s="10" t="s">
@@ -3555,18 +3452,19 @@
       <c r="T58" t="s">
         <v>59</v>
       </c>
-      <c r="U58" t="str">
+      <c r="U58" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D59" s="17"/>
       <c r="H59" s="7" t="str">
         <f>IF(F59="","", INDEX(Table4[],MATCH(F59,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I59" s="7" cm="1">
-        <f t="array" ref="I59">_xlfn.IFS(F59="",0,F59="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I59">_xlfn.IFS(F59="",0,F59="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J59" s="10" t="s">
@@ -3591,18 +3489,19 @@
       <c r="T59" t="s">
         <v>60</v>
       </c>
-      <c r="U59" t="str">
+      <c r="U59" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D60" s="17"/>
       <c r="H60" s="7" t="str">
         <f>IF(F60="","", INDEX(Table4[],MATCH(F60,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I60" s="7" cm="1">
-        <f t="array" ref="I60">_xlfn.IFS(F60="",0,F60="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I60">_xlfn.IFS(F60="",0,F60="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J60" s="10" t="s">
@@ -3627,18 +3526,19 @@
       <c r="T60" t="s">
         <v>61</v>
       </c>
-      <c r="U60" t="str">
+      <c r="U60" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D61" s="17"/>
       <c r="H61" s="7" t="str">
         <f>IF(F61="","", INDEX(Table4[],MATCH(F61,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I61" s="7" cm="1">
-        <f t="array" ref="I61">_xlfn.IFS(F61="",0,F61="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I61">_xlfn.IFS(F61="",0,F61="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J61" s="10" t="s">
@@ -3663,18 +3563,19 @@
       <c r="T61" t="s">
         <v>62</v>
       </c>
-      <c r="U61" t="str">
+      <c r="U61" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="62" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D62" s="17"/>
       <c r="H62" s="7" t="str">
         <f>IF(F62="","", INDEX(Table4[],MATCH(F62,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I62" s="7" cm="1">
-        <f t="array" ref="I62">_xlfn.IFS(F62="",0,F62="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I62">_xlfn.IFS(F62="",0,F62="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J62" s="10" t="s">
@@ -3699,18 +3600,19 @@
       <c r="T62" t="s">
         <v>63</v>
       </c>
-      <c r="U62" t="str">
+      <c r="U62" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D63" s="17"/>
       <c r="H63" s="7" t="str">
         <f>IF(F63="","", INDEX(Table4[],MATCH(F63,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I63" s="7" cm="1">
-        <f t="array" ref="I63">_xlfn.IFS(F63="",0,F63="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I63">_xlfn.IFS(F63="",0,F63="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J63" s="10" t="s">
@@ -3735,18 +3637,19 @@
       <c r="T63" t="s">
         <v>64</v>
       </c>
-      <c r="U63" t="str">
+      <c r="U63" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="64" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D64" s="17"/>
       <c r="H64" s="7" t="str">
         <f>IF(F64="","", INDEX(Table4[],MATCH(F64,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I64" s="7" cm="1">
-        <f t="array" ref="I64">_xlfn.IFS(F64="",0,F64="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I64">_xlfn.IFS(F64="",0,F64="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J64" s="10" t="s">
@@ -3771,18 +3674,19 @@
       <c r="T64" t="s">
         <v>65</v>
       </c>
-      <c r="U64" t="str">
+      <c r="U64" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="65" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D65" s="17"/>
       <c r="H65" s="7" t="str">
         <f>IF(F65="","", INDEX(Table4[],MATCH(F65,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I65" s="7" cm="1">
-        <f t="array" ref="I65">_xlfn.IFS(F65="",0,F65="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I65">_xlfn.IFS(F65="",0,F65="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J65" s="10" t="s">
@@ -3807,18 +3711,19 @@
       <c r="T65" t="s">
         <v>66</v>
       </c>
-      <c r="U65" t="str">
+      <c r="U65" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="66" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D66" s="17"/>
       <c r="H66" s="7" t="str">
         <f>IF(F66="","", INDEX(Table4[],MATCH(F66,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I66" s="7" cm="1">
-        <f t="array" ref="I66">_xlfn.IFS(F66="",0,F66="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I66">_xlfn.IFS(F66="",0,F66="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J66" s="9" t="s">
@@ -3843,18 +3748,19 @@
       <c r="T66" t="s">
         <v>67</v>
       </c>
-      <c r="U66" t="str">
+      <c r="U66" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="67" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D67" s="17"/>
       <c r="H67" s="7" t="str">
         <f>IF(F67="","", INDEX(Table4[],MATCH(F67,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I67" s="7" cm="1">
-        <f t="array" ref="I67">_xlfn.IFS(F67="",0,F67="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I67">_xlfn.IFS(F67="",0,F67="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J67" s="9" t="s">
@@ -3879,18 +3785,19 @@
       <c r="T67" t="s">
         <v>68</v>
       </c>
-      <c r="U67" t="str">
-        <f t="shared" ref="U67:U97" si="11">TEXT(D67,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="U67" s="19" t="str">
+        <f t="shared" ref="U67:U97" si="11">IF(ISBLANK(D67),"",D67)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D68" s="17"/>
       <c r="H68" s="7" t="str">
         <f>IF(F68="","", INDEX(Table4[],MATCH(F68,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I68" s="7" cm="1">
-        <f t="array" ref="I68">_xlfn.IFS(F68="",0,F68="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I68">_xlfn.IFS(F68="",0,F68="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J68" s="9" t="s">
@@ -3915,18 +3822,19 @@
       <c r="T68" t="s">
         <v>69</v>
       </c>
-      <c r="U68" t="str">
+      <c r="U68" s="19" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="69" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D69" s="17"/>
       <c r="H69" s="7" t="str">
         <f>IF(F69="","", INDEX(Table4[],MATCH(F69,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I69" s="7" cm="1">
-        <f t="array" ref="I69">_xlfn.IFS(F69="",0,F69="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I69">_xlfn.IFS(F69="",0,F69="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J69" s="9" t="s">
@@ -3951,18 +3859,19 @@
       <c r="T69" t="s">
         <v>70</v>
       </c>
-      <c r="U69" t="str">
+      <c r="U69" s="19" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="70" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D70" s="17"/>
       <c r="H70" s="7" t="str">
         <f>IF(F70="","", INDEX(Table4[],MATCH(F70,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I70" s="7" cm="1">
-        <f t="array" ref="I70">_xlfn.IFS(F70="",0,F70="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I70">_xlfn.IFS(F70="",0,F70="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J70" s="9" t="s">
@@ -3987,18 +3896,19 @@
       <c r="T70" t="s">
         <v>71</v>
       </c>
-      <c r="U70" t="str">
+      <c r="U70" s="19" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="71" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D71" s="17"/>
       <c r="H71" s="7" t="str">
         <f>IF(F71="","", INDEX(Table4[],MATCH(F71,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I71" s="7" cm="1">
-        <f t="array" ref="I71">_xlfn.IFS(F71="",0,F71="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I71">_xlfn.IFS(F71="",0,F71="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J71" s="9" t="s">
@@ -4023,18 +3933,19 @@
       <c r="T71" t="s">
         <v>72</v>
       </c>
-      <c r="U71" t="str">
+      <c r="U71" s="19" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="72" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D72" s="17"/>
       <c r="H72" s="7" t="str">
         <f>IF(F72="","", INDEX(Table4[],MATCH(F72,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I72" s="7" cm="1">
-        <f t="array" ref="I72">_xlfn.IFS(F72="",0,F72="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I72">_xlfn.IFS(F72="",0,F72="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J72" s="9" t="s">
@@ -4059,18 +3970,19 @@
       <c r="T72" t="s">
         <v>73</v>
       </c>
-      <c r="U72" t="str">
+      <c r="U72" s="19" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="73" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D73" s="17"/>
       <c r="H73" s="7" t="str">
         <f>IF(F73="","", INDEX(Table4[],MATCH(F73,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I73" s="7" cm="1">
-        <f t="array" ref="I73">_xlfn.IFS(F73="",0,F73="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I73">_xlfn.IFS(F73="",0,F73="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J73" s="9" t="s">
@@ -4095,18 +4007,19 @@
       <c r="T73" t="s">
         <v>74</v>
       </c>
-      <c r="U73" t="str">
+      <c r="U73" s="19" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="74" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D74" s="17"/>
       <c r="H74" s="7" t="str">
         <f>IF(F74="","", INDEX(Table4[],MATCH(F74,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I74" s="7" cm="1">
-        <f t="array" ref="I74">_xlfn.IFS(F74="",0,F74="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I74">_xlfn.IFS(F74="",0,F74="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J74" s="10" t="s">
@@ -4131,18 +4044,19 @@
       <c r="T74" t="s">
         <v>75</v>
       </c>
-      <c r="U74" t="str">
+      <c r="U74" s="19" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="75" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D75" s="17"/>
       <c r="H75" s="7" t="str">
         <f>IF(F75="","", INDEX(Table4[],MATCH(F75,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I75" s="7" cm="1">
-        <f t="array" ref="I75">_xlfn.IFS(F75="",0,F75="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I75">_xlfn.IFS(F75="",0,F75="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J75" s="10" t="s">
@@ -4167,18 +4081,19 @@
       <c r="T75" t="s">
         <v>76</v>
       </c>
-      <c r="U75" t="str">
+      <c r="U75" s="19" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="76" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D76" s="17"/>
       <c r="H76" s="7" t="str">
         <f>IF(F76="","", INDEX(Table4[],MATCH(F76,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I76" s="7" cm="1">
-        <f t="array" ref="I76">_xlfn.IFS(F76="",0,F76="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I76">_xlfn.IFS(F76="",0,F76="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J76" s="10" t="s">
@@ -4203,18 +4118,19 @@
       <c r="T76" t="s">
         <v>77</v>
       </c>
-      <c r="U76" t="str">
+      <c r="U76" s="19" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="77" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D77" s="17"/>
       <c r="H77" s="7" t="str">
         <f>IF(F77="","", INDEX(Table4[],MATCH(F77,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I77" s="7" cm="1">
-        <f t="array" ref="I77">_xlfn.IFS(F77="",0,F77="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I77">_xlfn.IFS(F77="",0,F77="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J77" s="10" t="s">
@@ -4239,18 +4155,19 @@
       <c r="T77" t="s">
         <v>78</v>
       </c>
-      <c r="U77" t="str">
+      <c r="U77" s="19" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="78" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D78" s="17"/>
       <c r="H78" s="7" t="str">
         <f>IF(F78="","", INDEX(Table4[],MATCH(F78,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I78" s="7" cm="1">
-        <f t="array" ref="I78">_xlfn.IFS(F78="",0,F78="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I78">_xlfn.IFS(F78="",0,F78="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J78" s="10" t="s">
@@ -4275,18 +4192,19 @@
       <c r="T78" t="s">
         <v>79</v>
       </c>
-      <c r="U78" t="str">
+      <c r="U78" s="19" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="79" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D79" s="17"/>
       <c r="H79" s="7" t="str">
         <f>IF(F79="","", INDEX(Table4[],MATCH(F79,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I79" s="7" cm="1">
-        <f t="array" ref="I79">_xlfn.IFS(F79="",0,F79="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I79">_xlfn.IFS(F79="",0,F79="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J79" s="10" t="s">
@@ -4311,18 +4229,19 @@
       <c r="T79" t="s">
         <v>80</v>
       </c>
-      <c r="U79" t="str">
+      <c r="U79" s="19" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="80" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D80" s="17"/>
       <c r="H80" s="7" t="str">
         <f>IF(F80="","", INDEX(Table4[],MATCH(F80,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I80" s="7" cm="1">
-        <f t="array" ref="I80">_xlfn.IFS(F80="",0,F80="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I80">_xlfn.IFS(F80="",0,F80="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J80" s="10" t="s">
@@ -4347,18 +4266,19 @@
       <c r="T80" t="s">
         <v>81</v>
       </c>
-      <c r="U80" t="str">
+      <c r="U80" s="19" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="81" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D81" s="17"/>
       <c r="H81" s="7" t="str">
         <f>IF(F81="","", INDEX(Table4[],MATCH(F81,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I81" s="7" cm="1">
-        <f t="array" ref="I81">_xlfn.IFS(F81="",0,F81="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I81">_xlfn.IFS(F81="",0,F81="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J81" s="10" t="s">
@@ -4383,18 +4303,19 @@
       <c r="T81" t="s">
         <v>82</v>
       </c>
-      <c r="U81" t="str">
+      <c r="U81" s="19" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="82" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D82" s="17"/>
       <c r="H82" s="7" t="str">
         <f>IF(F82="","", INDEX(Table4[],MATCH(F82,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I82" s="7" cm="1">
-        <f t="array" ref="I82">_xlfn.IFS(F82="",0,F82="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I82">_xlfn.IFS(F82="",0,F82="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J82" s="9" t="s">
@@ -4419,18 +4340,19 @@
       <c r="T82" t="s">
         <v>83</v>
       </c>
-      <c r="U82" t="str">
+      <c r="U82" s="19" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="83" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D83" s="17"/>
       <c r="H83" s="7" t="str">
         <f>IF(F83="","", INDEX(Table4[],MATCH(F83,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I83" s="7" cm="1">
-        <f t="array" ref="I83">_xlfn.IFS(F83="",0,F83="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I83">_xlfn.IFS(F83="",0,F83="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J83" s="9" t="s">
@@ -4455,18 +4377,19 @@
       <c r="T83" t="s">
         <v>84</v>
       </c>
-      <c r="U83" t="str">
+      <c r="U83" s="19" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="84" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D84" s="17"/>
       <c r="H84" s="7" t="str">
         <f>IF(F84="","", INDEX(Table4[],MATCH(F84,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I84" s="7" cm="1">
-        <f t="array" ref="I84">_xlfn.IFS(F84="",0,F84="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I84">_xlfn.IFS(F84="",0,F84="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J84" s="9" t="s">
@@ -4491,18 +4414,19 @@
       <c r="T84" t="s">
         <v>85</v>
       </c>
-      <c r="U84" t="str">
+      <c r="U84" s="19" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="85" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D85" s="17"/>
       <c r="H85" s="7" t="str">
         <f>IF(F85="","", INDEX(Table4[],MATCH(F85,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I85" s="7" cm="1">
-        <f t="array" ref="I85">_xlfn.IFS(F85="",0,F85="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I85">_xlfn.IFS(F85="",0,F85="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J85" s="9" t="s">
@@ -4527,18 +4451,19 @@
       <c r="T85" t="s">
         <v>86</v>
       </c>
-      <c r="U85" t="str">
+      <c r="U85" s="19" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="86" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D86" s="17"/>
       <c r="H86" s="7" t="str">
         <f>IF(F86="","", INDEX(Table4[],MATCH(F86,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I86" s="7" cm="1">
-        <f t="array" ref="I86">_xlfn.IFS(F86="",0,F86="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I86">_xlfn.IFS(F86="",0,F86="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J86" s="9" t="s">
@@ -4563,18 +4488,19 @@
       <c r="T86" t="s">
         <v>87</v>
       </c>
-      <c r="U86" t="str">
+      <c r="U86" s="19" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="87" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D87" s="17"/>
       <c r="H87" s="7" t="str">
         <f>IF(F87="","", INDEX(Table4[],MATCH(F87,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I87" s="7" cm="1">
-        <f t="array" ref="I87">_xlfn.IFS(F87="",0,F87="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I87">_xlfn.IFS(F87="",0,F87="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J87" s="9" t="s">
@@ -4599,18 +4525,19 @@
       <c r="T87" t="s">
         <v>88</v>
       </c>
-      <c r="U87" t="str">
+      <c r="U87" s="19" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="88" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D88" s="17"/>
       <c r="H88" s="7" t="str">
         <f>IF(F88="","", INDEX(Table4[],MATCH(F88,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I88" s="7" cm="1">
-        <f t="array" ref="I88">_xlfn.IFS(F88="",0,F88="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I88">_xlfn.IFS(F88="",0,F88="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J88" s="9" t="s">
@@ -4635,18 +4562,19 @@
       <c r="T88" t="s">
         <v>89</v>
       </c>
-      <c r="U88" t="str">
+      <c r="U88" s="19" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="89" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D89" s="17"/>
       <c r="H89" s="7" t="str">
         <f>IF(F89="","", INDEX(Table4[],MATCH(F89,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I89" s="7" cm="1">
-        <f t="array" ref="I89">_xlfn.IFS(F89="",0,F89="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I89">_xlfn.IFS(F89="",0,F89="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J89" s="9" t="s">
@@ -4671,18 +4599,19 @@
       <c r="T89" t="s">
         <v>90</v>
       </c>
-      <c r="U89" t="str">
+      <c r="U89" s="19" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="90" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D90" s="17"/>
       <c r="H90" s="7" t="str">
         <f>IF(F90="","", INDEX(Table4[],MATCH(F90,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I90" s="7" cm="1">
-        <f t="array" ref="I90">_xlfn.IFS(F90="",0,F90="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I90">_xlfn.IFS(F90="",0,F90="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J90" s="10" t="s">
@@ -4707,18 +4636,19 @@
       <c r="T90" t="s">
         <v>91</v>
       </c>
-      <c r="U90" t="str">
+      <c r="U90" s="19" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="91" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D91" s="17"/>
       <c r="H91" s="7" t="str">
         <f>IF(F91="","", INDEX(Table4[],MATCH(F91,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I91" s="7" cm="1">
-        <f t="array" ref="I91">_xlfn.IFS(F91="",0,F91="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I91">_xlfn.IFS(F91="",0,F91="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J91" s="10" t="s">
@@ -4743,18 +4673,19 @@
       <c r="T91" t="s">
         <v>92</v>
       </c>
-      <c r="U91" t="str">
+      <c r="U91" s="19" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="92" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D92" s="17"/>
       <c r="H92" s="7" t="str">
         <f>IF(F92="","", INDEX(Table4[],MATCH(F92,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I92" s="7" cm="1">
-        <f t="array" ref="I92">_xlfn.IFS(F92="",0,F92="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I92">_xlfn.IFS(F92="",0,F92="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J92" s="10" t="s">
@@ -4779,18 +4710,19 @@
       <c r="T92" t="s">
         <v>93</v>
       </c>
-      <c r="U92" t="str">
+      <c r="U92" s="19" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="93" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D93" s="17"/>
       <c r="H93" s="7" t="str">
         <f>IF(F93="","", INDEX(Table4[],MATCH(F93,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I93" s="7" cm="1">
-        <f t="array" ref="I93">_xlfn.IFS(F93="",0,F93="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I93">_xlfn.IFS(F93="",0,F93="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J93" s="10" t="s">
@@ -4815,18 +4747,19 @@
       <c r="T93" t="s">
         <v>94</v>
       </c>
-      <c r="U93" t="str">
+      <c r="U93" s="19" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="94" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D94" s="17"/>
       <c r="H94" s="7" t="str">
         <f>IF(F94="","", INDEX(Table4[],MATCH(F94,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I94" s="7" cm="1">
-        <f t="array" ref="I94">_xlfn.IFS(F94="",0,F94="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I94">_xlfn.IFS(F94="",0,F94="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J94" s="10" t="s">
@@ -4851,18 +4784,27 @@
       <c r="T94" t="s">
         <v>95</v>
       </c>
-      <c r="U94" t="str">
+      <c r="U94" s="19" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="95" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>102</v>
+      </c>
+      <c r="C95" t="s">
+        <v>98</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>189</v>
+      </c>
       <c r="H95" s="7" t="str">
         <f>IF(F95="","", INDEX(Table4[],MATCH(F95,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I95" s="7" cm="1">
-        <f t="array" ref="I95">_xlfn.IFS(F95="",0,F95="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I95">_xlfn.IFS(F95="",0,F95="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J95" s="10" t="s">
@@ -4870,11 +4812,11 @@
       </c>
       <c r="K95" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P95">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q95">
         <f t="shared" si="9"/>
@@ -4882,23 +4824,32 @@
       </c>
       <c r="R95">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T95" t="s">
         <v>96</v>
       </c>
-      <c r="U95" t="str">
+      <c r="U95" s="19" t="str">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="8:21" x14ac:dyDescent="0.2">
+        <v>Positive control</v>
+      </c>
+    </row>
+    <row r="96" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C96" t="s">
+        <v>98</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>189</v>
+      </c>
       <c r="H96" s="7" t="str">
         <f>IF(F96="","", INDEX(Table4[],MATCH(F96,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I96" s="7" cm="1">
-        <f t="array" ref="I96">_xlfn.IFS(F96="",0,F96="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I96">_xlfn.IFS(F96="",0,F96="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J96" s="10" t="s">
@@ -4906,11 +4857,11 @@
       </c>
       <c r="K96" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P96">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q96">
         <f t="shared" si="9"/>
@@ -4918,23 +4869,32 @@
       </c>
       <c r="R96">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T96" t="s">
         <v>97</v>
       </c>
-      <c r="U96" t="str">
+      <c r="U96" s="19" t="str">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="8:21" x14ac:dyDescent="0.2">
+        <v>Positive control</v>
+      </c>
+    </row>
+    <row r="97" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
+        <v>102</v>
+      </c>
+      <c r="C97" t="s">
+        <v>98</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>189</v>
+      </c>
       <c r="H97" s="7" t="str">
         <f>IF(F97="","", INDEX(Table4[],MATCH(F97,Table4[primer],0),1))</f>
         <v/>
       </c>
       <c r="I97" s="7" cm="1">
-        <f t="array" ref="I97">_xlfn.IFS(F97="",0,F97="water",11.5, TRUE, 5)</f>
+        <f t="array" ref="I97">_xlfn.IFS(F97="",0,F97="water",11.5,TRUE, 5)</f>
         <v>0</v>
       </c>
       <c r="J97" s="10" t="s">
@@ -4942,11 +4902,11 @@
       </c>
       <c r="K97" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P97">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q97">
         <f t="shared" si="9"/>
@@ -4954,14 +4914,14 @@
       </c>
       <c r="R97">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T97" t="s">
         <v>98</v>
       </c>
-      <c r="U97" t="str">
+      <c r="U97" s="19" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>Positive control</v>
       </c>
     </row>
   </sheetData>
@@ -5024,8 +4984,8 @@
   </sheetPr>
   <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5050,7 +5010,7 @@
         <v>157</v>
       </c>
       <c r="J1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -5330,7 +5290,7 @@
         <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F21" t="s">
         <v>141</v>
@@ -5377,10 +5337,10 @@
         <v>46</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F25" t="s">
         <v>145</v>
@@ -5471,7 +5431,7 @@
     </row>
     <row r="36" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J36" t="s">
         <v>37</v>
@@ -5479,7 +5439,7 @@
     </row>
     <row r="37" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F37" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J37" t="s">
         <v>38</v>
@@ -5829,20 +5789,20 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
         <f>IF(master!B2="plate",master!C2, "")</f>
-        <v>A02</v>
+        <v>A01</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1">
         <f>IF(master!B2="plate",master!K2,0)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f>IF(master!B3="plate",master!C3, "")</f>
-        <v>B02</v>
+        <v>B01</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -5855,7 +5815,7 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
         <f>IF(master!B4="plate",master!C4, "")</f>
-        <v>C02</v>
+        <v>C01</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -5868,7 +5828,7 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
         <f>IF(master!B5="plate",master!C5, "")</f>
-        <v>D02</v>
+        <v>D01</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
@@ -5881,53 +5841,53 @@
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="str">
         <f>IF(master!B6="plate",master!C6, "")</f>
-        <v>E02</v>
+        <v/>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1">
         <f>IF(master!B6="plate",master!K6,0)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="str">
         <f>IF(master!B7="plate",master!C7, "")</f>
-        <v>F02</v>
+        <v/>
       </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="1">
         <f>IF(master!B7="plate",master!K7,0)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="str">
         <f>IF(master!B8="plate",master!C8, "")</f>
-        <v>G02</v>
+        <v/>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="1">
         <f>IF(master!B8="plate",master!K8,0)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="str">
         <f>IF(master!B9="plate",master!C9, "")</f>
-        <v>H02</v>
+        <v/>
       </c>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1">
         <f>IF(master!B9="plate",master!K9,0)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -6141,105 +6101,105 @@
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="str">
         <f>IF(master!B26="plate",master!C26, "")</f>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="B26" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="1">
         <f>IF(master!B26="plate",master!K26,0)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="str">
         <f>IF(master!B27="plate",master!C27, "")</f>
-        <v>B01</v>
+        <v/>
       </c>
       <c r="B27" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="1">
         <f>IF(master!B27="plate",master!K27,0)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="str">
         <f>IF(master!B28="plate",master!C28, "")</f>
-        <v>C01</v>
+        <v/>
       </c>
       <c r="B28" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="1">
         <f>IF(master!B28="plate",master!K28,0)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="str">
         <f>IF(master!B29="plate",master!C29, "")</f>
-        <v>D01</v>
+        <v/>
       </c>
       <c r="B29" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="1">
         <f>IF(master!B29="plate",master!K29,0)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="str">
         <f>IF(master!B30="plate",master!C30, "")</f>
-        <v>E01</v>
+        <v/>
       </c>
       <c r="B30" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C30" s="1">
         <f>IF(master!B30="plate",master!K30,0)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="str">
         <f>IF(master!B31="plate",master!C31, "")</f>
-        <v>F01</v>
+        <v/>
       </c>
       <c r="B31" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C31" s="1">
         <f>IF(master!B31="plate",master!K31,0)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="str">
         <f>IF(master!B32="plate",master!C32, "")</f>
-        <v>G01</v>
+        <v/>
       </c>
       <c r="B32" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C32" s="1">
         <f>IF(master!B32="plate",master!K32,0)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="str">
         <f>IF(master!B33="plate",master!C33, "")</f>
-        <v>H01</v>
+        <v/>
       </c>
       <c r="B33" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C33" s="1">
         <f>IF(master!B33="plate",master!K33,0)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -7038,40 +6998,40 @@
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="str">
         <f>IF(master!B95="plate",master!C95, "")</f>
-        <v/>
+        <v>H12</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C95" s="1">
         <f>IF(master!B95="plate",master!K95,0)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="str">
         <f>IF(master!B96="plate",master!C96, "")</f>
-        <v/>
+        <v>H12</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C96" s="1">
         <f>IF(master!B96="plate",master!K96,0)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="str">
         <f>IF(master!B97="plate",master!C97, "")</f>
-        <v/>
+        <v>H12</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C97" s="1">
         <f>IF(master!B97="plate",master!K97,0)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -7246,27 +7206,27 @@
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="str">
         <f>IF(master!B12="strip",master!C12,"")</f>
-        <v>E02</v>
+        <v/>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="1">
         <f>IF(master!B12="strip",master!K12,0)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="str">
         <f>IF(master!B13="strip",master!C13,"")</f>
-        <v>B05</v>
+        <v/>
       </c>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="1">
         <f>IF(master!B13="strip",master!K13,0)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -7324,105 +7284,105 @@
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="str">
         <f>IF(master!B18="strip",master!C18,"")</f>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="1">
         <f>IF(master!B18="strip",master!K18,0)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="str">
         <f>IF(master!B19="strip",master!C19,"")</f>
-        <v>B01</v>
+        <v/>
       </c>
       <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="1">
         <f>IF(master!B19="strip",master!K19,0)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="str">
         <f>IF(master!B20="strip",master!C20,"")</f>
-        <v>C01</v>
+        <v/>
       </c>
       <c r="B20" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="1">
         <f>IF(master!B20="strip",master!K20,0)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="str">
         <f>IF(master!B21="strip",master!C21,"")</f>
-        <v>D01</v>
+        <v/>
       </c>
       <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="1">
         <f>IF(master!B21="strip",master!K21,0)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="str">
         <f>IF(master!B22="strip",master!C22,"")</f>
-        <v>E01</v>
+        <v/>
       </c>
       <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="1">
         <f>IF(master!B22="strip",master!K22,0)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="str">
         <f>IF(master!B23="strip",master!C23,"")</f>
-        <v>F01</v>
+        <v/>
       </c>
       <c r="B23" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="1">
         <f>IF(master!B23="strip",master!K23,0)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="str">
         <f>IF(master!B24="strip",master!C24,"")</f>
-        <v>G01</v>
+        <v/>
       </c>
       <c r="B24" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="1">
         <f>IF(master!B24="strip",master!K24,0)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="str">
         <f>IF(master!B25="strip",master!C25,"")</f>
-        <v>H01</v>
+        <v/>
       </c>
       <c r="B25" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="1">
         <f>IF(master!B25="strip",master!K25,0)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -8405,14 +8365,14 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
         <f>IF(ISTEXT(master!F2),master!H2,"")</f>
-        <v/>
+        <v>A01</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1">
         <f>master!I2</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -8535,14 +8495,14 @@
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="str">
         <f>IF(ISTEXT(master!F12),master!H12,"")</f>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="1">
         <f>master!I12</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -8613,105 +8573,105 @@
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="str">
         <f>IF(ISTEXT(master!F18),master!H18,"")</f>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="1">
         <f>master!I18</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="str">
         <f>IF(ISTEXT(master!F19),master!H19,"")</f>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="1">
         <f>master!I19</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="str">
         <f>IF(ISTEXT(master!F20),master!H20,"")</f>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="B20" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="1">
         <f>master!I20</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="str">
         <f>IF(ISTEXT(master!F21),master!H21,"")</f>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="1">
         <f>master!I21</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="str">
         <f>IF(ISTEXT(master!F22),master!H22,"")</f>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="1">
         <f>master!I22</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="str">
         <f>IF(ISTEXT(master!F23),master!H23,"")</f>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="B23" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="1">
         <f>master!I23</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="str">
         <f>IF(ISTEXT(master!F24),master!H24,"")</f>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="B24" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="1">
         <f>master!I24</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="str">
         <f>IF(ISTEXT(master!F25),master!H25,"")</f>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="B25" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="1">
         <f>master!I25</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -9680,37 +9640,37 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" t="s">
         <v>172</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>173</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>174</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>175</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>176</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>177</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>178</v>
-      </c>
-      <c r="H1" t="s">
-        <v>179</v>
-      </c>
-      <c r="I1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>source_plate!A2</f>
-        <v>A02</v>
+        <v>A01</v>
       </c>
       <c r="B2" t="str">
         <f>source_plate!B2</f>
@@ -9718,7 +9678,7 @@
       </c>
       <c r="C2">
         <f>source_plate!C2</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D2" t="str">
         <f>source_strip!A2</f>
@@ -9734,7 +9694,7 @@
       </c>
       <c r="G2" t="str">
         <f>source_tube!A2</f>
-        <v/>
+        <v>A01</v>
       </c>
       <c r="H2" t="str">
         <f>source_tube!B2</f>
@@ -9742,13 +9702,13 @@
       </c>
       <c r="I2">
         <f>source_tube!C2</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>source_plate!A3</f>
-        <v>B02</v>
+        <v>B01</v>
       </c>
       <c r="B3" t="str">
         <f>source_plate!B3</f>
@@ -9786,7 +9746,7 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>source_plate!A4</f>
-        <v>C02</v>
+        <v>C01</v>
       </c>
       <c r="B4" t="str">
         <f>source_plate!B4</f>
@@ -9824,7 +9784,7 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>source_plate!A5</f>
-        <v>D02</v>
+        <v>D01</v>
       </c>
       <c r="B5" t="str">
         <f>source_plate!B5</f>
@@ -9862,7 +9822,7 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>source_plate!A6</f>
-        <v>E02</v>
+        <v/>
       </c>
       <c r="B6" t="str">
         <f>source_plate!B6</f>
@@ -9870,7 +9830,7 @@
       </c>
       <c r="C6">
         <f>source_plate!C6</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D6" t="str">
         <f>source_strip!A6</f>
@@ -9900,7 +9860,7 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>source_plate!A7</f>
-        <v>F02</v>
+        <v/>
       </c>
       <c r="B7" t="str">
         <f>source_plate!B7</f>
@@ -9908,7 +9868,7 @@
       </c>
       <c r="C7">
         <f>source_plate!C7</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D7" t="str">
         <f>source_strip!A7</f>
@@ -9938,7 +9898,7 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f>source_plate!A8</f>
-        <v>G02</v>
+        <v/>
       </c>
       <c r="B8" t="str">
         <f>source_plate!B8</f>
@@ -9946,7 +9906,7 @@
       </c>
       <c r="C8">
         <f>source_plate!C8</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D8" t="str">
         <f>source_strip!A8</f>
@@ -9976,7 +9936,7 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f>source_plate!A9</f>
-        <v>H02</v>
+        <v/>
       </c>
       <c r="B9" t="str">
         <f>source_plate!B9</f>
@@ -9984,7 +9944,7 @@
       </c>
       <c r="C9">
         <f>source_plate!C9</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D9" t="str">
         <f>source_strip!A9</f>
@@ -10102,7 +10062,7 @@
       </c>
       <c r="D12" t="str">
         <f>source_strip!A12</f>
-        <v>E02</v>
+        <v/>
       </c>
       <c r="E12" t="str">
         <f>source_strip!B12</f>
@@ -10110,11 +10070,11 @@
       </c>
       <c r="F12">
         <f>source_strip!C12</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G12" t="str">
         <f>source_tube!A12</f>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="H12" t="str">
         <f>source_tube!B12</f>
@@ -10122,7 +10082,7 @@
       </c>
       <c r="I12">
         <f>source_tube!C12</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -10140,7 +10100,7 @@
       </c>
       <c r="D13" t="str">
         <f>source_strip!A13</f>
-        <v>B05</v>
+        <v/>
       </c>
       <c r="E13" t="str">
         <f>source_strip!B13</f>
@@ -10148,7 +10108,7 @@
       </c>
       <c r="F13">
         <f>source_strip!C13</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G13" t="str">
         <f>source_tube!A13</f>
@@ -10330,7 +10290,7 @@
       </c>
       <c r="D18" t="str">
         <f>source_strip!A18</f>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="E18" t="str">
         <f>source_strip!B18</f>
@@ -10338,11 +10298,11 @@
       </c>
       <c r="F18">
         <f>source_strip!C18</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G18" t="str">
         <f>source_tube!A18</f>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="H18" t="str">
         <f>source_tube!B18</f>
@@ -10350,7 +10310,7 @@
       </c>
       <c r="I18">
         <f>source_tube!C18</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -10368,7 +10328,7 @@
       </c>
       <c r="D19" t="str">
         <f>source_strip!A19</f>
-        <v>B01</v>
+        <v/>
       </c>
       <c r="E19" t="str">
         <f>source_strip!B19</f>
@@ -10376,11 +10336,11 @@
       </c>
       <c r="F19">
         <f>source_strip!C19</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G19" t="str">
         <f>source_tube!A19</f>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="H19" t="str">
         <f>source_tube!B19</f>
@@ -10388,7 +10348,7 @@
       </c>
       <c r="I19">
         <f>source_tube!C19</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -10406,7 +10366,7 @@
       </c>
       <c r="D20" t="str">
         <f>source_strip!A20</f>
-        <v>C01</v>
+        <v/>
       </c>
       <c r="E20" t="str">
         <f>source_strip!B20</f>
@@ -10414,11 +10374,11 @@
       </c>
       <c r="F20">
         <f>source_strip!C20</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G20" t="str">
         <f>source_tube!A20</f>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="H20" t="str">
         <f>source_tube!B20</f>
@@ -10426,7 +10386,7 @@
       </c>
       <c r="I20">
         <f>source_tube!C20</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -10444,7 +10404,7 @@
       </c>
       <c r="D21" t="str">
         <f>source_strip!A21</f>
-        <v>D01</v>
+        <v/>
       </c>
       <c r="E21" t="str">
         <f>source_strip!B21</f>
@@ -10452,11 +10412,11 @@
       </c>
       <c r="F21">
         <f>source_strip!C21</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G21" t="str">
         <f>source_tube!A21</f>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="H21" t="str">
         <f>source_tube!B21</f>
@@ -10464,7 +10424,7 @@
       </c>
       <c r="I21">
         <f>source_tube!C21</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -10482,7 +10442,7 @@
       </c>
       <c r="D22" t="str">
         <f>source_strip!A22</f>
-        <v>E01</v>
+        <v/>
       </c>
       <c r="E22" t="str">
         <f>source_strip!B22</f>
@@ -10490,11 +10450,11 @@
       </c>
       <c r="F22">
         <f>source_strip!C22</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G22" t="str">
         <f>source_tube!A22</f>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="H22" t="str">
         <f>source_tube!B22</f>
@@ -10502,7 +10462,7 @@
       </c>
       <c r="I22">
         <f>source_tube!C22</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -10520,7 +10480,7 @@
       </c>
       <c r="D23" t="str">
         <f>source_strip!A23</f>
-        <v>F01</v>
+        <v/>
       </c>
       <c r="E23" t="str">
         <f>source_strip!B23</f>
@@ -10528,11 +10488,11 @@
       </c>
       <c r="F23">
         <f>source_strip!C23</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G23" t="str">
         <f>source_tube!A23</f>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="H23" t="str">
         <f>source_tube!B23</f>
@@ -10540,7 +10500,7 @@
       </c>
       <c r="I23">
         <f>source_tube!C23</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -10558,7 +10518,7 @@
       </c>
       <c r="D24" t="str">
         <f>source_strip!A24</f>
-        <v>G01</v>
+        <v/>
       </c>
       <c r="E24" t="str">
         <f>source_strip!B24</f>
@@ -10566,11 +10526,11 @@
       </c>
       <c r="F24">
         <f>source_strip!C24</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G24" t="str">
         <f>source_tube!A24</f>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="H24" t="str">
         <f>source_tube!B24</f>
@@ -10578,7 +10538,7 @@
       </c>
       <c r="I24">
         <f>source_tube!C24</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -10596,7 +10556,7 @@
       </c>
       <c r="D25" t="str">
         <f>source_strip!A25</f>
-        <v>H01</v>
+        <v/>
       </c>
       <c r="E25" t="str">
         <f>source_strip!B25</f>
@@ -10604,11 +10564,11 @@
       </c>
       <c r="F25">
         <f>source_strip!C25</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G25" t="str">
         <f>source_tube!A25</f>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="H25" t="str">
         <f>source_tube!B25</f>
@@ -10616,13 +10576,13 @@
       </c>
       <c r="I25">
         <f>source_tube!C25</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f>source_plate!A26</f>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="B26" t="str">
         <f>source_plate!B26</f>
@@ -10630,7 +10590,7 @@
       </c>
       <c r="C26">
         <f>source_plate!C26</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D26" t="str">
         <f>source_strip!A26</f>
@@ -10660,7 +10620,7 @@
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f>source_plate!A27</f>
-        <v>B01</v>
+        <v/>
       </c>
       <c r="B27" t="str">
         <f>source_plate!B27</f>
@@ -10668,7 +10628,7 @@
       </c>
       <c r="C27">
         <f>source_plate!C27</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D27" t="str">
         <f>source_strip!A27</f>
@@ -10698,7 +10658,7 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f>source_plate!A28</f>
-        <v>C01</v>
+        <v/>
       </c>
       <c r="B28" t="str">
         <f>source_plate!B28</f>
@@ -10706,7 +10666,7 @@
       </c>
       <c r="C28">
         <f>source_plate!C28</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D28" t="str">
         <f>source_strip!A28</f>
@@ -10736,7 +10696,7 @@
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f>source_plate!A29</f>
-        <v>D01</v>
+        <v/>
       </c>
       <c r="B29" t="str">
         <f>source_plate!B29</f>
@@ -10744,7 +10704,7 @@
       </c>
       <c r="C29">
         <f>source_plate!C29</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D29" t="str">
         <f>source_strip!A29</f>
@@ -10774,7 +10734,7 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f>source_plate!A30</f>
-        <v>E01</v>
+        <v/>
       </c>
       <c r="B30" t="str">
         <f>source_plate!B30</f>
@@ -10782,7 +10742,7 @@
       </c>
       <c r="C30">
         <f>source_plate!C30</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D30" t="str">
         <f>source_strip!A30</f>
@@ -10812,7 +10772,7 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f>source_plate!A31</f>
-        <v>F01</v>
+        <v/>
       </c>
       <c r="B31" t="str">
         <f>source_plate!B31</f>
@@ -10820,7 +10780,7 @@
       </c>
       <c r="C31">
         <f>source_plate!C31</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D31" t="str">
         <f>source_strip!A31</f>
@@ -10850,7 +10810,7 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f>source_plate!A32</f>
-        <v>G01</v>
+        <v/>
       </c>
       <c r="B32" t="str">
         <f>source_plate!B32</f>
@@ -10858,7 +10818,7 @@
       </c>
       <c r="C32">
         <f>source_plate!C32</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D32" t="str">
         <f>source_strip!A32</f>
@@ -10888,7 +10848,7 @@
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f>source_plate!A33</f>
-        <v>H01</v>
+        <v/>
       </c>
       <c r="B33" t="str">
         <f>source_plate!B33</f>
@@ -10896,7 +10856,7 @@
       </c>
       <c r="C33">
         <f>source_plate!C33</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D33" t="str">
         <f>source_strip!A33</f>
@@ -13244,7 +13204,7 @@
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="str">
         <f>source_plate!A95</f>
-        <v/>
+        <v>H12</v>
       </c>
       <c r="B95" t="str">
         <f>source_plate!B95</f>
@@ -13252,7 +13212,7 @@
       </c>
       <c r="C95">
         <f>source_plate!C95</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D95" t="str">
         <f>source_strip!A95</f>
@@ -13282,7 +13242,7 @@
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="str">
         <f>source_plate!A96</f>
-        <v/>
+        <v>H12</v>
       </c>
       <c r="B96" t="str">
         <f>source_plate!B96</f>
@@ -13290,7 +13250,7 @@
       </c>
       <c r="C96">
         <f>source_plate!C96</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D96" t="str">
         <f>source_strip!A96</f>
@@ -13320,7 +13280,7 @@
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="str">
         <f>source_plate!A97</f>
-        <v/>
+        <v>H12</v>
       </c>
       <c r="B97" t="str">
         <f>source_plate!B97</f>
@@ -13328,7 +13288,7 @@
       </c>
       <c r="C97">
         <f>source_plate!C97</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D97" t="str">
         <f>source_strip!A97</f>
@@ -13362,9 +13322,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13597,27 +13560,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0CD12B7-1FA3-4B61-BDAE-DF4259CEDD3F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79D86924-57C1-45D5-9E44-D526494DB02F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="3f421247-72bc-4b61-a591-0b56f96ae993"/>
-    <ds:schemaRef ds:uri="e1a61fc9-c776-4dd1-85b5-f7d58768ba79"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13642,9 +13593,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79D86924-57C1-45D5-9E44-D526494DB02F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0CD12B7-1FA3-4B61-BDAE-DF4259CEDD3F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="3f421247-72bc-4b61-a591-0b56f96ae993"/>
+    <ds:schemaRef ds:uri="e1a61fc9-c776-4dd1-85b5-f7d58768ba79"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/templates/01-sanger-master-v3.xlsx
+++ b/templates/01-sanger-master-v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angeloas/code/opentrons/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F60CC1C-A6F1-8C4C-B0BF-CEE2C9FA4294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA117C2-A7F2-AF43-8CA1-1D720A45CED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="520" yWindow="760" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="6" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="193">
   <si>
     <t>source_well</t>
   </si>
@@ -779,7 +779,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -799,7 +799,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1211,7 +1210,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U2" sqref="U2"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1333,7 +1332,7 @@
       <c r="T2" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="19" t="str">
+      <c r="U2" t="str">
         <f>IF(ISBLANK(D2),"",D2)</f>
         <v>bla</v>
       </c>
@@ -1381,7 +1380,7 @@
       <c r="T3" t="s">
         <v>4</v>
       </c>
-      <c r="U3" s="19" t="str">
+      <c r="U3" t="str">
         <f t="shared" ref="U3:U66" si="4">IF(ISBLANK(D3),"",D3)</f>
         <v>1</v>
       </c>
@@ -1429,7 +1428,7 @@
       <c r="T4" t="s">
         <v>5</v>
       </c>
-      <c r="U4" s="19" t="str">
+      <c r="U4" t="str">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -1477,7 +1476,7 @@
       <c r="T5" t="s">
         <v>6</v>
       </c>
-      <c r="U5" s="19" t="str">
+      <c r="U5" t="str">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
@@ -1514,7 +1513,7 @@
       <c r="T6" t="s">
         <v>7</v>
       </c>
-      <c r="U6" s="19" t="str">
+      <c r="U6" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -1541,7 +1540,7 @@
       </c>
       <c r="N7">
         <f>COUNTIF(K2:K97,"&gt;0")</f>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
@@ -1558,7 +1557,7 @@
       <c r="T7" t="s">
         <v>8</v>
       </c>
-      <c r="U7" s="19" t="str">
+      <c r="U7" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -1585,7 +1584,7 @@
       </c>
       <c r="N8">
         <f>N7*5.5*1.1</f>
-        <v>42.35</v>
+        <v>90.750000000000014</v>
       </c>
       <c r="P8">
         <f t="shared" si="0"/>
@@ -1602,31 +1601,40 @@
       <c r="T8" t="s">
         <v>9</v>
       </c>
-      <c r="U8" s="19" t="str">
+      <c r="U8" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
       <c r="D9" s="17"/>
+      <c r="F9" t="s">
+        <v>105</v>
+      </c>
       <c r="H9" s="7" t="str">
         <f>IF(F9="","", INDEX(Table4[],MATCH(F9,Table4[primer],0),1))</f>
-        <v/>
+        <v>A01</v>
       </c>
       <c r="I9" s="7" cm="1">
         <f t="array" ref="I9">_xlfn.IFS(F9="",0,F9="water",11.5,TRUE, 5)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>10</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
         <f t="shared" si="3"/>
@@ -1634,36 +1642,45 @@
       </c>
       <c r="R9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T9" t="s">
         <v>10</v>
       </c>
-      <c r="U9" s="19" t="str">
+      <c r="U9" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
       <c r="D10" s="17"/>
+      <c r="F10" t="s">
+        <v>106</v>
+      </c>
       <c r="H10" s="7" t="str">
         <f>IF(F10="","", INDEX(Table4[],MATCH(F10,Table4[primer],0),1))</f>
-        <v/>
+        <v>B01</v>
       </c>
       <c r="I10" s="7" cm="1">
         <f t="array" ref="I10">_xlfn.IFS(F10="",0,F10="water",11.5,TRUE, 5)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J10" s="10" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
         <f t="shared" si="3"/>
@@ -1671,36 +1688,45 @@
       </c>
       <c r="R10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T10" t="s">
         <v>11</v>
       </c>
-      <c r="U10" s="19" t="str">
+      <c r="U10" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
       <c r="D11" s="17"/>
+      <c r="F11" t="s">
+        <v>106</v>
+      </c>
       <c r="H11" s="7" t="str">
         <f>IF(F11="","", INDEX(Table4[],MATCH(F11,Table4[primer],0),1))</f>
-        <v/>
+        <v>B01</v>
       </c>
       <c r="I11" s="7" cm="1">
         <f t="array" ref="I11">_xlfn.IFS(F11="",0,F11="water",11.5,TRUE, 5)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J11" s="10" t="s">
         <v>12</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
         <f t="shared" si="3"/>
@@ -1708,36 +1734,45 @@
       </c>
       <c r="R11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T11" t="s">
         <v>12</v>
       </c>
-      <c r="U11" s="19" t="str">
+      <c r="U11" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
       <c r="D12" s="17"/>
+      <c r="F12" t="s">
+        <v>106</v>
+      </c>
       <c r="H12" s="7" t="str">
         <f>IF(F12="","", INDEX(Table4[],MATCH(F12,Table4[primer],0),1))</f>
-        <v/>
+        <v>B01</v>
       </c>
       <c r="I12" s="7" cm="1">
         <f t="array" ref="I12">_xlfn.IFS(F12="",0,F12="water",11.5,TRUE, 5)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J12" s="10" t="s">
         <v>13</v>
       </c>
       <c r="K12" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
         <f t="shared" si="3"/>
@@ -1745,12 +1780,12 @@
       </c>
       <c r="R12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T12" t="s">
         <v>13</v>
       </c>
-      <c r="U12" s="19" t="str">
+      <c r="U12" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -1787,7 +1822,7 @@
       <c r="T13" t="s">
         <v>14</v>
       </c>
-      <c r="U13" s="19" t="str">
+      <c r="U13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -1824,7 +1859,7 @@
       <c r="T14" t="s">
         <v>15</v>
       </c>
-      <c r="U14" s="19" t="str">
+      <c r="U14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -1861,7 +1896,7 @@
       <c r="T15" t="s">
         <v>16</v>
       </c>
-      <c r="U15" s="19" t="str">
+      <c r="U15" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -1898,12 +1933,12 @@
       <c r="T16" t="s">
         <v>17</v>
       </c>
-      <c r="U16" s="19" t="str">
+      <c r="U16" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
       <c r="D17" s="17"/>
       <c r="H17" s="7" t="str">
         <f>IF(F17="","", INDEX(Table4[],MATCH(F17,Table4[primer],0),1))</f>
@@ -1935,12 +1970,18 @@
       <c r="T17" t="s">
         <v>18</v>
       </c>
-      <c r="U17" s="19" t="str">
+      <c r="U17" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
       <c r="D18" s="17"/>
       <c r="H18" s="7" t="str">
         <f>IF(F18="","", INDEX(Table4[],MATCH(F18,Table4[primer],0),1))</f>
@@ -1955,11 +1996,11 @@
       </c>
       <c r="K18" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
         <f t="shared" si="3"/>
@@ -1967,17 +2008,23 @@
       </c>
       <c r="R18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T18" t="s">
         <v>19</v>
       </c>
-      <c r="U18" s="19" t="str">
+      <c r="U18" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
       <c r="D19" s="17"/>
       <c r="H19" s="7" t="str">
         <f>IF(F19="","", INDEX(Table4[],MATCH(F19,Table4[primer],0),1))</f>
@@ -1992,11 +2039,11 @@
       </c>
       <c r="K19" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
         <f t="shared" si="3"/>
@@ -2004,17 +2051,23 @@
       </c>
       <c r="R19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T19" t="s">
         <v>20</v>
       </c>
-      <c r="U19" s="19" t="str">
+      <c r="U19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
       <c r="D20" s="17"/>
       <c r="H20" s="7" t="str">
         <f>IF(F20="","", INDEX(Table4[],MATCH(F20,Table4[primer],0),1))</f>
@@ -2029,11 +2082,11 @@
       </c>
       <c r="K20" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
         <f t="shared" si="3"/>
@@ -2041,17 +2094,23 @@
       </c>
       <c r="R20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T20" t="s">
         <v>21</v>
       </c>
-      <c r="U20" s="19" t="str">
+      <c r="U20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
       <c r="D21" s="17"/>
       <c r="H21" s="7" t="str">
         <f>IF(F21="","", INDEX(Table4[],MATCH(F21,Table4[primer],0),1))</f>
@@ -2066,11 +2125,11 @@
       </c>
       <c r="K21" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
         <f t="shared" si="3"/>
@@ -2078,17 +2137,17 @@
       </c>
       <c r="R21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T21" t="s">
         <v>22</v>
       </c>
-      <c r="U21" s="19" t="str">
+      <c r="U21" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
       <c r="D22" s="17"/>
       <c r="H22" s="7" t="str">
         <f>IF(F22="","", INDEX(Table4[],MATCH(F22,Table4[primer],0),1))</f>
@@ -2120,12 +2179,12 @@
       <c r="T22" t="s">
         <v>23</v>
       </c>
-      <c r="U22" s="19" t="str">
+      <c r="U22" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
       <c r="D23" s="17"/>
       <c r="H23" s="7" t="str">
         <f>IF(F23="","", INDEX(Table4[],MATCH(F23,Table4[primer],0),1))</f>
@@ -2157,12 +2216,12 @@
       <c r="T23" t="s">
         <v>24</v>
       </c>
-      <c r="U23" s="19" t="str">
+      <c r="U23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
       <c r="D24" s="17"/>
       <c r="H24" s="7" t="str">
         <f>IF(F24="","", INDEX(Table4[],MATCH(F24,Table4[primer],0),1))</f>
@@ -2194,12 +2253,12 @@
       <c r="T24" t="s">
         <v>25</v>
       </c>
-      <c r="U24" s="19" t="str">
+      <c r="U24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
       <c r="D25" s="17"/>
       <c r="H25" s="7" t="str">
         <f>IF(F25="","", INDEX(Table4[],MATCH(F25,Table4[primer],0),1))</f>
@@ -2231,12 +2290,12 @@
       <c r="T25" t="s">
         <v>26</v>
       </c>
-      <c r="U25" s="19" t="str">
+      <c r="U25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
       <c r="D26" s="17"/>
       <c r="H26" s="7" t="str">
         <f>IF(F26="","", INDEX(Table4[],MATCH(F26,Table4[primer],0),1))</f>
@@ -2268,12 +2327,12 @@
       <c r="T26" t="s">
         <v>27</v>
       </c>
-      <c r="U26" s="19" t="str">
+      <c r="U26" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
       <c r="D27" s="17"/>
       <c r="H27" s="7" t="str">
         <f>IF(F27="","", INDEX(Table4[],MATCH(F27,Table4[primer],0),1))</f>
@@ -2305,12 +2364,12 @@
       <c r="T27" t="s">
         <v>28</v>
       </c>
-      <c r="U27" s="19" t="str">
+      <c r="U27" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
       <c r="D28" s="17"/>
       <c r="H28" s="7" t="str">
         <f>IF(F28="","", INDEX(Table4[],MATCH(F28,Table4[primer],0),1))</f>
@@ -2342,12 +2401,12 @@
       <c r="T28" t="s">
         <v>29</v>
       </c>
-      <c r="U28" s="19" t="str">
+      <c r="U28" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
       <c r="D29" s="17"/>
       <c r="H29" s="7" t="str">
         <f>IF(F29="","", INDEX(Table4[],MATCH(F29,Table4[primer],0),1))</f>
@@ -2379,12 +2438,12 @@
       <c r="T29" t="s">
         <v>30</v>
       </c>
-      <c r="U29" s="19" t="str">
+      <c r="U29" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
       <c r="D30" s="17"/>
       <c r="H30" s="7" t="str">
         <f>IF(F30="","", INDEX(Table4[],MATCH(F30,Table4[primer],0),1))</f>
@@ -2416,12 +2475,12 @@
       <c r="T30" t="s">
         <v>31</v>
       </c>
-      <c r="U30" s="19" t="str">
+      <c r="U30" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
       <c r="D31" s="17"/>
       <c r="H31" s="7" t="str">
         <f>IF(F31="","", INDEX(Table4[],MATCH(F31,Table4[primer],0),1))</f>
@@ -2453,12 +2512,12 @@
       <c r="T31" t="s">
         <v>32</v>
       </c>
-      <c r="U31" s="19" t="str">
+      <c r="U31" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
       <c r="D32" s="17"/>
       <c r="H32" s="7" t="str">
         <f>IF(F32="","", INDEX(Table4[],MATCH(F32,Table4[primer],0),1))</f>
@@ -2490,7 +2549,7 @@
       <c r="T32" t="s">
         <v>33</v>
       </c>
-      <c r="U32" s="19" t="str">
+      <c r="U32" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -2527,7 +2586,7 @@
       <c r="T33" t="s">
         <v>34</v>
       </c>
-      <c r="U33" s="19" t="str">
+      <c r="U33" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -2564,7 +2623,7 @@
       <c r="T34" t="s">
         <v>35</v>
       </c>
-      <c r="U34" s="19" t="str">
+      <c r="U34" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -2601,7 +2660,7 @@
       <c r="T35" t="s">
         <v>36</v>
       </c>
-      <c r="U35" s="19" t="str">
+      <c r="U35" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -2638,7 +2697,7 @@
       <c r="T36" t="s">
         <v>37</v>
       </c>
-      <c r="U36" s="19" t="str">
+      <c r="U36" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -2675,7 +2734,7 @@
       <c r="T37" t="s">
         <v>38</v>
       </c>
-      <c r="U37" s="19" t="str">
+      <c r="U37" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -2712,7 +2771,7 @@
       <c r="T38" t="s">
         <v>39</v>
       </c>
-      <c r="U38" s="19" t="str">
+      <c r="U38" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -2749,7 +2808,7 @@
       <c r="T39" t="s">
         <v>40</v>
       </c>
-      <c r="U39" s="19" t="str">
+      <c r="U39" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -2786,7 +2845,7 @@
       <c r="T40" t="s">
         <v>41</v>
       </c>
-      <c r="U40" s="19" t="str">
+      <c r="U40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -2823,7 +2882,7 @@
       <c r="T41" t="s">
         <v>42</v>
       </c>
-      <c r="U41" s="19" t="str">
+      <c r="U41" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -2860,7 +2919,7 @@
       <c r="T42" t="s">
         <v>43</v>
       </c>
-      <c r="U42" s="19" t="str">
+      <c r="U42" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -2897,7 +2956,7 @@
       <c r="T43" t="s">
         <v>44</v>
       </c>
-      <c r="U43" s="19" t="str">
+      <c r="U43" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -2934,7 +2993,7 @@
       <c r="T44" t="s">
         <v>45</v>
       </c>
-      <c r="U44" s="19" t="str">
+      <c r="U44" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -2971,7 +3030,7 @@
       <c r="T45" t="s">
         <v>46</v>
       </c>
-      <c r="U45" s="19" t="str">
+      <c r="U45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3008,7 +3067,7 @@
       <c r="T46" t="s">
         <v>47</v>
       </c>
-      <c r="U46" s="19" t="str">
+      <c r="U46" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3045,7 +3104,7 @@
       <c r="T47" t="s">
         <v>48</v>
       </c>
-      <c r="U47" s="19" t="str">
+      <c r="U47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3082,7 +3141,7 @@
       <c r="T48" t="s">
         <v>49</v>
       </c>
-      <c r="U48" s="19" t="str">
+      <c r="U48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3119,7 +3178,7 @@
       <c r="T49" t="s">
         <v>50</v>
       </c>
-      <c r="U49" s="19" t="str">
+      <c r="U49" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3156,7 +3215,7 @@
       <c r="T50" t="s">
         <v>51</v>
       </c>
-      <c r="U50" s="19" t="str">
+      <c r="U50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3193,7 +3252,7 @@
       <c r="T51" t="s">
         <v>52</v>
       </c>
-      <c r="U51" s="19" t="str">
+      <c r="U51" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3230,7 +3289,7 @@
       <c r="T52" t="s">
         <v>53</v>
       </c>
-      <c r="U52" s="19" t="str">
+      <c r="U52" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3267,7 +3326,7 @@
       <c r="T53" t="s">
         <v>54</v>
       </c>
-      <c r="U53" s="19" t="str">
+      <c r="U53" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3304,7 +3363,7 @@
       <c r="T54" t="s">
         <v>55</v>
       </c>
-      <c r="U54" s="19" t="str">
+      <c r="U54" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3341,7 +3400,7 @@
       <c r="T55" t="s">
         <v>56</v>
       </c>
-      <c r="U55" s="19" t="str">
+      <c r="U55" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3378,7 +3437,7 @@
       <c r="T56" t="s">
         <v>57</v>
       </c>
-      <c r="U56" s="19" t="str">
+      <c r="U56" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3415,7 +3474,7 @@
       <c r="T57" t="s">
         <v>58</v>
       </c>
-      <c r="U57" s="19" t="str">
+      <c r="U57" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3452,7 +3511,7 @@
       <c r="T58" t="s">
         <v>59</v>
       </c>
-      <c r="U58" s="19" t="str">
+      <c r="U58" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3489,7 +3548,7 @@
       <c r="T59" t="s">
         <v>60</v>
       </c>
-      <c r="U59" s="19" t="str">
+      <c r="U59" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3526,7 +3585,7 @@
       <c r="T60" t="s">
         <v>61</v>
       </c>
-      <c r="U60" s="19" t="str">
+      <c r="U60" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3563,7 +3622,7 @@
       <c r="T61" t="s">
         <v>62</v>
       </c>
-      <c r="U61" s="19" t="str">
+      <c r="U61" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3600,7 +3659,7 @@
       <c r="T62" t="s">
         <v>63</v>
       </c>
-      <c r="U62" s="19" t="str">
+      <c r="U62" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3637,7 +3696,7 @@
       <c r="T63" t="s">
         <v>64</v>
       </c>
-      <c r="U63" s="19" t="str">
+      <c r="U63" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3674,7 +3733,7 @@
       <c r="T64" t="s">
         <v>65</v>
       </c>
-      <c r="U64" s="19" t="str">
+      <c r="U64" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3711,7 +3770,7 @@
       <c r="T65" t="s">
         <v>66</v>
       </c>
-      <c r="U65" s="19" t="str">
+      <c r="U65" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3748,7 +3807,7 @@
       <c r="T66" t="s">
         <v>67</v>
       </c>
-      <c r="U66" s="19" t="str">
+      <c r="U66" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3785,7 +3844,7 @@
       <c r="T67" t="s">
         <v>68</v>
       </c>
-      <c r="U67" s="19" t="str">
+      <c r="U67" t="str">
         <f t="shared" ref="U67:U97" si="11">IF(ISBLANK(D67),"",D67)</f>
         <v/>
       </c>
@@ -3822,7 +3881,7 @@
       <c r="T68" t="s">
         <v>69</v>
       </c>
-      <c r="U68" s="19" t="str">
+      <c r="U68" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -3859,7 +3918,7 @@
       <c r="T69" t="s">
         <v>70</v>
       </c>
-      <c r="U69" s="19" t="str">
+      <c r="U69" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -3896,7 +3955,7 @@
       <c r="T70" t="s">
         <v>71</v>
       </c>
-      <c r="U70" s="19" t="str">
+      <c r="U70" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -3933,7 +3992,7 @@
       <c r="T71" t="s">
         <v>72</v>
       </c>
-      <c r="U71" s="19" t="str">
+      <c r="U71" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -3970,7 +4029,7 @@
       <c r="T72" t="s">
         <v>73</v>
       </c>
-      <c r="U72" s="19" t="str">
+      <c r="U72" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -4007,7 +4066,7 @@
       <c r="T73" t="s">
         <v>74</v>
       </c>
-      <c r="U73" s="19" t="str">
+      <c r="U73" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -4044,7 +4103,7 @@
       <c r="T74" t="s">
         <v>75</v>
       </c>
-      <c r="U74" s="19" t="str">
+      <c r="U74" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -4081,7 +4140,7 @@
       <c r="T75" t="s">
         <v>76</v>
       </c>
-      <c r="U75" s="19" t="str">
+      <c r="U75" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -4118,7 +4177,7 @@
       <c r="T76" t="s">
         <v>77</v>
       </c>
-      <c r="U76" s="19" t="str">
+      <c r="U76" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -4155,7 +4214,7 @@
       <c r="T77" t="s">
         <v>78</v>
       </c>
-      <c r="U77" s="19" t="str">
+      <c r="U77" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -4192,7 +4251,7 @@
       <c r="T78" t="s">
         <v>79</v>
       </c>
-      <c r="U78" s="19" t="str">
+      <c r="U78" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -4229,7 +4288,7 @@
       <c r="T79" t="s">
         <v>80</v>
       </c>
-      <c r="U79" s="19" t="str">
+      <c r="U79" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -4266,7 +4325,7 @@
       <c r="T80" t="s">
         <v>81</v>
       </c>
-      <c r="U80" s="19" t="str">
+      <c r="U80" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -4303,7 +4362,7 @@
       <c r="T81" t="s">
         <v>82</v>
       </c>
-      <c r="U81" s="19" t="str">
+      <c r="U81" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -4340,7 +4399,7 @@
       <c r="T82" t="s">
         <v>83</v>
       </c>
-      <c r="U82" s="19" t="str">
+      <c r="U82" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -4377,7 +4436,7 @@
       <c r="T83" t="s">
         <v>84</v>
       </c>
-      <c r="U83" s="19" t="str">
+      <c r="U83" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -4414,7 +4473,7 @@
       <c r="T84" t="s">
         <v>85</v>
       </c>
-      <c r="U84" s="19" t="str">
+      <c r="U84" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -4451,7 +4510,7 @@
       <c r="T85" t="s">
         <v>86</v>
       </c>
-      <c r="U85" s="19" t="str">
+      <c r="U85" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -4488,7 +4547,7 @@
       <c r="T86" t="s">
         <v>87</v>
       </c>
-      <c r="U86" s="19" t="str">
+      <c r="U86" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -4525,7 +4584,7 @@
       <c r="T87" t="s">
         <v>88</v>
       </c>
-      <c r="U87" s="19" t="str">
+      <c r="U87" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -4562,7 +4621,7 @@
       <c r="T88" t="s">
         <v>89</v>
       </c>
-      <c r="U88" s="19" t="str">
+      <c r="U88" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -4599,7 +4658,7 @@
       <c r="T89" t="s">
         <v>90</v>
       </c>
-      <c r="U89" s="19" t="str">
+      <c r="U89" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -4636,7 +4695,7 @@
       <c r="T90" t="s">
         <v>91</v>
       </c>
-      <c r="U90" s="19" t="str">
+      <c r="U90" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -4673,7 +4732,7 @@
       <c r="T91" t="s">
         <v>92</v>
       </c>
-      <c r="U91" s="19" t="str">
+      <c r="U91" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -4710,7 +4769,7 @@
       <c r="T92" t="s">
         <v>93</v>
       </c>
-      <c r="U92" s="19" t="str">
+      <c r="U92" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -4747,7 +4806,7 @@
       <c r="T93" t="s">
         <v>94</v>
       </c>
-      <c r="U93" s="19" t="str">
+      <c r="U93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -4784,7 +4843,7 @@
       <c r="T94" t="s">
         <v>95</v>
       </c>
-      <c r="U94" s="19" t="str">
+      <c r="U94" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -4829,7 +4888,7 @@
       <c r="T95" t="s">
         <v>96</v>
       </c>
-      <c r="U95" s="19" t="str">
+      <c r="U95" t="str">
         <f t="shared" si="11"/>
         <v>Positive control</v>
       </c>
@@ -4874,7 +4933,7 @@
       <c r="T96" t="s">
         <v>97</v>
       </c>
-      <c r="U96" s="19" t="str">
+      <c r="U96" t="str">
         <f t="shared" si="11"/>
         <v>Positive control</v>
       </c>
@@ -4919,7 +4978,7 @@
       <c r="T97" t="s">
         <v>98</v>
       </c>
-      <c r="U97" s="19" t="str">
+      <c r="U97" t="str">
         <f t="shared" si="11"/>
         <v>Positive control</v>
       </c>
@@ -4984,8 +5043,8 @@
   </sheetPr>
   <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5770,7 +5829,7 @@
   <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7054,7 +7113,7 @@
   <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A18" sqref="A18:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7167,53 +7226,53 @@
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="str">
         <f>IF(master!B9="strip",master!C9,"")</f>
-        <v/>
+        <v>A01</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1">
         <f>IF(master!B9="strip",master!K9,0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="str">
         <f>IF(master!B10="strip",master!C10,"")</f>
-        <v/>
+        <v>B01</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="1">
         <f>IF(master!B10="strip",master!K10,0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="str">
         <f>IF(master!B11="strip",master!C11,"")</f>
-        <v/>
+        <v>C01</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="1">
         <f>IF(master!B11="strip",master!K11,0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="str">
         <f>IF(master!B12="strip",master!C12,"")</f>
-        <v/>
+        <v>D01</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="1">
         <f>IF(master!B12="strip",master!K12,0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -7284,53 +7343,53 @@
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="str">
         <f>IF(master!B18="strip",master!C18,"")</f>
-        <v/>
+        <v>A02</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="1">
         <f>IF(master!B18="strip",master!K18,0)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="str">
         <f>IF(master!B19="strip",master!C19,"")</f>
-        <v/>
+        <v>B02</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="1">
         <f>IF(master!B19="strip",master!K19,0)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="str">
         <f>IF(master!B20="strip",master!C20,"")</f>
-        <v/>
+        <v>C02</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="1">
         <f>IF(master!B20="strip",master!K20,0)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="str">
         <f>IF(master!B21="strip",master!C21,"")</f>
-        <v/>
+        <v>D02</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="1">
         <f>IF(master!B21="strip",master!K21,0)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -8341,7 +8400,7 @@
   <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A9" sqref="A9:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8456,53 +8515,53 @@
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="str">
         <f>IF(ISTEXT(master!F9),master!H9,"")</f>
-        <v/>
+        <v>A01</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1">
         <f>master!I9</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="str">
         <f>IF(ISTEXT(master!F10),master!H10,"")</f>
-        <v/>
+        <v>B01</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="1">
         <f>master!I10</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="str">
         <f>IF(ISTEXT(master!F11),master!H11,"")</f>
-        <v/>
+        <v>B01</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="1">
         <f>master!I11</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="str">
         <f>IF(ISTEXT(master!F12),master!H12,"")</f>
-        <v/>
+        <v>B01</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="1">
         <f>master!I12</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -9628,7 +9687,7 @@
   <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9948,7 +10007,7 @@
       </c>
       <c r="D9" t="str">
         <f>source_strip!A9</f>
-        <v/>
+        <v>A01</v>
       </c>
       <c r="E9" t="str">
         <f>source_strip!B9</f>
@@ -9956,11 +10015,11 @@
       </c>
       <c r="F9">
         <f>source_strip!C9</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G9" t="str">
         <f>source_tube!A9</f>
-        <v/>
+        <v>A01</v>
       </c>
       <c r="H9" t="str">
         <f>source_tube!B9</f>
@@ -9968,7 +10027,7 @@
       </c>
       <c r="I9">
         <f>source_tube!C9</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -9986,7 +10045,7 @@
       </c>
       <c r="D10" t="str">
         <f>source_strip!A10</f>
-        <v/>
+        <v>B01</v>
       </c>
       <c r="E10" t="str">
         <f>source_strip!B10</f>
@@ -9994,11 +10053,11 @@
       </c>
       <c r="F10">
         <f>source_strip!C10</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G10" t="str">
         <f>source_tube!A10</f>
-        <v/>
+        <v>B01</v>
       </c>
       <c r="H10" t="str">
         <f>source_tube!B10</f>
@@ -10006,7 +10065,7 @@
       </c>
       <c r="I10">
         <f>source_tube!C10</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -10024,7 +10083,7 @@
       </c>
       <c r="D11" t="str">
         <f>source_strip!A11</f>
-        <v/>
+        <v>C01</v>
       </c>
       <c r="E11" t="str">
         <f>source_strip!B11</f>
@@ -10032,11 +10091,11 @@
       </c>
       <c r="F11">
         <f>source_strip!C11</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G11" t="str">
         <f>source_tube!A11</f>
-        <v/>
+        <v>B01</v>
       </c>
       <c r="H11" t="str">
         <f>source_tube!B11</f>
@@ -10044,7 +10103,7 @@
       </c>
       <c r="I11">
         <f>source_tube!C11</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -10062,7 +10121,7 @@
       </c>
       <c r="D12" t="str">
         <f>source_strip!A12</f>
-        <v/>
+        <v>D01</v>
       </c>
       <c r="E12" t="str">
         <f>source_strip!B12</f>
@@ -10070,11 +10129,11 @@
       </c>
       <c r="F12">
         <f>source_strip!C12</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G12" t="str">
         <f>source_tube!A12</f>
-        <v/>
+        <v>B01</v>
       </c>
       <c r="H12" t="str">
         <f>source_tube!B12</f>
@@ -10082,7 +10141,7 @@
       </c>
       <c r="I12">
         <f>source_tube!C12</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -10290,7 +10349,7 @@
       </c>
       <c r="D18" t="str">
         <f>source_strip!A18</f>
-        <v/>
+        <v>A02</v>
       </c>
       <c r="E18" t="str">
         <f>source_strip!B18</f>
@@ -10298,7 +10357,7 @@
       </c>
       <c r="F18">
         <f>source_strip!C18</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G18" t="str">
         <f>source_tube!A18</f>
@@ -10328,7 +10387,7 @@
       </c>
       <c r="D19" t="str">
         <f>source_strip!A19</f>
-        <v/>
+        <v>B02</v>
       </c>
       <c r="E19" t="str">
         <f>source_strip!B19</f>
@@ -10336,7 +10395,7 @@
       </c>
       <c r="F19">
         <f>source_strip!C19</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G19" t="str">
         <f>source_tube!A19</f>
@@ -10366,7 +10425,7 @@
       </c>
       <c r="D20" t="str">
         <f>source_strip!A20</f>
-        <v/>
+        <v>C02</v>
       </c>
       <c r="E20" t="str">
         <f>source_strip!B20</f>
@@ -10374,7 +10433,7 @@
       </c>
       <c r="F20">
         <f>source_strip!C20</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G20" t="str">
         <f>source_tube!A20</f>
@@ -10404,7 +10463,7 @@
       </c>
       <c r="D21" t="str">
         <f>source_strip!A21</f>
-        <v/>
+        <v>D02</v>
       </c>
       <c r="E21" t="str">
         <f>source_strip!B21</f>
@@ -10412,7 +10471,7 @@
       </c>
       <c r="F21">
         <f>source_strip!C21</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G21" t="str">
         <f>source_tube!A21</f>
@@ -13331,6 +13390,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FDAF843F15E65A4EA1FFB0CF193B74E3" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bd4433bf6f24a726161ac457e21002bf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e1a61fc9-c776-4dd1-85b5-f7d58768ba79" xmlns:ns4="3f421247-72bc-4b61-a591-0b56f96ae993" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7d66d7a13b7b51360e8b1c095fb39c19" ns3:_="" ns4:_="">
     <xsd:import namespace="e1a61fc9-c776-4dd1-85b5-f7d58768ba79"/>
@@ -13559,12 +13624,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79D86924-57C1-45D5-9E44-D526494DB02F}">
   <ds:schemaRefs>
@@ -13574,6 +13633,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0CD12B7-1FA3-4B61-BDAE-DF4259CEDD3F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="3f421247-72bc-4b61-a591-0b56f96ae993"/>
+    <ds:schemaRef ds:uri="e1a61fc9-c776-4dd1-85b5-f7d58768ba79"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E774FF9-2144-4DC7-8F36-E7E064C7C739}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13590,21 +13666,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0CD12B7-1FA3-4B61-BDAE-DF4259CEDD3F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="3f421247-72bc-4b61-a591-0b56f96ae993"/>
-    <ds:schemaRef ds:uri="e1a61fc9-c776-4dd1-85b5-f7d58768ba79"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/templates/01-sanger-master-v3.xlsx
+++ b/templates/01-sanger-master-v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angeloas/code/opentrons/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA117C2-A7F2-AF43-8CA1-1D720A45CED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD9B46F-A1B4-024E-B779-02A1582A9BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="760" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="520" yWindow="760" windowWidth="28800" windowHeight="16320" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="6" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="193">
   <si>
     <t>source_well</t>
   </si>
@@ -1208,9 +1208,9 @@
   </sheetPr>
   <dimension ref="A1:U97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1482,6 +1482,9 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
       <c r="D6" s="17"/>
       <c r="H6" s="7" t="str">
         <f>IF(F6="","", INDEX(Table4[],MATCH(F6,Table4[primer],0),1))</f>
@@ -1791,6 +1794,9 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
       <c r="D13" s="17"/>
       <c r="H13" s="7" t="str">
         <f>IF(F13="","", INDEX(Table4[],MATCH(F13,Table4[primer],0),1))</f>
@@ -5829,7 +5835,7 @@
   <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5847,7 +5853,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
-        <f>IF(master!B2="plate",master!C2, "")</f>
+        <f>IF(master!B2="plate",IF(ISBLANK(master!C2),"",master!C2), "")</f>
         <v>A01</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -5860,7 +5866,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
-        <f>IF(master!B3="plate",master!C3, "")</f>
+        <f>IF(master!B3="plate",IF(ISBLANK(master!C3),"",master!C3), "")</f>
         <v>B01</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -5873,7 +5879,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
-        <f>IF(master!B4="plate",master!C4, "")</f>
+        <f>IF(master!B4="plate",IF(ISBLANK(master!C4),"",master!C4), "")</f>
         <v>C01</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -5886,7 +5892,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
-        <f>IF(master!B5="plate",master!C5, "")</f>
+        <f>IF(master!B5="plate",IF(ISBLANK(master!C5),"",master!C5), "")</f>
         <v>D01</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -5899,7 +5905,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="str">
-        <f>IF(master!B6="plate",master!C6, "")</f>
+        <f>IF(master!B6="plate",IF(ISBLANK(master!C6),"",master!C6), "")</f>
         <v/>
       </c>
       <c r="B6" s="2" t="s">
@@ -5912,7 +5918,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="str">
-        <f>IF(master!B7="plate",master!C7, "")</f>
+        <f>IF(master!B7="plate",IF(ISBLANK(master!C7),"",master!C7), "")</f>
         <v/>
       </c>
       <c r="B7" s="2" t="s">
@@ -5925,7 +5931,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="str">
-        <f>IF(master!B8="plate",master!C8, "")</f>
+        <f>IF(master!B8="plate",IF(ISBLANK(master!C8),"",master!C8), "")</f>
         <v/>
       </c>
       <c r="B8" s="2" t="s">
@@ -5938,7 +5944,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="str">
-        <f>IF(master!B9="plate",master!C9, "")</f>
+        <f>IF(master!B9="plate",IF(ISBLANK(master!C9),"",master!C9), "")</f>
         <v/>
       </c>
       <c r="B9" s="2" t="s">
@@ -5951,7 +5957,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="str">
-        <f>IF(master!B10="plate",master!C10, "")</f>
+        <f>IF(master!B10="plate",IF(ISBLANK(master!C10),"",master!C10), "")</f>
         <v/>
       </c>
       <c r="B10" s="1" t="s">
@@ -5964,7 +5970,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="str">
-        <f>IF(master!B11="plate",master!C11, "")</f>
+        <f>IF(master!B11="plate",IF(ISBLANK(master!C11),"",master!C11), "")</f>
         <v/>
       </c>
       <c r="B11" s="1" t="s">
@@ -5977,7 +5983,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="str">
-        <f>IF(master!B12="plate",master!C12, "")</f>
+        <f>IF(master!B12="plate",IF(ISBLANK(master!C12),"",master!C12), "")</f>
         <v/>
       </c>
       <c r="B12" s="1" t="s">
@@ -5990,7 +5996,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="str">
-        <f>IF(master!B13="plate",master!C13, "")</f>
+        <f>IF(master!B13="plate",IF(ISBLANK(master!C13),"",master!C13), "")</f>
         <v/>
       </c>
       <c r="B13" s="1" t="s">
@@ -6003,7 +6009,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="str">
-        <f>IF(master!B14="plate",master!C14, "")</f>
+        <f>IF(master!B14="plate",IF(ISBLANK(master!C14),"",master!C14), "")</f>
         <v/>
       </c>
       <c r="B14" s="1" t="s">
@@ -6016,7 +6022,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="str">
-        <f>IF(master!B15="plate",master!C15, "")</f>
+        <f>IF(master!B15="plate",IF(ISBLANK(master!C15),"",master!C15), "")</f>
         <v/>
       </c>
       <c r="B15" s="1" t="s">
@@ -6029,7 +6035,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="str">
-        <f>IF(master!B16="plate",master!C16, "")</f>
+        <f>IF(master!B16="plate",IF(ISBLANK(master!C16),"",master!C16), "")</f>
         <v/>
       </c>
       <c r="B16" s="1" t="s">
@@ -6042,7 +6048,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="str">
-        <f>IF(master!B17="plate",master!C17, "")</f>
+        <f>IF(master!B17="plate",IF(ISBLANK(master!C17),"",master!C17), "")</f>
         <v/>
       </c>
       <c r="B17" s="1" t="s">
@@ -6055,7 +6061,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="str">
-        <f>IF(master!B18="plate",master!C18, "")</f>
+        <f>IF(master!B18="plate",IF(ISBLANK(master!C18),"",master!C18), "")</f>
         <v/>
       </c>
       <c r="B18" s="2" t="s">
@@ -6068,7 +6074,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="str">
-        <f>IF(master!B19="plate",master!C19, "")</f>
+        <f>IF(master!B19="plate",IF(ISBLANK(master!C19),"",master!C19), "")</f>
         <v/>
       </c>
       <c r="B19" s="2" t="s">
@@ -6081,7 +6087,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="str">
-        <f>IF(master!B20="plate",master!C20, "")</f>
+        <f>IF(master!B20="plate",IF(ISBLANK(master!C20),"",master!C20), "")</f>
         <v/>
       </c>
       <c r="B20" s="2" t="s">
@@ -6094,7 +6100,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="str">
-        <f>IF(master!B21="plate",master!C21, "")</f>
+        <f>IF(master!B21="plate",IF(ISBLANK(master!C21),"",master!C21), "")</f>
         <v/>
       </c>
       <c r="B21" s="2" t="s">
@@ -6107,7 +6113,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="str">
-        <f>IF(master!B22="plate",master!C22, "")</f>
+        <f>IF(master!B22="plate",IF(ISBLANK(master!C22),"",master!C22), "")</f>
         <v/>
       </c>
       <c r="B22" s="2" t="s">
@@ -6120,7 +6126,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="str">
-        <f>IF(master!B23="plate",master!C23, "")</f>
+        <f>IF(master!B23="plate",IF(ISBLANK(master!C23),"",master!C23), "")</f>
         <v/>
       </c>
       <c r="B23" s="2" t="s">
@@ -6133,7 +6139,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="str">
-        <f>IF(master!B24="plate",master!C24, "")</f>
+        <f>IF(master!B24="plate",IF(ISBLANK(master!C24),"",master!C24), "")</f>
         <v/>
       </c>
       <c r="B24" s="2" t="s">
@@ -6146,7 +6152,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="str">
-        <f>IF(master!B25="plate",master!C25, "")</f>
+        <f>IF(master!B25="plate",IF(ISBLANK(master!C25),"",master!C25), "")</f>
         <v/>
       </c>
       <c r="B25" s="2" t="s">
@@ -6159,7 +6165,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="str">
-        <f>IF(master!B26="plate",master!C26, "")</f>
+        <f>IF(master!B26="plate",IF(ISBLANK(master!C26),"",master!C26), "")</f>
         <v/>
       </c>
       <c r="B26" s="1" t="s">
@@ -6172,7 +6178,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="str">
-        <f>IF(master!B27="plate",master!C27, "")</f>
+        <f>IF(master!B27="plate",IF(ISBLANK(master!C27),"",master!C27), "")</f>
         <v/>
       </c>
       <c r="B27" s="1" t="s">
@@ -6185,7 +6191,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="str">
-        <f>IF(master!B28="plate",master!C28, "")</f>
+        <f>IF(master!B28="plate",IF(ISBLANK(master!C28),"",master!C28), "")</f>
         <v/>
       </c>
       <c r="B28" s="1" t="s">
@@ -6198,7 +6204,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="str">
-        <f>IF(master!B29="plate",master!C29, "")</f>
+        <f>IF(master!B29="plate",IF(ISBLANK(master!C29),"",master!C29), "")</f>
         <v/>
       </c>
       <c r="B29" s="1" t="s">
@@ -6211,7 +6217,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="str">
-        <f>IF(master!B30="plate",master!C30, "")</f>
+        <f>IF(master!B30="plate",IF(ISBLANK(master!C30),"",master!C30), "")</f>
         <v/>
       </c>
       <c r="B30" s="1" t="s">
@@ -6224,7 +6230,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="str">
-        <f>IF(master!B31="plate",master!C31, "")</f>
+        <f>IF(master!B31="plate",IF(ISBLANK(master!C31),"",master!C31), "")</f>
         <v/>
       </c>
       <c r="B31" s="1" t="s">
@@ -6237,7 +6243,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="str">
-        <f>IF(master!B32="plate",master!C32, "")</f>
+        <f>IF(master!B32="plate",IF(ISBLANK(master!C32),"",master!C32), "")</f>
         <v/>
       </c>
       <c r="B32" s="1" t="s">
@@ -6250,7 +6256,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="str">
-        <f>IF(master!B33="plate",master!C33, "")</f>
+        <f>IF(master!B33="plate",IF(ISBLANK(master!C33),"",master!C33), "")</f>
         <v/>
       </c>
       <c r="B33" s="1" t="s">
@@ -6263,7 +6269,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="str">
-        <f>IF(master!B34="plate",master!C34, "")</f>
+        <f>IF(master!B34="plate",IF(ISBLANK(master!C34),"",master!C34), "")</f>
         <v/>
       </c>
       <c r="B34" s="2" t="s">
@@ -6276,7 +6282,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="str">
-        <f>IF(master!B35="plate",master!C35, "")</f>
+        <f>IF(master!B35="plate",IF(ISBLANK(master!C35),"",master!C35), "")</f>
         <v/>
       </c>
       <c r="B35" s="2" t="s">
@@ -6289,7 +6295,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="str">
-        <f>IF(master!B36="plate",master!C36, "")</f>
+        <f>IF(master!B36="plate",IF(ISBLANK(master!C36),"",master!C36), "")</f>
         <v/>
       </c>
       <c r="B36" s="2" t="s">
@@ -6302,7 +6308,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="str">
-        <f>IF(master!B37="plate",master!C37, "")</f>
+        <f>IF(master!B37="plate",IF(ISBLANK(master!C37),"",master!C37), "")</f>
         <v/>
       </c>
       <c r="B37" s="2" t="s">
@@ -6315,7 +6321,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="str">
-        <f>IF(master!B38="plate",master!C38, "")</f>
+        <f>IF(master!B38="plate",IF(ISBLANK(master!C38),"",master!C38), "")</f>
         <v/>
       </c>
       <c r="B38" s="2" t="s">
@@ -6328,7 +6334,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="str">
-        <f>IF(master!B39="plate",master!C39, "")</f>
+        <f>IF(master!B39="plate",IF(ISBLANK(master!C39),"",master!C39), "")</f>
         <v/>
       </c>
       <c r="B39" s="2" t="s">
@@ -6341,7 +6347,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="str">
-        <f>IF(master!B40="plate",master!C40, "")</f>
+        <f>IF(master!B40="plate",IF(ISBLANK(master!C40),"",master!C40), "")</f>
         <v/>
       </c>
       <c r="B40" s="2" t="s">
@@ -6354,7 +6360,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="str">
-        <f>IF(master!B41="plate",master!C41, "")</f>
+        <f>IF(master!B41="plate",IF(ISBLANK(master!C41),"",master!C41), "")</f>
         <v/>
       </c>
       <c r="B41" s="2" t="s">
@@ -6367,7 +6373,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="str">
-        <f>IF(master!B42="plate",master!C42, "")</f>
+        <f>IF(master!B42="plate",IF(ISBLANK(master!C42),"",master!C42), "")</f>
         <v/>
       </c>
       <c r="B42" s="1" t="s">
@@ -6380,7 +6386,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="str">
-        <f>IF(master!B43="plate",master!C43, "")</f>
+        <f>IF(master!B43="plate",IF(ISBLANK(master!C43),"",master!C43), "")</f>
         <v/>
       </c>
       <c r="B43" s="1" t="s">
@@ -6393,7 +6399,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="str">
-        <f>IF(master!B44="plate",master!C44, "")</f>
+        <f>IF(master!B44="plate",IF(ISBLANK(master!C44),"",master!C44), "")</f>
         <v/>
       </c>
       <c r="B44" s="1" t="s">
@@ -6406,7 +6412,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="str">
-        <f>IF(master!B45="plate",master!C45, "")</f>
+        <f>IF(master!B45="plate",IF(ISBLANK(master!C45),"",master!C45), "")</f>
         <v/>
       </c>
       <c r="B45" s="1" t="s">
@@ -6419,7 +6425,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="str">
-        <f>IF(master!B46="plate",master!C46, "")</f>
+        <f>IF(master!B46="plate",IF(ISBLANK(master!C46),"",master!C46), "")</f>
         <v/>
       </c>
       <c r="B46" s="1" t="s">
@@ -6432,7 +6438,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="str">
-        <f>IF(master!B47="plate",master!C47, "")</f>
+        <f>IF(master!B47="plate",IF(ISBLANK(master!C47),"",master!C47), "")</f>
         <v/>
       </c>
       <c r="B47" s="1" t="s">
@@ -6445,7 +6451,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="str">
-        <f>IF(master!B48="plate",master!C48, "")</f>
+        <f>IF(master!B48="plate",IF(ISBLANK(master!C48),"",master!C48), "")</f>
         <v/>
       </c>
       <c r="B48" s="1" t="s">
@@ -6458,7 +6464,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="str">
-        <f>IF(master!B49="plate",master!C49, "")</f>
+        <f>IF(master!B49="plate",IF(ISBLANK(master!C49),"",master!C49), "")</f>
         <v/>
       </c>
       <c r="B49" s="1" t="s">
@@ -6471,7 +6477,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="str">
-        <f>IF(master!B50="plate",master!C50, "")</f>
+        <f>IF(master!B50="plate",IF(ISBLANK(master!C50),"",master!C50), "")</f>
         <v/>
       </c>
       <c r="B50" s="2" t="s">
@@ -6484,7 +6490,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="str">
-        <f>IF(master!B51="plate",master!C51, "")</f>
+        <f>IF(master!B51="plate",IF(ISBLANK(master!C51),"",master!C51), "")</f>
         <v/>
       </c>
       <c r="B51" s="2" t="s">
@@ -6497,7 +6503,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="str">
-        <f>IF(master!B52="plate",master!C52, "")</f>
+        <f>IF(master!B52="plate",IF(ISBLANK(master!C52),"",master!C52), "")</f>
         <v/>
       </c>
       <c r="B52" s="2" t="s">
@@ -6510,7 +6516,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="str">
-        <f>IF(master!B53="plate",master!C53, "")</f>
+        <f>IF(master!B53="plate",IF(ISBLANK(master!C53),"",master!C53), "")</f>
         <v/>
       </c>
       <c r="B53" s="2" t="s">
@@ -6523,7 +6529,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="str">
-        <f>IF(master!B54="plate",master!C54, "")</f>
+        <f>IF(master!B54="plate",IF(ISBLANK(master!C54),"",master!C54), "")</f>
         <v/>
       </c>
       <c r="B54" s="2" t="s">
@@ -6536,7 +6542,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="str">
-        <f>IF(master!B55="plate",master!C55, "")</f>
+        <f>IF(master!B55="plate",IF(ISBLANK(master!C55),"",master!C55), "")</f>
         <v/>
       </c>
       <c r="B55" s="2" t="s">
@@ -6549,7 +6555,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="str">
-        <f>IF(master!B56="plate",master!C56, "")</f>
+        <f>IF(master!B56="plate",IF(ISBLANK(master!C56),"",master!C56), "")</f>
         <v/>
       </c>
       <c r="B56" s="2" t="s">
@@ -6562,7 +6568,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="str">
-        <f>IF(master!B57="plate",master!C57, "")</f>
+        <f>IF(master!B57="plate",IF(ISBLANK(master!C57),"",master!C57), "")</f>
         <v/>
       </c>
       <c r="B57" s="2" t="s">
@@ -6575,7 +6581,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="str">
-        <f>IF(master!B58="plate",master!C58, "")</f>
+        <f>IF(master!B58="plate",IF(ISBLANK(master!C58),"",master!C58), "")</f>
         <v/>
       </c>
       <c r="B58" s="1" t="s">
@@ -6588,7 +6594,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="str">
-        <f>IF(master!B59="plate",master!C59, "")</f>
+        <f>IF(master!B59="plate",IF(ISBLANK(master!C59),"",master!C59), "")</f>
         <v/>
       </c>
       <c r="B59" s="1" t="s">
@@ -6601,7 +6607,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="str">
-        <f>IF(master!B60="plate",master!C60, "")</f>
+        <f>IF(master!B60="plate",IF(ISBLANK(master!C60),"",master!C60), "")</f>
         <v/>
       </c>
       <c r="B60" s="1" t="s">
@@ -6614,7 +6620,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="str">
-        <f>IF(master!B61="plate",master!C61, "")</f>
+        <f>IF(master!B61="plate",IF(ISBLANK(master!C61),"",master!C61), "")</f>
         <v/>
       </c>
       <c r="B61" s="1" t="s">
@@ -6627,7 +6633,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="str">
-        <f>IF(master!B62="plate",master!C62, "")</f>
+        <f>IF(master!B62="plate",IF(ISBLANK(master!C62),"",master!C62), "")</f>
         <v/>
       </c>
       <c r="B62" s="1" t="s">
@@ -6640,7 +6646,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="str">
-        <f>IF(master!B63="plate",master!C63, "")</f>
+        <f>IF(master!B63="plate",IF(ISBLANK(master!C63),"",master!C63), "")</f>
         <v/>
       </c>
       <c r="B63" s="1" t="s">
@@ -6653,7 +6659,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="str">
-        <f>IF(master!B64="plate",master!C64, "")</f>
+        <f>IF(master!B64="plate",IF(ISBLANK(master!C64),"",master!C64), "")</f>
         <v/>
       </c>
       <c r="B64" s="1" t="s">
@@ -6666,7 +6672,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="str">
-        <f>IF(master!B65="plate",master!C65, "")</f>
+        <f>IF(master!B65="plate",IF(ISBLANK(master!C65),"",master!C65), "")</f>
         <v/>
       </c>
       <c r="B65" s="1" t="s">
@@ -6679,7 +6685,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="str">
-        <f>IF(master!B66="plate",master!C66, "")</f>
+        <f>IF(master!B66="plate",IF(ISBLANK(master!C66),"",master!C66), "")</f>
         <v/>
       </c>
       <c r="B66" s="2" t="s">
@@ -6692,7 +6698,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="str">
-        <f>IF(master!B67="plate",master!C67, "")</f>
+        <f>IF(master!B67="plate",IF(ISBLANK(master!C67),"",master!C67), "")</f>
         <v/>
       </c>
       <c r="B67" s="2" t="s">
@@ -6705,7 +6711,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="str">
-        <f>IF(master!B68="plate",master!C68, "")</f>
+        <f>IF(master!B68="plate",IF(ISBLANK(master!C68),"",master!C68), "")</f>
         <v/>
       </c>
       <c r="B68" s="2" t="s">
@@ -6718,7 +6724,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="str">
-        <f>IF(master!B69="plate",master!C69, "")</f>
+        <f>IF(master!B69="plate",IF(ISBLANK(master!C69),"",master!C69), "")</f>
         <v/>
       </c>
       <c r="B69" s="2" t="s">
@@ -6731,7 +6737,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="str">
-        <f>IF(master!B70="plate",master!C70, "")</f>
+        <f>IF(master!B70="plate",IF(ISBLANK(master!C70),"",master!C70), "")</f>
         <v/>
       </c>
       <c r="B70" s="2" t="s">
@@ -6744,7 +6750,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="str">
-        <f>IF(master!B71="plate",master!C71, "")</f>
+        <f>IF(master!B71="plate",IF(ISBLANK(master!C71),"",master!C71), "")</f>
         <v/>
       </c>
       <c r="B71" s="2" t="s">
@@ -6757,7 +6763,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="str">
-        <f>IF(master!B72="plate",master!C72, "")</f>
+        <f>IF(master!B72="plate",IF(ISBLANK(master!C72),"",master!C72), "")</f>
         <v/>
       </c>
       <c r="B72" s="2" t="s">
@@ -6770,7 +6776,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="str">
-        <f>IF(master!B73="plate",master!C73, "")</f>
+        <f>IF(master!B73="plate",IF(ISBLANK(master!C73),"",master!C73), "")</f>
         <v/>
       </c>
       <c r="B73" s="2" t="s">
@@ -6783,7 +6789,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="str">
-        <f>IF(master!B74="plate",master!C74, "")</f>
+        <f>IF(master!B74="plate",IF(ISBLANK(master!C74),"",master!C74), "")</f>
         <v/>
       </c>
       <c r="B74" s="1" t="s">
@@ -6796,7 +6802,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="str">
-        <f>IF(master!B75="plate",master!C75, "")</f>
+        <f>IF(master!B75="plate",IF(ISBLANK(master!C75),"",master!C75), "")</f>
         <v/>
       </c>
       <c r="B75" s="1" t="s">
@@ -6809,7 +6815,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="str">
-        <f>IF(master!B76="plate",master!C76, "")</f>
+        <f>IF(master!B76="plate",IF(ISBLANK(master!C76),"",master!C76), "")</f>
         <v/>
       </c>
       <c r="B76" s="1" t="s">
@@ -6822,7 +6828,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="str">
-        <f>IF(master!B77="plate",master!C77, "")</f>
+        <f>IF(master!B77="plate",IF(ISBLANK(master!C77),"",master!C77), "")</f>
         <v/>
       </c>
       <c r="B77" s="1" t="s">
@@ -6835,7 +6841,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="str">
-        <f>IF(master!B78="plate",master!C78, "")</f>
+        <f>IF(master!B78="plate",IF(ISBLANK(master!C78),"",master!C78), "")</f>
         <v/>
       </c>
       <c r="B78" s="1" t="s">
@@ -6848,7 +6854,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="str">
-        <f>IF(master!B79="plate",master!C79, "")</f>
+        <f>IF(master!B79="plate",IF(ISBLANK(master!C79),"",master!C79), "")</f>
         <v/>
       </c>
       <c r="B79" s="1" t="s">
@@ -6861,7 +6867,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="str">
-        <f>IF(master!B80="plate",master!C80, "")</f>
+        <f>IF(master!B80="plate",IF(ISBLANK(master!C80),"",master!C80), "")</f>
         <v/>
       </c>
       <c r="B80" s="1" t="s">
@@ -6874,7 +6880,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="str">
-        <f>IF(master!B81="plate",master!C81, "")</f>
+        <f>IF(master!B81="plate",IF(ISBLANK(master!C81),"",master!C81), "")</f>
         <v/>
       </c>
       <c r="B81" s="1" t="s">
@@ -6887,7 +6893,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="str">
-        <f>IF(master!B82="plate",master!C82, "")</f>
+        <f>IF(master!B82="plate",IF(ISBLANK(master!C82),"",master!C82), "")</f>
         <v/>
       </c>
       <c r="B82" s="2" t="s">
@@ -6900,7 +6906,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="str">
-        <f>IF(master!B83="plate",master!C83, "")</f>
+        <f>IF(master!B83="plate",IF(ISBLANK(master!C83),"",master!C83), "")</f>
         <v/>
       </c>
       <c r="B83" s="2" t="s">
@@ -6913,7 +6919,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="str">
-        <f>IF(master!B84="plate",master!C84, "")</f>
+        <f>IF(master!B84="plate",IF(ISBLANK(master!C84),"",master!C84), "")</f>
         <v/>
       </c>
       <c r="B84" s="2" t="s">
@@ -6926,7 +6932,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="str">
-        <f>IF(master!B85="plate",master!C85, "")</f>
+        <f>IF(master!B85="plate",IF(ISBLANK(master!C85),"",master!C85), "")</f>
         <v/>
       </c>
       <c r="B85" s="2" t="s">
@@ -6939,7 +6945,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="str">
-        <f>IF(master!B86="plate",master!C86, "")</f>
+        <f>IF(master!B86="plate",IF(ISBLANK(master!C86),"",master!C86), "")</f>
         <v/>
       </c>
       <c r="B86" s="2" t="s">
@@ -6952,7 +6958,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="str">
-        <f>IF(master!B87="plate",master!C87, "")</f>
+        <f>IF(master!B87="plate",IF(ISBLANK(master!C87),"",master!C87), "")</f>
         <v/>
       </c>
       <c r="B87" s="2" t="s">
@@ -6965,7 +6971,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="str">
-        <f>IF(master!B88="plate",master!C88, "")</f>
+        <f>IF(master!B88="plate",IF(ISBLANK(master!C88),"",master!C88), "")</f>
         <v/>
       </c>
       <c r="B88" s="2" t="s">
@@ -6978,7 +6984,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="str">
-        <f>IF(master!B89="plate",master!C89, "")</f>
+        <f>IF(master!B89="plate",IF(ISBLANK(master!C89),"",master!C89), "")</f>
         <v/>
       </c>
       <c r="B89" s="2" t="s">
@@ -6991,7 +6997,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="str">
-        <f>IF(master!B90="plate",master!C90, "")</f>
+        <f>IF(master!B90="plate",IF(ISBLANK(master!C90),"",master!C90), "")</f>
         <v/>
       </c>
       <c r="B90" s="1" t="s">
@@ -7004,7 +7010,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="str">
-        <f>IF(master!B91="plate",master!C91, "")</f>
+        <f>IF(master!B91="plate",IF(ISBLANK(master!C91),"",master!C91), "")</f>
         <v/>
       </c>
       <c r="B91" s="1" t="s">
@@ -7017,7 +7023,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="str">
-        <f>IF(master!B92="plate",master!C92, "")</f>
+        <f>IF(master!B92="plate",IF(ISBLANK(master!C92),"",master!C92), "")</f>
         <v/>
       </c>
       <c r="B92" s="1" t="s">
@@ -7030,7 +7036,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="str">
-        <f>IF(master!B93="plate",master!C93, "")</f>
+        <f>IF(master!B93="plate",IF(ISBLANK(master!C93),"",master!C93), "")</f>
         <v/>
       </c>
       <c r="B93" s="1" t="s">
@@ -7043,7 +7049,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="str">
-        <f>IF(master!B94="plate",master!C94, "")</f>
+        <f>IF(master!B94="plate",IF(ISBLANK(master!C94),"",master!C94), "")</f>
         <v/>
       </c>
       <c r="B94" s="1" t="s">
@@ -7056,7 +7062,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="str">
-        <f>IF(master!B95="plate",master!C95, "")</f>
+        <f>IF(master!B95="plate",IF(ISBLANK(master!C95),"",master!C95), "")</f>
         <v>H12</v>
       </c>
       <c r="B95" s="1" t="s">
@@ -7069,7 +7075,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="str">
-        <f>IF(master!B96="plate",master!C96, "")</f>
+        <f>IF(master!B96="plate",IF(ISBLANK(master!C96),"",master!C96), "")</f>
         <v>H12</v>
       </c>
       <c r="B96" s="1" t="s">
@@ -7082,7 +7088,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="str">
-        <f>IF(master!B97="plate",master!C97, "")</f>
+        <f>IF(master!B97="plate",IF(ISBLANK(master!C97),"",master!C97), "")</f>
         <v>H12</v>
       </c>
       <c r="B97" s="1" t="s">
@@ -7113,7 +7119,7 @@
   <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:C22"/>
+      <selection activeCell="A2" sqref="A2:A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7134,7 +7140,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
-        <f>IF(AND(master!B2="strip",ISTEXT(master!C2)),master!C2,"")</f>
+        <f>IF(master!B2="strip",IF(ISBLANK(master!C2),"",master!C2), "")</f>
         <v/>
       </c>
       <c r="B2" s="2" t="s">
@@ -7147,7 +7153,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
-        <f>IF(master!B3="strip",master!C3,"")</f>
+        <f>IF(master!B3="strip",IF(ISBLANK(master!C3),"",master!C3), "")</f>
         <v/>
       </c>
       <c r="B3" s="2" t="s">
@@ -7160,7 +7166,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
-        <f>IF(master!B4="strip",master!C4,"")</f>
+        <f>IF(master!B4="strip",IF(ISBLANK(master!C4),"",master!C4), "")</f>
         <v/>
       </c>
       <c r="B4" s="2" t="s">
@@ -7173,7 +7179,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
-        <f>IF(master!B5="strip",master!C5,"")</f>
+        <f>IF(master!B5="strip",IF(ISBLANK(master!C5),"",master!C5), "")</f>
         <v/>
       </c>
       <c r="B5" s="2" t="s">
@@ -7186,7 +7192,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="str">
-        <f>IF(master!B6="strip",master!C6,"")</f>
+        <f>IF(master!B6="strip",IF(ISBLANK(master!C6),"",master!C6), "")</f>
         <v/>
       </c>
       <c r="B6" s="2" t="s">
@@ -7199,7 +7205,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="str">
-        <f>IF(master!B7="strip",master!C7,"")</f>
+        <f>IF(master!B7="strip",IF(ISBLANK(master!C7),"",master!C7), "")</f>
         <v/>
       </c>
       <c r="B7" s="2" t="s">
@@ -7212,7 +7218,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="str">
-        <f>IF(master!B8="strip",master!C8,"")</f>
+        <f>IF(master!B8="strip",IF(ISBLANK(master!C8),"",master!C8), "")</f>
         <v/>
       </c>
       <c r="B8" s="2" t="s">
@@ -7225,7 +7231,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="str">
-        <f>IF(master!B9="strip",master!C9,"")</f>
+        <f>IF(master!B9="strip",IF(ISBLANK(master!C9),"",master!C9), "")</f>
         <v>A01</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -7238,7 +7244,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="str">
-        <f>IF(master!B10="strip",master!C10,"")</f>
+        <f>IF(master!B10="strip",IF(ISBLANK(master!C10),"",master!C10), "")</f>
         <v>B01</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -7251,7 +7257,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="str">
-        <f>IF(master!B11="strip",master!C11,"")</f>
+        <f>IF(master!B11="strip",IF(ISBLANK(master!C11),"",master!C11), "")</f>
         <v>C01</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -7264,7 +7270,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="str">
-        <f>IF(master!B12="strip",master!C12,"")</f>
+        <f>IF(master!B12="strip",IF(ISBLANK(master!C12),"",master!C12), "")</f>
         <v>D01</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -7277,7 +7283,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="str">
-        <f>IF(master!B13="strip",master!C13,"")</f>
+        <f>IF(master!B13="strip",IF(ISBLANK(master!C13),"",master!C13), "")</f>
         <v/>
       </c>
       <c r="B13" s="1" t="s">
@@ -7290,7 +7296,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="str">
-        <f>IF(master!B14="strip",master!C14,"")</f>
+        <f>IF(master!B14="strip",IF(ISBLANK(master!C14),"",master!C14), "")</f>
         <v/>
       </c>
       <c r="B14" s="1" t="s">
@@ -7303,7 +7309,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="str">
-        <f>IF(master!B15="strip",master!C15,"")</f>
+        <f>IF(master!B15="strip",IF(ISBLANK(master!C15),"",master!C15), "")</f>
         <v/>
       </c>
       <c r="B15" s="1" t="s">
@@ -7316,7 +7322,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="str">
-        <f>IF(master!B16="strip",master!C16,"")</f>
+        <f>IF(master!B16="strip",IF(ISBLANK(master!C16),"",master!C16), "")</f>
         <v/>
       </c>
       <c r="B16" s="1" t="s">
@@ -7329,7 +7335,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="str">
-        <f>IF(master!B17="strip",master!C17,"")</f>
+        <f>IF(master!B17="strip",IF(ISBLANK(master!C17),"",master!C17), "")</f>
         <v/>
       </c>
       <c r="B17" s="1" t="s">
@@ -7342,7 +7348,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="str">
-        <f>IF(master!B18="strip",master!C18,"")</f>
+        <f>IF(master!B18="strip",IF(ISBLANK(master!C18),"",master!C18), "")</f>
         <v>A02</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -7355,7 +7361,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="str">
-        <f>IF(master!B19="strip",master!C19,"")</f>
+        <f>IF(master!B19="strip",IF(ISBLANK(master!C19),"",master!C19), "")</f>
         <v>B02</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -7368,7 +7374,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="str">
-        <f>IF(master!B20="strip",master!C20,"")</f>
+        <f>IF(master!B20="strip",IF(ISBLANK(master!C20),"",master!C20), "")</f>
         <v>C02</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -7381,7 +7387,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="str">
-        <f>IF(master!B21="strip",master!C21,"")</f>
+        <f>IF(master!B21="strip",IF(ISBLANK(master!C21),"",master!C21), "")</f>
         <v>D02</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -7394,7 +7400,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="str">
-        <f>IF(master!B22="strip",master!C22,"")</f>
+        <f>IF(master!B22="strip",IF(ISBLANK(master!C22),"",master!C22), "")</f>
         <v/>
       </c>
       <c r="B22" s="2" t="s">
@@ -7407,7 +7413,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="str">
-        <f>IF(master!B23="strip",master!C23,"")</f>
+        <f>IF(master!B23="strip",IF(ISBLANK(master!C23),"",master!C23), "")</f>
         <v/>
       </c>
       <c r="B23" s="2" t="s">
@@ -7420,7 +7426,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="str">
-        <f>IF(master!B24="strip",master!C24,"")</f>
+        <f>IF(master!B24="strip",IF(ISBLANK(master!C24),"",master!C24), "")</f>
         <v/>
       </c>
       <c r="B24" s="2" t="s">
@@ -7433,7 +7439,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="str">
-        <f>IF(master!B25="strip",master!C25,"")</f>
+        <f>IF(master!B25="strip",IF(ISBLANK(master!C25),"",master!C25), "")</f>
         <v/>
       </c>
       <c r="B25" s="2" t="s">
@@ -7446,7 +7452,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="str">
-        <f>IF(master!B26="strip",master!C26,"")</f>
+        <f>IF(master!B26="strip",IF(ISBLANK(master!C26),"",master!C26), "")</f>
         <v/>
       </c>
       <c r="B26" s="1" t="s">
@@ -7459,7 +7465,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="str">
-        <f>IF(master!B27="strip",master!C27,"")</f>
+        <f>IF(master!B27="strip",IF(ISBLANK(master!C27),"",master!C27), "")</f>
         <v/>
       </c>
       <c r="B27" s="1" t="s">
@@ -7472,7 +7478,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="str">
-        <f>IF(master!B28="strip",master!C28,"")</f>
+        <f>IF(master!B28="strip",IF(ISBLANK(master!C28),"",master!C28), "")</f>
         <v/>
       </c>
       <c r="B28" s="1" t="s">
@@ -7485,7 +7491,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="str">
-        <f>IF(master!B29="strip",master!C29,"")</f>
+        <f>IF(master!B29="strip",IF(ISBLANK(master!C29),"",master!C29), "")</f>
         <v/>
       </c>
       <c r="B29" s="1" t="s">
@@ -7498,7 +7504,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="str">
-        <f>IF(master!B30="strip",master!C30,"")</f>
+        <f>IF(master!B30="strip",IF(ISBLANK(master!C30),"",master!C30), "")</f>
         <v/>
       </c>
       <c r="B30" s="1" t="s">
@@ -7511,7 +7517,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="str">
-        <f>IF(master!B31="strip",master!C31,"")</f>
+        <f>IF(master!B31="strip",IF(ISBLANK(master!C31),"",master!C31), "")</f>
         <v/>
       </c>
       <c r="B31" s="1" t="s">
@@ -7524,7 +7530,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="str">
-        <f>IF(master!B32="strip",master!C32,"")</f>
+        <f>IF(master!B32="strip",IF(ISBLANK(master!C32),"",master!C32), "")</f>
         <v/>
       </c>
       <c r="B32" s="1" t="s">
@@ -7537,7 +7543,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="str">
-        <f>IF(master!B33="strip",master!C33,"")</f>
+        <f>IF(master!B33="strip",IF(ISBLANK(master!C33),"",master!C33), "")</f>
         <v/>
       </c>
       <c r="B33" s="1" t="s">
@@ -7550,7 +7556,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="str">
-        <f>IF(master!B34="strip",master!C34,"")</f>
+        <f>IF(master!B34="strip",IF(ISBLANK(master!C34),"",master!C34), "")</f>
         <v/>
       </c>
       <c r="B34" s="2" t="s">
@@ -7563,7 +7569,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="str">
-        <f>IF(master!B35="strip",master!C35,"")</f>
+        <f>IF(master!B35="strip",IF(ISBLANK(master!C35),"",master!C35), "")</f>
         <v/>
       </c>
       <c r="B35" s="2" t="s">
@@ -7576,7 +7582,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="str">
-        <f>IF(master!B36="strip",master!C36,"")</f>
+        <f>IF(master!B36="strip",IF(ISBLANK(master!C36),"",master!C36), "")</f>
         <v/>
       </c>
       <c r="B36" s="2" t="s">
@@ -7589,7 +7595,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="str">
-        <f>IF(master!B37="strip",master!C37,"")</f>
+        <f>IF(master!B37="strip",IF(ISBLANK(master!C37),"",master!C37), "")</f>
         <v/>
       </c>
       <c r="B37" s="2" t="s">
@@ -7602,7 +7608,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="str">
-        <f>IF(master!B38="strip",master!C38,"")</f>
+        <f>IF(master!B38="strip",IF(ISBLANK(master!C38),"",master!C38), "")</f>
         <v/>
       </c>
       <c r="B38" s="2" t="s">
@@ -7615,7 +7621,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="str">
-        <f>IF(master!B39="strip",master!C39,"")</f>
+        <f>IF(master!B39="strip",IF(ISBLANK(master!C39),"",master!C39), "")</f>
         <v/>
       </c>
       <c r="B39" s="2" t="s">
@@ -7628,7 +7634,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="str">
-        <f>IF(master!B40="strip",master!C40,"")</f>
+        <f>IF(master!B40="strip",IF(ISBLANK(master!C40),"",master!C40), "")</f>
         <v/>
       </c>
       <c r="B40" s="2" t="s">
@@ -7641,7 +7647,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="str">
-        <f>IF(master!B41="strip",master!C41,"")</f>
+        <f>IF(master!B41="strip",IF(ISBLANK(master!C41),"",master!C41), "")</f>
         <v/>
       </c>
       <c r="B41" s="2" t="s">
@@ -7654,7 +7660,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="str">
-        <f>IF(master!B42="strip",master!C42,"")</f>
+        <f>IF(master!B42="strip",IF(ISBLANK(master!C42),"",master!C42), "")</f>
         <v/>
       </c>
       <c r="B42" s="1" t="s">
@@ -7667,7 +7673,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="str">
-        <f>IF(master!B43="strip",master!C43,"")</f>
+        <f>IF(master!B43="strip",IF(ISBLANK(master!C43),"",master!C43), "")</f>
         <v/>
       </c>
       <c r="B43" s="1" t="s">
@@ -7680,7 +7686,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="str">
-        <f>IF(master!B44="strip",master!C44,"")</f>
+        <f>IF(master!B44="strip",IF(ISBLANK(master!C44),"",master!C44), "")</f>
         <v/>
       </c>
       <c r="B44" s="1" t="s">
@@ -7693,7 +7699,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="str">
-        <f>IF(master!B45="strip",master!C45,"")</f>
+        <f>IF(master!B45="strip",IF(ISBLANK(master!C45),"",master!C45), "")</f>
         <v/>
       </c>
       <c r="B45" s="1" t="s">
@@ -7706,7 +7712,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="str">
-        <f>IF(master!B46="strip",master!C46,"")</f>
+        <f>IF(master!B46="strip",IF(ISBLANK(master!C46),"",master!C46), "")</f>
         <v/>
       </c>
       <c r="B46" s="1" t="s">
@@ -7719,7 +7725,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="str">
-        <f>IF(master!B47="strip",master!C47,"")</f>
+        <f>IF(master!B47="strip",IF(ISBLANK(master!C47),"",master!C47), "")</f>
         <v/>
       </c>
       <c r="B47" s="1" t="s">
@@ -7732,7 +7738,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="str">
-        <f>IF(master!B48="strip",master!C48,"")</f>
+        <f>IF(master!B48="strip",IF(ISBLANK(master!C48),"",master!C48), "")</f>
         <v/>
       </c>
       <c r="B48" s="1" t="s">
@@ -7745,7 +7751,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="str">
-        <f>IF(master!B49="strip",master!C49,"")</f>
+        <f>IF(master!B49="strip",IF(ISBLANK(master!C49),"",master!C49), "")</f>
         <v/>
       </c>
       <c r="B49" s="1" t="s">
@@ -7758,7 +7764,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="str">
-        <f>IF(master!B50="strip",master!C50,"")</f>
+        <f>IF(master!B50="strip",IF(ISBLANK(master!C50),"",master!C50), "")</f>
         <v/>
       </c>
       <c r="B50" s="2" t="s">
@@ -7771,7 +7777,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="str">
-        <f>IF(master!B51="strip",master!C51,"")</f>
+        <f>IF(master!B51="strip",IF(ISBLANK(master!C51),"",master!C51), "")</f>
         <v/>
       </c>
       <c r="B51" s="2" t="s">
@@ -7784,7 +7790,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="str">
-        <f>IF(master!B52="strip",master!C52,"")</f>
+        <f>IF(master!B52="strip",IF(ISBLANK(master!C52),"",master!C52), "")</f>
         <v/>
       </c>
       <c r="B52" s="2" t="s">
@@ -7797,7 +7803,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="str">
-        <f>IF(master!B53="strip",master!C53,"")</f>
+        <f>IF(master!B53="strip",IF(ISBLANK(master!C53),"",master!C53), "")</f>
         <v/>
       </c>
       <c r="B53" s="2" t="s">
@@ -7810,7 +7816,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="str">
-        <f>IF(master!B54="strip",master!C54,"")</f>
+        <f>IF(master!B54="strip",IF(ISBLANK(master!C54),"",master!C54), "")</f>
         <v/>
       </c>
       <c r="B54" s="2" t="s">
@@ -7823,7 +7829,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="str">
-        <f>IF(master!B55="strip",master!C55,"")</f>
+        <f>IF(master!B55="strip",IF(ISBLANK(master!C55),"",master!C55), "")</f>
         <v/>
       </c>
       <c r="B55" s="2" t="s">
@@ -7836,7 +7842,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="str">
-        <f>IF(master!B56="strip",master!C56,"")</f>
+        <f>IF(master!B56="strip",IF(ISBLANK(master!C56),"",master!C56), "")</f>
         <v/>
       </c>
       <c r="B56" s="2" t="s">
@@ -7849,7 +7855,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="str">
-        <f>IF(master!B57="strip",master!C57,"")</f>
+        <f>IF(master!B57="strip",IF(ISBLANK(master!C57),"",master!C57), "")</f>
         <v/>
       </c>
       <c r="B57" s="2" t="s">
@@ -7862,7 +7868,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="str">
-        <f>IF(master!B58="strip",master!C58,"")</f>
+        <f>IF(master!B58="strip",IF(ISBLANK(master!C58),"",master!C58), "")</f>
         <v/>
       </c>
       <c r="B58" s="1" t="s">
@@ -7875,7 +7881,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="str">
-        <f>IF(master!B59="strip",master!C59,"")</f>
+        <f>IF(master!B59="strip",IF(ISBLANK(master!C59),"",master!C59), "")</f>
         <v/>
       </c>
       <c r="B59" s="1" t="s">
@@ -7888,7 +7894,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="str">
-        <f>IF(master!B60="strip",master!C60,"")</f>
+        <f>IF(master!B60="strip",IF(ISBLANK(master!C60),"",master!C60), "")</f>
         <v/>
       </c>
       <c r="B60" s="1" t="s">
@@ -7901,7 +7907,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="str">
-        <f>IF(master!B61="strip",master!C61,"")</f>
+        <f>IF(master!B61="strip",IF(ISBLANK(master!C61),"",master!C61), "")</f>
         <v/>
       </c>
       <c r="B61" s="1" t="s">
@@ -7914,7 +7920,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="str">
-        <f>IF(master!B62="strip",master!C62,"")</f>
+        <f>IF(master!B62="strip",IF(ISBLANK(master!C62),"",master!C62), "")</f>
         <v/>
       </c>
       <c r="B62" s="1" t="s">
@@ -7927,7 +7933,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="str">
-        <f>IF(master!B63="strip",master!C63,"")</f>
+        <f>IF(master!B63="strip",IF(ISBLANK(master!C63),"",master!C63), "")</f>
         <v/>
       </c>
       <c r="B63" s="1" t="s">
@@ -7940,7 +7946,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="str">
-        <f>IF(master!B64="strip",master!C64,"")</f>
+        <f>IF(master!B64="strip",IF(ISBLANK(master!C64),"",master!C64), "")</f>
         <v/>
       </c>
       <c r="B64" s="1" t="s">
@@ -7953,7 +7959,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="str">
-        <f>IF(master!B65="strip",master!C65,"")</f>
+        <f>IF(master!B65="strip",IF(ISBLANK(master!C65),"",master!C65), "")</f>
         <v/>
       </c>
       <c r="B65" s="1" t="s">
@@ -7966,7 +7972,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="str">
-        <f>IF(master!B66="strip",master!C66,"")</f>
+        <f>IF(master!B66="strip",IF(ISBLANK(master!C66),"",master!C66), "")</f>
         <v/>
       </c>
       <c r="B66" s="2" t="s">
@@ -7979,7 +7985,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="str">
-        <f>IF(master!B67="strip",master!C67,"")</f>
+        <f>IF(master!B67="strip",IF(ISBLANK(master!C67),"",master!C67), "")</f>
         <v/>
       </c>
       <c r="B67" s="2" t="s">
@@ -7992,7 +7998,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="str">
-        <f>IF(master!B68="strip",master!C68,"")</f>
+        <f>IF(master!B68="strip",IF(ISBLANK(master!C68),"",master!C68), "")</f>
         <v/>
       </c>
       <c r="B68" s="2" t="s">
@@ -8005,7 +8011,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="str">
-        <f>IF(master!B69="strip",master!C69,"")</f>
+        <f>IF(master!B69="strip",IF(ISBLANK(master!C69),"",master!C69), "")</f>
         <v/>
       </c>
       <c r="B69" s="2" t="s">
@@ -8018,7 +8024,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="str">
-        <f>IF(master!B70="strip",master!C70,"")</f>
+        <f>IF(master!B70="strip",IF(ISBLANK(master!C70),"",master!C70), "")</f>
         <v/>
       </c>
       <c r="B70" s="2" t="s">
@@ -8031,7 +8037,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="str">
-        <f>IF(master!B71="strip",master!C71,"")</f>
+        <f>IF(master!B71="strip",IF(ISBLANK(master!C71),"",master!C71), "")</f>
         <v/>
       </c>
       <c r="B71" s="2" t="s">
@@ -8044,7 +8050,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="str">
-        <f>IF(master!B72="strip",master!C72,"")</f>
+        <f>IF(master!B72="strip",IF(ISBLANK(master!C72),"",master!C72), "")</f>
         <v/>
       </c>
       <c r="B72" s="2" t="s">
@@ -8057,7 +8063,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="str">
-        <f>IF(master!B73="strip",master!C73,"")</f>
+        <f>IF(master!B73="strip",IF(ISBLANK(master!C73),"",master!C73), "")</f>
         <v/>
       </c>
       <c r="B73" s="2" t="s">
@@ -8070,7 +8076,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="str">
-        <f>IF(master!B74="strip",master!C74,"")</f>
+        <f>IF(master!B74="strip",IF(ISBLANK(master!C74),"",master!C74), "")</f>
         <v/>
       </c>
       <c r="B74" s="1" t="s">
@@ -8083,7 +8089,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="str">
-        <f>IF(master!B75="strip",master!C75,"")</f>
+        <f>IF(master!B75="strip",IF(ISBLANK(master!C75),"",master!C75), "")</f>
         <v/>
       </c>
       <c r="B75" s="1" t="s">
@@ -8096,7 +8102,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="str">
-        <f>IF(master!B76="strip",master!C76,"")</f>
+        <f>IF(master!B76="strip",IF(ISBLANK(master!C76),"",master!C76), "")</f>
         <v/>
       </c>
       <c r="B76" s="1" t="s">
@@ -8109,7 +8115,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="str">
-        <f>IF(master!B77="strip",master!C77,"")</f>
+        <f>IF(master!B77="strip",IF(ISBLANK(master!C77),"",master!C77), "")</f>
         <v/>
       </c>
       <c r="B77" s="1" t="s">
@@ -8122,7 +8128,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="str">
-        <f>IF(master!B78="strip",master!C78,"")</f>
+        <f>IF(master!B78="strip",IF(ISBLANK(master!C78),"",master!C78), "")</f>
         <v/>
       </c>
       <c r="B78" s="1" t="s">
@@ -8135,7 +8141,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="str">
-        <f>IF(master!B79="strip",master!C79,"")</f>
+        <f>IF(master!B79="strip",IF(ISBLANK(master!C79),"",master!C79), "")</f>
         <v/>
       </c>
       <c r="B79" s="1" t="s">
@@ -8148,7 +8154,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="str">
-        <f>IF(master!B80="strip",master!C80,"")</f>
+        <f>IF(master!B80="strip",IF(ISBLANK(master!C80),"",master!C80), "")</f>
         <v/>
       </c>
       <c r="B80" s="1" t="s">
@@ -8161,7 +8167,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="str">
-        <f>IF(master!B81="strip",master!C81,"")</f>
+        <f>IF(master!B81="strip",IF(ISBLANK(master!C81),"",master!C81), "")</f>
         <v/>
       </c>
       <c r="B81" s="1" t="s">
@@ -8174,7 +8180,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="str">
-        <f>IF(master!B82="strip",master!C82,"")</f>
+        <f>IF(master!B82="strip",IF(ISBLANK(master!C82),"",master!C82), "")</f>
         <v/>
       </c>
       <c r="B82" s="2" t="s">
@@ -8187,7 +8193,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="str">
-        <f>IF(master!B83="strip",master!C83,"")</f>
+        <f>IF(master!B83="strip",IF(ISBLANK(master!C83),"",master!C83), "")</f>
         <v/>
       </c>
       <c r="B83" s="2" t="s">
@@ -8200,7 +8206,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="str">
-        <f>IF(master!B84="strip",master!C84,"")</f>
+        <f>IF(master!B84="strip",IF(ISBLANK(master!C84),"",master!C84), "")</f>
         <v/>
       </c>
       <c r="B84" s="2" t="s">
@@ -8213,7 +8219,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="str">
-        <f>IF(master!B85="strip",master!C85,"")</f>
+        <f>IF(master!B85="strip",IF(ISBLANK(master!C85),"",master!C85), "")</f>
         <v/>
       </c>
       <c r="B85" s="2" t="s">
@@ -8226,7 +8232,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="str">
-        <f>IF(master!B86="strip",master!C86,"")</f>
+        <f>IF(master!B86="strip",IF(ISBLANK(master!C86),"",master!C86), "")</f>
         <v/>
       </c>
       <c r="B86" s="2" t="s">
@@ -8239,7 +8245,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="str">
-        <f>IF(master!B87="strip",master!C87,"")</f>
+        <f>IF(master!B87="strip",IF(ISBLANK(master!C87),"",master!C87), "")</f>
         <v/>
       </c>
       <c r="B87" s="2" t="s">
@@ -8252,7 +8258,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="str">
-        <f>IF(master!B88="strip",master!C88,"")</f>
+        <f>IF(master!B88="strip",IF(ISBLANK(master!C88),"",master!C88), "")</f>
         <v/>
       </c>
       <c r="B88" s="2" t="s">
@@ -8265,7 +8271,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="str">
-        <f>IF(master!B89="strip",master!C89,"")</f>
+        <f>IF(master!B89="strip",IF(ISBLANK(master!C89),"",master!C89), "")</f>
         <v/>
       </c>
       <c r="B89" s="2" t="s">
@@ -8278,7 +8284,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="str">
-        <f>IF(master!B90="strip",master!C90,"")</f>
+        <f>IF(master!B90="strip",IF(ISBLANK(master!C90),"",master!C90), "")</f>
         <v/>
       </c>
       <c r="B90" s="1" t="s">
@@ -8291,7 +8297,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="str">
-        <f>IF(master!B91="strip",master!C91,"")</f>
+        <f>IF(master!B91="strip",IF(ISBLANK(master!C91),"",master!C91), "")</f>
         <v/>
       </c>
       <c r="B91" s="1" t="s">
@@ -8304,7 +8310,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="str">
-        <f>IF(master!B92="strip",master!C92,"")</f>
+        <f>IF(master!B92="strip",IF(ISBLANK(master!C92),"",master!C92), "")</f>
         <v/>
       </c>
       <c r="B92" s="1" t="s">
@@ -8317,7 +8323,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="str">
-        <f>IF(master!B93="strip",master!C93,"")</f>
+        <f>IF(master!B93="strip",IF(ISBLANK(master!C93),"",master!C93), "")</f>
         <v/>
       </c>
       <c r="B93" s="1" t="s">
@@ -8330,7 +8336,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="str">
-        <f>IF(master!B94="strip",master!C94,"")</f>
+        <f>IF(master!B94="strip",IF(ISBLANK(master!C94),"",master!C94), "")</f>
         <v/>
       </c>
       <c r="B94" s="1" t="s">
@@ -8343,7 +8349,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="str">
-        <f>IF(master!B95="strip",master!C95,"")</f>
+        <f>IF(master!B95="strip",IF(ISBLANK(master!C95),"",master!C95), "")</f>
         <v/>
       </c>
       <c r="B95" s="1" t="s">
@@ -8356,7 +8362,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="str">
-        <f>IF(master!B96="strip",master!C96,"")</f>
+        <f>IF(master!B96="strip",IF(ISBLANK(master!C96),"",master!C96), "")</f>
         <v/>
       </c>
       <c r="B96" s="1" t="s">
@@ -8369,7 +8375,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="str">
-        <f>IF(master!B97="strip",master!C97,"")</f>
+        <f>IF(master!B97="strip",IF(ISBLANK(master!C97),"",master!C97), "")</f>
         <v/>
       </c>
       <c r="B97" s="1" t="s">
@@ -8399,8 +8405,8 @@
   </sheetPr>
   <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:C13"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9687,7 +9693,7 @@
   <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13390,12 +13396,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FDAF843F15E65A4EA1FFB0CF193B74E3" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bd4433bf6f24a726161ac457e21002bf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e1a61fc9-c776-4dd1-85b5-f7d58768ba79" xmlns:ns4="3f421247-72bc-4b61-a591-0b56f96ae993" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7d66d7a13b7b51360e8b1c095fb39c19" ns3:_="" ns4:_="">
     <xsd:import namespace="e1a61fc9-c776-4dd1-85b5-f7d58768ba79"/>
@@ -13624,6 +13624,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79D86924-57C1-45D5-9E44-D526494DB02F}">
   <ds:schemaRefs>
@@ -13633,23 +13639,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0CD12B7-1FA3-4B61-BDAE-DF4259CEDD3F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="3f421247-72bc-4b61-a591-0b56f96ae993"/>
-    <ds:schemaRef ds:uri="e1a61fc9-c776-4dd1-85b5-f7d58768ba79"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E774FF9-2144-4DC7-8F36-E7E064C7C739}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13666,4 +13655,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0CD12B7-1FA3-4B61-BDAE-DF4259CEDD3F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="3f421247-72bc-4b61-a591-0b56f96ae993"/>
+    <ds:schemaRef ds:uri="e1a61fc9-c776-4dd1-85b5-f7d58768ba79"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/templates/01-sanger-master-v3.xlsx
+++ b/templates/01-sanger-master-v3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angeloas/code/opentrons/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD9B46F-A1B4-024E-B779-02A1582A9BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D444F6-F813-F945-8522-EE766F1041F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="760" windowWidth="28800" windowHeight="16320" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="520" yWindow="760" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="6" r:id="rId1"/>
@@ -721,7 +721,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -775,18 +775,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -794,34 +845,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="4"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -851,6 +894,24 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -889,7 +950,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4E4A5EE2-1080-B34A-BB40-8F3F3FEA7305}" name="Table4" displayName="Table4" ref="A1:B24" totalsRowShown="0">
   <autoFilter ref="A1:B24" xr:uid="{4E4A5EE2-1080-B34A-BB40-8F3F3FEA7305}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{CDB38DFA-789C-8F4B-840F-972D89DD6C8F}" name="pos" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{CDB38DFA-789C-8F4B-840F-972D89DD6C8F}" name="pos" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{13A22DA2-122E-D84B-A12E-BE492FE435E8}" name="primer"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -907,7 +968,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1195,7 +1256,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1208,9 +1269,9 @@
   </sheetPr>
   <dimension ref="A1:U97"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1219,13 +1280,13 @@
     <col min="4" max="4" width="13.6640625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="4.33203125" style="16" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" customWidth="1"/>
-    <col min="12" max="12" width="7.1640625" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="3.5" customWidth="1"/>
+    <col min="8" max="8" width="18.5" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" style="23" customWidth="1"/>
+    <col min="10" max="10" width="4.33203125" style="26" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" customWidth="1"/>
     <col min="15" max="15" width="3.6640625" customWidth="1"/>
     <col min="16" max="17" width="11.5" customWidth="1"/>
     <col min="18" max="18" width="13" customWidth="1"/>
@@ -1236,53 +1297,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="15"/>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="12"/>
+      <c r="B1" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="L1" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="M1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="N1" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="12" t="s">
+      <c r="O1" s="12"/>
+      <c r="P1" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12" t="s">
+      <c r="S1" s="10"/>
+      <c r="T1" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="10" t="s">
         <v>182</v>
       </c>
     </row>
@@ -1293,29 +1354,30 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="13" t="s">
         <v>187</v>
       </c>
       <c r="F2" t="s">
         <v>105</v>
       </c>
-      <c r="H2" s="7" t="str">
+      <c r="H2" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="I2" s="16"/>
+      <c r="K2" s="5" t="str">
         <f>IF(F2="","", INDEX(Table4[],MATCH(F2,Table4[primer],0),1))</f>
         <v>A01</v>
       </c>
-      <c r="I2" s="7" cm="1">
-        <f t="array" ref="I2">_xlfn.IFS(F2="",0,F2="water",11.5,TRUE, 5)</f>
+      <c r="L2" s="5" cm="1">
+        <f t="array" ref="L2">_xlfn.IFS(F2="",0,F2="water",11.5,TRUE, 5)</f>
         <v>5</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="M2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="7">
-        <f>IF(OR(C2 = "",B2=""),0,15-I2)</f>
+      <c r="N2" s="5">
+        <f>IF(OR(C2 = "",B2=""),0,15-L2)</f>
         <v>10</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>159</v>
       </c>
       <c r="P2">
         <f t="shared" ref="P2:P33" si="0">COUNTIFS($C$2:$C$97,C2,$B$2:$B$97,B2)</f>
@@ -1326,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <f t="shared" ref="R2:R66" si="1">I2+K2</f>
+        <f t="shared" ref="R2:R66" si="1">L2+N2</f>
         <v>15</v>
       </c>
       <c r="T2" t="s">
@@ -1344,26 +1406,27 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="H3" s="7" t="str">
+      <c r="H3" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="I3" s="18"/>
+      <c r="K3" s="5" t="str">
         <f>IF(F3="","", INDEX(Table4[],MATCH(F3,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I3" s="7" cm="1">
-        <f t="array" ref="I3">_xlfn.IFS(F3="",0,F3="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="9" t="s">
+      <c r="L3" s="5" cm="1">
+        <f t="array" ref="L3">_xlfn.IFS(F3="",0,F3="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="7">
-        <f t="shared" ref="K3:K66" si="2">IF(OR(C3 = "",B3=""),0,15-I3)</f>
+      <c r="N3" s="5">
+        <f t="shared" ref="N3:N66" si="2">IF(OR(C3 = "",B3=""),0,15-L3)</f>
         <v>15</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>158</v>
       </c>
       <c r="P3">
         <f t="shared" si="0"/>
@@ -1392,26 +1455,27 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="H4" s="7" t="str">
+      <c r="H4" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="I4" s="18"/>
+      <c r="K4" s="5" t="str">
         <f>IF(F4="","", INDEX(Table4[],MATCH(F4,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I4" s="7" cm="1">
-        <f t="array" ref="I4">_xlfn.IFS(F4="",0,F4="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="9" t="s">
+      <c r="L4" s="5" cm="1">
+        <f t="array" ref="L4">_xlfn.IFS(F4="",0,F4="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="7">
+      <c r="N4" s="5">
         <f t="shared" si="2"/>
         <v>15</v>
-      </c>
-      <c r="M4" s="14" t="s">
-        <v>169</v>
       </c>
       <c r="P4">
         <f t="shared" si="0"/>
@@ -1440,26 +1504,27 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="H5" s="7" t="str">
+      <c r="H5" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="K5" s="5" t="str">
         <f>IF(F5="","", INDEX(Table4[],MATCH(F5,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I5" s="7" cm="1">
-        <f t="array" ref="I5">_xlfn.IFS(F5="",0,F5="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="9" t="s">
+      <c r="L5" s="5" cm="1">
+        <f t="array" ref="L5">_xlfn.IFS(F5="",0,F5="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="7">
+      <c r="N5" s="5">
         <f t="shared" si="2"/>
         <v>15</v>
-      </c>
-      <c r="M5" t="s">
-        <v>188</v>
       </c>
       <c r="P5">
         <f t="shared" si="0"/>
@@ -1485,19 +1550,21 @@
       <c r="B6" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="H6" s="7" t="str">
+      <c r="D6" s="13"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="18"/>
+      <c r="K6" s="5" t="str">
         <f>IF(F6="","", INDEX(Table4[],MATCH(F6,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I6" s="7" cm="1">
-        <f t="array" ref="I6">_xlfn.IFS(F6="",0,F6="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="9" t="s">
+      <c r="L6" s="5" cm="1">
+        <f t="array" ref="L6">_xlfn.IFS(F6="",0,F6="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="7">
+      <c r="N6" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1522,28 +1589,28 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="D7" s="17"/>
-      <c r="H7" s="7" t="str">
+      <c r="D7" s="13"/>
+      <c r="H7" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="I7" s="18">
+        <f>COUNTIF(N2:N97,"&gt;0")</f>
+        <v>15</v>
+      </c>
+      <c r="K7" s="5" t="str">
         <f>IF(F7="","", INDEX(Table4[],MATCH(F7,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I7" s="7" cm="1">
-        <f t="array" ref="I7">_xlfn.IFS(F7="",0,F7="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="9" t="s">
+      <c r="L7" s="5" cm="1">
+        <f t="array" ref="L7">_xlfn.IFS(F7="",0,F7="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="7">
+      <c r="N7" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="N7">
-        <f>COUNTIF(K2:K97,"&gt;0")</f>
-        <v>15</v>
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
@@ -1566,28 +1633,28 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="D8" s="17"/>
-      <c r="H8" s="7" t="str">
+      <c r="D8" s="13"/>
+      <c r="H8" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="I8" s="22">
+        <f>I7*5.5*1.1</f>
+        <v>90.750000000000014</v>
+      </c>
+      <c r="K8" s="5" t="str">
         <f>IF(F8="","", INDEX(Table4[],MATCH(F8,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I8" s="7" cm="1">
-        <f t="array" ref="I8">_xlfn.IFS(F8="",0,F8="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="9" t="s">
+      <c r="L8" s="5" cm="1">
+        <f t="array" ref="L8">_xlfn.IFS(F8="",0,F8="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="7">
+      <c r="N8" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="N8">
-        <f>N7*5.5*1.1</f>
-        <v>90.750000000000014</v>
       </c>
       <c r="P8">
         <f t="shared" si="0"/>
@@ -1616,22 +1683,22 @@
       <c r="C9" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="13"/>
       <c r="F9" t="s">
         <v>105</v>
       </c>
-      <c r="H9" s="7" t="str">
+      <c r="K9" s="5" t="str">
         <f>IF(F9="","", INDEX(Table4[],MATCH(F9,Table4[primer],0),1))</f>
         <v>A01</v>
       </c>
-      <c r="I9" s="7" cm="1">
-        <f t="array" ref="I9">_xlfn.IFS(F9="",0,F9="water",11.5,TRUE, 5)</f>
+      <c r="L9" s="5" cm="1">
+        <f t="array" ref="L9">_xlfn.IFS(F9="",0,F9="water",11.5,TRUE, 5)</f>
         <v>5</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="M9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="7">
+      <c r="N9" s="5">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -1662,22 +1729,22 @@
       <c r="C10" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="13"/>
       <c r="F10" t="s">
         <v>106</v>
       </c>
-      <c r="H10" s="7" t="str">
+      <c r="K10" s="5" t="str">
         <f>IF(F10="","", INDEX(Table4[],MATCH(F10,Table4[primer],0),1))</f>
         <v>B01</v>
       </c>
-      <c r="I10" s="7" cm="1">
-        <f t="array" ref="I10">_xlfn.IFS(F10="",0,F10="water",11.5,TRUE, 5)</f>
+      <c r="L10" s="5" cm="1">
+        <f t="array" ref="L10">_xlfn.IFS(F10="",0,F10="water",11.5,TRUE, 5)</f>
         <v>5</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="M10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="7">
+      <c r="N10" s="5">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -1708,22 +1775,22 @@
       <c r="C11" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="17"/>
+      <c r="D11" s="13"/>
       <c r="F11" t="s">
         <v>106</v>
       </c>
-      <c r="H11" s="7" t="str">
+      <c r="K11" s="5" t="str">
         <f>IF(F11="","", INDEX(Table4[],MATCH(F11,Table4[primer],0),1))</f>
         <v>B01</v>
       </c>
-      <c r="I11" s="7" cm="1">
-        <f t="array" ref="I11">_xlfn.IFS(F11="",0,F11="water",11.5,TRUE, 5)</f>
+      <c r="L11" s="5" cm="1">
+        <f t="array" ref="L11">_xlfn.IFS(F11="",0,F11="water",11.5,TRUE, 5)</f>
         <v>5</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="M11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="7">
+      <c r="N11" s="5">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -1754,22 +1821,22 @@
       <c r="C12" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="17"/>
+      <c r="D12" s="13"/>
       <c r="F12" t="s">
         <v>106</v>
       </c>
-      <c r="H12" s="7" t="str">
+      <c r="K12" s="5" t="str">
         <f>IF(F12="","", INDEX(Table4[],MATCH(F12,Table4[primer],0),1))</f>
         <v>B01</v>
       </c>
-      <c r="I12" s="7" cm="1">
-        <f t="array" ref="I12">_xlfn.IFS(F12="",0,F12="water",11.5,TRUE, 5)</f>
+      <c r="L12" s="5" cm="1">
+        <f t="array" ref="L12">_xlfn.IFS(F12="",0,F12="water",11.5,TRUE, 5)</f>
         <v>5</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="M12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="7">
+      <c r="N12" s="5">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -1797,19 +1864,19 @@
       <c r="B13" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="H13" s="7" t="str">
+      <c r="D13" s="13"/>
+      <c r="K13" s="5" t="str">
         <f>IF(F13="","", INDEX(Table4[],MATCH(F13,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I13" s="7" cm="1">
-        <f t="array" ref="I13">_xlfn.IFS(F13="",0,F13="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="10" t="s">
+      <c r="L13" s="5" cm="1">
+        <f t="array" ref="L13">_xlfn.IFS(F13="",0,F13="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="7">
+      <c r="N13" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1834,19 +1901,19 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="D14" s="17"/>
-      <c r="H14" s="7" t="str">
+      <c r="D14" s="13"/>
+      <c r="K14" s="5" t="str">
         <f>IF(F14="","", INDEX(Table4[],MATCH(F14,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I14" s="7" cm="1">
-        <f t="array" ref="I14">_xlfn.IFS(F14="",0,F14="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="10" t="s">
+      <c r="L14" s="5" cm="1">
+        <f t="array" ref="L14">_xlfn.IFS(F14="",0,F14="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="7">
+      <c r="N14" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1871,19 +1938,19 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="D15" s="17"/>
-      <c r="H15" s="7" t="str">
+      <c r="D15" s="13"/>
+      <c r="K15" s="5" t="str">
         <f>IF(F15="","", INDEX(Table4[],MATCH(F15,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I15" s="7" cm="1">
-        <f t="array" ref="I15">_xlfn.IFS(F15="",0,F15="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="10" t="s">
+      <c r="L15" s="5" cm="1">
+        <f t="array" ref="L15">_xlfn.IFS(F15="",0,F15="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="7">
+      <c r="N15" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1908,19 +1975,19 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="D16" s="17"/>
-      <c r="H16" s="7" t="str">
+      <c r="D16" s="13"/>
+      <c r="K16" s="5" t="str">
         <f>IF(F16="","", INDEX(Table4[],MATCH(F16,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I16" s="7" cm="1">
-        <f t="array" ref="I16">_xlfn.IFS(F16="",0,F16="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="10" t="s">
+      <c r="L16" s="5" cm="1">
+        <f t="array" ref="L16">_xlfn.IFS(F16="",0,F16="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="7">
+      <c r="N16" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1945,19 +2012,19 @@
       </c>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="D17" s="17"/>
-      <c r="H17" s="7" t="str">
+      <c r="D17" s="13"/>
+      <c r="K17" s="5" t="str">
         <f>IF(F17="","", INDEX(Table4[],MATCH(F17,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I17" s="7" cm="1">
-        <f t="array" ref="I17">_xlfn.IFS(F17="",0,F17="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="10" t="s">
+      <c r="L17" s="5" cm="1">
+        <f t="array" ref="L17">_xlfn.IFS(F17="",0,F17="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="7">
+      <c r="N17" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1988,19 +2055,19 @@
       <c r="C18" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="H18" s="7" t="str">
+      <c r="D18" s="13"/>
+      <c r="K18" s="5" t="str">
         <f>IF(F18="","", INDEX(Table4[],MATCH(F18,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I18" s="7" cm="1">
-        <f t="array" ref="I18">_xlfn.IFS(F18="",0,F18="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="9" t="s">
+      <c r="L18" s="5" cm="1">
+        <f t="array" ref="L18">_xlfn.IFS(F18="",0,F18="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="7">
+      <c r="N18" s="5">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
@@ -2031,19 +2098,19 @@
       <c r="C19" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="H19" s="7" t="str">
+      <c r="D19" s="13"/>
+      <c r="K19" s="5" t="str">
         <f>IF(F19="","", INDEX(Table4[],MATCH(F19,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I19" s="7" cm="1">
-        <f t="array" ref="I19">_xlfn.IFS(F19="",0,F19="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="9" t="s">
+      <c r="L19" s="5" cm="1">
+        <f t="array" ref="L19">_xlfn.IFS(F19="",0,F19="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="7">
+      <c r="N19" s="5">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
@@ -2074,19 +2141,19 @@
       <c r="C20" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="H20" s="7" t="str">
+      <c r="D20" s="13"/>
+      <c r="K20" s="5" t="str">
         <f>IF(F20="","", INDEX(Table4[],MATCH(F20,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I20" s="7" cm="1">
-        <f t="array" ref="I20">_xlfn.IFS(F20="",0,F20="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="9" t="s">
+      <c r="L20" s="5" cm="1">
+        <f t="array" ref="L20">_xlfn.IFS(F20="",0,F20="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K20" s="7">
+      <c r="N20" s="5">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
@@ -2117,19 +2184,19 @@
       <c r="C21" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="H21" s="7" t="str">
+      <c r="D21" s="13"/>
+      <c r="K21" s="5" t="str">
         <f>IF(F21="","", INDEX(Table4[],MATCH(F21,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I21" s="7" cm="1">
-        <f t="array" ref="I21">_xlfn.IFS(F21="",0,F21="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="9" t="s">
+      <c r="L21" s="5" cm="1">
+        <f t="array" ref="L21">_xlfn.IFS(F21="",0,F21="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K21" s="7">
+      <c r="N21" s="5">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
@@ -2154,19 +2221,19 @@
       </c>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="D22" s="17"/>
-      <c r="H22" s="7" t="str">
+      <c r="D22" s="13"/>
+      <c r="K22" s="5" t="str">
         <f>IF(F22="","", INDEX(Table4[],MATCH(F22,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I22" s="7" cm="1">
-        <f t="array" ref="I22">_xlfn.IFS(F22="",0,F22="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="9" t="s">
+      <c r="L22" s="5" cm="1">
+        <f t="array" ref="L22">_xlfn.IFS(F22="",0,F22="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K22" s="7">
+      <c r="N22" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2191,19 +2258,19 @@
       </c>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="D23" s="17"/>
-      <c r="H23" s="7" t="str">
+      <c r="D23" s="13"/>
+      <c r="K23" s="5" t="str">
         <f>IF(F23="","", INDEX(Table4[],MATCH(F23,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I23" s="7" cm="1">
-        <f t="array" ref="I23">_xlfn.IFS(F23="",0,F23="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="9" t="s">
+      <c r="L23" s="5" cm="1">
+        <f t="array" ref="L23">_xlfn.IFS(F23="",0,F23="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K23" s="7">
+      <c r="N23" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2228,19 +2295,19 @@
       </c>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="D24" s="17"/>
-      <c r="H24" s="7" t="str">
+      <c r="D24" s="13"/>
+      <c r="K24" s="5" t="str">
         <f>IF(F24="","", INDEX(Table4[],MATCH(F24,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I24" s="7" cm="1">
-        <f t="array" ref="I24">_xlfn.IFS(F24="",0,F24="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="9" t="s">
+      <c r="L24" s="5" cm="1">
+        <f t="array" ref="L24">_xlfn.IFS(F24="",0,F24="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K24" s="7">
+      <c r="N24" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2265,19 +2332,19 @@
       </c>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="D25" s="17"/>
-      <c r="H25" s="7" t="str">
+      <c r="D25" s="13"/>
+      <c r="K25" s="5" t="str">
         <f>IF(F25="","", INDEX(Table4[],MATCH(F25,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I25" s="7" cm="1">
-        <f t="array" ref="I25">_xlfn.IFS(F25="",0,F25="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="9" t="s">
+      <c r="L25" s="5" cm="1">
+        <f t="array" ref="L25">_xlfn.IFS(F25="",0,F25="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K25" s="7">
+      <c r="N25" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2302,19 +2369,19 @@
       </c>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="D26" s="17"/>
-      <c r="H26" s="7" t="str">
+      <c r="D26" s="13"/>
+      <c r="K26" s="5" t="str">
         <f>IF(F26="","", INDEX(Table4[],MATCH(F26,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I26" s="7" cm="1">
-        <f t="array" ref="I26">_xlfn.IFS(F26="",0,F26="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="10" t="s">
+      <c r="L26" s="5" cm="1">
+        <f t="array" ref="L26">_xlfn.IFS(F26="",0,F26="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K26" s="7">
+      <c r="N26" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2339,19 +2406,19 @@
       </c>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="D27" s="17"/>
-      <c r="H27" s="7" t="str">
+      <c r="D27" s="13"/>
+      <c r="K27" s="5" t="str">
         <f>IF(F27="","", INDEX(Table4[],MATCH(F27,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I27" s="7" cm="1">
-        <f t="array" ref="I27">_xlfn.IFS(F27="",0,F27="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="10" t="s">
+      <c r="L27" s="5" cm="1">
+        <f t="array" ref="L27">_xlfn.IFS(F27="",0,F27="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K27" s="7">
+      <c r="N27" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2376,19 +2443,19 @@
       </c>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="D28" s="17"/>
-      <c r="H28" s="7" t="str">
+      <c r="D28" s="13"/>
+      <c r="K28" s="5" t="str">
         <f>IF(F28="","", INDEX(Table4[],MATCH(F28,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I28" s="7" cm="1">
-        <f t="array" ref="I28">_xlfn.IFS(F28="",0,F28="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="10" t="s">
+      <c r="L28" s="5" cm="1">
+        <f t="array" ref="L28">_xlfn.IFS(F28="",0,F28="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K28" s="7">
+      <c r="N28" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2413,19 +2480,19 @@
       </c>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="D29" s="17"/>
-      <c r="H29" s="7" t="str">
+      <c r="D29" s="13"/>
+      <c r="K29" s="5" t="str">
         <f>IF(F29="","", INDEX(Table4[],MATCH(F29,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I29" s="7" cm="1">
-        <f t="array" ref="I29">_xlfn.IFS(F29="",0,F29="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="10" t="s">
+      <c r="L29" s="5" cm="1">
+        <f t="array" ref="L29">_xlfn.IFS(F29="",0,F29="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="K29" s="7">
+      <c r="N29" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2450,19 +2517,19 @@
       </c>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="D30" s="17"/>
-      <c r="H30" s="7" t="str">
+      <c r="D30" s="13"/>
+      <c r="K30" s="5" t="str">
         <f>IF(F30="","", INDEX(Table4[],MATCH(F30,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I30" s="7" cm="1">
-        <f t="array" ref="I30">_xlfn.IFS(F30="",0,F30="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="10" t="s">
+      <c r="L30" s="5" cm="1">
+        <f t="array" ref="L30">_xlfn.IFS(F30="",0,F30="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K30" s="7">
+      <c r="N30" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2487,19 +2554,19 @@
       </c>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="D31" s="17"/>
-      <c r="H31" s="7" t="str">
+      <c r="D31" s="13"/>
+      <c r="K31" s="5" t="str">
         <f>IF(F31="","", INDEX(Table4[],MATCH(F31,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I31" s="7" cm="1">
-        <f t="array" ref="I31">_xlfn.IFS(F31="",0,F31="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="10" t="s">
+      <c r="L31" s="5" cm="1">
+        <f t="array" ref="L31">_xlfn.IFS(F31="",0,F31="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K31" s="7">
+      <c r="N31" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2524,19 +2591,19 @@
       </c>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="D32" s="17"/>
-      <c r="H32" s="7" t="str">
+      <c r="D32" s="13"/>
+      <c r="K32" s="5" t="str">
         <f>IF(F32="","", INDEX(Table4[],MATCH(F32,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I32" s="7" cm="1">
-        <f t="array" ref="I32">_xlfn.IFS(F32="",0,F32="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J32" s="10" t="s">
+      <c r="L32" s="5" cm="1">
+        <f t="array" ref="L32">_xlfn.IFS(F32="",0,F32="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="K32" s="7">
+      <c r="N32" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2561,19 +2628,19 @@
       </c>
     </row>
     <row r="33" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D33" s="17"/>
-      <c r="H33" s="7" t="str">
+      <c r="D33" s="13"/>
+      <c r="K33" s="5" t="str">
         <f>IF(F33="","", INDEX(Table4[],MATCH(F33,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I33" s="7" cm="1">
-        <f t="array" ref="I33">_xlfn.IFS(F33="",0,F33="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="10" t="s">
+      <c r="L33" s="5" cm="1">
+        <f t="array" ref="L33">_xlfn.IFS(F33="",0,F33="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="K33" s="7">
+      <c r="N33" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2598,19 +2665,19 @@
       </c>
     </row>
     <row r="34" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D34" s="17"/>
-      <c r="H34" s="7" t="str">
+      <c r="D34" s="13"/>
+      <c r="K34" s="5" t="str">
         <f>IF(F34="","", INDEX(Table4[],MATCH(F34,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I34" s="7" cm="1">
-        <f t="array" ref="I34">_xlfn.IFS(F34="",0,F34="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="9" t="s">
+      <c r="L34" s="5" cm="1">
+        <f t="array" ref="L34">_xlfn.IFS(F34="",0,F34="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K34" s="7">
+      <c r="N34" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2635,19 +2702,19 @@
       </c>
     </row>
     <row r="35" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D35" s="17"/>
-      <c r="H35" s="7" t="str">
+      <c r="D35" s="13"/>
+      <c r="K35" s="5" t="str">
         <f>IF(F35="","", INDEX(Table4[],MATCH(F35,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I35" s="7" cm="1">
-        <f t="array" ref="I35">_xlfn.IFS(F35="",0,F35="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="9" t="s">
+      <c r="L35" s="5" cm="1">
+        <f t="array" ref="L35">_xlfn.IFS(F35="",0,F35="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="K35" s="7">
+      <c r="N35" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2672,19 +2739,19 @@
       </c>
     </row>
     <row r="36" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D36" s="17"/>
-      <c r="H36" s="7" t="str">
+      <c r="D36" s="13"/>
+      <c r="K36" s="5" t="str">
         <f>IF(F36="","", INDEX(Table4[],MATCH(F36,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I36" s="7" cm="1">
-        <f t="array" ref="I36">_xlfn.IFS(F36="",0,F36="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J36" s="9" t="s">
+      <c r="L36" s="5" cm="1">
+        <f t="array" ref="L36">_xlfn.IFS(F36="",0,F36="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K36" s="7">
+      <c r="N36" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2709,19 +2776,19 @@
       </c>
     </row>
     <row r="37" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D37" s="17"/>
-      <c r="H37" s="7" t="str">
+      <c r="D37" s="13"/>
+      <c r="K37" s="5" t="str">
         <f>IF(F37="","", INDEX(Table4[],MATCH(F37,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I37" s="7" cm="1">
-        <f t="array" ref="I37">_xlfn.IFS(F37="",0,F37="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J37" s="9" t="s">
+      <c r="L37" s="5" cm="1">
+        <f t="array" ref="L37">_xlfn.IFS(F37="",0,F37="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K37" s="7">
+      <c r="N37" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2746,19 +2813,19 @@
       </c>
     </row>
     <row r="38" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D38" s="17"/>
-      <c r="H38" s="7" t="str">
+      <c r="D38" s="13"/>
+      <c r="K38" s="5" t="str">
         <f>IF(F38="","", INDEX(Table4[],MATCH(F38,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I38" s="7" cm="1">
-        <f t="array" ref="I38">_xlfn.IFS(F38="",0,F38="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J38" s="9" t="s">
+      <c r="L38" s="5" cm="1">
+        <f t="array" ref="L38">_xlfn.IFS(F38="",0,F38="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M38" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K38" s="7">
+      <c r="N38" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2783,19 +2850,19 @@
       </c>
     </row>
     <row r="39" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D39" s="17"/>
-      <c r="H39" s="7" t="str">
+      <c r="D39" s="13"/>
+      <c r="K39" s="5" t="str">
         <f>IF(F39="","", INDEX(Table4[],MATCH(F39,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I39" s="7" cm="1">
-        <f t="array" ref="I39">_xlfn.IFS(F39="",0,F39="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J39" s="9" t="s">
+      <c r="L39" s="5" cm="1">
+        <f t="array" ref="L39">_xlfn.IFS(F39="",0,F39="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M39" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K39" s="7">
+      <c r="N39" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2820,19 +2887,19 @@
       </c>
     </row>
     <row r="40" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D40" s="17"/>
-      <c r="H40" s="7" t="str">
+      <c r="D40" s="13"/>
+      <c r="K40" s="5" t="str">
         <f>IF(F40="","", INDEX(Table4[],MATCH(F40,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I40" s="7" cm="1">
-        <f t="array" ref="I40">_xlfn.IFS(F40="",0,F40="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J40" s="9" t="s">
+      <c r="L40" s="5" cm="1">
+        <f t="array" ref="L40">_xlfn.IFS(F40="",0,F40="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M40" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K40" s="7">
+      <c r="N40" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2857,19 +2924,19 @@
       </c>
     </row>
     <row r="41" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D41" s="17"/>
-      <c r="H41" s="7" t="str">
+      <c r="D41" s="13"/>
+      <c r="K41" s="5" t="str">
         <f>IF(F41="","", INDEX(Table4[],MATCH(F41,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I41" s="7" cm="1">
-        <f t="array" ref="I41">_xlfn.IFS(F41="",0,F41="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J41" s="9" t="s">
+      <c r="L41" s="5" cm="1">
+        <f t="array" ref="L41">_xlfn.IFS(F41="",0,F41="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K41" s="7">
+      <c r="N41" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2894,19 +2961,19 @@
       </c>
     </row>
     <row r="42" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D42" s="17"/>
-      <c r="H42" s="7" t="str">
+      <c r="D42" s="13"/>
+      <c r="K42" s="5" t="str">
         <f>IF(F42="","", INDEX(Table4[],MATCH(F42,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I42" s="7" cm="1">
-        <f t="array" ref="I42">_xlfn.IFS(F42="",0,F42="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J42" s="10" t="s">
+      <c r="L42" s="5" cm="1">
+        <f t="array" ref="L42">_xlfn.IFS(F42="",0,F42="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M42" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="K42" s="7">
+      <c r="N42" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2931,19 +2998,19 @@
       </c>
     </row>
     <row r="43" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D43" s="17"/>
-      <c r="H43" s="7" t="str">
+      <c r="D43" s="13"/>
+      <c r="K43" s="5" t="str">
         <f>IF(F43="","", INDEX(Table4[],MATCH(F43,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I43" s="7" cm="1">
-        <f t="array" ref="I43">_xlfn.IFS(F43="",0,F43="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J43" s="10" t="s">
+      <c r="L43" s="5" cm="1">
+        <f t="array" ref="L43">_xlfn.IFS(F43="",0,F43="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M43" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="K43" s="7">
+      <c r="N43" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2968,19 +3035,19 @@
       </c>
     </row>
     <row r="44" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D44" s="17"/>
-      <c r="H44" s="7" t="str">
+      <c r="D44" s="13"/>
+      <c r="K44" s="5" t="str">
         <f>IF(F44="","", INDEX(Table4[],MATCH(F44,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I44" s="7" cm="1">
-        <f t="array" ref="I44">_xlfn.IFS(F44="",0,F44="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J44" s="10" t="s">
+      <c r="L44" s="5" cm="1">
+        <f t="array" ref="L44">_xlfn.IFS(F44="",0,F44="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M44" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="K44" s="7">
+      <c r="N44" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3005,19 +3072,19 @@
       </c>
     </row>
     <row r="45" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D45" s="17"/>
-      <c r="H45" s="7" t="str">
+      <c r="D45" s="13"/>
+      <c r="K45" s="5" t="str">
         <f>IF(F45="","", INDEX(Table4[],MATCH(F45,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I45" s="7" cm="1">
-        <f t="array" ref="I45">_xlfn.IFS(F45="",0,F45="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J45" s="10" t="s">
+      <c r="L45" s="5" cm="1">
+        <f t="array" ref="L45">_xlfn.IFS(F45="",0,F45="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M45" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="K45" s="7">
+      <c r="N45" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3042,19 +3109,19 @@
       </c>
     </row>
     <row r="46" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D46" s="17"/>
-      <c r="H46" s="7" t="str">
+      <c r="D46" s="13"/>
+      <c r="K46" s="5" t="str">
         <f>IF(F46="","", INDEX(Table4[],MATCH(F46,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I46" s="7" cm="1">
-        <f t="array" ref="I46">_xlfn.IFS(F46="",0,F46="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J46" s="10" t="s">
+      <c r="L46" s="5" cm="1">
+        <f t="array" ref="L46">_xlfn.IFS(F46="",0,F46="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M46" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="K46" s="7">
+      <c r="N46" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3079,19 +3146,19 @@
       </c>
     </row>
     <row r="47" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D47" s="17"/>
-      <c r="H47" s="7" t="str">
+      <c r="D47" s="13"/>
+      <c r="K47" s="5" t="str">
         <f>IF(F47="","", INDEX(Table4[],MATCH(F47,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I47" s="7" cm="1">
-        <f t="array" ref="I47">_xlfn.IFS(F47="",0,F47="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J47" s="10" t="s">
+      <c r="L47" s="5" cm="1">
+        <f t="array" ref="L47">_xlfn.IFS(F47="",0,F47="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M47" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="K47" s="7">
+      <c r="N47" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3116,19 +3183,19 @@
       </c>
     </row>
     <row r="48" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D48" s="17"/>
-      <c r="H48" s="7" t="str">
+      <c r="D48" s="13"/>
+      <c r="K48" s="5" t="str">
         <f>IF(F48="","", INDEX(Table4[],MATCH(F48,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I48" s="7" cm="1">
-        <f t="array" ref="I48">_xlfn.IFS(F48="",0,F48="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J48" s="10" t="s">
+      <c r="L48" s="5" cm="1">
+        <f t="array" ref="L48">_xlfn.IFS(F48="",0,F48="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M48" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="K48" s="7">
+      <c r="N48" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3153,19 +3220,19 @@
       </c>
     </row>
     <row r="49" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D49" s="17"/>
-      <c r="H49" s="7" t="str">
+      <c r="D49" s="13"/>
+      <c r="K49" s="5" t="str">
         <f>IF(F49="","", INDEX(Table4[],MATCH(F49,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I49" s="7" cm="1">
-        <f t="array" ref="I49">_xlfn.IFS(F49="",0,F49="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J49" s="10" t="s">
+      <c r="L49" s="5" cm="1">
+        <f t="array" ref="L49">_xlfn.IFS(F49="",0,F49="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M49" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="K49" s="7">
+      <c r="N49" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3190,19 +3257,19 @@
       </c>
     </row>
     <row r="50" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D50" s="17"/>
-      <c r="H50" s="7" t="str">
+      <c r="D50" s="13"/>
+      <c r="K50" s="5" t="str">
         <f>IF(F50="","", INDEX(Table4[],MATCH(F50,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I50" s="7" cm="1">
-        <f t="array" ref="I50">_xlfn.IFS(F50="",0,F50="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J50" s="9" t="s">
+      <c r="L50" s="5" cm="1">
+        <f t="array" ref="L50">_xlfn.IFS(F50="",0,F50="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M50" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K50" s="7">
+      <c r="N50" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3227,19 +3294,19 @@
       </c>
     </row>
     <row r="51" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D51" s="17"/>
-      <c r="H51" s="7" t="str">
+      <c r="D51" s="13"/>
+      <c r="K51" s="5" t="str">
         <f>IF(F51="","", INDEX(Table4[],MATCH(F51,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I51" s="7" cm="1">
-        <f t="array" ref="I51">_xlfn.IFS(F51="",0,F51="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J51" s="9" t="s">
+      <c r="L51" s="5" cm="1">
+        <f t="array" ref="L51">_xlfn.IFS(F51="",0,F51="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M51" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K51" s="7">
+      <c r="N51" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3264,19 +3331,19 @@
       </c>
     </row>
     <row r="52" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D52" s="17"/>
-      <c r="H52" s="7" t="str">
+      <c r="D52" s="13"/>
+      <c r="K52" s="5" t="str">
         <f>IF(F52="","", INDEX(Table4[],MATCH(F52,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I52" s="7" cm="1">
-        <f t="array" ref="I52">_xlfn.IFS(F52="",0,F52="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J52" s="9" t="s">
+      <c r="L52" s="5" cm="1">
+        <f t="array" ref="L52">_xlfn.IFS(F52="",0,F52="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M52" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K52" s="7">
+      <c r="N52" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3301,19 +3368,19 @@
       </c>
     </row>
     <row r="53" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D53" s="17"/>
-      <c r="H53" s="7" t="str">
+      <c r="D53" s="13"/>
+      <c r="K53" s="5" t="str">
         <f>IF(F53="","", INDEX(Table4[],MATCH(F53,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I53" s="7" cm="1">
-        <f t="array" ref="I53">_xlfn.IFS(F53="",0,F53="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J53" s="9" t="s">
+      <c r="L53" s="5" cm="1">
+        <f t="array" ref="L53">_xlfn.IFS(F53="",0,F53="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M53" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K53" s="7">
+      <c r="N53" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3338,19 +3405,19 @@
       </c>
     </row>
     <row r="54" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D54" s="17"/>
-      <c r="H54" s="7" t="str">
+      <c r="D54" s="13"/>
+      <c r="K54" s="5" t="str">
         <f>IF(F54="","", INDEX(Table4[],MATCH(F54,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I54" s="7" cm="1">
-        <f t="array" ref="I54">_xlfn.IFS(F54="",0,F54="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J54" s="9" t="s">
+      <c r="L54" s="5" cm="1">
+        <f t="array" ref="L54">_xlfn.IFS(F54="",0,F54="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M54" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K54" s="7">
+      <c r="N54" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3375,19 +3442,19 @@
       </c>
     </row>
     <row r="55" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D55" s="17"/>
-      <c r="H55" s="7" t="str">
+      <c r="D55" s="13"/>
+      <c r="K55" s="5" t="str">
         <f>IF(F55="","", INDEX(Table4[],MATCH(F55,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I55" s="7" cm="1">
-        <f t="array" ref="I55">_xlfn.IFS(F55="",0,F55="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J55" s="9" t="s">
+      <c r="L55" s="5" cm="1">
+        <f t="array" ref="L55">_xlfn.IFS(F55="",0,F55="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M55" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K55" s="7">
+      <c r="N55" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3412,19 +3479,19 @@
       </c>
     </row>
     <row r="56" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D56" s="17"/>
-      <c r="H56" s="7" t="str">
+      <c r="D56" s="13"/>
+      <c r="K56" s="5" t="str">
         <f>IF(F56="","", INDEX(Table4[],MATCH(F56,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I56" s="7" cm="1">
-        <f t="array" ref="I56">_xlfn.IFS(F56="",0,F56="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J56" s="9" t="s">
+      <c r="L56" s="5" cm="1">
+        <f t="array" ref="L56">_xlfn.IFS(F56="",0,F56="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M56" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K56" s="7">
+      <c r="N56" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3449,19 +3516,19 @@
       </c>
     </row>
     <row r="57" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D57" s="17"/>
-      <c r="H57" s="7" t="str">
+      <c r="D57" s="13"/>
+      <c r="K57" s="5" t="str">
         <f>IF(F57="","", INDEX(Table4[],MATCH(F57,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I57" s="7" cm="1">
-        <f t="array" ref="I57">_xlfn.IFS(F57="",0,F57="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J57" s="9" t="s">
+      <c r="L57" s="5" cm="1">
+        <f t="array" ref="L57">_xlfn.IFS(F57="",0,F57="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M57" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K57" s="7">
+      <c r="N57" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3486,19 +3553,19 @@
       </c>
     </row>
     <row r="58" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D58" s="17"/>
-      <c r="H58" s="7" t="str">
+      <c r="D58" s="13"/>
+      <c r="K58" s="5" t="str">
         <f>IF(F58="","", INDEX(Table4[],MATCH(F58,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I58" s="7" cm="1">
-        <f t="array" ref="I58">_xlfn.IFS(F58="",0,F58="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J58" s="10" t="s">
+      <c r="L58" s="5" cm="1">
+        <f t="array" ref="L58">_xlfn.IFS(F58="",0,F58="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M58" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="K58" s="7">
+      <c r="N58" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3523,19 +3590,19 @@
       </c>
     </row>
     <row r="59" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D59" s="17"/>
-      <c r="H59" s="7" t="str">
+      <c r="D59" s="13"/>
+      <c r="K59" s="5" t="str">
         <f>IF(F59="","", INDEX(Table4[],MATCH(F59,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I59" s="7" cm="1">
-        <f t="array" ref="I59">_xlfn.IFS(F59="",0,F59="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J59" s="10" t="s">
+      <c r="L59" s="5" cm="1">
+        <f t="array" ref="L59">_xlfn.IFS(F59="",0,F59="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M59" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="K59" s="7">
+      <c r="N59" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3560,19 +3627,19 @@
       </c>
     </row>
     <row r="60" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D60" s="17"/>
-      <c r="H60" s="7" t="str">
+      <c r="D60" s="13"/>
+      <c r="K60" s="5" t="str">
         <f>IF(F60="","", INDEX(Table4[],MATCH(F60,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I60" s="7" cm="1">
-        <f t="array" ref="I60">_xlfn.IFS(F60="",0,F60="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J60" s="10" t="s">
+      <c r="L60" s="5" cm="1">
+        <f t="array" ref="L60">_xlfn.IFS(F60="",0,F60="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M60" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="K60" s="7">
+      <c r="N60" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3597,19 +3664,19 @@
       </c>
     </row>
     <row r="61" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D61" s="17"/>
-      <c r="H61" s="7" t="str">
+      <c r="D61" s="13"/>
+      <c r="K61" s="5" t="str">
         <f>IF(F61="","", INDEX(Table4[],MATCH(F61,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I61" s="7" cm="1">
-        <f t="array" ref="I61">_xlfn.IFS(F61="",0,F61="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J61" s="10" t="s">
+      <c r="L61" s="5" cm="1">
+        <f t="array" ref="L61">_xlfn.IFS(F61="",0,F61="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M61" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="K61" s="7">
+      <c r="N61" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3634,19 +3701,19 @@
       </c>
     </row>
     <row r="62" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D62" s="17"/>
-      <c r="H62" s="7" t="str">
+      <c r="D62" s="13"/>
+      <c r="K62" s="5" t="str">
         <f>IF(F62="","", INDEX(Table4[],MATCH(F62,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I62" s="7" cm="1">
-        <f t="array" ref="I62">_xlfn.IFS(F62="",0,F62="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J62" s="10" t="s">
+      <c r="L62" s="5" cm="1">
+        <f t="array" ref="L62">_xlfn.IFS(F62="",0,F62="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M62" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="K62" s="7">
+      <c r="N62" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3671,19 +3738,19 @@
       </c>
     </row>
     <row r="63" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D63" s="17"/>
-      <c r="H63" s="7" t="str">
+      <c r="D63" s="13"/>
+      <c r="K63" s="5" t="str">
         <f>IF(F63="","", INDEX(Table4[],MATCH(F63,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I63" s="7" cm="1">
-        <f t="array" ref="I63">_xlfn.IFS(F63="",0,F63="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J63" s="10" t="s">
+      <c r="L63" s="5" cm="1">
+        <f t="array" ref="L63">_xlfn.IFS(F63="",0,F63="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M63" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="K63" s="7">
+      <c r="N63" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3708,19 +3775,19 @@
       </c>
     </row>
     <row r="64" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D64" s="17"/>
-      <c r="H64" s="7" t="str">
+      <c r="D64" s="13"/>
+      <c r="K64" s="5" t="str">
         <f>IF(F64="","", INDEX(Table4[],MATCH(F64,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I64" s="7" cm="1">
-        <f t="array" ref="I64">_xlfn.IFS(F64="",0,F64="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J64" s="10" t="s">
+      <c r="L64" s="5" cm="1">
+        <f t="array" ref="L64">_xlfn.IFS(F64="",0,F64="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M64" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="K64" s="7">
+      <c r="N64" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3745,19 +3812,19 @@
       </c>
     </row>
     <row r="65" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D65" s="17"/>
-      <c r="H65" s="7" t="str">
+      <c r="D65" s="13"/>
+      <c r="K65" s="5" t="str">
         <f>IF(F65="","", INDEX(Table4[],MATCH(F65,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I65" s="7" cm="1">
-        <f t="array" ref="I65">_xlfn.IFS(F65="",0,F65="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J65" s="10" t="s">
+      <c r="L65" s="5" cm="1">
+        <f t="array" ref="L65">_xlfn.IFS(F65="",0,F65="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M65" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="K65" s="7">
+      <c r="N65" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3782,19 +3849,19 @@
       </c>
     </row>
     <row r="66" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D66" s="17"/>
-      <c r="H66" s="7" t="str">
+      <c r="D66" s="13"/>
+      <c r="K66" s="5" t="str">
         <f>IF(F66="","", INDEX(Table4[],MATCH(F66,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I66" s="7" cm="1">
-        <f t="array" ref="I66">_xlfn.IFS(F66="",0,F66="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J66" s="9" t="s">
+      <c r="L66" s="5" cm="1">
+        <f t="array" ref="L66">_xlfn.IFS(F66="",0,F66="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M66" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K66" s="7">
+      <c r="N66" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3819,20 +3886,20 @@
       </c>
     </row>
     <row r="67" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D67" s="17"/>
-      <c r="H67" s="7" t="str">
+      <c r="D67" s="13"/>
+      <c r="K67" s="5" t="str">
         <f>IF(F67="","", INDEX(Table4[],MATCH(F67,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I67" s="7" cm="1">
-        <f t="array" ref="I67">_xlfn.IFS(F67="",0,F67="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J67" s="9" t="s">
+      <c r="L67" s="5" cm="1">
+        <f t="array" ref="L67">_xlfn.IFS(F67="",0,F67="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M67" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K67" s="7">
-        <f t="shared" ref="K67:K97" si="8">IF(OR(C67 = "",B67=""),0,15-I67)</f>
+      <c r="N67" s="5">
+        <f t="shared" ref="N67:N97" si="8">IF(OR(C67 = "",B67=""),0,15-L67)</f>
         <v>0</v>
       </c>
       <c r="P67">
@@ -3844,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R97" si="10">I67+K67</f>
+        <f t="shared" ref="R67:R97" si="10">L67+N67</f>
         <v>0</v>
       </c>
       <c r="T67" t="s">
@@ -3856,19 +3923,19 @@
       </c>
     </row>
     <row r="68" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D68" s="17"/>
-      <c r="H68" s="7" t="str">
+      <c r="D68" s="13"/>
+      <c r="K68" s="5" t="str">
         <f>IF(F68="","", INDEX(Table4[],MATCH(F68,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I68" s="7" cm="1">
-        <f t="array" ref="I68">_xlfn.IFS(F68="",0,F68="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J68" s="9" t="s">
+      <c r="L68" s="5" cm="1">
+        <f t="array" ref="L68">_xlfn.IFS(F68="",0,F68="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M68" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K68" s="7">
+      <c r="N68" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -3893,19 +3960,19 @@
       </c>
     </row>
     <row r="69" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D69" s="17"/>
-      <c r="H69" s="7" t="str">
+      <c r="D69" s="13"/>
+      <c r="K69" s="5" t="str">
         <f>IF(F69="","", INDEX(Table4[],MATCH(F69,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I69" s="7" cm="1">
-        <f t="array" ref="I69">_xlfn.IFS(F69="",0,F69="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J69" s="9" t="s">
+      <c r="L69" s="5" cm="1">
+        <f t="array" ref="L69">_xlfn.IFS(F69="",0,F69="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M69" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K69" s="7">
+      <c r="N69" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -3930,19 +3997,19 @@
       </c>
     </row>
     <row r="70" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D70" s="17"/>
-      <c r="H70" s="7" t="str">
+      <c r="D70" s="13"/>
+      <c r="K70" s="5" t="str">
         <f>IF(F70="","", INDEX(Table4[],MATCH(F70,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I70" s="7" cm="1">
-        <f t="array" ref="I70">_xlfn.IFS(F70="",0,F70="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J70" s="9" t="s">
+      <c r="L70" s="5" cm="1">
+        <f t="array" ref="L70">_xlfn.IFS(F70="",0,F70="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M70" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K70" s="7">
+      <c r="N70" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -3967,19 +4034,19 @@
       </c>
     </row>
     <row r="71" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D71" s="17"/>
-      <c r="H71" s="7" t="str">
+      <c r="D71" s="13"/>
+      <c r="K71" s="5" t="str">
         <f>IF(F71="","", INDEX(Table4[],MATCH(F71,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I71" s="7" cm="1">
-        <f t="array" ref="I71">_xlfn.IFS(F71="",0,F71="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J71" s="9" t="s">
+      <c r="L71" s="5" cm="1">
+        <f t="array" ref="L71">_xlfn.IFS(F71="",0,F71="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M71" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K71" s="7">
+      <c r="N71" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4004,19 +4071,19 @@
       </c>
     </row>
     <row r="72" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D72" s="17"/>
-      <c r="H72" s="7" t="str">
+      <c r="D72" s="13"/>
+      <c r="K72" s="5" t="str">
         <f>IF(F72="","", INDEX(Table4[],MATCH(F72,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I72" s="7" cm="1">
-        <f t="array" ref="I72">_xlfn.IFS(F72="",0,F72="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J72" s="9" t="s">
+      <c r="L72" s="5" cm="1">
+        <f t="array" ref="L72">_xlfn.IFS(F72="",0,F72="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M72" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K72" s="7">
+      <c r="N72" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4041,19 +4108,19 @@
       </c>
     </row>
     <row r="73" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D73" s="17"/>
-      <c r="H73" s="7" t="str">
+      <c r="D73" s="13"/>
+      <c r="K73" s="5" t="str">
         <f>IF(F73="","", INDEX(Table4[],MATCH(F73,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I73" s="7" cm="1">
-        <f t="array" ref="I73">_xlfn.IFS(F73="",0,F73="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J73" s="9" t="s">
+      <c r="L73" s="5" cm="1">
+        <f t="array" ref="L73">_xlfn.IFS(F73="",0,F73="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M73" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K73" s="7">
+      <c r="N73" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4078,19 +4145,19 @@
       </c>
     </row>
     <row r="74" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D74" s="17"/>
-      <c r="H74" s="7" t="str">
+      <c r="D74" s="13"/>
+      <c r="K74" s="5" t="str">
         <f>IF(F74="","", INDEX(Table4[],MATCH(F74,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I74" s="7" cm="1">
-        <f t="array" ref="I74">_xlfn.IFS(F74="",0,F74="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J74" s="10" t="s">
+      <c r="L74" s="5" cm="1">
+        <f t="array" ref="L74">_xlfn.IFS(F74="",0,F74="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M74" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="K74" s="7">
+      <c r="N74" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4115,19 +4182,19 @@
       </c>
     </row>
     <row r="75" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D75" s="17"/>
-      <c r="H75" s="7" t="str">
+      <c r="D75" s="13"/>
+      <c r="K75" s="5" t="str">
         <f>IF(F75="","", INDEX(Table4[],MATCH(F75,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I75" s="7" cm="1">
-        <f t="array" ref="I75">_xlfn.IFS(F75="",0,F75="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J75" s="10" t="s">
+      <c r="L75" s="5" cm="1">
+        <f t="array" ref="L75">_xlfn.IFS(F75="",0,F75="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M75" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="K75" s="7">
+      <c r="N75" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4152,19 +4219,19 @@
       </c>
     </row>
     <row r="76" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D76" s="17"/>
-      <c r="H76" s="7" t="str">
+      <c r="D76" s="13"/>
+      <c r="K76" s="5" t="str">
         <f>IF(F76="","", INDEX(Table4[],MATCH(F76,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I76" s="7" cm="1">
-        <f t="array" ref="I76">_xlfn.IFS(F76="",0,F76="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J76" s="10" t="s">
+      <c r="L76" s="5" cm="1">
+        <f t="array" ref="L76">_xlfn.IFS(F76="",0,F76="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M76" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="K76" s="7">
+      <c r="N76" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4189,19 +4256,19 @@
       </c>
     </row>
     <row r="77" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D77" s="17"/>
-      <c r="H77" s="7" t="str">
+      <c r="D77" s="13"/>
+      <c r="K77" s="5" t="str">
         <f>IF(F77="","", INDEX(Table4[],MATCH(F77,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I77" s="7" cm="1">
-        <f t="array" ref="I77">_xlfn.IFS(F77="",0,F77="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J77" s="10" t="s">
+      <c r="L77" s="5" cm="1">
+        <f t="array" ref="L77">_xlfn.IFS(F77="",0,F77="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M77" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="K77" s="7">
+      <c r="N77" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4226,19 +4293,19 @@
       </c>
     </row>
     <row r="78" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D78" s="17"/>
-      <c r="H78" s="7" t="str">
+      <c r="D78" s="13"/>
+      <c r="K78" s="5" t="str">
         <f>IF(F78="","", INDEX(Table4[],MATCH(F78,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I78" s="7" cm="1">
-        <f t="array" ref="I78">_xlfn.IFS(F78="",0,F78="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J78" s="10" t="s">
+      <c r="L78" s="5" cm="1">
+        <f t="array" ref="L78">_xlfn.IFS(F78="",0,F78="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M78" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="K78" s="7">
+      <c r="N78" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4263,19 +4330,19 @@
       </c>
     </row>
     <row r="79" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D79" s="17"/>
-      <c r="H79" s="7" t="str">
+      <c r="D79" s="13"/>
+      <c r="K79" s="5" t="str">
         <f>IF(F79="","", INDEX(Table4[],MATCH(F79,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I79" s="7" cm="1">
-        <f t="array" ref="I79">_xlfn.IFS(F79="",0,F79="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J79" s="10" t="s">
+      <c r="L79" s="5" cm="1">
+        <f t="array" ref="L79">_xlfn.IFS(F79="",0,F79="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M79" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="K79" s="7">
+      <c r="N79" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4300,19 +4367,19 @@
       </c>
     </row>
     <row r="80" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D80" s="17"/>
-      <c r="H80" s="7" t="str">
+      <c r="D80" s="13"/>
+      <c r="K80" s="5" t="str">
         <f>IF(F80="","", INDEX(Table4[],MATCH(F80,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I80" s="7" cm="1">
-        <f t="array" ref="I80">_xlfn.IFS(F80="",0,F80="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J80" s="10" t="s">
+      <c r="L80" s="5" cm="1">
+        <f t="array" ref="L80">_xlfn.IFS(F80="",0,F80="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M80" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="K80" s="7">
+      <c r="N80" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4337,19 +4404,19 @@
       </c>
     </row>
     <row r="81" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="D81" s="17"/>
-      <c r="H81" s="7" t="str">
+      <c r="D81" s="13"/>
+      <c r="K81" s="5" t="str">
         <f>IF(F81="","", INDEX(Table4[],MATCH(F81,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I81" s="7" cm="1">
-        <f t="array" ref="I81">_xlfn.IFS(F81="",0,F81="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J81" s="10" t="s">
+      <c r="L81" s="5" cm="1">
+        <f t="array" ref="L81">_xlfn.IFS(F81="",0,F81="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M81" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="K81" s="7">
+      <c r="N81" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4374,19 +4441,19 @@
       </c>
     </row>
     <row r="82" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="D82" s="17"/>
-      <c r="H82" s="7" t="str">
+      <c r="D82" s="13"/>
+      <c r="K82" s="5" t="str">
         <f>IF(F82="","", INDEX(Table4[],MATCH(F82,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I82" s="7" cm="1">
-        <f t="array" ref="I82">_xlfn.IFS(F82="",0,F82="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J82" s="9" t="s">
+      <c r="L82" s="5" cm="1">
+        <f t="array" ref="L82">_xlfn.IFS(F82="",0,F82="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M82" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K82" s="7">
+      <c r="N82" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4411,19 +4478,19 @@
       </c>
     </row>
     <row r="83" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="D83" s="17"/>
-      <c r="H83" s="7" t="str">
+      <c r="D83" s="13"/>
+      <c r="K83" s="5" t="str">
         <f>IF(F83="","", INDEX(Table4[],MATCH(F83,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I83" s="7" cm="1">
-        <f t="array" ref="I83">_xlfn.IFS(F83="",0,F83="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J83" s="9" t="s">
+      <c r="L83" s="5" cm="1">
+        <f t="array" ref="L83">_xlfn.IFS(F83="",0,F83="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M83" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K83" s="7">
+      <c r="N83" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4448,19 +4515,19 @@
       </c>
     </row>
     <row r="84" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="D84" s="17"/>
-      <c r="H84" s="7" t="str">
+      <c r="D84" s="13"/>
+      <c r="K84" s="5" t="str">
         <f>IF(F84="","", INDEX(Table4[],MATCH(F84,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I84" s="7" cm="1">
-        <f t="array" ref="I84">_xlfn.IFS(F84="",0,F84="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J84" s="9" t="s">
+      <c r="L84" s="5" cm="1">
+        <f t="array" ref="L84">_xlfn.IFS(F84="",0,F84="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M84" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K84" s="7">
+      <c r="N84" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4485,19 +4552,19 @@
       </c>
     </row>
     <row r="85" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="D85" s="17"/>
-      <c r="H85" s="7" t="str">
+      <c r="D85" s="13"/>
+      <c r="K85" s="5" t="str">
         <f>IF(F85="","", INDEX(Table4[],MATCH(F85,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I85" s="7" cm="1">
-        <f t="array" ref="I85">_xlfn.IFS(F85="",0,F85="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J85" s="9" t="s">
+      <c r="L85" s="5" cm="1">
+        <f t="array" ref="L85">_xlfn.IFS(F85="",0,F85="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M85" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K85" s="7">
+      <c r="N85" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4522,19 +4589,19 @@
       </c>
     </row>
     <row r="86" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="D86" s="17"/>
-      <c r="H86" s="7" t="str">
+      <c r="D86" s="13"/>
+      <c r="K86" s="5" t="str">
         <f>IF(F86="","", INDEX(Table4[],MATCH(F86,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I86" s="7" cm="1">
-        <f t="array" ref="I86">_xlfn.IFS(F86="",0,F86="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J86" s="9" t="s">
+      <c r="L86" s="5" cm="1">
+        <f t="array" ref="L86">_xlfn.IFS(F86="",0,F86="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M86" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K86" s="7">
+      <c r="N86" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4559,19 +4626,19 @@
       </c>
     </row>
     <row r="87" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="D87" s="17"/>
-      <c r="H87" s="7" t="str">
+      <c r="D87" s="13"/>
+      <c r="K87" s="5" t="str">
         <f>IF(F87="","", INDEX(Table4[],MATCH(F87,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I87" s="7" cm="1">
-        <f t="array" ref="I87">_xlfn.IFS(F87="",0,F87="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J87" s="9" t="s">
+      <c r="L87" s="5" cm="1">
+        <f t="array" ref="L87">_xlfn.IFS(F87="",0,F87="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M87" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K87" s="7">
+      <c r="N87" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4596,19 +4663,19 @@
       </c>
     </row>
     <row r="88" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="D88" s="17"/>
-      <c r="H88" s="7" t="str">
+      <c r="D88" s="13"/>
+      <c r="K88" s="5" t="str">
         <f>IF(F88="","", INDEX(Table4[],MATCH(F88,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I88" s="7" cm="1">
-        <f t="array" ref="I88">_xlfn.IFS(F88="",0,F88="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J88" s="9" t="s">
+      <c r="L88" s="5" cm="1">
+        <f t="array" ref="L88">_xlfn.IFS(F88="",0,F88="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M88" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K88" s="7">
+      <c r="N88" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4633,19 +4700,19 @@
       </c>
     </row>
     <row r="89" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="D89" s="17"/>
-      <c r="H89" s="7" t="str">
+      <c r="D89" s="13"/>
+      <c r="K89" s="5" t="str">
         <f>IF(F89="","", INDEX(Table4[],MATCH(F89,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I89" s="7" cm="1">
-        <f t="array" ref="I89">_xlfn.IFS(F89="",0,F89="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J89" s="9" t="s">
+      <c r="L89" s="5" cm="1">
+        <f t="array" ref="L89">_xlfn.IFS(F89="",0,F89="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M89" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K89" s="7">
+      <c r="N89" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4670,19 +4737,19 @@
       </c>
     </row>
     <row r="90" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="D90" s="17"/>
-      <c r="H90" s="7" t="str">
+      <c r="D90" s="13"/>
+      <c r="K90" s="5" t="str">
         <f>IF(F90="","", INDEX(Table4[],MATCH(F90,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I90" s="7" cm="1">
-        <f t="array" ref="I90">_xlfn.IFS(F90="",0,F90="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J90" s="10" t="s">
+      <c r="L90" s="5" cm="1">
+        <f t="array" ref="L90">_xlfn.IFS(F90="",0,F90="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M90" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="K90" s="7">
+      <c r="N90" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4707,19 +4774,19 @@
       </c>
     </row>
     <row r="91" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="D91" s="17"/>
-      <c r="H91" s="7" t="str">
+      <c r="D91" s="13"/>
+      <c r="K91" s="5" t="str">
         <f>IF(F91="","", INDEX(Table4[],MATCH(F91,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I91" s="7" cm="1">
-        <f t="array" ref="I91">_xlfn.IFS(F91="",0,F91="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J91" s="10" t="s">
+      <c r="L91" s="5" cm="1">
+        <f t="array" ref="L91">_xlfn.IFS(F91="",0,F91="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M91" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="K91" s="7">
+      <c r="N91" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4744,19 +4811,19 @@
       </c>
     </row>
     <row r="92" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="D92" s="17"/>
-      <c r="H92" s="7" t="str">
+      <c r="D92" s="13"/>
+      <c r="K92" s="5" t="str">
         <f>IF(F92="","", INDEX(Table4[],MATCH(F92,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I92" s="7" cm="1">
-        <f t="array" ref="I92">_xlfn.IFS(F92="",0,F92="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J92" s="10" t="s">
+      <c r="L92" s="5" cm="1">
+        <f t="array" ref="L92">_xlfn.IFS(F92="",0,F92="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M92" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="K92" s="7">
+      <c r="N92" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4781,19 +4848,19 @@
       </c>
     </row>
     <row r="93" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="D93" s="17"/>
-      <c r="H93" s="7" t="str">
+      <c r="D93" s="13"/>
+      <c r="K93" s="5" t="str">
         <f>IF(F93="","", INDEX(Table4[],MATCH(F93,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I93" s="7" cm="1">
-        <f t="array" ref="I93">_xlfn.IFS(F93="",0,F93="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J93" s="10" t="s">
+      <c r="L93" s="5" cm="1">
+        <f t="array" ref="L93">_xlfn.IFS(F93="",0,F93="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M93" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="K93" s="7">
+      <c r="N93" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4818,19 +4885,19 @@
       </c>
     </row>
     <row r="94" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="D94" s="17"/>
-      <c r="H94" s="7" t="str">
+      <c r="D94" s="13"/>
+      <c r="K94" s="5" t="str">
         <f>IF(F94="","", INDEX(Table4[],MATCH(F94,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I94" s="7" cm="1">
-        <f t="array" ref="I94">_xlfn.IFS(F94="",0,F94="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J94" s="10" t="s">
+      <c r="L94" s="5" cm="1">
+        <f t="array" ref="L94">_xlfn.IFS(F94="",0,F94="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M94" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="K94" s="7">
+      <c r="N94" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4861,21 +4928,21 @@
       <c r="C95" t="s">
         <v>98</v>
       </c>
-      <c r="D95" s="17" t="s">
+      <c r="D95" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="H95" s="7" t="str">
+      <c r="K95" s="5" t="str">
         <f>IF(F95="","", INDEX(Table4[],MATCH(F95,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I95" s="7" cm="1">
-        <f t="array" ref="I95">_xlfn.IFS(F95="",0,F95="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J95" s="10" t="s">
+      <c r="L95" s="5" cm="1">
+        <f t="array" ref="L95">_xlfn.IFS(F95="",0,F95="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M95" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="K95" s="7">
+      <c r="N95" s="5">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
@@ -4906,21 +4973,21 @@
       <c r="C96" t="s">
         <v>98</v>
       </c>
-      <c r="D96" s="17" t="s">
+      <c r="D96" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="H96" s="7" t="str">
+      <c r="K96" s="5" t="str">
         <f>IF(F96="","", INDEX(Table4[],MATCH(F96,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I96" s="7" cm="1">
-        <f t="array" ref="I96">_xlfn.IFS(F96="",0,F96="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J96" s="10" t="s">
+      <c r="L96" s="5" cm="1">
+        <f t="array" ref="L96">_xlfn.IFS(F96="",0,F96="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M96" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="K96" s="7">
+      <c r="N96" s="5">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
@@ -4951,21 +5018,21 @@
       <c r="C97" t="s">
         <v>98</v>
       </c>
-      <c r="D97" s="17" t="s">
+      <c r="D97" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="H97" s="7" t="str">
+      <c r="K97" s="5" t="str">
         <f>IF(F97="","", INDEX(Table4[],MATCH(F97,Table4[primer],0),1))</f>
         <v/>
       </c>
-      <c r="I97" s="7" cm="1">
-        <f t="array" ref="I97">_xlfn.IFS(F97="",0,F97="water",11.5,TRUE, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="J97" s="10" t="s">
+      <c r="L97" s="5" cm="1">
+        <f t="array" ref="L97">_xlfn.IFS(F97="",0,F97="water",11.5,TRUE, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="M97" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="K97" s="7">
+      <c r="N97" s="5">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
@@ -4992,23 +5059,23 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="P2:P97">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q97">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:S97">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
       <formula>1</formula>
       <formula>14</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I97" xr:uid="{9D0C813C-1993-CD42-B2CB-F33F2EA69826}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L97" xr:uid="{9D0C813C-1993-CD42-B2CB-F33F2EA69826}">
       <formula1>0</formula1>
       <formula2>5</formula2>
     </dataValidation>
@@ -5034,7 +5101,7 @@
           <x14:formula1>
             <xm:f>primers!$B$2:$B$24</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F97</xm:sqref>
+          <xm:sqref>F2:H97</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5398,10 +5465,10 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="11" t="s">
         <v>183</v>
       </c>
       <c r="C25" t="s">
@@ -5860,7 +5927,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1">
-        <f>IF(master!B2="plate",master!K2,0)</f>
+        <f>IF(master!B2="plate",master!N2,0)</f>
         <v>10</v>
       </c>
     </row>
@@ -5873,7 +5940,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1">
-        <f>IF(master!B3="plate",master!K3,0)</f>
+        <f>IF(master!B3="plate",master!N3,0)</f>
         <v>15</v>
       </c>
     </row>
@@ -5886,7 +5953,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1">
-        <f>IF(master!B4="plate",master!K4,0)</f>
+        <f>IF(master!B4="plate",master!N4,0)</f>
         <v>15</v>
       </c>
     </row>
@@ -5899,7 +5966,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1">
-        <f>IF(master!B5="plate",master!K5,0)</f>
+        <f>IF(master!B5="plate",master!N5,0)</f>
         <v>15</v>
       </c>
     </row>
@@ -5912,7 +5979,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1">
-        <f>IF(master!B6="plate",master!K6,0)</f>
+        <f>IF(master!B6="plate",master!N6,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5925,7 +5992,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="1">
-        <f>IF(master!B7="plate",master!K7,0)</f>
+        <f>IF(master!B7="plate",master!N7,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5938,7 +6005,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="1">
-        <f>IF(master!B8="plate",master!K8,0)</f>
+        <f>IF(master!B8="plate",master!N8,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5951,7 +6018,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1">
-        <f>IF(master!B9="plate",master!K9,0)</f>
+        <f>IF(master!B9="plate",master!N9,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5964,7 +6031,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="1">
-        <f>IF(master!B10="plate",master!K10,0)</f>
+        <f>IF(master!B10="plate",master!N10,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5977,7 +6044,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="1">
-        <f>IF(master!B11="plate",master!K11,0)</f>
+        <f>IF(master!B11="plate",master!N11,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5990,7 +6057,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="1">
-        <f>IF(master!B12="plate",master!K12,0)</f>
+        <f>IF(master!B12="plate",master!N12,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6003,7 +6070,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="1">
-        <f>IF(master!B13="plate",master!K13,0)</f>
+        <f>IF(master!B13="plate",master!N13,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6016,7 +6083,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="1">
-        <f>IF(master!B14="plate",master!K14,0)</f>
+        <f>IF(master!B14="plate",master!N14,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6029,7 +6096,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="1">
-        <f>IF(master!B15="plate",master!K15,0)</f>
+        <f>IF(master!B15="plate",master!N15,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6042,7 +6109,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="1">
-        <f>IF(master!B16="plate",master!K16,0)</f>
+        <f>IF(master!B16="plate",master!N16,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6055,7 +6122,7 @@
         <v>18</v>
       </c>
       <c r="C17" s="1">
-        <f>IF(master!B17="plate",master!K17,0)</f>
+        <f>IF(master!B17="plate",master!N17,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6068,7 +6135,7 @@
         <v>19</v>
       </c>
       <c r="C18" s="1">
-        <f>IF(master!B18="plate",master!K18,0)</f>
+        <f>IF(master!B18="plate",master!N18,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6081,7 +6148,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="1">
-        <f>IF(master!B19="plate",master!K19,0)</f>
+        <f>IF(master!B19="plate",master!N19,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6094,7 +6161,7 @@
         <v>21</v>
       </c>
       <c r="C20" s="1">
-        <f>IF(master!B20="plate",master!K20,0)</f>
+        <f>IF(master!B20="plate",master!N20,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6107,7 +6174,7 @@
         <v>22</v>
       </c>
       <c r="C21" s="1">
-        <f>IF(master!B21="plate",master!K21,0)</f>
+        <f>IF(master!B21="plate",master!N21,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6120,7 +6187,7 @@
         <v>23</v>
       </c>
       <c r="C22" s="1">
-        <f>IF(master!B22="plate",master!K22,0)</f>
+        <f>IF(master!B22="plate",master!N22,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6133,7 +6200,7 @@
         <v>24</v>
       </c>
       <c r="C23" s="1">
-        <f>IF(master!B23="plate",master!K23,0)</f>
+        <f>IF(master!B23="plate",master!N23,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6146,7 +6213,7 @@
         <v>25</v>
       </c>
       <c r="C24" s="1">
-        <f>IF(master!B24="plate",master!K24,0)</f>
+        <f>IF(master!B24="plate",master!N24,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6159,7 +6226,7 @@
         <v>26</v>
       </c>
       <c r="C25" s="1">
-        <f>IF(master!B25="plate",master!K25,0)</f>
+        <f>IF(master!B25="plate",master!N25,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6172,7 +6239,7 @@
         <v>27</v>
       </c>
       <c r="C26" s="1">
-        <f>IF(master!B26="plate",master!K26,0)</f>
+        <f>IF(master!B26="plate",master!N26,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6185,7 +6252,7 @@
         <v>28</v>
       </c>
       <c r="C27" s="1">
-        <f>IF(master!B27="plate",master!K27,0)</f>
+        <f>IF(master!B27="plate",master!N27,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6198,7 +6265,7 @@
         <v>29</v>
       </c>
       <c r="C28" s="1">
-        <f>IF(master!B28="plate",master!K28,0)</f>
+        <f>IF(master!B28="plate",master!N28,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6211,7 +6278,7 @@
         <v>30</v>
       </c>
       <c r="C29" s="1">
-        <f>IF(master!B29="plate",master!K29,0)</f>
+        <f>IF(master!B29="plate",master!N29,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6224,7 +6291,7 @@
         <v>31</v>
       </c>
       <c r="C30" s="1">
-        <f>IF(master!B30="plate",master!K30,0)</f>
+        <f>IF(master!B30="plate",master!N30,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6237,7 +6304,7 @@
         <v>32</v>
       </c>
       <c r="C31" s="1">
-        <f>IF(master!B31="plate",master!K31,0)</f>
+        <f>IF(master!B31="plate",master!N31,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6250,7 +6317,7 @@
         <v>33</v>
       </c>
       <c r="C32" s="1">
-        <f>IF(master!B32="plate",master!K32,0)</f>
+        <f>IF(master!B32="plate",master!N32,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6263,7 +6330,7 @@
         <v>34</v>
       </c>
       <c r="C33" s="1">
-        <f>IF(master!B33="plate",master!K33,0)</f>
+        <f>IF(master!B33="plate",master!N33,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6276,7 +6343,7 @@
         <v>35</v>
       </c>
       <c r="C34" s="1">
-        <f>IF(master!B34="plate",master!K34,0)</f>
+        <f>IF(master!B34="plate",master!N34,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6289,7 +6356,7 @@
         <v>36</v>
       </c>
       <c r="C35" s="1">
-        <f>IF(master!B35="plate",master!K35,0)</f>
+        <f>IF(master!B35="plate",master!N35,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6302,7 +6369,7 @@
         <v>37</v>
       </c>
       <c r="C36" s="1">
-        <f>IF(master!B36="plate",master!K36,0)</f>
+        <f>IF(master!B36="plate",master!N36,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6315,7 +6382,7 @@
         <v>38</v>
       </c>
       <c r="C37" s="1">
-        <f>IF(master!B37="plate",master!K37,0)</f>
+        <f>IF(master!B37="plate",master!N37,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6328,7 +6395,7 @@
         <v>39</v>
       </c>
       <c r="C38" s="1">
-        <f>IF(master!B38="plate",master!K38,0)</f>
+        <f>IF(master!B38="plate",master!N38,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6341,7 +6408,7 @@
         <v>40</v>
       </c>
       <c r="C39" s="1">
-        <f>IF(master!B39="plate",master!K39,0)</f>
+        <f>IF(master!B39="plate",master!N39,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6354,7 +6421,7 @@
         <v>41</v>
       </c>
       <c r="C40" s="1">
-        <f>IF(master!B40="plate",master!K40,0)</f>
+        <f>IF(master!B40="plate",master!N40,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6367,7 +6434,7 @@
         <v>42</v>
       </c>
       <c r="C41" s="1">
-        <f>IF(master!B41="plate",master!K41,0)</f>
+        <f>IF(master!B41="plate",master!N41,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6380,7 +6447,7 @@
         <v>43</v>
       </c>
       <c r="C42" s="1">
-        <f>IF(master!B42="plate",master!K42,0)</f>
+        <f>IF(master!B42="plate",master!N42,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6393,7 +6460,7 @@
         <v>44</v>
       </c>
       <c r="C43" s="1">
-        <f>IF(master!B43="plate",master!K43,0)</f>
+        <f>IF(master!B43="plate",master!N43,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6406,7 +6473,7 @@
         <v>45</v>
       </c>
       <c r="C44" s="1">
-        <f>IF(master!B44="plate",master!K44,0)</f>
+        <f>IF(master!B44="plate",master!N44,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6419,7 +6486,7 @@
         <v>46</v>
       </c>
       <c r="C45" s="1">
-        <f>IF(master!B45="plate",master!K45,0)</f>
+        <f>IF(master!B45="plate",master!N45,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6432,7 +6499,7 @@
         <v>47</v>
       </c>
       <c r="C46" s="1">
-        <f>IF(master!B46="plate",master!K46,0)</f>
+        <f>IF(master!B46="plate",master!N46,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6445,7 +6512,7 @@
         <v>48</v>
       </c>
       <c r="C47" s="1">
-        <f>IF(master!B47="plate",master!K47,0)</f>
+        <f>IF(master!B47="plate",master!N47,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6458,7 +6525,7 @@
         <v>49</v>
       </c>
       <c r="C48" s="1">
-        <f>IF(master!B48="plate",master!K48,0)</f>
+        <f>IF(master!B48="plate",master!N48,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6471,7 +6538,7 @@
         <v>50</v>
       </c>
       <c r="C49" s="1">
-        <f>IF(master!B49="plate",master!K49,0)</f>
+        <f>IF(master!B49="plate",master!N49,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6484,7 +6551,7 @@
         <v>51</v>
       </c>
       <c r="C50" s="1">
-        <f>IF(master!B50="plate",master!K50,0)</f>
+        <f>IF(master!B50="plate",master!N50,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6497,7 +6564,7 @@
         <v>52</v>
       </c>
       <c r="C51" s="1">
-        <f>IF(master!B51="plate",master!K51,0)</f>
+        <f>IF(master!B51="plate",master!N51,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6510,7 +6577,7 @@
         <v>53</v>
       </c>
       <c r="C52" s="1">
-        <f>IF(master!B52="plate",master!K52,0)</f>
+        <f>IF(master!B52="plate",master!N52,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6523,7 +6590,7 @@
         <v>54</v>
       </c>
       <c r="C53" s="1">
-        <f>IF(master!B53="plate",master!K53,0)</f>
+        <f>IF(master!B53="plate",master!N53,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6536,7 +6603,7 @@
         <v>55</v>
       </c>
       <c r="C54" s="1">
-        <f>IF(master!B54="plate",master!K54,0)</f>
+        <f>IF(master!B54="plate",master!N54,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6549,7 +6616,7 @@
         <v>56</v>
       </c>
       <c r="C55" s="1">
-        <f>IF(master!B55="plate",master!K55,0)</f>
+        <f>IF(master!B55="plate",master!N55,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6562,7 +6629,7 @@
         <v>57</v>
       </c>
       <c r="C56" s="1">
-        <f>IF(master!B56="plate",master!K56,0)</f>
+        <f>IF(master!B56="plate",master!N56,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6575,7 +6642,7 @@
         <v>58</v>
       </c>
       <c r="C57" s="1">
-        <f>IF(master!B57="plate",master!K57,0)</f>
+        <f>IF(master!B57="plate",master!N57,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6588,7 +6655,7 @@
         <v>59</v>
       </c>
       <c r="C58" s="1">
-        <f>IF(master!B58="plate",master!K58,0)</f>
+        <f>IF(master!B58="plate",master!N58,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6601,7 +6668,7 @@
         <v>60</v>
       </c>
       <c r="C59" s="1">
-        <f>IF(master!B59="plate",master!K59,0)</f>
+        <f>IF(master!B59="plate",master!N59,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6614,7 +6681,7 @@
         <v>61</v>
       </c>
       <c r="C60" s="1">
-        <f>IF(master!B60="plate",master!K60,0)</f>
+        <f>IF(master!B60="plate",master!N60,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6627,7 +6694,7 @@
         <v>62</v>
       </c>
       <c r="C61" s="1">
-        <f>IF(master!B61="plate",master!K61,0)</f>
+        <f>IF(master!B61="plate",master!N61,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6640,7 +6707,7 @@
         <v>63</v>
       </c>
       <c r="C62" s="1">
-        <f>IF(master!B62="plate",master!K62,0)</f>
+        <f>IF(master!B62="plate",master!N62,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6653,7 +6720,7 @@
         <v>64</v>
       </c>
       <c r="C63" s="1">
-        <f>IF(master!B63="plate",master!K63,0)</f>
+        <f>IF(master!B63="plate",master!N63,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6666,7 +6733,7 @@
         <v>65</v>
       </c>
       <c r="C64" s="1">
-        <f>IF(master!B64="plate",master!K64,0)</f>
+        <f>IF(master!B64="plate",master!N64,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6679,7 +6746,7 @@
         <v>66</v>
       </c>
       <c r="C65" s="1">
-        <f>IF(master!B65="plate",master!K65,0)</f>
+        <f>IF(master!B65="plate",master!N65,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6692,7 +6759,7 @@
         <v>67</v>
       </c>
       <c r="C66" s="1">
-        <f>IF(master!B66="plate",master!K66,0)</f>
+        <f>IF(master!B66="plate",master!N66,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6705,7 +6772,7 @@
         <v>68</v>
       </c>
       <c r="C67" s="1">
-        <f>IF(master!B67="plate",master!K67,0)</f>
+        <f>IF(master!B67="plate",master!N67,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6718,7 +6785,7 @@
         <v>69</v>
       </c>
       <c r="C68" s="1">
-        <f>IF(master!B68="plate",master!K68,0)</f>
+        <f>IF(master!B68="plate",master!N68,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6731,7 +6798,7 @@
         <v>70</v>
       </c>
       <c r="C69" s="1">
-        <f>IF(master!B69="plate",master!K69,0)</f>
+        <f>IF(master!B69="plate",master!N69,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6744,7 +6811,7 @@
         <v>71</v>
       </c>
       <c r="C70" s="1">
-        <f>IF(master!B70="plate",master!K70,0)</f>
+        <f>IF(master!B70="plate",master!N70,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6757,7 +6824,7 @@
         <v>72</v>
       </c>
       <c r="C71" s="1">
-        <f>IF(master!B71="plate",master!K71,0)</f>
+        <f>IF(master!B71="plate",master!N71,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6770,7 +6837,7 @@
         <v>73</v>
       </c>
       <c r="C72" s="1">
-        <f>IF(master!B72="plate",master!K72,0)</f>
+        <f>IF(master!B72="plate",master!N72,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6783,7 +6850,7 @@
         <v>74</v>
       </c>
       <c r="C73" s="1">
-        <f>IF(master!B73="plate",master!K73,0)</f>
+        <f>IF(master!B73="plate",master!N73,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6796,7 +6863,7 @@
         <v>75</v>
       </c>
       <c r="C74" s="1">
-        <f>IF(master!B74="plate",master!K74,0)</f>
+        <f>IF(master!B74="plate",master!N74,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6809,7 +6876,7 @@
         <v>76</v>
       </c>
       <c r="C75" s="1">
-        <f>IF(master!B75="plate",master!K75,0)</f>
+        <f>IF(master!B75="plate",master!N75,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6822,7 +6889,7 @@
         <v>77</v>
       </c>
       <c r="C76" s="1">
-        <f>IF(master!B76="plate",master!K76,0)</f>
+        <f>IF(master!B76="plate",master!N76,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6835,7 +6902,7 @@
         <v>78</v>
       </c>
       <c r="C77" s="1">
-        <f>IF(master!B77="plate",master!K77,0)</f>
+        <f>IF(master!B77="plate",master!N77,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6848,7 +6915,7 @@
         <v>79</v>
       </c>
       <c r="C78" s="1">
-        <f>IF(master!B78="plate",master!K78,0)</f>
+        <f>IF(master!B78="plate",master!N78,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6861,7 +6928,7 @@
         <v>80</v>
       </c>
       <c r="C79" s="1">
-        <f>IF(master!B79="plate",master!K79,0)</f>
+        <f>IF(master!B79="plate",master!N79,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6874,7 +6941,7 @@
         <v>81</v>
       </c>
       <c r="C80" s="1">
-        <f>IF(master!B80="plate",master!K80,0)</f>
+        <f>IF(master!B80="plate",master!N80,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6887,7 +6954,7 @@
         <v>82</v>
       </c>
       <c r="C81" s="1">
-        <f>IF(master!B81="plate",master!K81,0)</f>
+        <f>IF(master!B81="plate",master!N81,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6900,7 +6967,7 @@
         <v>83</v>
       </c>
       <c r="C82" s="1">
-        <f>IF(master!B82="plate",master!K82,0)</f>
+        <f>IF(master!B82="plate",master!N82,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6913,7 +6980,7 @@
         <v>84</v>
       </c>
       <c r="C83" s="1">
-        <f>IF(master!B83="plate",master!K83,0)</f>
+        <f>IF(master!B83="plate",master!N83,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6926,7 +6993,7 @@
         <v>85</v>
       </c>
       <c r="C84" s="1">
-        <f>IF(master!B84="plate",master!K84,0)</f>
+        <f>IF(master!B84="plate",master!N84,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6939,7 +7006,7 @@
         <v>86</v>
       </c>
       <c r="C85" s="1">
-        <f>IF(master!B85="plate",master!K85,0)</f>
+        <f>IF(master!B85="plate",master!N85,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6952,7 +7019,7 @@
         <v>87</v>
       </c>
       <c r="C86" s="1">
-        <f>IF(master!B86="plate",master!K86,0)</f>
+        <f>IF(master!B86="plate",master!N86,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6965,7 +7032,7 @@
         <v>88</v>
       </c>
       <c r="C87" s="1">
-        <f>IF(master!B87="plate",master!K87,0)</f>
+        <f>IF(master!B87="plate",master!N87,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6978,7 +7045,7 @@
         <v>89</v>
       </c>
       <c r="C88" s="1">
-        <f>IF(master!B88="plate",master!K88,0)</f>
+        <f>IF(master!B88="plate",master!N88,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6991,7 +7058,7 @@
         <v>90</v>
       </c>
       <c r="C89" s="1">
-        <f>IF(master!B89="plate",master!K89,0)</f>
+        <f>IF(master!B89="plate",master!N89,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7004,7 +7071,7 @@
         <v>91</v>
       </c>
       <c r="C90" s="1">
-        <f>IF(master!B90="plate",master!K90,0)</f>
+        <f>IF(master!B90="plate",master!N90,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7017,7 +7084,7 @@
         <v>92</v>
       </c>
       <c r="C91" s="1">
-        <f>IF(master!B91="plate",master!K91,0)</f>
+        <f>IF(master!B91="plate",master!N91,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7030,7 +7097,7 @@
         <v>93</v>
       </c>
       <c r="C92" s="1">
-        <f>IF(master!B92="plate",master!K92,0)</f>
+        <f>IF(master!B92="plate",master!N92,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7043,7 +7110,7 @@
         <v>94</v>
       </c>
       <c r="C93" s="1">
-        <f>IF(master!B93="plate",master!K93,0)</f>
+        <f>IF(master!B93="plate",master!N93,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7056,7 +7123,7 @@
         <v>95</v>
       </c>
       <c r="C94" s="1">
-        <f>IF(master!B94="plate",master!K94,0)</f>
+        <f>IF(master!B94="plate",master!N94,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7069,7 +7136,7 @@
         <v>96</v>
       </c>
       <c r="C95" s="1">
-        <f>IF(master!B95="plate",master!K95,0)</f>
+        <f>IF(master!B95="plate",master!N95,0)</f>
         <v>15</v>
       </c>
     </row>
@@ -7082,7 +7149,7 @@
         <v>97</v>
       </c>
       <c r="C96" s="1">
-        <f>IF(master!B96="plate",master!K96,0)</f>
+        <f>IF(master!B96="plate",master!N96,0)</f>
         <v>15</v>
       </c>
     </row>
@@ -7095,7 +7162,7 @@
         <v>98</v>
       </c>
       <c r="C97" s="1">
-        <f>IF(master!B97="plate",master!K97,0)</f>
+        <f>IF(master!B97="plate",master!N97,0)</f>
         <v>15</v>
       </c>
     </row>
@@ -7147,7 +7214,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1">
-        <f>IF(master!B2="strip",master!K2,0)</f>
+        <f>IF(master!B2="strip",master!N2,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7160,7 +7227,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1">
-        <f>IF(master!B3="strip",master!K3,0)</f>
+        <f>IF(master!B3="strip",master!N3,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7173,7 +7240,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1">
-        <f>IF(master!B4="strip",master!K4,0)</f>
+        <f>IF(master!B4="strip",master!N4,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7186,7 +7253,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1">
-        <f>IF(master!B5="strip",master!K5,0)</f>
+        <f>IF(master!B5="strip",master!N5,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7199,7 +7266,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1">
-        <f>IF(master!B6="strip",master!K6,0)</f>
+        <f>IF(master!B6="strip",master!N6,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7212,7 +7279,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="1">
-        <f>IF(master!B7="strip",master!K7,0)</f>
+        <f>IF(master!B7="strip",master!N7,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7225,7 +7292,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="1">
-        <f>IF(master!B8="strip",master!K8,0)</f>
+        <f>IF(master!B8="strip",master!N8,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7238,7 +7305,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1">
-        <f>IF(master!B9="strip",master!K9,0)</f>
+        <f>IF(master!B9="strip",master!N9,0)</f>
         <v>10</v>
       </c>
     </row>
@@ -7251,7 +7318,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="1">
-        <f>IF(master!B10="strip",master!K10,0)</f>
+        <f>IF(master!B10="strip",master!N10,0)</f>
         <v>10</v>
       </c>
     </row>
@@ -7264,7 +7331,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="1">
-        <f>IF(master!B11="strip",master!K11,0)</f>
+        <f>IF(master!B11="strip",master!N11,0)</f>
         <v>10</v>
       </c>
     </row>
@@ -7277,7 +7344,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="1">
-        <f>IF(master!B12="strip",master!K12,0)</f>
+        <f>IF(master!B12="strip",master!N12,0)</f>
         <v>10</v>
       </c>
     </row>
@@ -7290,7 +7357,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="1">
-        <f>IF(master!B13="strip",master!K13,0)</f>
+        <f>IF(master!B13="strip",master!N13,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7303,7 +7370,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="1">
-        <f>IF(master!B14="strip",master!K14,0)</f>
+        <f>IF(master!B14="strip",master!N14,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7316,7 +7383,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="1">
-        <f>IF(master!B15="strip",master!K15,0)</f>
+        <f>IF(master!B15="strip",master!N15,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7329,7 +7396,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="1">
-        <f>IF(master!B16="strip",master!K16,0)</f>
+        <f>IF(master!B16="strip",master!N16,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7342,7 +7409,7 @@
         <v>18</v>
       </c>
       <c r="C17" s="1">
-        <f>IF(master!B17="strip",master!K17,0)</f>
+        <f>IF(master!B17="strip",master!N17,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7355,7 +7422,7 @@
         <v>19</v>
       </c>
       <c r="C18" s="1">
-        <f>IF(master!B18="strip",master!K18,0)</f>
+        <f>IF(master!B18="strip",master!N18,0)</f>
         <v>15</v>
       </c>
     </row>
@@ -7368,7 +7435,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="1">
-        <f>IF(master!B19="strip",master!K19,0)</f>
+        <f>IF(master!B19="strip",master!N19,0)</f>
         <v>15</v>
       </c>
     </row>
@@ -7381,7 +7448,7 @@
         <v>21</v>
       </c>
       <c r="C20" s="1">
-        <f>IF(master!B20="strip",master!K20,0)</f>
+        <f>IF(master!B20="strip",master!N20,0)</f>
         <v>15</v>
       </c>
     </row>
@@ -7394,7 +7461,7 @@
         <v>22</v>
       </c>
       <c r="C21" s="1">
-        <f>IF(master!B21="strip",master!K21,0)</f>
+        <f>IF(master!B21="strip",master!N21,0)</f>
         <v>15</v>
       </c>
     </row>
@@ -7407,7 +7474,7 @@
         <v>23</v>
       </c>
       <c r="C22" s="1">
-        <f>IF(master!B22="strip",master!K22,0)</f>
+        <f>IF(master!B22="strip",master!N22,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7420,7 +7487,7 @@
         <v>24</v>
       </c>
       <c r="C23" s="1">
-        <f>IF(master!B23="strip",master!K23,0)</f>
+        <f>IF(master!B23="strip",master!N23,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7433,7 +7500,7 @@
         <v>25</v>
       </c>
       <c r="C24" s="1">
-        <f>IF(master!B24="strip",master!K24,0)</f>
+        <f>IF(master!B24="strip",master!N24,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7446,7 +7513,7 @@
         <v>26</v>
       </c>
       <c r="C25" s="1">
-        <f>IF(master!B25="strip",master!K25,0)</f>
+        <f>IF(master!B25="strip",master!N25,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7459,7 +7526,7 @@
         <v>27</v>
       </c>
       <c r="C26" s="1">
-        <f>IF(master!B26="strip",master!K26,0)</f>
+        <f>IF(master!B26="strip",master!N26,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7472,7 +7539,7 @@
         <v>28</v>
       </c>
       <c r="C27" s="1">
-        <f>IF(master!B27="strip",master!K27,0)</f>
+        <f>IF(master!B27="strip",master!N27,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7485,7 +7552,7 @@
         <v>29</v>
       </c>
       <c r="C28" s="1">
-        <f>IF(master!B28="strip",master!K28,0)</f>
+        <f>IF(master!B28="strip",master!N28,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7498,7 +7565,7 @@
         <v>30</v>
       </c>
       <c r="C29" s="1">
-        <f>IF(master!B29="strip",master!K29,0)</f>
+        <f>IF(master!B29="strip",master!N29,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7511,7 +7578,7 @@
         <v>31</v>
       </c>
       <c r="C30" s="1">
-        <f>IF(master!B30="strip",master!K30,0)</f>
+        <f>IF(master!B30="strip",master!N30,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7524,7 +7591,7 @@
         <v>32</v>
       </c>
       <c r="C31" s="1">
-        <f>IF(master!B31="strip",master!K31,0)</f>
+        <f>IF(master!B31="strip",master!N31,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7537,7 +7604,7 @@
         <v>33</v>
       </c>
       <c r="C32" s="1">
-        <f>IF(master!B32="strip",master!K32,0)</f>
+        <f>IF(master!B32="strip",master!N32,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7550,7 +7617,7 @@
         <v>34</v>
       </c>
       <c r="C33" s="1">
-        <f>IF(master!B33="strip",master!K33,0)</f>
+        <f>IF(master!B33="strip",master!N33,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7563,7 +7630,7 @@
         <v>35</v>
       </c>
       <c r="C34" s="1">
-        <f>IF(master!B34="strip",master!K34,0)</f>
+        <f>IF(master!B34="strip",master!N34,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7576,7 +7643,7 @@
         <v>36</v>
       </c>
       <c r="C35" s="1">
-        <f>IF(master!B35="strip",master!K35,0)</f>
+        <f>IF(master!B35="strip",master!N35,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7589,7 +7656,7 @@
         <v>37</v>
       </c>
       <c r="C36" s="1">
-        <f>IF(master!B36="strip",master!K36,0)</f>
+        <f>IF(master!B36="strip",master!N36,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7602,7 +7669,7 @@
         <v>38</v>
       </c>
       <c r="C37" s="1">
-        <f>IF(master!B37="strip",master!K37,0)</f>
+        <f>IF(master!B37="strip",master!N37,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7615,7 +7682,7 @@
         <v>39</v>
       </c>
       <c r="C38" s="1">
-        <f>IF(master!B38="strip",master!K38,0)</f>
+        <f>IF(master!B38="strip",master!N38,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7628,7 +7695,7 @@
         <v>40</v>
       </c>
       <c r="C39" s="1">
-        <f>IF(master!B39="strip",master!K39,0)</f>
+        <f>IF(master!B39="strip",master!N39,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7641,7 +7708,7 @@
         <v>41</v>
       </c>
       <c r="C40" s="1">
-        <f>IF(master!B40="strip",master!K40,0)</f>
+        <f>IF(master!B40="strip",master!N40,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7654,7 +7721,7 @@
         <v>42</v>
       </c>
       <c r="C41" s="1">
-        <f>IF(master!B41="strip",master!K41,0)</f>
+        <f>IF(master!B41="strip",master!N41,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7667,7 +7734,7 @@
         <v>43</v>
       </c>
       <c r="C42" s="1">
-        <f>IF(master!B42="strip",master!K42,0)</f>
+        <f>IF(master!B42="strip",master!N42,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7680,7 +7747,7 @@
         <v>44</v>
       </c>
       <c r="C43" s="1">
-        <f>IF(master!B43="strip",master!K43,0)</f>
+        <f>IF(master!B43="strip",master!N43,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7693,7 +7760,7 @@
         <v>45</v>
       </c>
       <c r="C44" s="1">
-        <f>IF(master!B44="strip",master!K44,0)</f>
+        <f>IF(master!B44="strip",master!N44,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7706,7 +7773,7 @@
         <v>46</v>
       </c>
       <c r="C45" s="1">
-        <f>IF(master!B45="strip",master!K45,0)</f>
+        <f>IF(master!B45="strip",master!N45,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7719,7 +7786,7 @@
         <v>47</v>
       </c>
       <c r="C46" s="1">
-        <f>IF(master!B46="strip",master!K46,0)</f>
+        <f>IF(master!B46="strip",master!N46,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7732,7 +7799,7 @@
         <v>48</v>
       </c>
       <c r="C47" s="1">
-        <f>IF(master!B47="strip",master!K47,0)</f>
+        <f>IF(master!B47="strip",master!N47,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7745,7 +7812,7 @@
         <v>49</v>
       </c>
       <c r="C48" s="1">
-        <f>IF(master!B48="strip",master!K48,0)</f>
+        <f>IF(master!B48="strip",master!N48,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7758,7 +7825,7 @@
         <v>50</v>
       </c>
       <c r="C49" s="1">
-        <f>IF(master!B49="strip",master!K49,0)</f>
+        <f>IF(master!B49="strip",master!N49,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7771,7 +7838,7 @@
         <v>51</v>
       </c>
       <c r="C50" s="1">
-        <f>IF(master!B50="strip",master!K50,0)</f>
+        <f>IF(master!B50="strip",master!N50,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7784,7 +7851,7 @@
         <v>52</v>
       </c>
       <c r="C51" s="1">
-        <f>IF(master!B51="strip",master!K51,0)</f>
+        <f>IF(master!B51="strip",master!N51,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7797,7 +7864,7 @@
         <v>53</v>
       </c>
       <c r="C52" s="1">
-        <f>IF(master!B52="strip",master!K52,0)</f>
+        <f>IF(master!B52="strip",master!N52,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7810,7 +7877,7 @@
         <v>54</v>
       </c>
       <c r="C53" s="1">
-        <f>IF(master!B53="strip",master!K53,0)</f>
+        <f>IF(master!B53="strip",master!N53,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7823,7 +7890,7 @@
         <v>55</v>
       </c>
       <c r="C54" s="1">
-        <f>IF(master!B54="strip",master!K54,0)</f>
+        <f>IF(master!B54="strip",master!N54,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7836,7 +7903,7 @@
         <v>56</v>
       </c>
       <c r="C55" s="1">
-        <f>IF(master!B55="strip",master!K55,0)</f>
+        <f>IF(master!B55="strip",master!N55,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7849,7 +7916,7 @@
         <v>57</v>
       </c>
       <c r="C56" s="1">
-        <f>IF(master!B56="strip",master!K56,0)</f>
+        <f>IF(master!B56="strip",master!N56,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7862,7 +7929,7 @@
         <v>58</v>
       </c>
       <c r="C57" s="1">
-        <f>IF(master!B57="strip",master!K57,0)</f>
+        <f>IF(master!B57="strip",master!N57,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7875,7 +7942,7 @@
         <v>59</v>
       </c>
       <c r="C58" s="1">
-        <f>IF(master!B58="strip",master!K58,0)</f>
+        <f>IF(master!B58="strip",master!N58,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7888,7 +7955,7 @@
         <v>60</v>
       </c>
       <c r="C59" s="1">
-        <f>IF(master!B59="strip",master!K59,0)</f>
+        <f>IF(master!B59="strip",master!N59,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7901,7 +7968,7 @@
         <v>61</v>
       </c>
       <c r="C60" s="1">
-        <f>IF(master!B60="strip",master!K60,0)</f>
+        <f>IF(master!B60="strip",master!N60,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7914,7 +7981,7 @@
         <v>62</v>
       </c>
       <c r="C61" s="1">
-        <f>IF(master!B61="strip",master!K61,0)</f>
+        <f>IF(master!B61="strip",master!N61,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7927,7 +7994,7 @@
         <v>63</v>
       </c>
       <c r="C62" s="1">
-        <f>IF(master!B62="strip",master!K62,0)</f>
+        <f>IF(master!B62="strip",master!N62,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7940,7 +8007,7 @@
         <v>64</v>
       </c>
       <c r="C63" s="1">
-        <f>IF(master!B63="strip",master!K63,0)</f>
+        <f>IF(master!B63="strip",master!N63,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7953,7 +8020,7 @@
         <v>65</v>
       </c>
       <c r="C64" s="1">
-        <f>IF(master!B64="strip",master!K64,0)</f>
+        <f>IF(master!B64="strip",master!N64,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7966,7 +8033,7 @@
         <v>66</v>
       </c>
       <c r="C65" s="1">
-        <f>IF(master!B65="strip",master!K65,0)</f>
+        <f>IF(master!B65="strip",master!N65,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7979,7 +8046,7 @@
         <v>67</v>
       </c>
       <c r="C66" s="1">
-        <f>IF(master!B66="strip",master!K66,0)</f>
+        <f>IF(master!B66="strip",master!N66,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7992,7 +8059,7 @@
         <v>68</v>
       </c>
       <c r="C67" s="1">
-        <f>IF(master!B67="strip",master!K67,0)</f>
+        <f>IF(master!B67="strip",master!N67,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8005,7 +8072,7 @@
         <v>69</v>
       </c>
       <c r="C68" s="1">
-        <f>IF(master!B68="strip",master!K68,0)</f>
+        <f>IF(master!B68="strip",master!N68,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8018,7 +8085,7 @@
         <v>70</v>
       </c>
       <c r="C69" s="1">
-        <f>IF(master!B69="strip",master!K69,0)</f>
+        <f>IF(master!B69="strip",master!N69,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8031,7 +8098,7 @@
         <v>71</v>
       </c>
       <c r="C70" s="1">
-        <f>IF(master!B70="strip",master!K70,0)</f>
+        <f>IF(master!B70="strip",master!N70,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8044,7 +8111,7 @@
         <v>72</v>
       </c>
       <c r="C71" s="1">
-        <f>IF(master!B71="strip",master!K71,0)</f>
+        <f>IF(master!B71="strip",master!N71,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8057,7 +8124,7 @@
         <v>73</v>
       </c>
       <c r="C72" s="1">
-        <f>IF(master!B72="strip",master!K72,0)</f>
+        <f>IF(master!B72="strip",master!N72,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8070,7 +8137,7 @@
         <v>74</v>
       </c>
       <c r="C73" s="1">
-        <f>IF(master!B73="strip",master!K73,0)</f>
+        <f>IF(master!B73="strip",master!N73,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8083,7 +8150,7 @@
         <v>75</v>
       </c>
       <c r="C74" s="1">
-        <f>IF(master!B74="strip",master!K74,0)</f>
+        <f>IF(master!B74="strip",master!N74,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8096,7 +8163,7 @@
         <v>76</v>
       </c>
       <c r="C75" s="1">
-        <f>IF(master!B75="strip",master!K75,0)</f>
+        <f>IF(master!B75="strip",master!N75,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8109,7 +8176,7 @@
         <v>77</v>
       </c>
       <c r="C76" s="1">
-        <f>IF(master!B76="strip",master!K76,0)</f>
+        <f>IF(master!B76="strip",master!N76,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8122,7 +8189,7 @@
         <v>78</v>
       </c>
       <c r="C77" s="1">
-        <f>IF(master!B77="strip",master!K77,0)</f>
+        <f>IF(master!B77="strip",master!N77,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8135,7 +8202,7 @@
         <v>79</v>
       </c>
       <c r="C78" s="1">
-        <f>IF(master!B78="strip",master!K78,0)</f>
+        <f>IF(master!B78="strip",master!N78,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8148,7 +8215,7 @@
         <v>80</v>
       </c>
       <c r="C79" s="1">
-        <f>IF(master!B79="strip",master!K79,0)</f>
+        <f>IF(master!B79="strip",master!N79,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8161,7 +8228,7 @@
         <v>81</v>
       </c>
       <c r="C80" s="1">
-        <f>IF(master!B80="strip",master!K80,0)</f>
+        <f>IF(master!B80="strip",master!N80,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8174,7 +8241,7 @@
         <v>82</v>
       </c>
       <c r="C81" s="1">
-        <f>IF(master!B81="strip",master!K81,0)</f>
+        <f>IF(master!B81="strip",master!N81,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8187,7 +8254,7 @@
         <v>83</v>
       </c>
       <c r="C82" s="1">
-        <f>IF(master!B82="strip",master!K82,0)</f>
+        <f>IF(master!B82="strip",master!N82,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8200,7 +8267,7 @@
         <v>84</v>
       </c>
       <c r="C83" s="1">
-        <f>IF(master!B83="strip",master!K83,0)</f>
+        <f>IF(master!B83="strip",master!N83,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8213,7 +8280,7 @@
         <v>85</v>
       </c>
       <c r="C84" s="1">
-        <f>IF(master!B84="strip",master!K84,0)</f>
+        <f>IF(master!B84="strip",master!N84,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8226,7 +8293,7 @@
         <v>86</v>
       </c>
       <c r="C85" s="1">
-        <f>IF(master!B85="strip",master!K85,0)</f>
+        <f>IF(master!B85="strip",master!N85,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8239,7 +8306,7 @@
         <v>87</v>
       </c>
       <c r="C86" s="1">
-        <f>IF(master!B86="strip",master!K86,0)</f>
+        <f>IF(master!B86="strip",master!N86,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8252,7 +8319,7 @@
         <v>88</v>
       </c>
       <c r="C87" s="1">
-        <f>IF(master!B87="strip",master!K87,0)</f>
+        <f>IF(master!B87="strip",master!N87,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8265,7 +8332,7 @@
         <v>89</v>
       </c>
       <c r="C88" s="1">
-        <f>IF(master!B88="strip",master!K88,0)</f>
+        <f>IF(master!B88="strip",master!N88,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8278,7 +8345,7 @@
         <v>90</v>
       </c>
       <c r="C89" s="1">
-        <f>IF(master!B89="strip",master!K89,0)</f>
+        <f>IF(master!B89="strip",master!N89,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8291,7 +8358,7 @@
         <v>91</v>
       </c>
       <c r="C90" s="1">
-        <f>IF(master!B90="strip",master!K90,0)</f>
+        <f>IF(master!B90="strip",master!N90,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8304,7 +8371,7 @@
         <v>92</v>
       </c>
       <c r="C91" s="1">
-        <f>IF(master!B91="strip",master!K91,0)</f>
+        <f>IF(master!B91="strip",master!N91,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8317,7 +8384,7 @@
         <v>93</v>
       </c>
       <c r="C92" s="1">
-        <f>IF(master!B92="strip",master!K92,0)</f>
+        <f>IF(master!B92="strip",master!N92,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8330,7 +8397,7 @@
         <v>94</v>
       </c>
       <c r="C93" s="1">
-        <f>IF(master!B93="strip",master!K93,0)</f>
+        <f>IF(master!B93="strip",master!N93,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8343,7 +8410,7 @@
         <v>95</v>
       </c>
       <c r="C94" s="1">
-        <f>IF(master!B94="strip",master!K94,0)</f>
+        <f>IF(master!B94="strip",master!N94,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8356,7 +8423,7 @@
         <v>96</v>
       </c>
       <c r="C95" s="1">
-        <f>IF(master!B95="strip",master!K95,0)</f>
+        <f>IF(master!B95="strip",master!N95,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8369,7 +8436,7 @@
         <v>97</v>
       </c>
       <c r="C96" s="1">
-        <f>IF(master!B96="strip",master!K96,0)</f>
+        <f>IF(master!B96="strip",master!N96,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8382,7 +8449,7 @@
         <v>98</v>
       </c>
       <c r="C97" s="1">
-        <f>IF(master!B97="strip",master!K97,0)</f>
+        <f>IF(master!B97="strip",master!N97,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8405,7 +8472,7 @@
   </sheetPr>
   <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -8429,1249 +8496,1249 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
-        <f>IF(ISTEXT(master!F2),master!H2,"")</f>
+        <f>IF(ISTEXT(master!F2),master!K2,"")</f>
         <v>A01</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1">
-        <f>master!I2</f>
+        <f>master!L2</f>
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
-        <f>IF(ISTEXT(master!F3),master!H3,"")</f>
+        <f>IF(ISTEXT(master!F3),master!K3,"")</f>
         <v/>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1">
-        <f>master!I3</f>
+        <f>master!L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
-        <f>IF(ISTEXT(master!F4),master!H4,"")</f>
+        <f>IF(ISTEXT(master!F4),master!K4,"")</f>
         <v/>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1">
-        <f>master!I4</f>
+        <f>master!L4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
-        <f>IF(ISTEXT(master!F5),master!H5,"")</f>
+        <f>IF(ISTEXT(master!F5),master!K5,"")</f>
         <v/>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1">
-        <f>master!I5</f>
+        <f>master!L5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="str">
-        <f>IF(ISTEXT(master!F6),master!H6,"")</f>
+        <f>IF(ISTEXT(master!F6),master!K6,"")</f>
         <v/>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1">
-        <f>master!I6</f>
+        <f>master!L6</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="str">
-        <f>IF(ISTEXT(master!F7),master!H7,"")</f>
+        <f>IF(ISTEXT(master!F7),master!K7,"")</f>
         <v/>
       </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="1">
-        <f>master!I7</f>
+        <f>master!L7</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="str">
-        <f>IF(ISTEXT(master!F8),master!H8,"")</f>
+        <f>IF(ISTEXT(master!F8),master!K8,"")</f>
         <v/>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="1">
-        <f>master!I8</f>
+        <f>master!L8</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="str">
-        <f>IF(ISTEXT(master!F9),master!H9,"")</f>
+        <f>IF(ISTEXT(master!F9),master!K9,"")</f>
         <v>A01</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1">
-        <f>master!I9</f>
+        <f>master!L9</f>
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="str">
-        <f>IF(ISTEXT(master!F10),master!H10,"")</f>
+        <f>IF(ISTEXT(master!F10),master!K10,"")</f>
         <v>B01</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="1">
-        <f>master!I10</f>
+        <f>master!L10</f>
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="str">
-        <f>IF(ISTEXT(master!F11),master!H11,"")</f>
+        <f>IF(ISTEXT(master!F11),master!K11,"")</f>
         <v>B01</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="1">
-        <f>master!I11</f>
+        <f>master!L11</f>
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="str">
-        <f>IF(ISTEXT(master!F12),master!H12,"")</f>
+        <f>IF(ISTEXT(master!F12),master!K12,"")</f>
         <v>B01</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="1">
-        <f>master!I12</f>
+        <f>master!L12</f>
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="str">
-        <f>IF(ISTEXT(master!F13),master!H13,"")</f>
+        <f>IF(ISTEXT(master!F13),master!K13,"")</f>
         <v/>
       </c>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="1">
-        <f>master!I13</f>
+        <f>master!L13</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="str">
-        <f>IF(ISTEXT(master!F14),master!H14,"")</f>
+        <f>IF(ISTEXT(master!F14),master!K14,"")</f>
         <v/>
       </c>
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="1">
-        <f>master!I14</f>
+        <f>master!L14</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="str">
-        <f>IF(ISTEXT(master!F15),master!H15,"")</f>
+        <f>IF(ISTEXT(master!F15),master!K15,"")</f>
         <v/>
       </c>
       <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="1">
-        <f>master!I15</f>
+        <f>master!L15</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="str">
-        <f>IF(ISTEXT(master!F16),master!H16,"")</f>
+        <f>IF(ISTEXT(master!F16),master!K16,"")</f>
         <v/>
       </c>
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="1">
-        <f>master!I16</f>
+        <f>master!L16</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="str">
-        <f>IF(ISTEXT(master!F17),master!H17,"")</f>
+        <f>IF(ISTEXT(master!F17),master!K17,"")</f>
         <v/>
       </c>
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="1">
-        <f>master!I17</f>
+        <f>master!L17</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="str">
-        <f>IF(ISTEXT(master!F18),master!H18,"")</f>
+        <f>IF(ISTEXT(master!F18),master!K18,"")</f>
         <v/>
       </c>
       <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="1">
-        <f>master!I18</f>
+        <f>master!L18</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="str">
-        <f>IF(ISTEXT(master!F19),master!H19,"")</f>
+        <f>IF(ISTEXT(master!F19),master!K19,"")</f>
         <v/>
       </c>
       <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="1">
-        <f>master!I19</f>
+        <f>master!L19</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="str">
-        <f>IF(ISTEXT(master!F20),master!H20,"")</f>
+        <f>IF(ISTEXT(master!F20),master!K20,"")</f>
         <v/>
       </c>
       <c r="B20" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="1">
-        <f>master!I20</f>
+        <f>master!L20</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="str">
-        <f>IF(ISTEXT(master!F21),master!H21,"")</f>
+        <f>IF(ISTEXT(master!F21),master!K21,"")</f>
         <v/>
       </c>
       <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="1">
-        <f>master!I21</f>
+        <f>master!L21</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="str">
-        <f>IF(ISTEXT(master!F22),master!H22,"")</f>
+        <f>IF(ISTEXT(master!F22),master!K22,"")</f>
         <v/>
       </c>
       <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="1">
-        <f>master!I22</f>
+        <f>master!L22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="str">
-        <f>IF(ISTEXT(master!F23),master!H23,"")</f>
+        <f>IF(ISTEXT(master!F23),master!K23,"")</f>
         <v/>
       </c>
       <c r="B23" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="1">
-        <f>master!I23</f>
+        <f>master!L23</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="str">
-        <f>IF(ISTEXT(master!F24),master!H24,"")</f>
+        <f>IF(ISTEXT(master!F24),master!K24,"")</f>
         <v/>
       </c>
       <c r="B24" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="1">
-        <f>master!I24</f>
+        <f>master!L24</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="str">
-        <f>IF(ISTEXT(master!F25),master!H25,"")</f>
+        <f>IF(ISTEXT(master!F25),master!K25,"")</f>
         <v/>
       </c>
       <c r="B25" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="1">
-        <f>master!I25</f>
+        <f>master!L25</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="str">
-        <f>IF(ISTEXT(master!F26),master!H26,"")</f>
+        <f>IF(ISTEXT(master!F26),master!K26,"")</f>
         <v/>
       </c>
       <c r="B26" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="1">
-        <f>master!I26</f>
+        <f>master!L26</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="str">
-        <f>IF(ISTEXT(master!F27),master!H27,"")</f>
+        <f>IF(ISTEXT(master!F27),master!K27,"")</f>
         <v/>
       </c>
       <c r="B27" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="1">
-        <f>master!I27</f>
+        <f>master!L27</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="str">
-        <f>IF(ISTEXT(master!F28),master!H28,"")</f>
+        <f>IF(ISTEXT(master!F28),master!K28,"")</f>
         <v/>
       </c>
       <c r="B28" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="1">
-        <f>master!I28</f>
+        <f>master!L28</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="str">
-        <f>IF(ISTEXT(master!F29),master!H29,"")</f>
+        <f>IF(ISTEXT(master!F29),master!K29,"")</f>
         <v/>
       </c>
       <c r="B29" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="1">
-        <f>master!I29</f>
+        <f>master!L29</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="str">
-        <f>IF(ISTEXT(master!F30),master!H30,"")</f>
+        <f>IF(ISTEXT(master!F30),master!K30,"")</f>
         <v/>
       </c>
       <c r="B30" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C30" s="1">
-        <f>master!I30</f>
+        <f>master!L30</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="str">
-        <f>IF(ISTEXT(master!F31),master!H31,"")</f>
+        <f>IF(ISTEXT(master!F31),master!K31,"")</f>
         <v/>
       </c>
       <c r="B31" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C31" s="1">
-        <f>master!I31</f>
+        <f>master!L31</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="str">
-        <f>IF(ISTEXT(master!F32),master!H32,"")</f>
+        <f>IF(ISTEXT(master!F32),master!K32,"")</f>
         <v/>
       </c>
       <c r="B32" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C32" s="1">
-        <f>master!I32</f>
+        <f>master!L32</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="str">
-        <f>IF(ISTEXT(master!F33),master!H33,"")</f>
+        <f>IF(ISTEXT(master!F33),master!K33,"")</f>
         <v/>
       </c>
       <c r="B33" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C33" s="1">
-        <f>master!I33</f>
+        <f>master!L33</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="str">
-        <f>IF(ISTEXT(master!F34),master!H34,"")</f>
+        <f>IF(ISTEXT(master!F34),master!K34,"")</f>
         <v/>
       </c>
       <c r="B34" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C34" s="1">
-        <f>master!I34</f>
+        <f>master!L34</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="str">
-        <f>IF(ISTEXT(master!F35),master!H35,"")</f>
+        <f>IF(ISTEXT(master!F35),master!K35,"")</f>
         <v/>
       </c>
       <c r="B35" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C35" s="1">
-        <f>master!I35</f>
+        <f>master!L35</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="str">
-        <f>IF(ISTEXT(master!F36),master!H36,"")</f>
+        <f>IF(ISTEXT(master!F36),master!K36,"")</f>
         <v/>
       </c>
       <c r="B36" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C36" s="1">
-        <f>master!I36</f>
+        <f>master!L36</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="str">
-        <f>IF(ISTEXT(master!F37),master!H37,"")</f>
+        <f>IF(ISTEXT(master!F37),master!K37,"")</f>
         <v/>
       </c>
       <c r="B37" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C37" s="1">
-        <f>master!I37</f>
+        <f>master!L37</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="str">
-        <f>IF(ISTEXT(master!F38),master!H38,"")</f>
+        <f>IF(ISTEXT(master!F38),master!K38,"")</f>
         <v/>
       </c>
       <c r="B38" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C38" s="1">
-        <f>master!I38</f>
+        <f>master!L38</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="str">
-        <f>IF(ISTEXT(master!F39),master!H39,"")</f>
+        <f>IF(ISTEXT(master!F39),master!K39,"")</f>
         <v/>
       </c>
       <c r="B39" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C39" s="1">
-        <f>master!I39</f>
+        <f>master!L39</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="str">
-        <f>IF(ISTEXT(master!F40),master!H40,"")</f>
+        <f>IF(ISTEXT(master!F40),master!K40,"")</f>
         <v/>
       </c>
       <c r="B40" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C40" s="1">
-        <f>master!I40</f>
+        <f>master!L40</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="str">
-        <f>IF(ISTEXT(master!F41),master!H41,"")</f>
+        <f>IF(ISTEXT(master!F41),master!K41,"")</f>
         <v/>
       </c>
       <c r="B41" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C41" s="1">
-        <f>master!I41</f>
+        <f>master!L41</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="str">
-        <f>IF(ISTEXT(master!F42),master!H42,"")</f>
+        <f>IF(ISTEXT(master!F42),master!K42,"")</f>
         <v/>
       </c>
       <c r="B42" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C42" s="1">
-        <f>master!I42</f>
+        <f>master!L42</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="str">
-        <f>IF(ISTEXT(master!F43),master!H43,"")</f>
+        <f>IF(ISTEXT(master!F43),master!K43,"")</f>
         <v/>
       </c>
       <c r="B43" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C43" s="1">
-        <f>master!I43</f>
+        <f>master!L43</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="str">
-        <f>IF(ISTEXT(master!F44),master!H44,"")</f>
+        <f>IF(ISTEXT(master!F44),master!K44,"")</f>
         <v/>
       </c>
       <c r="B44" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C44" s="1">
-        <f>master!I44</f>
+        <f>master!L44</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="str">
-        <f>IF(ISTEXT(master!F45),master!H45,"")</f>
+        <f>IF(ISTEXT(master!F45),master!K45,"")</f>
         <v/>
       </c>
       <c r="B45" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C45" s="1">
-        <f>master!I45</f>
+        <f>master!L45</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="str">
-        <f>IF(ISTEXT(master!F46),master!H46,"")</f>
+        <f>IF(ISTEXT(master!F46),master!K46,"")</f>
         <v/>
       </c>
       <c r="B46" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C46" s="1">
-        <f>master!I46</f>
+        <f>master!L46</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="str">
-        <f>IF(ISTEXT(master!F47),master!H47,"")</f>
+        <f>IF(ISTEXT(master!F47),master!K47,"")</f>
         <v/>
       </c>
       <c r="B47" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C47" s="1">
-        <f>master!I47</f>
+        <f>master!L47</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="str">
-        <f>IF(ISTEXT(master!F48),master!H48,"")</f>
+        <f>IF(ISTEXT(master!F48),master!K48,"")</f>
         <v/>
       </c>
       <c r="B48" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C48" s="1">
-        <f>master!I48</f>
+        <f>master!L48</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="str">
-        <f>IF(ISTEXT(master!F49),master!H49,"")</f>
+        <f>IF(ISTEXT(master!F49),master!K49,"")</f>
         <v/>
       </c>
       <c r="B49" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C49" s="1">
-        <f>master!I49</f>
+        <f>master!L49</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="str">
-        <f>IF(ISTEXT(master!F50),master!H50,"")</f>
+        <f>IF(ISTEXT(master!F50),master!K50,"")</f>
         <v/>
       </c>
       <c r="B50" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C50" s="1">
-        <f>master!I50</f>
+        <f>master!L50</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="str">
-        <f>IF(ISTEXT(master!F51),master!H51,"")</f>
+        <f>IF(ISTEXT(master!F51),master!K51,"")</f>
         <v/>
       </c>
       <c r="B51" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C51" s="1">
-        <f>master!I51</f>
+        <f>master!L51</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="str">
-        <f>IF(ISTEXT(master!F52),master!H52,"")</f>
+        <f>IF(ISTEXT(master!F52),master!K52,"")</f>
         <v/>
       </c>
       <c r="B52" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C52" s="1">
-        <f>master!I52</f>
+        <f>master!L52</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="str">
-        <f>IF(ISTEXT(master!F53),master!H53,"")</f>
+        <f>IF(ISTEXT(master!F53),master!K53,"")</f>
         <v/>
       </c>
       <c r="B53" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C53" s="1">
-        <f>master!I53</f>
+        <f>master!L53</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="str">
-        <f>IF(ISTEXT(master!F54),master!H54,"")</f>
+        <f>IF(ISTEXT(master!F54),master!K54,"")</f>
         <v/>
       </c>
       <c r="B54" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C54" s="1">
-        <f>master!I54</f>
+        <f>master!L54</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="str">
-        <f>IF(ISTEXT(master!F55),master!H55,"")</f>
+        <f>IF(ISTEXT(master!F55),master!K55,"")</f>
         <v/>
       </c>
       <c r="B55" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C55" s="1">
-        <f>master!I55</f>
+        <f>master!L55</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="str">
-        <f>IF(ISTEXT(master!F56),master!H56,"")</f>
+        <f>IF(ISTEXT(master!F56),master!K56,"")</f>
         <v/>
       </c>
       <c r="B56" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C56" s="1">
-        <f>master!I56</f>
+        <f>master!L56</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="str">
-        <f>IF(ISTEXT(master!F57),master!H57,"")</f>
+        <f>IF(ISTEXT(master!F57),master!K57,"")</f>
         <v/>
       </c>
       <c r="B57" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C57" s="1">
-        <f>master!I57</f>
+        <f>master!L57</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="str">
-        <f>IF(ISTEXT(master!F58),master!H58,"")</f>
+        <f>IF(ISTEXT(master!F58),master!K58,"")</f>
         <v/>
       </c>
       <c r="B58" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C58" s="1">
-        <f>master!I58</f>
+        <f>master!L58</f>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="str">
-        <f>IF(ISTEXT(master!F59),master!H59,"")</f>
+        <f>IF(ISTEXT(master!F59),master!K59,"")</f>
         <v/>
       </c>
       <c r="B59" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C59" s="1">
-        <f>master!I59</f>
+        <f>master!L59</f>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="str">
-        <f>IF(ISTEXT(master!F60),master!H60,"")</f>
+        <f>IF(ISTEXT(master!F60),master!K60,"")</f>
         <v/>
       </c>
       <c r="B60" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C60" s="1">
-        <f>master!I60</f>
+        <f>master!L60</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="str">
-        <f>IF(ISTEXT(master!F61),master!H61,"")</f>
+        <f>IF(ISTEXT(master!F61),master!K61,"")</f>
         <v/>
       </c>
       <c r="B61" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C61" s="1">
-        <f>master!I61</f>
+        <f>master!L61</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="str">
-        <f>IF(ISTEXT(master!F62),master!H62,"")</f>
+        <f>IF(ISTEXT(master!F62),master!K62,"")</f>
         <v/>
       </c>
       <c r="B62" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C62" s="1">
-        <f>master!I62</f>
+        <f>master!L62</f>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="str">
-        <f>IF(ISTEXT(master!F63),master!H63,"")</f>
+        <f>IF(ISTEXT(master!F63),master!K63,"")</f>
         <v/>
       </c>
       <c r="B63" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C63" s="1">
-        <f>master!I63</f>
+        <f>master!L63</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="str">
-        <f>IF(ISTEXT(master!F64),master!H64,"")</f>
+        <f>IF(ISTEXT(master!F64),master!K64,"")</f>
         <v/>
       </c>
       <c r="B64" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C64" s="1">
-        <f>master!I64</f>
+        <f>master!L64</f>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="str">
-        <f>IF(ISTEXT(master!F65),master!H65,"")</f>
+        <f>IF(ISTEXT(master!F65),master!K65,"")</f>
         <v/>
       </c>
       <c r="B65" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C65" s="1">
-        <f>master!I65</f>
+        <f>master!L65</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="str">
-        <f>IF(ISTEXT(master!F66),master!H66,"")</f>
+        <f>IF(ISTEXT(master!F66),master!K66,"")</f>
         <v/>
       </c>
       <c r="B66" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C66" s="1">
-        <f>master!I66</f>
+        <f>master!L66</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="str">
-        <f>IF(ISTEXT(master!F67),master!H67,"")</f>
+        <f>IF(ISTEXT(master!F67),master!K67,"")</f>
         <v/>
       </c>
       <c r="B67" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C67" s="1">
-        <f>master!I67</f>
+        <f>master!L67</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="str">
-        <f>IF(ISTEXT(master!F68),master!H68,"")</f>
+        <f>IF(ISTEXT(master!F68),master!K68,"")</f>
         <v/>
       </c>
       <c r="B68" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C68" s="1">
-        <f>master!I68</f>
+        <f>master!L68</f>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="str">
-        <f>IF(ISTEXT(master!F69),master!H69,"")</f>
+        <f>IF(ISTEXT(master!F69),master!K69,"")</f>
         <v/>
       </c>
       <c r="B69" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C69" s="1">
-        <f>master!I69</f>
+        <f>master!L69</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="str">
-        <f>IF(ISTEXT(master!F70),master!H70,"")</f>
+        <f>IF(ISTEXT(master!F70),master!K70,"")</f>
         <v/>
       </c>
       <c r="B70" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C70" s="1">
-        <f>master!I70</f>
+        <f>master!L70</f>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="str">
-        <f>IF(ISTEXT(master!F71),master!H71,"")</f>
+        <f>IF(ISTEXT(master!F71),master!K71,"")</f>
         <v/>
       </c>
       <c r="B71" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C71" s="1">
-        <f>master!I71</f>
+        <f>master!L71</f>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="str">
-        <f>IF(ISTEXT(master!F72),master!H72,"")</f>
+        <f>IF(ISTEXT(master!F72),master!K72,"")</f>
         <v/>
       </c>
       <c r="B72" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C72" s="1">
-        <f>master!I72</f>
+        <f>master!L72</f>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="str">
-        <f>IF(ISTEXT(master!F73),master!H73,"")</f>
+        <f>IF(ISTEXT(master!F73),master!K73,"")</f>
         <v/>
       </c>
       <c r="B73" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C73" s="1">
-        <f>master!I73</f>
+        <f>master!L73</f>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="str">
-        <f>IF(ISTEXT(master!F74),master!H74,"")</f>
+        <f>IF(ISTEXT(master!F74),master!K74,"")</f>
         <v/>
       </c>
       <c r="B74" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C74" s="1">
-        <f>master!I74</f>
+        <f>master!L74</f>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="str">
-        <f>IF(ISTEXT(master!F75),master!H75,"")</f>
+        <f>IF(ISTEXT(master!F75),master!K75,"")</f>
         <v/>
       </c>
       <c r="B75" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C75" s="1">
-        <f>master!I75</f>
+        <f>master!L75</f>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="str">
-        <f>IF(ISTEXT(master!F76),master!H76,"")</f>
+        <f>IF(ISTEXT(master!F76),master!K76,"")</f>
         <v/>
       </c>
       <c r="B76" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C76" s="1">
-        <f>master!I76</f>
+        <f>master!L76</f>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="str">
-        <f>IF(ISTEXT(master!F77),master!H77,"")</f>
+        <f>IF(ISTEXT(master!F77),master!K77,"")</f>
         <v/>
       </c>
       <c r="B77" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C77" s="1">
-        <f>master!I77</f>
+        <f>master!L77</f>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="str">
-        <f>IF(ISTEXT(master!F78),master!H78,"")</f>
+        <f>IF(ISTEXT(master!F78),master!K78,"")</f>
         <v/>
       </c>
       <c r="B78" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C78" s="1">
-        <f>master!I78</f>
+        <f>master!L78</f>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="str">
-        <f>IF(ISTEXT(master!F79),master!H79,"")</f>
+        <f>IF(ISTEXT(master!F79),master!K79,"")</f>
         <v/>
       </c>
       <c r="B79" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C79" s="1">
-        <f>master!I79</f>
+        <f>master!L79</f>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="str">
-        <f>IF(ISTEXT(master!F80),master!H80,"")</f>
+        <f>IF(ISTEXT(master!F80),master!K80,"")</f>
         <v/>
       </c>
       <c r="B80" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C80" s="1">
-        <f>master!I80</f>
+        <f>master!L80</f>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="str">
-        <f>IF(ISTEXT(master!F81),master!H81,"")</f>
+        <f>IF(ISTEXT(master!F81),master!K81,"")</f>
         <v/>
       </c>
       <c r="B81" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C81" s="1">
-        <f>master!I81</f>
+        <f>master!L81</f>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="str">
-        <f>IF(ISTEXT(master!F82),master!H82,"")</f>
+        <f>IF(ISTEXT(master!F82),master!K82,"")</f>
         <v/>
       </c>
       <c r="B82" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C82" s="1">
-        <f>master!I82</f>
+        <f>master!L82</f>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="str">
-        <f>IF(ISTEXT(master!F83),master!H83,"")</f>
+        <f>IF(ISTEXT(master!F83),master!K83,"")</f>
         <v/>
       </c>
       <c r="B83" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C83" s="1">
-        <f>master!I83</f>
+        <f>master!L83</f>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="str">
-        <f>IF(ISTEXT(master!F84),master!H84,"")</f>
+        <f>IF(ISTEXT(master!F84),master!K84,"")</f>
         <v/>
       </c>
       <c r="B84" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C84" s="1">
-        <f>master!I84</f>
+        <f>master!L84</f>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="str">
-        <f>IF(ISTEXT(master!F85),master!H85,"")</f>
+        <f>IF(ISTEXT(master!F85),master!K85,"")</f>
         <v/>
       </c>
       <c r="B85" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C85" s="1">
-        <f>master!I85</f>
+        <f>master!L85</f>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="str">
-        <f>IF(ISTEXT(master!F86),master!H86,"")</f>
+        <f>IF(ISTEXT(master!F86),master!K86,"")</f>
         <v/>
       </c>
       <c r="B86" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C86" s="1">
-        <f>master!I86</f>
+        <f>master!L86</f>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="str">
-        <f>IF(ISTEXT(master!F87),master!H87,"")</f>
+        <f>IF(ISTEXT(master!F87),master!K87,"")</f>
         <v/>
       </c>
       <c r="B87" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C87" s="1">
-        <f>master!I87</f>
+        <f>master!L87</f>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="str">
-        <f>IF(ISTEXT(master!F88),master!H88,"")</f>
+        <f>IF(ISTEXT(master!F88),master!K88,"")</f>
         <v/>
       </c>
       <c r="B88" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C88" s="1">
-        <f>master!I88</f>
+        <f>master!L88</f>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="str">
-        <f>IF(ISTEXT(master!F89),master!H89,"")</f>
+        <f>IF(ISTEXT(master!F89),master!K89,"")</f>
         <v/>
       </c>
       <c r="B89" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C89" s="1">
-        <f>master!I89</f>
+        <f>master!L89</f>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="str">
-        <f>IF(ISTEXT(master!F90),master!H90,"")</f>
+        <f>IF(ISTEXT(master!F90),master!K90,"")</f>
         <v/>
       </c>
       <c r="B90" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C90" s="1">
-        <f>master!I90</f>
+        <f>master!L90</f>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="str">
-        <f>IF(ISTEXT(master!F91),master!H91,"")</f>
+        <f>IF(ISTEXT(master!F91),master!K91,"")</f>
         <v/>
       </c>
       <c r="B91" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C91" s="1">
-        <f>master!I91</f>
+        <f>master!L91</f>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="str">
-        <f>IF(ISTEXT(master!F92),master!H92,"")</f>
+        <f>IF(ISTEXT(master!F92),master!K92,"")</f>
         <v/>
       </c>
       <c r="B92" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C92" s="1">
-        <f>master!I92</f>
+        <f>master!L92</f>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="str">
-        <f>IF(ISTEXT(master!F93),master!H93,"")</f>
+        <f>IF(ISTEXT(master!F93),master!K93,"")</f>
         <v/>
       </c>
       <c r="B93" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C93" s="1">
-        <f>master!I93</f>
+        <f>master!L93</f>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="str">
-        <f>IF(ISTEXT(master!F94),master!H94,"")</f>
+        <f>IF(ISTEXT(master!F94),master!K94,"")</f>
         <v/>
       </c>
       <c r="B94" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C94" s="1">
-        <f>master!I94</f>
+        <f>master!L94</f>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="str">
-        <f>IF(ISTEXT(master!F95),master!H95,"")</f>
+        <f>IF(ISTEXT(master!F95),master!K95,"")</f>
         <v/>
       </c>
       <c r="B95" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C95" s="1">
-        <f>master!I95</f>
+        <f>master!L95</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="str">
-        <f>IF(ISTEXT(master!F96),master!H96,"")</f>
+        <f>IF(ISTEXT(master!F96),master!K96,"")</f>
         <v/>
       </c>
       <c r="B96" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C96" s="1">
-        <f>master!I96</f>
+        <f>master!L96</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="str">
-        <f>IF(ISTEXT(master!F97),master!H97,"")</f>
+        <f>IF(ISTEXT(master!F97),master!K97,"")</f>
         <v/>
       </c>
       <c r="B97" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C97" s="1">
-        <f>master!I97</f>
+        <f>master!L97</f>
         <v>0</v>
       </c>
     </row>
@@ -13387,6 +13454,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -13395,7 +13468,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FDAF843F15E65A4EA1FFB0CF193B74E3" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bd4433bf6f24a726161ac457e21002bf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e1a61fc9-c776-4dd1-85b5-f7d58768ba79" xmlns:ns4="3f421247-72bc-4b61-a591-0b56f96ae993" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7d66d7a13b7b51360e8b1c095fb39c19" ns3:_="" ns4:_="">
     <xsd:import namespace="e1a61fc9-c776-4dd1-85b5-f7d58768ba79"/>
@@ -13624,13 +13697,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0CD12B7-1FA3-4B61-BDAE-DF4259CEDD3F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="3f421247-72bc-4b61-a591-0b56f96ae993"/>
+    <ds:schemaRef ds:uri="e1a61fc9-c776-4dd1-85b5-f7d58768ba79"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79D86924-57C1-45D5-9E44-D526494DB02F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -13638,7 +13722,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E774FF9-2144-4DC7-8F36-E7E064C7C739}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13655,21 +13739,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0CD12B7-1FA3-4B61-BDAE-DF4259CEDD3F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="3f421247-72bc-4b61-a591-0b56f96ae993"/>
-    <ds:schemaRef ds:uri="e1a61fc9-c776-4dd1-85b5-f7d58768ba79"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>